--- a/data/AC5.MI.xlsx
+++ b/data/AC5.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24246180057526</t>
+    <t xml:space="preserve">1.24246168136597</t>
   </si>
   <si>
     <t xml:space="preserve">AC5.MI</t>
@@ -50,19 +50,19 @@
     <t xml:space="preserve">1.21931028366089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18689823150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21159303188324</t>
+    <t xml:space="preserve">1.18689811229706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21159327030182</t>
   </si>
   <si>
     <t xml:space="preserve">1.18766987323761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18844175338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19615864753723</t>
+    <t xml:space="preserve">1.18844151496887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19615876674652</t>
   </si>
   <si>
     <t xml:space="preserve">1.18149626255035</t>
@@ -71,31 +71,31 @@
     <t xml:space="preserve">1.17455077171326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08348822593689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02252280712128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0032297372818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07654285430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12593281269073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09429228305817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10355281829834</t>
+    <t xml:space="preserve">1.08348834514618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02252292633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00322997570038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07654297351837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12593269348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09429240226746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10355293750763</t>
   </si>
   <si>
     <t xml:space="preserve">1.14291036128998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11821532249451</t>
+    <t xml:space="preserve">1.1182154417038</t>
   </si>
   <si>
     <t xml:space="preserve">1.12361752986908</t>
@@ -104,31 +104,31 @@
     <t xml:space="preserve">1.11127007007599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1321063041687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11204183101654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10586822032928</t>
+    <t xml:space="preserve">1.13210642337799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11204171180725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10586810112</t>
   </si>
   <si>
     <t xml:space="preserve">1.02638137340546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975448131561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992425858974457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999371230602264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01789247989655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06805408000946</t>
+    <t xml:space="preserve">0.975448310375214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992425918579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999371290206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01789259910583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06805384159088</t>
   </si>
   <si>
     <t xml:space="preserve">1.05107629299164</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">1.04181575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04258739948273</t>
+    <t xml:space="preserve">1.04258728027344</t>
   </si>
   <si>
     <t xml:space="preserve">1.08811867237091</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">1.06110870838165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07345604896545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07036912441254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08040130138397</t>
+    <t xml:space="preserve">1.07345592975616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07036924362183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08040153980255</t>
   </si>
   <si>
     <t xml:space="preserve">1.10200953483582</t>
@@ -170,52 +170,52 @@
     <t xml:space="preserve">1.09969425201416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08425998687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10741150379181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08966183662415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09043371677399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09506416320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08580338954926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06651043891907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09197735786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11898744106293</t>
+    <t xml:space="preserve">1.08426010608673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1074116230011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08966207504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09043383598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09506404399872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08580350875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06651067733765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0919771194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11898732185364</t>
   </si>
   <si>
     <t xml:space="preserve">1.10432457923889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.126704454422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19152867794037</t>
+    <t xml:space="preserve">1.12670433521271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19152843952179</t>
   </si>
   <si>
     <t xml:space="preserve">1.19230020046234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17532229423523</t>
+    <t xml:space="preserve">1.17532241344452</t>
   </si>
   <si>
     <t xml:space="preserve">1.18072438240051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2802757024765</t>
+    <t xml:space="preserve">1.28027594089508</t>
   </si>
   <si>
     <t xml:space="preserve">1.26561319828033</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">1.22625577449799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23474454879761</t>
+    <t xml:space="preserve">1.2347446680069</t>
   </si>
   <si>
     <t xml:space="preserve">1.25017893314362</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">1.21004951000214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18921339511871</t>
+    <t xml:space="preserve">1.18921315670013</t>
   </si>
   <si>
     <t xml:space="preserve">1.25789594650269</t>
@@ -242,46 +242,46 @@
     <t xml:space="preserve">1.25635254383087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24323332309723</t>
+    <t xml:space="preserve">1.24323344230652</t>
   </si>
   <si>
     <t xml:space="preserve">1.23165774345398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23088598251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22316896915436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24014663696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27101516723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2679283618927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27950406074524</t>
+    <t xml:space="preserve">1.23088610172272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22316908836365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2401465177536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27101504802704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26792824268341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27950394153595</t>
   </si>
   <si>
     <t xml:space="preserve">1.29725348949432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31191599369049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31268799304962</t>
+    <t xml:space="preserve">1.31191623210907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31268763542175</t>
   </si>
   <si>
     <t xml:space="preserve">1.3065140247345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32503509521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32272028923035</t>
+    <t xml:space="preserve">1.32503521442413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32272005081177</t>
   </si>
   <si>
     <t xml:space="preserve">1.29571008682251</t>
@@ -293,37 +293,37 @@
     <t xml:space="preserve">1.32901465892792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28857338428497</t>
+    <t xml:space="preserve">1.28857350349426</t>
   </si>
   <si>
     <t xml:space="preserve">1.2869873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26002633571625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2631983757019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25923359394073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26081943511963</t>
+    <t xml:space="preserve">1.26002657413483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26319825649261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25923347473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26081955432892</t>
   </si>
   <si>
     <t xml:space="preserve">1.2520968914032</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24496006965637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25051081180573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23623728752136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21165549755096</t>
+    <t xml:space="preserve">1.24496018886566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25051093101501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23623740673065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2116551399231</t>
   </si>
   <si>
     <t xml:space="preserve">1.19341707229614</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">1.2409952878952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22354984283447</t>
+    <t xml:space="preserve">1.22354972362518</t>
   </si>
   <si>
     <t xml:space="preserve">1.21562016010284</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">1.22117102146149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16169846057892</t>
+    <t xml:space="preserve">1.16169834136963</t>
   </si>
   <si>
     <t xml:space="preserve">1.15773355960846</t>
@@ -356,10 +356,10 @@
     <t xml:space="preserve">1.22513580322266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21799921989441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2536826133728</t>
+    <t xml:space="preserve">1.21799898147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25368273258209</t>
   </si>
   <si>
     <t xml:space="preserve">1.28619432449341</t>
@@ -368,19 +368,19 @@
     <t xml:space="preserve">1.28064370155334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30839741230011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2766786813736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30443251132965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28222954273224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30522572994232</t>
+    <t xml:space="preserve">1.30839765071869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27667891979218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30443263053894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28222966194153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30522561073303</t>
   </si>
   <si>
     <t xml:space="preserve">1.27271401882172</t>
@@ -389,22 +389,22 @@
     <t xml:space="preserve">1.2846086025238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27350699901581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29253828525543</t>
+    <t xml:space="preserve">1.27350687980652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29253816604614</t>
   </si>
   <si>
     <t xml:space="preserve">1.30046784877777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29888200759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31632733345032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30760443210602</t>
+    <t xml:space="preserve">1.2988817691803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31632721424103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3076046705246</t>
   </si>
   <si>
     <t xml:space="preserve">1.31553435325623</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">1.32663571834564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35994064807892</t>
+    <t xml:space="preserve">1.35994052886963</t>
   </si>
   <si>
     <t xml:space="preserve">1.38928031921387</t>
@@ -431,40 +431,40 @@
     <t xml:space="preserve">1.42734277248383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41069042682648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40355384349823</t>
+    <t xml:space="preserve">1.41069054603577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40355372428894</t>
   </si>
   <si>
     <t xml:space="preserve">1.39958882331848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38531541824341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34804594516754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3639053106308</t>
+    <t xml:space="preserve">1.38531529903412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34804606437683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36390542984009</t>
   </si>
   <si>
     <t xml:space="preserve">1.37976467609406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36469805240631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36707723140717</t>
+    <t xml:space="preserve">1.3646981716156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36707711219788</t>
   </si>
   <si>
     <t xml:space="preserve">1.36787009239197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37500667572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34011614322662</t>
+    <t xml:space="preserve">1.3750067949295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3401163816452</t>
   </si>
   <si>
     <t xml:space="preserve">1.33377254009247</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">1.36945605278015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35121774673462</t>
+    <t xml:space="preserve">1.3512179851532</t>
   </si>
   <si>
     <t xml:space="preserve">1.32504975795746</t>
@@ -485,13 +485,13 @@
     <t xml:space="preserve">1.29967486858368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29650294780731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29333102703094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2758857011795</t>
+    <t xml:space="preserve">1.29650318622589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29333114624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27588593959808</t>
   </si>
   <si>
     <t xml:space="preserve">1.29729604721069</t>
@@ -503,22 +503,22 @@
     <t xml:space="preserve">1.29174518585205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27905762195587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2624055147171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.252889752388</t>
+    <t xml:space="preserve">1.27905774116516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26240527629852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25288987159729</t>
   </si>
   <si>
     <t xml:space="preserve">1.26637017726898</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2750928401947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29491698741913</t>
+    <t xml:space="preserve">1.27509272098541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29491710662842</t>
   </si>
   <si>
     <t xml:space="preserve">1.27826476097107</t>
@@ -527,64 +527,64 @@
     <t xml:space="preserve">1.28381550312042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27192103862762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26874911785126</t>
+    <t xml:space="preserve">1.27192091941833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26874923706055</t>
   </si>
   <si>
     <t xml:space="preserve">1.26557731628418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24178814888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23861658573151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20531177520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2291008234024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21324133872986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20610463619232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19817507266998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19183123111725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21641325950623</t>
+    <t xml:space="preserve">1.24178826808929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23861634731293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20531165599823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22910070419312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21324121952057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20610451698303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19817495346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19183111190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21641314029694</t>
   </si>
   <si>
     <t xml:space="preserve">1.20293271541595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2092764377594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23465156555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22196400165558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23940920829773</t>
+    <t xml:space="preserve">1.20927655696869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23465144634247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22196388244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23940932750702</t>
   </si>
   <si>
     <t xml:space="preserve">1.23703038692474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22989368438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.233065366745</t>
+    <t xml:space="preserve">1.22989356517792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23306560516357</t>
   </si>
   <si>
     <t xml:space="preserve">1.23782336711884</t>
@@ -593,25 +593,25 @@
     <t xml:space="preserve">1.29412400722504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27985072135925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27033507823944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2774715423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23385858535767</t>
+    <t xml:space="preserve">1.27985060214996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27033519744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27747178077698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23385846614838</t>
   </si>
   <si>
     <t xml:space="preserve">1.22830772399902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21720623970032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21958518028259</t>
+    <t xml:space="preserve">1.21720612049103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21958494186401</t>
   </si>
   <si>
     <t xml:space="preserve">1.21244835853577</t>
@@ -620,16 +620,16 @@
     <t xml:space="preserve">1.21879208087921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22037816047668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25606179237366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24892508983612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26478433609009</t>
+    <t xml:space="preserve">1.2203780412674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25606155395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24892497062683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26478445529938</t>
   </si>
   <si>
     <t xml:space="preserve">1.32584285736084</t>
@@ -638,25 +638,25 @@
     <t xml:space="preserve">1.32822179794312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36152625083923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35201072692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34408104419708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37183499336243</t>
+    <t xml:space="preserve">1.36152637004852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35201096534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34408116340637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37183511257172</t>
   </si>
   <si>
     <t xml:space="preserve">1.37421381473541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40593254566193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41782701015472</t>
+    <t xml:space="preserve">1.40593266487122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41782712936401</t>
   </si>
   <si>
     <t xml:space="preserve">1.40196776390076</t>
@@ -665,10 +665,10 @@
     <t xml:space="preserve">1.43527233600616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43447935581207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41941297054291</t>
+    <t xml:space="preserve">1.43447959423065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4194130897522</t>
   </si>
   <si>
     <t xml:space="preserve">1.43923735618591</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">1.3980028629303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40989756584167</t>
+    <t xml:space="preserve">1.40989744663239</t>
   </si>
   <si>
     <t xml:space="preserve">1.41148340702057</t>
@@ -692,13 +692,13 @@
     <t xml:space="preserve">1.4749208688736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45113170146942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45906138420105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50267469882965</t>
+    <t xml:space="preserve">1.45113182067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45906150341034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50267481803894</t>
   </si>
   <si>
     <t xml:space="preserve">1.48285043239594</t>
@@ -710,16 +710,16 @@
     <t xml:space="preserve">1.47333490848541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48919439315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52249896526337</t>
+    <t xml:space="preserve">1.48919427394867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52249884605408</t>
   </si>
   <si>
     <t xml:space="preserve">1.50663959980011</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51298320293427</t>
+    <t xml:space="preserve">1.51298332214355</t>
   </si>
   <si>
     <t xml:space="preserve">1.52884256839752</t>
@@ -731,13 +731,13 @@
     <t xml:space="preserve">1.4860223531723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50426054000854</t>
+    <t xml:space="preserve">1.50426065921783</t>
   </si>
   <si>
     <t xml:space="preserve">1.53765249252319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57104420661926</t>
+    <t xml:space="preserve">1.57104444503784</t>
   </si>
   <si>
     <t xml:space="preserve">1.62561142444611</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">1.69402384757996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71845674514771</t>
+    <t xml:space="preserve">1.71845686435699</t>
   </si>
   <si>
     <t xml:space="preserve">1.73963212966919</t>
@@ -758,28 +758,28 @@
     <t xml:space="preserve">1.64352881908417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63701355457306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61095178127289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60199284553528</t>
+    <t xml:space="preserve">1.63701343536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61095154285431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60199296474457</t>
   </si>
   <si>
     <t xml:space="preserve">1.61502373218536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59059083461761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59221982955933</t>
+    <t xml:space="preserve">1.59059071540833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59221971035004</t>
   </si>
   <si>
     <t xml:space="preserve">1.56371438503265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56534337997437</t>
+    <t xml:space="preserve">1.56534326076508</t>
   </si>
   <si>
     <t xml:space="preserve">1.55882787704468</t>
@@ -797,43 +797,43 @@
     <t xml:space="preserve">1.58000314235687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58081746101379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59466278553009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5743020772934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54742574691772</t>
+    <t xml:space="preserve">1.58081758022308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59466290473938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57430195808411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54742586612701</t>
   </si>
   <si>
     <t xml:space="preserve">1.53683805465698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54905450344086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53928124904633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5449823141098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53520917892456</t>
+    <t xml:space="preserve">1.54905462265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53928136825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54498255252838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53520929813385</t>
   </si>
   <si>
     <t xml:space="preserve">1.54416799545288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56452894210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60036408901215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61665260791779</t>
+    <t xml:space="preserve">1.56452882289886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60036396980286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61665272712708</t>
   </si>
   <si>
     <t xml:space="preserve">1.5889618396759</t>
@@ -842,13 +842,13 @@
     <t xml:space="preserve">1.58814740180969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61583805084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61258041858673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64515781402588</t>
+    <t xml:space="preserve">1.61583828926086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61258053779602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64515769481659</t>
   </si>
   <si>
     <t xml:space="preserve">1.63538455963135</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">1.64841544628143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61828148365021</t>
+    <t xml:space="preserve">1.6182816028595</t>
   </si>
   <si>
     <t xml:space="preserve">1.62398254871368</t>
@@ -881,13 +881,13 @@
     <t xml:space="preserve">1.65330219268799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62153947353363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63375568389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67773509025574</t>
+    <t xml:space="preserve">1.62153923511505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63375580310822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67773520946503</t>
   </si>
   <si>
     <t xml:space="preserve">1.60606503486633</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">1.59303402900696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60280728340149</t>
+    <t xml:space="preserve">1.6028071641922</t>
   </si>
   <si>
     <t xml:space="preserve">1.65981769561768</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">1.65655982494354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64027118682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68099284172058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69565272331238</t>
+    <t xml:space="preserve">1.64027106761932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68099296092987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69565284252167</t>
   </si>
   <si>
     <t xml:space="preserve">1.68587946891785</t>
@@ -923,49 +923,49 @@
     <t xml:space="preserve">1.81618893146515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79501366615295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83247768878937</t>
+    <t xml:space="preserve">1.79501378536224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83247792720795</t>
   </si>
   <si>
     <t xml:space="preserve">1.84876644611359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86342644691467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79175615310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81944668292999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80641579627991</t>
+    <t xml:space="preserve">1.86342620849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7917560338974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81944680213928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80641567707062</t>
   </si>
   <si>
     <t xml:space="preserve">1.80804479122162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81781792640686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80967342853546</t>
+    <t xml:space="preserve">1.81781804561615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80967354774475</t>
   </si>
   <si>
     <t xml:space="preserve">1.81130254268646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82922029495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82759130001068</t>
+    <t xml:space="preserve">1.82922005653381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8275910615921</t>
   </si>
   <si>
     <t xml:space="preserve">1.79827153682709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77546739578247</t>
+    <t xml:space="preserve">1.77546727657318</t>
   </si>
   <si>
     <t xml:space="preserve">1.78361177444458</t>
@@ -977,70 +977,70 @@
     <t xml:space="preserve">1.95138537883759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96441614627838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94161212444305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94975638389587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99536490440369</t>
+    <t xml:space="preserve">1.9644159078598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94161224365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94975662231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99536466598511</t>
   </si>
   <si>
     <t xml:space="preserve">2.01979780197144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99210715293884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9139209985733</t>
+    <t xml:space="preserve">1.99210691452026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91392135620117</t>
   </si>
   <si>
     <t xml:space="preserve">1.85528206825256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7999005317688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90903472900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9236946105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98722064495087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95627188682556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97418940067291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87319946289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88623046875</t>
+    <t xml:space="preserve">1.79990029335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90903460979462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92369437217712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98722040653229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95627164840698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97418963909149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87319958209991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88623058795929</t>
   </si>
   <si>
     <t xml:space="preserve">1.86994183063507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89763236045837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86668431758881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84387969970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8357355594635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82433342933655</t>
+    <t xml:space="preserve">1.89763259887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86668395996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84387981891632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83573567867279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82433331012726</t>
   </si>
   <si>
     <t xml:space="preserve">1.77383840084076</t>
@@ -1049,31 +1049,31 @@
     <t xml:space="preserve">1.80315804481506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86831271648407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86179733276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90414798259735</t>
+    <t xml:space="preserve">1.86831283569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86179745197296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90414810180664</t>
   </si>
   <si>
     <t xml:space="preserve">1.87971496582031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88460147380829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88134396076202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8569108247757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9302099943161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90577673912048</t>
+    <t xml:space="preserve">1.88460159301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88134384155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85691094398499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93021011352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90577697753906</t>
   </si>
   <si>
     <t xml:space="preserve">1.97093188762665</t>
@@ -1082,58 +1082,61 @@
     <t xml:space="preserve">1.97907614707947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95464324951172</t>
+    <t xml:space="preserve">1.95464313030243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03608655929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04423117637634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96278738975525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94649887084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92206573486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9383544921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01165342330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00350880622864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04439687728882</t>
   </si>
   <si>
     <t xml:space="preserve">2.03608632087708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04423069953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96278738975525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94649863243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92206573486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9383544921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01165342330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00350880622864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0443971157074</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.05270743370056</t>
   </si>
   <si>
     <t xml:space="preserve">2.0028440952301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01946520805359</t>
+    <t xml:space="preserve">2.01946544647217</t>
   </si>
   <si>
     <t xml:space="preserve">1.96960198879242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96129131317139</t>
+    <t xml:space="preserve">1.96129155158997</t>
   </si>
   <si>
     <t xml:space="preserve">2.06101822853088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98622298240662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95298075675964</t>
+    <t xml:space="preserve">1.9862232208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95298099517822</t>
   </si>
   <si>
     <t xml:space="preserve">1.90311765670776</t>
@@ -1142,34 +1145,34 @@
     <t xml:space="preserve">1.84494376182556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91142797470093</t>
+    <t xml:space="preserve">1.91142809391022</t>
   </si>
   <si>
     <t xml:space="preserve">1.82001197338104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83663320541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8117014169693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89480698108673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7950804233551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77845919132233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71197462081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80339086055756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76183807849884</t>
+    <t xml:space="preserve">1.83663296699524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81170129776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89480710029602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79508018493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77845907211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71197474002838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80339074134827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76183795928955</t>
   </si>
   <si>
     <t xml:space="preserve">1.70366418361664</t>
@@ -1184,16 +1187,16 @@
     <t xml:space="preserve">1.61224806308746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5332977771759</t>
+    <t xml:space="preserve">1.53329789638519</t>
   </si>
   <si>
     <t xml:space="preserve">1.52914249897003</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48758959770203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46265804767609</t>
+    <t xml:space="preserve">1.48758971691132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4626579284668</t>
   </si>
   <si>
     <t xml:space="preserve">1.49590015411377</t>
@@ -1202,40 +1205,40 @@
     <t xml:space="preserve">1.50836622714996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48343431949615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51667666435242</t>
+    <t xml:space="preserve">1.48343443870544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51667678356171</t>
   </si>
   <si>
     <t xml:space="preserve">1.47096860408783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46681320667267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45434749126434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41279470920563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38786292076111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37539720535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35877597332001</t>
+    <t xml:space="preserve">1.46681332588196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45434761047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41279482841492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3878630399704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37539708614349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3587760925293</t>
   </si>
   <si>
     <t xml:space="preserve">1.35046553611755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36293125152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40448403358459</t>
+    <t xml:space="preserve">1.36293137073517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40448415279388</t>
   </si>
   <si>
     <t xml:space="preserve">1.39617347717285</t>
@@ -1244,40 +1247,40 @@
     <t xml:space="preserve">1.40863943099976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40032875537872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4294159412384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41694986820221</t>
+    <t xml:space="preserve">1.40032887458801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42941582202911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4169499874115</t>
   </si>
   <si>
     <t xml:space="preserve">1.44188165664673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45019209384918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44603681564331</t>
+    <t xml:space="preserve">1.45019221305847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4460369348526</t>
   </si>
   <si>
     <t xml:space="preserve">1.42526054382324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51252126693726</t>
+    <t xml:space="preserve">1.51252150535583</t>
   </si>
   <si>
     <t xml:space="preserve">1.50005543231964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.520831823349</t>
+    <t xml:space="preserve">1.52083194255829</t>
   </si>
   <si>
     <t xml:space="preserve">1.4751238822937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47927904129028</t>
+    <t xml:space="preserve">1.47927916049957</t>
   </si>
   <si>
     <t xml:space="preserve">1.55407404899597</t>
@@ -1286,19 +1289,19 @@
     <t xml:space="preserve">1.4917448759079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50421071052551</t>
+    <t xml:space="preserve">1.5042108297348</t>
   </si>
   <si>
     <t xml:space="preserve">1.45850276947021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43772625923157</t>
+    <t xml:space="preserve">1.43772637844086</t>
   </si>
   <si>
     <t xml:space="preserve">1.37955236434937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43357086181641</t>
+    <t xml:space="preserve">1.4335709810257</t>
   </si>
   <si>
     <t xml:space="preserve">1.49191403388977</t>
@@ -1310,7 +1313,7 @@
     <t xml:space="preserve">1.47461652755737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.440021276474</t>
+    <t xml:space="preserve">1.44002139568329</t>
   </si>
   <si>
     <t xml:space="preserve">1.46596777439117</t>
@@ -1319,13 +1322,13 @@
     <t xml:space="preserve">1.45731890201569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47894084453583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51353597640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53083348274231</t>
+    <t xml:space="preserve">1.47894096374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5135360956192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5308336019516</t>
   </si>
   <si>
     <t xml:space="preserve">1.51786029338837</t>
@@ -1343,10 +1346,10 @@
     <t xml:space="preserve">1.62164568901062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63461875915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63894319534302</t>
+    <t xml:space="preserve">1.63461887836456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63894331455231</t>
   </si>
   <si>
     <t xml:space="preserve">1.61732125282288</t>
@@ -1355,37 +1358,34 @@
     <t xml:space="preserve">1.58705067634583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62597000598907</t>
+    <t xml:space="preserve">1.62597012519836</t>
   </si>
   <si>
     <t xml:space="preserve">1.56542861461639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57407736778259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55677974224091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54380667209625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53948223590851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5221848487854</t>
+    <t xml:space="preserve">1.57407748699188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5567798614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54380679130554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5394823551178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52218472957611</t>
   </si>
   <si>
     <t xml:space="preserve">1.50921165943146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50056278705597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54813098907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48758971691132</t>
+    <t xml:space="preserve">1.50056290626526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.548131108284</t>
   </si>
   <si>
     <t xml:space="preserve">1.48326528072357</t>
@@ -1394,37 +1394,37 @@
     <t xml:space="preserve">1.47029221057892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46164321899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60867249965668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60002374649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58272612094879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61299693584442</t>
+    <t xml:space="preserve">1.46164333820343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60867261886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60002386569977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58272624015808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61299705505371</t>
   </si>
   <si>
     <t xml:space="preserve">1.64759194850922</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64326763153076</t>
+    <t xml:space="preserve">1.64326775074005</t>
   </si>
   <si>
     <t xml:space="preserve">1.69083595275879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72975528240204</t>
+    <t xml:space="preserve">1.72975540161133</t>
   </si>
   <si>
     <t xml:space="preserve">1.69516026973724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66921389102936</t>
+    <t xml:space="preserve">1.66921401023865</t>
   </si>
   <si>
     <t xml:space="preserve">1.66056513786316</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">1.68651163578033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67786276340485</t>
+    <t xml:space="preserve">1.67786288261414</t>
   </si>
   <si>
     <t xml:space="preserve">1.6648895740509</t>
@@ -1448,13 +1448,13 @@
     <t xml:space="preserve">1.6735383272171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6821870803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65191626548767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70380902290344</t>
+    <t xml:space="preserve">1.68218719959259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65191638469696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70380914211273</t>
   </si>
   <si>
     <t xml:space="preserve">1.8162430524826</t>
@@ -1463,7 +1463,7 @@
     <t xml:space="preserve">2.02381372451782</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04111123085022</t>
+    <t xml:space="preserve">2.0411114692688</t>
   </si>
   <si>
     <t xml:space="preserve">2.11030173301697</t>
@@ -1472,10 +1472,10 @@
     <t xml:space="preserve">2.33516979217529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23138427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3438184261322</t>
+    <t xml:space="preserve">2.23138451576233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34381866455078</t>
   </si>
   <si>
     <t xml:space="preserve">2.38706231117249</t>
@@ -1487,19 +1487,19 @@
     <t xml:space="preserve">2.41300868988037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3611159324646</t>
+    <t xml:space="preserve">2.36111617088318</t>
   </si>
   <si>
     <t xml:space="preserve">2.42165756225586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29192590713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15354537963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97192108631134</t>
+    <t xml:space="preserve">2.29192614555359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15354561805725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97192132472992</t>
   </si>
   <si>
     <t xml:space="preserve">1.98057007789612</t>
@@ -1514,37 +1514,37 @@
     <t xml:space="preserve">1.77299928665161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56975305080414</t>
+    <t xml:space="preserve">1.56975317001343</t>
   </si>
   <si>
     <t xml:space="preserve">1.72543108463287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86813604831696</t>
+    <t xml:space="preserve">1.86813580989838</t>
   </si>
   <si>
     <t xml:space="preserve">1.76435053348541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78164792060852</t>
+    <t xml:space="preserve">1.78164803981781</t>
   </si>
   <si>
     <t xml:space="preserve">1.8248918056488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73840427398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79894554615021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7902969121933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89408206939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85948705673218</t>
+    <t xml:space="preserve">1.73840415477753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7989456653595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79029679298401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89408218860626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85948717594147</t>
   </si>
   <si>
     <t xml:space="preserve">1.75570178031921</t>
@@ -1556,10 +1556,10 @@
     <t xml:space="preserve">1.74705290794373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83354079723358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90273118019104</t>
+    <t xml:space="preserve">1.83354067802429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90273094177246</t>
   </si>
   <si>
     <t xml:space="preserve">1.91137969493866</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">2.11895036697388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08435559272766</t>
+    <t xml:space="preserve">2.08435535430908</t>
   </si>
   <si>
     <t xml:space="preserve">2.11000943183899</t>
@@ -1589,10 +1589,10 @@
     <t xml:space="preserve">1.99378025531769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96695828437805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94013607501984</t>
+    <t xml:space="preserve">1.96695804595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94013595581055</t>
   </si>
   <si>
     <t xml:space="preserve">1.90437316894531</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">1.94907665252686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92225456237793</t>
+    <t xml:space="preserve">1.92225468158722</t>
   </si>
   <si>
     <t xml:space="preserve">1.91331386566162</t>
@@ -1610,22 +1610,22 @@
     <t xml:space="preserve">1.88649141788483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93119537830353</t>
+    <t xml:space="preserve">1.93119525909424</t>
   </si>
   <si>
     <t xml:space="preserve">1.87755084037781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89543235301971</t>
+    <t xml:space="preserve">1.89543223381042</t>
   </si>
   <si>
     <t xml:space="preserve">1.8596693277359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84178793430328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82390654087067</t>
+    <t xml:space="preserve">1.84178805351257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82390642166138</t>
   </si>
   <si>
     <t xml:space="preserve">1.81496584415436</t>
@@ -1637,13 +1637,13 @@
     <t xml:space="preserve">1.79708456993103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85072875022888</t>
+    <t xml:space="preserve">1.85072863101959</t>
   </si>
   <si>
     <t xml:space="preserve">1.83284735679626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8686101436615</t>
+    <t xml:space="preserve">1.86861026287079</t>
   </si>
   <si>
     <t xml:space="preserve">1.78814363479614</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">1.77026236057281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76132154464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76579201221466</t>
+    <t xml:space="preserve">1.76132166385651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76579189300537</t>
   </si>
   <si>
     <t xml:space="preserve">1.7434401512146</t>
@@ -1694,10 +1694,10 @@
     <t xml:space="preserve">2.09212803840637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18153548240662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15471339225769</t>
+    <t xml:space="preserve">2.18153524398804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15471315383911</t>
   </si>
   <si>
     <t xml:space="preserve">2.13683176040649</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">2.37823128700256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36034989356995</t>
+    <t xml:space="preserve">2.36035013198853</t>
   </si>
   <si>
     <t xml:space="preserve">2.35140895843506</t>
@@ -1721,16 +1721,16 @@
     <t xml:space="preserve">2.34246802330017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32458686828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37878966331482</t>
+    <t xml:space="preserve">2.32458662986755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3787899017334</t>
   </si>
   <si>
     <t xml:space="preserve">2.36034965515137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36956977844238</t>
+    <t xml:space="preserve">2.3695695400238</t>
   </si>
   <si>
     <t xml:space="preserve">2.33268928527832</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">2.2128279209137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22204804420471</t>
+    <t xml:space="preserve">2.22204780578613</t>
   </si>
   <si>
     <t xml:space="preserve">2.07452607154846</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">2.13906693458557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24970841407776</t>
+    <t xml:space="preserve">2.24970817565918</t>
   </si>
   <si>
     <t xml:space="preserve">2.28658890724182</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">2.3234691619873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34190940856934</t>
+    <t xml:space="preserve">2.34190917015076</t>
   </si>
   <si>
     <t xml:space="preserve">2.31424903869629</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">2.05608582496643</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02842569351196</t>
+    <t xml:space="preserve">2.02842545509338</t>
   </si>
   <si>
     <t xml:space="preserve">2.08374619483948</t>
@@ -18884,7 +18884,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G634" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18910,7 +18910,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G635" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18936,7 +18936,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G636" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18962,7 +18962,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G637" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18988,7 +18988,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G638" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19092,7 +19092,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G642" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19118,7 +19118,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G643" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19170,7 +19170,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G645" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19196,7 +19196,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G646" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19222,7 +19222,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G647" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19248,7 +19248,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G648" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19274,7 +19274,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G649" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19300,7 +19300,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G650" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19326,7 +19326,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G651" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19378,7 +19378,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G653" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19404,7 +19404,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G654" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19560,7 +19560,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G660" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19586,7 +19586,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G661" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19612,7 +19612,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G662" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19664,7 +19664,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G664" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19690,7 +19690,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G665" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19794,7 +19794,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G669" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19846,7 +19846,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G671" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20028,7 +20028,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G678" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20158,7 +20158,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G683" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20184,7 +20184,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G684" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20210,7 +20210,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G685" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20236,7 +20236,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G686" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20262,7 +20262,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G687" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20470,7 +20470,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G695" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20496,7 +20496,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G696" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20704,7 +20704,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G704" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20808,7 +20808,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G708" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20834,7 +20834,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G709" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20990,7 +20990,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G715" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21016,7 +21016,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G716" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21042,7 +21042,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G717" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21068,7 +21068,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G718" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21094,7 +21094,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G719" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21120,7 +21120,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G720" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21146,7 +21146,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G721" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21172,7 +21172,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G722" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21198,7 +21198,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G723" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21224,7 +21224,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G724" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21250,7 +21250,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G725" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21276,7 +21276,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G726" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21302,7 +21302,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G727" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21328,7 +21328,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G728" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21354,7 +21354,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G729" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21380,7 +21380,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G730" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21406,7 +21406,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G731" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21432,7 +21432,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G732" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21458,7 +21458,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G733" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21484,7 +21484,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G734" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21510,7 +21510,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G735" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21536,7 +21536,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G736" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21562,7 +21562,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G737" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21588,7 +21588,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G738" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21614,7 +21614,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G739" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21640,7 +21640,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G740" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21666,7 +21666,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G741" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21692,7 +21692,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G742" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21718,7 +21718,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G743" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21744,7 +21744,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G744" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21770,7 +21770,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G745" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21796,7 +21796,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G746" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21822,7 +21822,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G747" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21848,7 +21848,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G748" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21874,7 +21874,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G749" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21900,7 +21900,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G750" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21926,7 +21926,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G751" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21952,7 +21952,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G752" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21978,7 +21978,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G753" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22004,7 +22004,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G754" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22030,7 +22030,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G755" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22056,7 +22056,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G756" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22082,7 +22082,7 @@
         <v>1.75</v>
       </c>
       <c r="G757" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22108,7 +22108,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G758" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22134,7 +22134,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G759" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22160,7 +22160,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G760" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22186,7 +22186,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G761" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22212,7 +22212,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G762" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22238,7 +22238,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G763" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22264,7 +22264,7 @@
         <v>1.63499999046326</v>
       </c>
       <c r="G764" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22290,7 +22290,7 @@
         <v>1.625</v>
       </c>
       <c r="G765" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22316,7 +22316,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G766" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22342,7 +22342,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G767" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22368,7 +22368,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G768" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22394,7 +22394,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G769" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22420,7 +22420,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G770" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22446,7 +22446,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G771" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22472,7 +22472,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G772" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22498,7 +22498,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G773" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22524,7 +22524,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G774" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22550,7 +22550,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G775" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22576,7 +22576,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G776" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22602,7 +22602,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G777" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22628,7 +22628,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G778" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22654,7 +22654,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G779" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22680,7 +22680,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G780" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22706,7 +22706,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G781" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22732,7 +22732,7 @@
         <v>1.68499994277954</v>
       </c>
       <c r="G782" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22758,7 +22758,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G783" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22784,7 +22784,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G784" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22810,7 +22810,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G785" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22836,7 +22836,7 @@
         <v>1.75</v>
       </c>
       <c r="G786" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22862,7 +22862,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G787" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22888,7 +22888,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G788" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22914,7 +22914,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G789" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22940,7 +22940,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G790" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22966,7 +22966,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G791" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22992,7 +22992,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G792" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23018,7 +23018,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G793" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23044,7 +23044,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G794" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23070,7 +23070,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G795" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23096,7 +23096,7 @@
         <v>1.75</v>
       </c>
       <c r="G796" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23122,7 +23122,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G797" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23148,7 +23148,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G798" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23174,7 +23174,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G799" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23200,7 +23200,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G800" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23226,7 +23226,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G801" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23252,7 +23252,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G802" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23278,7 +23278,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G803" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23304,7 +23304,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G804" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23330,7 +23330,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G805" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23356,7 +23356,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G806" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23382,7 +23382,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G807" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23408,7 +23408,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G808" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23434,7 +23434,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G809" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23460,7 +23460,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G810" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23486,7 +23486,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G811" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23512,7 +23512,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G812" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23538,7 +23538,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G813" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23564,7 +23564,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G814" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23590,7 +23590,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G815" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23616,7 +23616,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G816" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23642,7 +23642,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G817" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23668,7 +23668,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G818" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23694,7 +23694,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G819" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23720,7 +23720,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G820" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23746,7 +23746,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G821" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23772,7 +23772,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G822" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23798,7 +23798,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G823" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23824,7 +23824,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G824" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23850,7 +23850,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G825" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23876,7 +23876,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G826" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23902,7 +23902,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G827" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23928,7 +23928,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G828" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23954,7 +23954,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G829" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23980,7 +23980,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G830" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24006,7 +24006,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G831" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24032,7 +24032,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G832" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24058,7 +24058,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G833" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24084,7 +24084,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G834" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24110,7 +24110,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G835" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24136,7 +24136,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G836" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24162,7 +24162,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G837" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24188,7 +24188,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G838" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24214,7 +24214,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G839" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24240,7 +24240,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G840" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24266,7 +24266,7 @@
         <v>1.75</v>
       </c>
       <c r="G841" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24292,7 +24292,7 @@
         <v>1.75</v>
       </c>
       <c r="G842" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24318,7 +24318,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G843" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24344,7 +24344,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G844" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24370,7 +24370,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G845" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24396,7 +24396,7 @@
         <v>1.75</v>
       </c>
       <c r="G846" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24422,7 +24422,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G847" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24448,7 +24448,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G848" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24474,7 +24474,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G849" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24500,7 +24500,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G850" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24526,7 +24526,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G851" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24552,7 +24552,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G852" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24578,7 +24578,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G853" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24604,7 +24604,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G854" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24630,7 +24630,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24656,7 +24656,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G856" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24682,7 +24682,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G857" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24708,7 +24708,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G858" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24734,7 +24734,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G859" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24760,7 +24760,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G860" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24786,7 +24786,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G861" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24812,7 +24812,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G862" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24838,7 +24838,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G863" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24864,7 +24864,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G864" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24890,7 +24890,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G865" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24916,7 +24916,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G866" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24942,7 +24942,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G867" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24968,7 +24968,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G868" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24994,7 +24994,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G869" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25020,7 +25020,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G870" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25046,7 +25046,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G871" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25072,7 +25072,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G872" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25098,7 +25098,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G873" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25124,7 +25124,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G874" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25150,7 +25150,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G875" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25176,7 +25176,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G876" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25202,7 +25202,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G877" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25228,7 +25228,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G878" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25254,7 +25254,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G879" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25280,7 +25280,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G880" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25306,7 +25306,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G881" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25332,7 +25332,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G882" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25358,7 +25358,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G883" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25384,7 +25384,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G884" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25410,7 +25410,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G885" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25436,7 +25436,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G886" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25462,7 +25462,7 @@
         <v>1.66499996185303</v>
       </c>
       <c r="G887" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25488,7 +25488,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G888" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25514,7 +25514,7 @@
         <v>1.68499994277954</v>
       </c>
       <c r="G889" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25540,7 +25540,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G890" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25566,7 +25566,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G891" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25592,7 +25592,7 @@
         <v>1.75</v>
       </c>
       <c r="G892" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25618,7 +25618,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G893" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25644,7 +25644,7 @@
         <v>1.75</v>
       </c>
       <c r="G894" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25670,7 +25670,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G895" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25696,7 +25696,7 @@
         <v>1.75</v>
       </c>
       <c r="G896" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25722,7 +25722,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G897" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25748,7 +25748,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G898" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25774,7 +25774,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G899" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25800,7 +25800,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G900" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25826,7 +25826,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G901" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25852,7 +25852,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G902" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25878,7 +25878,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G903" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25904,7 +25904,7 @@
         <v>1.875</v>
       </c>
       <c r="G904" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25930,7 +25930,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G905" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25956,7 +25956,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G906" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25982,7 +25982,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G907" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26008,7 +26008,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G908" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26034,7 +26034,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G909" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26060,7 +26060,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G910" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26086,7 +26086,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26112,7 +26112,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G912" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26138,7 +26138,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G913" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26164,7 +26164,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G914" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26190,7 +26190,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G915" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26216,7 +26216,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G916" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26242,7 +26242,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G917" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26268,7 +26268,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G918" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26294,7 +26294,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G919" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26320,7 +26320,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G920" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26346,7 +26346,7 @@
         <v>1.75</v>
       </c>
       <c r="G921" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26372,7 +26372,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G922" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26398,7 +26398,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G923" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26424,7 +26424,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G924" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26450,7 +26450,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G925" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26476,7 +26476,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G926" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26502,7 +26502,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G927" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26528,7 +26528,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G928" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26554,7 +26554,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G929" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26580,7 +26580,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G930" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26606,7 +26606,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G931" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26632,7 +26632,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G932" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26658,7 +26658,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G933" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26684,7 +26684,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G934" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26710,7 +26710,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G935" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26736,7 +26736,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G936" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26762,7 +26762,7 @@
         <v>1.75</v>
       </c>
       <c r="G937" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26788,7 +26788,7 @@
         <v>1.75</v>
       </c>
       <c r="G938" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26814,7 +26814,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G939" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26840,7 +26840,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G940" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26866,7 +26866,7 @@
         <v>1.75</v>
       </c>
       <c r="G941" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26892,7 +26892,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G942" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26918,7 +26918,7 @@
         <v>1.75</v>
       </c>
       <c r="G943" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26944,7 +26944,7 @@
         <v>1.75</v>
       </c>
       <c r="G944" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26970,7 +26970,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26996,7 +26996,7 @@
         <v>1.75</v>
       </c>
       <c r="G946" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27022,7 +27022,7 @@
         <v>1.75</v>
       </c>
       <c r="G947" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27048,7 +27048,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G948" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27074,7 +27074,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G949" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27126,7 +27126,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G951" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27178,7 +27178,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G953" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27204,7 +27204,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G954" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27230,7 +27230,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G955" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27308,7 +27308,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G958" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -27334,7 +27334,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G959" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27360,7 +27360,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G960" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -27386,7 +27386,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G961" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27464,7 +27464,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G964" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27490,7 +27490,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G965" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27516,7 +27516,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G966" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27542,7 +27542,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G967" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27620,7 +27620,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G970" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27646,7 +27646,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G971" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27672,7 +27672,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G972" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27698,7 +27698,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G973" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27750,7 +27750,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G975" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27776,7 +27776,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G976" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27802,7 +27802,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G977" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27828,7 +27828,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G978" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27854,7 +27854,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G979" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27932,7 +27932,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G982" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27958,7 +27958,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G983" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27984,7 +27984,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G984" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28010,7 +28010,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G985" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28088,7 +28088,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G988" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28114,7 +28114,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G989" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28140,7 +28140,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G990" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28166,7 +28166,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G991" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28244,7 +28244,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G994" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28322,7 +28322,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G997" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28452,7 +28452,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1002" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -28504,7 +28504,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1004" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -28530,7 +28530,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1005" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -28608,7 +28608,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1008" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28738,7 +28738,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G1013" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28894,7 +28894,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1019" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28920,7 +28920,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1020" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -30038,7 +30038,7 @@
         <v>1.75</v>
       </c>
       <c r="G1063" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30064,7 +30064,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1064" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30168,7 +30168,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G1068" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30272,7 +30272,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1072" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -30298,7 +30298,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G1073" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30324,7 +30324,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G1074" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -30350,7 +30350,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G1075" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -30428,7 +30428,7 @@
         <v>1.75</v>
       </c>
       <c r="G1078" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -30454,7 +30454,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1079" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -30480,7 +30480,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G1080" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -58100,7 +58100,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.5962268518</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>7616</v>
@@ -58121,6 +58121,32 @@
         <v>647</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.5760069444</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>3555</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>2.00999999046326</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>647</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AC5.MI.xlsx
+++ b/data/AC5.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24246168136597</t>
+    <t xml:space="preserve">1.24246180057526</t>
   </si>
   <si>
     <t xml:space="preserve">AC5.MI</t>
@@ -47,91 +47,91 @@
     <t xml:space="preserve">1.22008192539215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21931028366089</t>
+    <t xml:space="preserve">1.2193101644516</t>
   </si>
   <si>
     <t xml:space="preserve">1.18689811229706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21159327030182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18766987323761</t>
+    <t xml:space="preserve">1.21159315109253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1876699924469</t>
   </si>
   <si>
     <t xml:space="preserve">1.18844151496887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19615876674652</t>
+    <t xml:space="preserve">1.19615864753723</t>
   </si>
   <si>
     <t xml:space="preserve">1.18149626255035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17455077171326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08348834514618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02252292633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00322997570038</t>
+    <t xml:space="preserve">1.17455089092255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08348822593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02252280712128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00322985649109</t>
   </si>
   <si>
     <t xml:space="preserve">1.07654297351837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12593269348145</t>
+    <t xml:space="preserve">1.12593257427216</t>
   </si>
   <si>
     <t xml:space="preserve">1.09429240226746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10355293750763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14291036128998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1182154417038</t>
+    <t xml:space="preserve">1.10355281829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14291024208069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11821556091309</t>
   </si>
   <si>
     <t xml:space="preserve">1.12361752986908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11127007007599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13210642337799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11204171180725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10586810112</t>
+    <t xml:space="preserve">1.11127018928528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13210654258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11204195022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10586786270142</t>
   </si>
   <si>
     <t xml:space="preserve">1.02638137340546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975448310375214</t>
+    <t xml:space="preserve">0.975448191165924</t>
   </si>
   <si>
     <t xml:space="preserve">0.992425918579102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999371290206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01789259910583</t>
+    <t xml:space="preserve">0.999371349811554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01789247989655</t>
   </si>
   <si>
     <t xml:space="preserve">1.06805384159088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05107629299164</t>
+    <t xml:space="preserve">1.05107641220093</t>
   </si>
   <si>
     <t xml:space="preserve">1.04181575775146</t>
@@ -140,130 +140,130 @@
     <t xml:space="preserve">1.04258728027344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08811867237091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08117318153381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07191264629364</t>
+    <t xml:space="preserve">1.08811855316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0811733007431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07191276550293</t>
   </si>
   <si>
     <t xml:space="preserve">1.07422769069672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06110870838165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07345592975616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07036924362183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08040153980255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10200953483582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09969425201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08426010608673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1074116230011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08966207504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09043383598328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09506404399872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08580350875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06651067733765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0919771194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11898732185364</t>
+    <t xml:space="preserve">1.06110858917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07345604896545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07036912441254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08040130138397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10200941562653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09969437122345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08425998687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10741150379181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08966219425201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09043371677399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09506416320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08580338954926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06651055812836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09197723865509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11898720264435</t>
   </si>
   <si>
     <t xml:space="preserve">1.10432457923889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12670433521271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19152843952179</t>
+    <t xml:space="preserve">1.126704454422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19152855873108</t>
   </si>
   <si>
     <t xml:space="preserve">1.19230020046234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17532241344452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18072438240051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28027594089508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26561319828033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22625577449799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2347446680069</t>
+    <t xml:space="preserve">1.17532229423523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1807245016098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28027582168579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26561307907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2262556552887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23474454879761</t>
   </si>
   <si>
     <t xml:space="preserve">1.25017893314362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21004951000214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18921315670013</t>
+    <t xml:space="preserve">1.21004974842072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18921339511871</t>
   </si>
   <si>
     <t xml:space="preserve">1.25789594650269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25635254383087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24323344230652</t>
+    <t xml:space="preserve">1.25635266304016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24323332309723</t>
   </si>
   <si>
     <t xml:space="preserve">1.23165774345398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23088610172272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22316908836365</t>
+    <t xml:space="preserve">1.23088598251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22316884994507</t>
   </si>
   <si>
     <t xml:space="preserve">1.2401465177536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27101504802704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26792824268341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27950394153595</t>
+    <t xml:space="preserve">1.27101516723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26792812347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27950406074524</t>
   </si>
   <si>
     <t xml:space="preserve">1.29725348949432</t>
@@ -272,46 +272,46 @@
     <t xml:space="preserve">1.31191623210907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31268763542175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3065140247345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32503521442413</t>
+    <t xml:space="preserve">1.31268787384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30651390552521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32503533363342</t>
   </si>
   <si>
     <t xml:space="preserve">1.32272005081177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29571008682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33853030204773</t>
+    <t xml:space="preserve">1.29570996761322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33853018283844</t>
   </si>
   <si>
     <t xml:space="preserve">1.32901465892792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28857350349426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2869873046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26002657413483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26319825649261</t>
+    <t xml:space="preserve">1.28857326507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28698742389679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26002645492554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2631983757019</t>
   </si>
   <si>
     <t xml:space="preserve">1.25923347473145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26081955432892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2520968914032</t>
+    <t xml:space="preserve">1.26081943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25209677219391</t>
   </si>
   <si>
     <t xml:space="preserve">1.24496018886566</t>
@@ -323,10 +323,10 @@
     <t xml:space="preserve">1.23623740673065</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2116551399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19341707229614</t>
+    <t xml:space="preserve">1.21165537834167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19341719150543</t>
   </si>
   <si>
     <t xml:space="preserve">1.1973819732666</t>
@@ -335,10 +335,10 @@
     <t xml:space="preserve">1.19103825092316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2409952878952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22354972362518</t>
+    <t xml:space="preserve">1.24099516868591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22354984283447</t>
   </si>
   <si>
     <t xml:space="preserve">1.21562016010284</t>
@@ -347,10 +347,10 @@
     <t xml:space="preserve">1.22117102146149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16169834136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15773355960846</t>
+    <t xml:space="preserve">1.16169846057892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15773367881775</t>
   </si>
   <si>
     <t xml:space="preserve">1.22513580322266</t>
@@ -362,73 +362,73 @@
     <t xml:space="preserve">1.25368273258209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28619432449341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28064370155334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30839765071869</t>
+    <t xml:space="preserve">1.2861944437027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28064358234406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30839741230011</t>
   </si>
   <si>
     <t xml:space="preserve">1.27667891979218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30443263053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28222966194153</t>
+    <t xml:space="preserve">1.30443274974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28222942352295</t>
   </si>
   <si>
     <t xml:space="preserve">1.30522561073303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27271401882172</t>
+    <t xml:space="preserve">1.27271389961243</t>
   </si>
   <si>
     <t xml:space="preserve">1.2846086025238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27350687980652</t>
+    <t xml:space="preserve">1.27350676059723</t>
   </si>
   <si>
     <t xml:space="preserve">1.29253816604614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30046784877777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2988817691803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31632721424103</t>
+    <t xml:space="preserve">1.30046772956848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29888188838959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31632709503174</t>
   </si>
   <si>
     <t xml:space="preserve">1.3076046705246</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31553435325623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32425689697266</t>
+    <t xml:space="preserve">1.31553423404694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32425677776337</t>
   </si>
   <si>
     <t xml:space="preserve">1.33218657970428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33615136146545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32663571834564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35994052886963</t>
+    <t xml:space="preserve">1.33615124225616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32663583755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35994040966034</t>
   </si>
   <si>
     <t xml:space="preserve">1.38928031921387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42734277248383</t>
+    <t xml:space="preserve">1.42734265327454</t>
   </si>
   <si>
     <t xml:space="preserve">1.41069054603577</t>
@@ -440,13 +440,13 @@
     <t xml:space="preserve">1.39958882331848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38531529903412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34804606437683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36390542984009</t>
+    <t xml:space="preserve">1.38531541824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34804618358612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36390519142151</t>
   </si>
   <si>
     <t xml:space="preserve">1.37976467609406</t>
@@ -458,40 +458,40 @@
     <t xml:space="preserve">1.36707711219788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36787009239197</t>
+    <t xml:space="preserve">1.36787021160126</t>
   </si>
   <si>
     <t xml:space="preserve">1.3750067949295</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3401163816452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33377254009247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36945605278015</t>
+    <t xml:space="preserve">1.34011626243591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33377265930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36945617198944</t>
   </si>
   <si>
     <t xml:space="preserve">1.3512179851532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32504975795746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32108497619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29967486858368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29650318622589</t>
+    <t xml:space="preserve">1.32504987716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.321084856987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29967498779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29650294780731</t>
   </si>
   <si>
     <t xml:space="preserve">1.29333114624023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27588593959808</t>
+    <t xml:space="preserve">1.27588582038879</t>
   </si>
   <si>
     <t xml:space="preserve">1.29729604721069</t>
@@ -506,10 +506,10 @@
     <t xml:space="preserve">1.27905774116516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26240527629852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25288987159729</t>
+    <t xml:space="preserve">1.2624055147171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25288963317871</t>
   </si>
   <si>
     <t xml:space="preserve">1.26637017726898</t>
@@ -539,49 +539,49 @@
     <t xml:space="preserve">1.24178826808929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23861634731293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20531165599823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22910070419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21324121952057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20610451698303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19817495346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19183111190796</t>
+    <t xml:space="preserve">1.23861610889435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20531177520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22910058498383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21324133872986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20610463619232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1981748342514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19183135032654</t>
   </si>
   <si>
     <t xml:space="preserve">1.21641314029694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20293271541595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20927655696869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23465144634247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22196388244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23940932750702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23703038692474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22989356517792</t>
+    <t xml:space="preserve">1.20293259620667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2092764377594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23465156555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22196400165558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23940920829773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23703014850616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22989368438721</t>
   </si>
   <si>
     <t xml:space="preserve">1.23306560516357</t>
@@ -596,13 +596,13 @@
     <t xml:space="preserve">1.27985060214996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27033519744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27747178077698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23385846614838</t>
+    <t xml:space="preserve">1.27033507823944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27747166156769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23385834693909</t>
   </si>
   <si>
     <t xml:space="preserve">1.22830772399902</t>
@@ -611,13 +611,13 @@
     <t xml:space="preserve">1.21720612049103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21958494186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21244835853577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21879208087921</t>
+    <t xml:space="preserve">1.2195850610733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21244847774506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21879196166992</t>
   </si>
   <si>
     <t xml:space="preserve">1.2203780412674</t>
@@ -629,34 +629,34 @@
     <t xml:space="preserve">1.24892497062683</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26478445529938</t>
+    <t xml:space="preserve">1.2647842168808</t>
   </si>
   <si>
     <t xml:space="preserve">1.32584285736084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32822179794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36152637004852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35201096534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34408116340637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37183511257172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37421381473541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40593266487122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41782712936401</t>
+    <t xml:space="preserve">1.32822167873383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36152648925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35201072692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34408104419708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37183499336243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3742139339447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40593242645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4178272485733</t>
   </si>
   <si>
     <t xml:space="preserve">1.40196776390076</t>
@@ -665,13 +665,13 @@
     <t xml:space="preserve">1.43527233600616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43447959423065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4194130897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43923735618591</t>
+    <t xml:space="preserve">1.43447947502136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41941320896149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43923723697662</t>
   </si>
   <si>
     <t xml:space="preserve">1.3980028629303</t>
@@ -683,13 +683,13 @@
     <t xml:space="preserve">1.41148340702057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42496395111084</t>
+    <t xml:space="preserve">1.42496383190155</t>
   </si>
   <si>
     <t xml:space="preserve">1.43685841560364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4749208688736</t>
+    <t xml:space="preserve">1.47492098808289</t>
   </si>
   <si>
     <t xml:space="preserve">1.45113182067871</t>
@@ -698,16 +698,16 @@
     <t xml:space="preserve">1.45906150341034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50267481803894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48285043239594</t>
+    <t xml:space="preserve">1.50267469882965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48285055160522</t>
   </si>
   <si>
     <t xml:space="preserve">1.50346767902374</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47333490848541</t>
+    <t xml:space="preserve">1.4733350276947</t>
   </si>
   <si>
     <t xml:space="preserve">1.48919427394867</t>
@@ -716,13 +716,13 @@
     <t xml:space="preserve">1.52249884605408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50663959980011</t>
+    <t xml:space="preserve">1.50663948059082</t>
   </si>
   <si>
     <t xml:space="preserve">1.51298332214355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52884256839752</t>
+    <t xml:space="preserve">1.52884268760681</t>
   </si>
   <si>
     <t xml:space="preserve">1.4971239566803</t>
@@ -737,10 +737,10 @@
     <t xml:space="preserve">1.53765249252319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57104444503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62561142444611</t>
+    <t xml:space="preserve">1.57104432582855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6256115436554</t>
   </si>
   <si>
     <t xml:space="preserve">1.66470420360565</t>
@@ -752,61 +752,61 @@
     <t xml:space="preserve">1.71845686435699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73963212966919</t>
+    <t xml:space="preserve">1.73963236808777</t>
   </si>
   <si>
     <t xml:space="preserve">1.64352881908417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63701343536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61095154285431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60199296474457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61502373218536</t>
+    <t xml:space="preserve">1.63701355457306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6109516620636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60199284553528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61502385139465</t>
   </si>
   <si>
     <t xml:space="preserve">1.59059071540833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59221971035004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56371438503265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56534326076508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55882787704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55149793624878</t>
+    <t xml:space="preserve">1.59221959114075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56371426582336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56534337997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55882775783539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55149781703949</t>
   </si>
   <si>
     <t xml:space="preserve">1.55557012557983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5229926109314</t>
+    <t xml:space="preserve">1.52299249172211</t>
   </si>
   <si>
     <t xml:space="preserve">1.58000314235687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58081758022308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59466290473938</t>
+    <t xml:space="preserve">1.58081746101379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59466278553009</t>
   </si>
   <si>
     <t xml:space="preserve">1.57430195808411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54742586612701</t>
+    <t xml:space="preserve">1.54742574691772</t>
   </si>
   <si>
     <t xml:space="preserve">1.53683805465698</t>
@@ -815,13 +815,13 @@
     <t xml:space="preserve">1.54905462265015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53928136825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54498255252838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53520929813385</t>
+    <t xml:space="preserve">1.53928124904633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54498243331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53520917892456</t>
   </si>
   <si>
     <t xml:space="preserve">1.54416799545288</t>
@@ -833,43 +833,43 @@
     <t xml:space="preserve">1.60036396980286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61665272712708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5889618396759</t>
+    <t xml:space="preserve">1.61665260791779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58896172046661</t>
   </si>
   <si>
     <t xml:space="preserve">1.58814740180969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61583828926086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61258053779602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64515769481659</t>
+    <t xml:space="preserve">1.61583817005157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61258041858673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64515793323517</t>
   </si>
   <si>
     <t xml:space="preserve">1.63538455963135</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62886917591095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60525059700012</t>
+    <t xml:space="preserve">1.62886929512024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60525047779083</t>
   </si>
   <si>
     <t xml:space="preserve">1.62072479724884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63864254951477</t>
+    <t xml:space="preserve">1.63864243030548</t>
   </si>
   <si>
     <t xml:space="preserve">1.63049805164337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64841544628143</t>
+    <t xml:space="preserve">1.64841556549072</t>
   </si>
   <si>
     <t xml:space="preserve">1.6182816028595</t>
@@ -887,25 +887,25 @@
     <t xml:space="preserve">1.63375580310822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67773520946503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60606503486633</t>
+    <t xml:space="preserve">1.67773497104645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60606491565704</t>
   </si>
   <si>
     <t xml:space="preserve">1.59303402900696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6028071641922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65981769561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65655982494354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64027106761932</t>
+    <t xml:space="preserve">1.60280728340149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65981781482697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65655994415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64027118682861</t>
   </si>
   <si>
     <t xml:space="preserve">1.68099296092987</t>
@@ -917,22 +917,22 @@
     <t xml:space="preserve">1.68587946891785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76732301712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81618893146515</t>
+    <t xml:space="preserve">1.76732313632965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81618928909302</t>
   </si>
   <si>
     <t xml:space="preserve">1.79501378536224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83247792720795</t>
+    <t xml:space="preserve">1.83247768878937</t>
   </si>
   <si>
     <t xml:space="preserve">1.84876644611359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86342620849609</t>
+    <t xml:space="preserve">1.86342632770538</t>
   </si>
   <si>
     <t xml:space="preserve">1.7917560338974</t>
@@ -941,34 +941,34 @@
     <t xml:space="preserve">1.81944680213928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80641567707062</t>
+    <t xml:space="preserve">1.80641579627991</t>
   </si>
   <si>
     <t xml:space="preserve">1.80804479122162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81781804561615</t>
+    <t xml:space="preserve">1.81781816482544</t>
   </si>
   <si>
     <t xml:space="preserve">1.80967354774475</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81130254268646</t>
+    <t xml:space="preserve">1.81130242347717</t>
   </si>
   <si>
     <t xml:space="preserve">1.82922005653381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8275910615921</t>
+    <t xml:space="preserve">1.82759118080139</t>
   </si>
   <si>
     <t xml:space="preserve">1.79827153682709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77546727657318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78361177444458</t>
+    <t xml:space="preserve">1.77546751499176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78361189365387</t>
   </si>
   <si>
     <t xml:space="preserve">1.88948822021484</t>
@@ -977,85 +977,85 @@
     <t xml:space="preserve">1.95138537883759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9644159078598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94161224365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94975662231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99536466598511</t>
+    <t xml:space="preserve">1.96441614627838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94161200523376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94975614547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9953647851944</t>
   </si>
   <si>
     <t xml:space="preserve">2.01979780197144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99210691452026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91392135620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85528206825256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79990029335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90903460979462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92369437217712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98722040653229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95627164840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97418963909149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87319958209991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88623058795929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86994183063507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89763259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86668395996094</t>
+    <t xml:space="preserve">1.99210715293884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91392123699188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85528218746185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7999005317688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9090348482132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92369449138641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.987220287323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95627176761627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97418928146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87319946289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88623070716858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86994171142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89763247966766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86668407917023</t>
   </si>
   <si>
     <t xml:space="preserve">1.84387981891632</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83573567867279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82433331012726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77383840084076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80315804481506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86831283569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86179745197296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90414810180664</t>
+    <t xml:space="preserve">1.8357355594635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82433342933655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77383852005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80315828323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86831271648407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86179733276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90414786338806</t>
   </si>
   <si>
     <t xml:space="preserve">1.87971496582031</t>
@@ -1067,31 +1067,31 @@
     <t xml:space="preserve">1.88134384155273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85691094398499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93021011352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90577697753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97093188762665</t>
+    <t xml:space="preserve">1.85691070556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9302099943161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90577673912048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97093176841736</t>
   </si>
   <si>
     <t xml:space="preserve">1.97907614707947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95464313030243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03608655929565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04423117637634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96278738975525</t>
+    <t xml:space="preserve">1.95464301109314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0360860824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04423069953918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96278762817383</t>
   </si>
   <si>
     <t xml:space="preserve">1.94649887084961</t>
@@ -1100,13 +1100,13 @@
     <t xml:space="preserve">1.92206573486328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9383544921875</t>
+    <t xml:space="preserve">1.93835437297821</t>
   </si>
   <si>
     <t xml:space="preserve">2.01165342330933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00350880622864</t>
+    <t xml:space="preserve">2.00350904464722</t>
   </si>
   <si>
     <t xml:space="preserve">2.04439687728882</t>
@@ -1115,85 +1115,85 @@
     <t xml:space="preserve">2.03608632087708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05270743370056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0028440952301</t>
+    <t xml:space="preserve">2.05270767211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00284457206726</t>
   </si>
   <si>
     <t xml:space="preserve">2.01946544647217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96960198879242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96129155158997</t>
+    <t xml:space="preserve">1.96960186958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96129131317139</t>
   </si>
   <si>
     <t xml:space="preserve">2.06101822853088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9862232208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95298099517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90311765670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84494376182556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91142809391022</t>
+    <t xml:space="preserve">1.98622298240662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95298063755035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90311741828918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84494352340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91142797470093</t>
   </si>
   <si>
     <t xml:space="preserve">1.82001197338104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83663296699524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81170129776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89480710029602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79508018493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77845907211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71197474002838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80339074134827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76183795928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70366418361664</t>
+    <t xml:space="preserve">1.83663308620453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81170153617859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89480721950531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79508030414581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77845931053162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71197462081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80339097976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76183784008026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70366406440735</t>
   </si>
   <si>
     <t xml:space="preserve">1.64133501052856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65795612335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61224806308746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53329789638519</t>
+    <t xml:space="preserve">1.65795600414276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61224818229675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5332977771759</t>
   </si>
   <si>
     <t xml:space="preserve">1.52914249897003</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48758971691132</t>
+    <t xml:space="preserve">1.48758959770203</t>
   </si>
   <si>
     <t xml:space="preserve">1.4626579284668</t>
@@ -1202,13 +1202,13 @@
     <t xml:space="preserve">1.49590015411377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50836622714996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48343443870544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51667678356171</t>
+    <t xml:space="preserve">1.50836598873138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48343420028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51667666435242</t>
   </si>
   <si>
     <t xml:space="preserve">1.47096860408783</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">1.46681332588196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45434761047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41279482841492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3878630399704</t>
+    <t xml:space="preserve">1.45434749126434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41279470920563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38786292076111</t>
   </si>
   <si>
     <t xml:space="preserve">1.37539708614349</t>
@@ -1232,25 +1232,25 @@
     <t xml:space="preserve">1.3587760925293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35046553611755</t>
+    <t xml:space="preserve">1.35046541690826</t>
   </si>
   <si>
     <t xml:space="preserve">1.36293137073517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40448415279388</t>
+    <t xml:space="preserve">1.40448403358459</t>
   </si>
   <si>
     <t xml:space="preserve">1.39617347717285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40863943099976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40032887458801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42941582202911</t>
+    <t xml:space="preserve">1.40863931179047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40032875537872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42941570281982</t>
   </si>
   <si>
     <t xml:space="preserve">1.4169499874115</t>
@@ -1265,10 +1265,10 @@
     <t xml:space="preserve">1.4460369348526</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42526054382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51252150535583</t>
+    <t xml:space="preserve">1.42526042461395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51252126693726</t>
   </si>
   <si>
     <t xml:space="preserve">1.50005543231964</t>
@@ -1283,25 +1283,25 @@
     <t xml:space="preserve">1.47927916049957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55407404899597</t>
+    <t xml:space="preserve">1.55407416820526</t>
   </si>
   <si>
     <t xml:space="preserve">1.4917448759079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5042108297348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45850276947021</t>
+    <t xml:space="preserve">1.50421071052551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45850265026093</t>
   </si>
   <si>
     <t xml:space="preserve">1.43772637844086</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37955236434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4335709810257</t>
+    <t xml:space="preserve">1.37955248355865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43357110023499</t>
   </si>
   <si>
     <t xml:space="preserve">1.49191403388977</t>
@@ -1316,16 +1316,16 @@
     <t xml:space="preserve">1.44002139568329</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46596777439117</t>
+    <t xml:space="preserve">1.46596765518188</t>
   </si>
   <si>
     <t xml:space="preserve">1.45731890201569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47894096374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5135360956192</t>
+    <t xml:space="preserve">1.47894084453583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51353597640991</t>
   </si>
   <si>
     <t xml:space="preserve">1.5308336019516</t>
@@ -1337,10 +1337,10 @@
     <t xml:space="preserve">1.52650916576385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53515791893005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59137499332428</t>
+    <t xml:space="preserve">1.53515779972076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59137487411499</t>
   </si>
   <si>
     <t xml:space="preserve">1.62164568901062</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">1.58705067634583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62597012519836</t>
+    <t xml:space="preserve">1.62597000598907</t>
   </si>
   <si>
     <t xml:space="preserve">1.56542861461639</t>
@@ -1367,25 +1367,25 @@
     <t xml:space="preserve">1.57407748699188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5567798614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54380679130554</t>
+    <t xml:space="preserve">1.55677974224091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54380667209625</t>
   </si>
   <si>
     <t xml:space="preserve">1.5394823551178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52218472957611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50921165943146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50056290626526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.548131108284</t>
+    <t xml:space="preserve">1.52218461036682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50921154022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50056278705597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54813098907471</t>
   </si>
   <si>
     <t xml:space="preserve">1.48326528072357</t>
@@ -1394,10 +1394,10 @@
     <t xml:space="preserve">1.47029221057892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46164333820343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60867261886597</t>
+    <t xml:space="preserve">1.46164345741272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60867249965668</t>
   </si>
   <si>
     <t xml:space="preserve">1.60002386569977</t>
@@ -1406,19 +1406,19 @@
     <t xml:space="preserve">1.58272624015808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61299705505371</t>
+    <t xml:space="preserve">1.61299693584442</t>
   </si>
   <si>
     <t xml:space="preserve">1.64759194850922</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64326775074005</t>
+    <t xml:space="preserve">1.64326763153076</t>
   </si>
   <si>
     <t xml:space="preserve">1.69083595275879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72975540161133</t>
+    <t xml:space="preserve">1.72975528240204</t>
   </si>
   <si>
     <t xml:space="preserve">1.69516026973724</t>
@@ -1427,22 +1427,22 @@
     <t xml:space="preserve">1.66921401023865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66056513786316</t>
+    <t xml:space="preserve">1.66056501865387</t>
   </si>
   <si>
     <t xml:space="preserve">1.6562408208847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72110664844513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68651163578033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67786288261414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6648895740509</t>
+    <t xml:space="preserve">1.72110652923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68651151657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67786276340485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66488945484161</t>
   </si>
   <si>
     <t xml:space="preserve">1.6735383272171</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">2.02381372451782</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0411114692688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11030173301697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33516979217529</t>
+    <t xml:space="preserve">2.04111123085022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11030149459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33516955375671</t>
   </si>
   <si>
     <t xml:space="preserve">2.23138451576233</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">2.38706231117249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40436005592346</t>
+    <t xml:space="preserve">2.40435981750488</t>
   </si>
   <si>
     <t xml:space="preserve">2.41300868988037</t>
@@ -1499,31 +1499,31 @@
     <t xml:space="preserve">2.15354561805725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97192132472992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98057007789612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07570648193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01516509056091</t>
+    <t xml:space="preserve">1.97192120552063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98056995868683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07570672035217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01516485214233</t>
   </si>
   <si>
     <t xml:space="preserve">1.77299928665161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56975317001343</t>
+    <t xml:space="preserve">1.56975305080414</t>
   </si>
   <si>
     <t xml:space="preserve">1.72543108463287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86813580989838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76435053348541</t>
+    <t xml:space="preserve">1.86813592910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76435029506683</t>
   </si>
   <si>
     <t xml:space="preserve">1.78164803981781</t>
@@ -1532,13 +1532,13 @@
     <t xml:space="preserve">1.8248918056488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73840415477753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7989456653595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79029679298401</t>
+    <t xml:space="preserve">1.73840427398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79894542694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79029667377472</t>
   </si>
   <si>
     <t xml:space="preserve">1.89408218860626</t>
@@ -1547,10 +1547,10 @@
     <t xml:space="preserve">1.85948717594147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75570178031921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80759429931641</t>
+    <t xml:space="preserve">1.75570166110992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8075944185257</t>
   </si>
   <si>
     <t xml:space="preserve">1.74705290794373</t>
@@ -1565,13 +1565,13 @@
     <t xml:space="preserve">1.91137969493866</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06705784797668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11895036697388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08435535430908</t>
+    <t xml:space="preserve">2.06705760955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11895060539246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0843551158905</t>
   </si>
   <si>
     <t xml:space="preserve">2.11000943183899</t>
@@ -58126,7 +58126,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.5760069444</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>3555</v>
@@ -58147,6 +58147,32 @@
         <v>647</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.633587963</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>500</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>647</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AC5.MI.xlsx
+++ b/data/AC5.MI.xlsx
@@ -47,52 +47,52 @@
     <t xml:space="preserve">1.22008192539215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2193101644516</t>
+    <t xml:space="preserve">1.21931040287018</t>
   </si>
   <si>
     <t xml:space="preserve">1.18689811229706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21159315109253</t>
+    <t xml:space="preserve">1.21159327030182</t>
   </si>
   <si>
     <t xml:space="preserve">1.1876699924469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18844151496887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19615864753723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18149626255035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17455089092255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08348822593689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02252280712128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00322985649109</t>
+    <t xml:space="preserve">1.18844163417816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19615876674652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18149602413177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17455077171326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08348846435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02252304553986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00322997570038</t>
   </si>
   <si>
     <t xml:space="preserve">1.07654297351837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12593257427216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09429240226746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10355281829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14291024208069</t>
+    <t xml:space="preserve">1.12593269348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09429216384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10355293750763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14291036128998</t>
   </si>
   <si>
     <t xml:space="preserve">1.11821556091309</t>
@@ -101,19 +101,19 @@
     <t xml:space="preserve">1.12361752986908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11127018928528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13210654258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11204195022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10586786270142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02638137340546</t>
+    <t xml:space="preserve">1.11127007007599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13210642337799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11204183101654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10586798191071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02638149261475</t>
   </si>
   <si>
     <t xml:space="preserve">0.975448191165924</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">1.06805384159088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05107641220093</t>
+    <t xml:space="preserve">1.05107629299164</t>
   </si>
   <si>
     <t xml:space="preserve">1.04181575775146</t>
@@ -140,49 +140,49 @@
     <t xml:space="preserve">1.04258728027344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08811855316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0811733007431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07191276550293</t>
+    <t xml:space="preserve">1.08811867237091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08117318153381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07191264629364</t>
   </si>
   <si>
     <t xml:space="preserve">1.07422769069672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06110858917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07345604896545</t>
+    <t xml:space="preserve">1.06110870838165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07345616817474</t>
   </si>
   <si>
     <t xml:space="preserve">1.07036912441254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08040130138397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10200941562653</t>
+    <t xml:space="preserve">1.08040153980255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10200929641724</t>
   </si>
   <si>
     <t xml:space="preserve">1.09969437122345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08425998687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10741150379181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08966219425201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09043371677399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09506416320801</t>
+    <t xml:space="preserve">1.08426010608673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1074116230011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08966207504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0904335975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09506404399872</t>
   </si>
   <si>
     <t xml:space="preserve">1.08580338954926</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">1.06651055812836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09197723865509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11898720264435</t>
+    <t xml:space="preserve">1.09197735786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11898732185364</t>
   </si>
   <si>
     <t xml:space="preserve">1.10432457923889</t>
@@ -203,31 +203,31 @@
     <t xml:space="preserve">1.126704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19152855873108</t>
+    <t xml:space="preserve">1.19152867794037</t>
   </si>
   <si>
     <t xml:space="preserve">1.19230020046234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17532229423523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1807245016098</t>
+    <t xml:space="preserve">1.17532241344452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18072462081909</t>
   </si>
   <si>
     <t xml:space="preserve">1.28027582168579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26561307907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2262556552887</t>
+    <t xml:space="preserve">1.26561319828033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22625577449799</t>
   </si>
   <si>
     <t xml:space="preserve">1.23474454879761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25017893314362</t>
+    <t xml:space="preserve">1.25017881393433</t>
   </si>
   <si>
     <t xml:space="preserve">1.21004974842072</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">1.18921339511871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25789594650269</t>
+    <t xml:space="preserve">1.25789606571198</t>
   </si>
   <si>
     <t xml:space="preserve">1.25635266304016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24323332309723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23165774345398</t>
+    <t xml:space="preserve">1.24323344230652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2316575050354</t>
   </si>
   <si>
     <t xml:space="preserve">1.23088598251343</t>
@@ -254,28 +254,28 @@
     <t xml:space="preserve">1.22316884994507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2401465177536</t>
+    <t xml:space="preserve">1.24014663696289</t>
   </si>
   <si>
     <t xml:space="preserve">1.27101516723633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26792812347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27950406074524</t>
+    <t xml:space="preserve">1.26792824268341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27950417995453</t>
   </si>
   <si>
     <t xml:space="preserve">1.29725348949432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31191623210907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31268787384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30651390552521</t>
+    <t xml:space="preserve">1.31191599369049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31268775463104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3065140247345</t>
   </si>
   <si>
     <t xml:space="preserve">1.32503533363342</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">1.29570996761322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33853018283844</t>
+    <t xml:space="preserve">1.33853030204773</t>
   </si>
   <si>
     <t xml:space="preserve">1.32901465892792</t>
@@ -296,10 +296,10 @@
     <t xml:space="preserve">1.28857326507568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698742389679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26002645492554</t>
+    <t xml:space="preserve">1.2869873046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26002657413483</t>
   </si>
   <si>
     <t xml:space="preserve">1.2631983757019</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">1.25923347473145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26081943511963</t>
+    <t xml:space="preserve">1.26081955432892</t>
   </si>
   <si>
     <t xml:space="preserve">1.25209677219391</t>
@@ -317,16 +317,16 @@
     <t xml:space="preserve">1.24496018886566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25051093101501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23623740673065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21165537834167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19341719150543</t>
+    <t xml:space="preserve">1.25051081180573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23623752593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21165525913239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19341707229614</t>
   </si>
   <si>
     <t xml:space="preserve">1.1973819732666</t>
@@ -335,13 +335,13 @@
     <t xml:space="preserve">1.19103825092316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24099516868591</t>
+    <t xml:space="preserve">1.2409952878952</t>
   </si>
   <si>
     <t xml:space="preserve">1.22354984283447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21562016010284</t>
+    <t xml:space="preserve">1.21562027931213</t>
   </si>
   <si>
     <t xml:space="preserve">1.22117102146149</t>
@@ -353,10 +353,10 @@
     <t xml:space="preserve">1.15773367881775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22513580322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21799898147583</t>
+    <t xml:space="preserve">1.22513592243195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21799910068512</t>
   </si>
   <si>
     <t xml:space="preserve">1.25368273258209</t>
@@ -365,19 +365,19 @@
     <t xml:space="preserve">1.2861944437027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28064358234406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30839741230011</t>
+    <t xml:space="preserve">1.28064382076263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3083975315094</t>
   </si>
   <si>
     <t xml:space="preserve">1.27667891979218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30443274974823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28222942352295</t>
+    <t xml:space="preserve">1.30443263053894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28222954273224</t>
   </si>
   <si>
     <t xml:space="preserve">1.30522561073303</t>
@@ -386,46 +386,46 @@
     <t xml:space="preserve">1.27271389961243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2846086025238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27350676059723</t>
+    <t xml:space="preserve">1.28460848331451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27350687980652</t>
   </si>
   <si>
     <t xml:space="preserve">1.29253816604614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30046772956848</t>
+    <t xml:space="preserve">1.30046784877777</t>
   </si>
   <si>
     <t xml:space="preserve">1.29888188838959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31632709503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3076046705246</t>
+    <t xml:space="preserve">1.31632721424103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30760455131531</t>
   </si>
   <si>
     <t xml:space="preserve">1.31553423404694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32425677776337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33218657970428</t>
+    <t xml:space="preserve">1.32425689697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33218669891357</t>
   </si>
   <si>
     <t xml:space="preserve">1.33615124225616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32663583755493</t>
+    <t xml:space="preserve">1.32663571834564</t>
   </si>
   <si>
     <t xml:space="preserve">1.35994040966034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38928031921387</t>
+    <t xml:space="preserve">1.38928008079529</t>
   </si>
   <si>
     <t xml:space="preserve">1.42734265327454</t>
@@ -443,19 +443,19 @@
     <t xml:space="preserve">1.38531541824341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34804618358612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36390519142151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37976467609406</t>
+    <t xml:space="preserve">1.34804594516754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3639053106308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37976479530334</t>
   </si>
   <si>
     <t xml:space="preserve">1.3646981716156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36707711219788</t>
+    <t xml:space="preserve">1.36707723140717</t>
   </si>
   <si>
     <t xml:space="preserve">1.36787021160126</t>
@@ -467,22 +467,22 @@
     <t xml:space="preserve">1.34011626243591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33377265930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36945617198944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3512179851532</t>
+    <t xml:space="preserve">1.33377254009247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36945605278015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35121786594391</t>
   </si>
   <si>
     <t xml:space="preserve">1.32504987716675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.321084856987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29967498779297</t>
+    <t xml:space="preserve">1.32108497619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29967486858368</t>
   </si>
   <si>
     <t xml:space="preserve">1.29650294780731</t>
@@ -500,16 +500,16 @@
     <t xml:space="preserve">1.30681157112122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29174518585205</t>
+    <t xml:space="preserve">1.29174506664276</t>
   </si>
   <si>
     <t xml:space="preserve">1.27905774116516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2624055147171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25288963317871</t>
+    <t xml:space="preserve">1.26240539550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25288987159729</t>
   </si>
   <si>
     <t xml:space="preserve">1.26637017726898</t>
@@ -521,31 +521,31 @@
     <t xml:space="preserve">1.29491710662842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27826476097107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28381550312042</t>
+    <t xml:space="preserve">1.27826488018036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28381538391113</t>
   </si>
   <si>
     <t xml:space="preserve">1.27192091941833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26874923706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26557731628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24178826808929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23861610889435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20531177520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22910058498383</t>
+    <t xml:space="preserve">1.26874911785126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2655770778656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24178814888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23861646652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20531165599823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22910070419312</t>
   </si>
   <si>
     <t xml:space="preserve">1.21324133872986</t>
@@ -560,16 +560,16 @@
     <t xml:space="preserve">1.19183135032654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21641314029694</t>
+    <t xml:space="preserve">1.21641325950623</t>
   </si>
   <si>
     <t xml:space="preserve">1.20293259620667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2092764377594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23465156555176</t>
+    <t xml:space="preserve">1.20927655696869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23465144634247</t>
   </si>
   <si>
     <t xml:space="preserve">1.22196400165558</t>
@@ -578,19 +578,19 @@
     <t xml:space="preserve">1.23940920829773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23703014850616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22989368438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23306560516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23782336711884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29412400722504</t>
+    <t xml:space="preserve">1.23703038692474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22989356517792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23306548595428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23782324790955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29412412643433</t>
   </si>
   <si>
     <t xml:space="preserve">1.27985060214996</t>
@@ -599,13 +599,13 @@
     <t xml:space="preserve">1.27033507823944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27747166156769</t>
+    <t xml:space="preserve">1.27747178077698</t>
   </si>
   <si>
     <t xml:space="preserve">1.23385834693909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22830772399902</t>
+    <t xml:space="preserve">1.22830784320831</t>
   </si>
   <si>
     <t xml:space="preserve">1.21720612049103</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">1.2195850610733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21244847774506</t>
+    <t xml:space="preserve">1.21244835853577</t>
   </si>
   <si>
     <t xml:space="preserve">1.21879196166992</t>
@@ -638,22 +638,22 @@
     <t xml:space="preserve">1.32822167873383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36152648925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35201072692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34408104419708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37183499336243</t>
+    <t xml:space="preserve">1.36152637004852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.352010846138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34408116340637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37183487415314</t>
   </si>
   <si>
     <t xml:space="preserve">1.3742139339447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40593242645264</t>
+    <t xml:space="preserve">1.40593254566193</t>
   </si>
   <si>
     <t xml:space="preserve">1.4178272485733</t>
@@ -662,25 +662,25 @@
     <t xml:space="preserve">1.40196776390076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43527233600616</t>
+    <t xml:space="preserve">1.43527245521545</t>
   </si>
   <si>
     <t xml:space="preserve">1.43447947502136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41941320896149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43923723697662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3980028629303</t>
+    <t xml:space="preserve">1.4194130897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43923735618591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39800298213959</t>
   </si>
   <si>
     <t xml:space="preserve">1.40989744663239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41148340702057</t>
+    <t xml:space="preserve">1.41148328781128</t>
   </si>
   <si>
     <t xml:space="preserve">1.42496383190155</t>
@@ -689,22 +689,22 @@
     <t xml:space="preserve">1.43685841560364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47492098808289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45113182067871</t>
+    <t xml:space="preserve">1.4749208688736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45113170146942</t>
   </si>
   <si>
     <t xml:space="preserve">1.45906150341034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50267469882965</t>
+    <t xml:space="preserve">1.50267457962036</t>
   </si>
   <si>
     <t xml:space="preserve">1.48285055160522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50346767902374</t>
+    <t xml:space="preserve">1.50346779823303</t>
   </si>
   <si>
     <t xml:space="preserve">1.4733350276947</t>
@@ -716,13 +716,13 @@
     <t xml:space="preserve">1.52249884605408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50663948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51298332214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52884268760681</t>
+    <t xml:space="preserve">1.50663959980011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51298320293427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5288428068161</t>
   </si>
   <si>
     <t xml:space="preserve">1.4971239566803</t>
@@ -740,25 +740,25 @@
     <t xml:space="preserve">1.57104432582855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6256115436554</t>
+    <t xml:space="preserve">1.62561142444611</t>
   </si>
   <si>
     <t xml:space="preserve">1.66470420360565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69402384757996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71845686435699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73963236808777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64352881908417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63701355457306</t>
+    <t xml:space="preserve">1.69402372837067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71845674514771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73963224887848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64352869987488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63701343536377</t>
   </si>
   <si>
     <t xml:space="preserve">1.6109516620636</t>
@@ -770,37 +770,37 @@
     <t xml:space="preserve">1.61502385139465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59059071540833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59221959114075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56371426582336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56534337997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55882775783539</t>
+    <t xml:space="preserve">1.59059059619904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59221971035004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56371438503265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56534326076508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55882787704468</t>
   </si>
   <si>
     <t xml:space="preserve">1.55149781703949</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55557012557983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52299249172211</t>
+    <t xml:space="preserve">1.55557000637054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5229926109314</t>
   </si>
   <si>
     <t xml:space="preserve">1.58000314235687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58081746101379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59466278553009</t>
+    <t xml:space="preserve">1.58081758022308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59466290473938</t>
   </si>
   <si>
     <t xml:space="preserve">1.57430195808411</t>
@@ -812,10 +812,10 @@
     <t xml:space="preserve">1.53683805465698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54905462265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53928124904633</t>
+    <t xml:space="preserve">1.54905450344086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53928136825562</t>
   </si>
   <si>
     <t xml:space="preserve">1.54498243331909</t>
@@ -827,19 +827,19 @@
     <t xml:space="preserve">1.54416799545288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56452882289886</t>
+    <t xml:space="preserve">1.56452894210815</t>
   </si>
   <si>
     <t xml:space="preserve">1.60036396980286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61665260791779</t>
+    <t xml:space="preserve">1.61665272712708</t>
   </si>
   <si>
     <t xml:space="preserve">1.58896172046661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58814740180969</t>
+    <t xml:space="preserve">1.58814752101898</t>
   </si>
   <si>
     <t xml:space="preserve">1.61583817005157</t>
@@ -848,13 +848,13 @@
     <t xml:space="preserve">1.61258041858673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64515793323517</t>
+    <t xml:space="preserve">1.64515781402588</t>
   </si>
   <si>
     <t xml:space="preserve">1.63538455963135</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62886929512024</t>
+    <t xml:space="preserve">1.62886905670166</t>
   </si>
   <si>
     <t xml:space="preserve">1.60525047779083</t>
@@ -863,16 +863,16 @@
     <t xml:space="preserve">1.62072479724884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63864243030548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63049805164337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64841556549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6182816028595</t>
+    <t xml:space="preserve">1.63864231109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63049817085266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64841544628143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61828148365021</t>
   </si>
   <si>
     <t xml:space="preserve">1.62398254871368</t>
@@ -887,31 +887,31 @@
     <t xml:space="preserve">1.63375580310822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67773497104645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60606491565704</t>
+    <t xml:space="preserve">1.67773509025574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60606479644775</t>
   </si>
   <si>
     <t xml:space="preserve">1.59303402900696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60280728340149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65981781482697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65655994415283</t>
+    <t xml:space="preserve">1.6028071641922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65981769561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65655970573425</t>
   </si>
   <si>
     <t xml:space="preserve">1.64027118682861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68099296092987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69565284252167</t>
+    <t xml:space="preserve">1.68099284172058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69565272331238</t>
   </si>
   <si>
     <t xml:space="preserve">1.68587946891785</t>
@@ -920,31 +920,31 @@
     <t xml:space="preserve">1.76732313632965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81618928909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79501378536224</t>
+    <t xml:space="preserve">1.81618916988373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79501366615295</t>
   </si>
   <si>
     <t xml:space="preserve">1.83247768878937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84876644611359</t>
+    <t xml:space="preserve">1.84876656532288</t>
   </si>
   <si>
     <t xml:space="preserve">1.86342632770538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7917560338974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81944680213928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80641579627991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80804479122162</t>
+    <t xml:space="preserve">1.79175591468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81944692134857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8064159154892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80804467201233</t>
   </si>
   <si>
     <t xml:space="preserve">1.81781816482544</t>
@@ -956,34 +956,34 @@
     <t xml:space="preserve">1.81130242347717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82922005653381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82759118080139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79827153682709</t>
+    <t xml:space="preserve">1.8292201757431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8275910615921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79827129840851</t>
   </si>
   <si>
     <t xml:space="preserve">1.77546751499176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78361189365387</t>
+    <t xml:space="preserve">1.78361165523529</t>
   </si>
   <si>
     <t xml:space="preserve">1.88948822021484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95138537883759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96441614627838</t>
+    <t xml:space="preserve">1.95138514041901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96441638469696</t>
   </si>
   <si>
     <t xml:space="preserve">1.94161200523376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94975614547729</t>
+    <t xml:space="preserve">1.94975662231445</t>
   </si>
   <si>
     <t xml:space="preserve">1.9953647851944</t>
@@ -995,97 +995,97 @@
     <t xml:space="preserve">1.99210715293884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91392123699188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85528218746185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7999005317688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9090348482132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92369449138641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.987220287323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95627176761627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97418928146362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87319946289062</t>
+    <t xml:space="preserve">1.91392111778259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85528230667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79990041255951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90903472900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9236946105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98722052574158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95627200603485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97418940067291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8731997013092</t>
   </si>
   <si>
     <t xml:space="preserve">1.88623070716858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86994171142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89763247966766</t>
+    <t xml:space="preserve">1.86994159221649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89763236045837</t>
   </si>
   <si>
     <t xml:space="preserve">1.86668407917023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84387981891632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8357355594635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82433342933655</t>
+    <t xml:space="preserve">1.84387993812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83573544025421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82433354854584</t>
   </si>
   <si>
     <t xml:space="preserve">1.77383852005005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80315828323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86831271648407</t>
+    <t xml:space="preserve">1.80315804481506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86831295490265</t>
   </si>
   <si>
     <t xml:space="preserve">1.86179733276367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90414786338806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87971496582031</t>
+    <t xml:space="preserve">1.90414822101593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87971520423889</t>
   </si>
   <si>
     <t xml:space="preserve">1.88460159301758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88134384155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85691070556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9302099943161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90577673912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97093176841736</t>
+    <t xml:space="preserve">1.88134407997131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85691094398499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93021023273468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90577685832977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97093152999878</t>
   </si>
   <si>
     <t xml:space="preserve">1.97907614707947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95464301109314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0360860824585</t>
+    <t xml:space="preserve">1.95464324951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03608632087708</t>
   </si>
   <si>
     <t xml:space="preserve">2.04423069953918</t>
@@ -1094,28 +1094,28 @@
     <t xml:space="preserve">1.96278762817383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94649887084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92206573486328</t>
+    <t xml:space="preserve">1.94649863243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9220654964447</t>
   </si>
   <si>
     <t xml:space="preserve">1.93835437297821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01165342330933</t>
+    <t xml:space="preserve">2.01165366172791</t>
   </si>
   <si>
     <t xml:space="preserve">2.00350904464722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04439687728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03608632087708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05270767211914</t>
+    <t xml:space="preserve">2.0443971157074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03608655929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05270743370056</t>
   </si>
   <si>
     <t xml:space="preserve">2.00284457206726</t>
@@ -1124,43 +1124,43 @@
     <t xml:space="preserve">2.01946544647217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96960186958313</t>
+    <t xml:space="preserve">1.96960210800171</t>
   </si>
   <si>
     <t xml:space="preserve">1.96129131317139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06101822853088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98622298240662</t>
+    <t xml:space="preserve">2.0610179901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9862232208252</t>
   </si>
   <si>
     <t xml:space="preserve">1.95298063755035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90311741828918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84494352340698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91142797470093</t>
+    <t xml:space="preserve">1.90311717987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84494364261627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91142809391022</t>
   </si>
   <si>
     <t xml:space="preserve">1.82001197338104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83663308620453</t>
+    <t xml:space="preserve">1.83663320541382</t>
   </si>
   <si>
     <t xml:space="preserve">1.81170153617859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89480721950531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79508030414581</t>
+    <t xml:space="preserve">1.89480698108673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79508018493652</t>
   </si>
   <si>
     <t xml:space="preserve">1.77845931053162</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">1.70366406440735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64133501052856</t>
+    <t xml:space="preserve">1.64133489131927</t>
   </si>
   <si>
     <t xml:space="preserve">1.65795600414276</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">1.52914249897003</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48758959770203</t>
+    <t xml:space="preserve">1.48758971691132</t>
   </si>
   <si>
     <t xml:space="preserve">1.4626579284668</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">1.50836598873138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48343420028687</t>
+    <t xml:space="preserve">1.48343431949615</t>
   </si>
   <si>
     <t xml:space="preserve">1.51667666435242</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">1.47096860408783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46681332588196</t>
+    <t xml:space="preserve">1.46681320667267</t>
   </si>
   <si>
     <t xml:space="preserve">1.45434749126434</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">1.41279470920563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38786292076111</t>
+    <t xml:space="preserve">1.38786280155182</t>
   </si>
   <si>
     <t xml:space="preserve">1.37539708614349</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">1.3587760925293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35046541690826</t>
+    <t xml:space="preserve">1.35046553611755</t>
   </si>
   <si>
     <t xml:space="preserve">1.36293137073517</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">1.39617347717285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40863931179047</t>
+    <t xml:space="preserve">1.40863943099976</t>
   </si>
   <si>
     <t xml:space="preserve">1.40032875537872</t>
@@ -1271,10 +1271,10 @@
     <t xml:space="preserve">1.51252126693726</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50005543231964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52083194255829</t>
+    <t xml:space="preserve">1.50005555152893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.520831823349</t>
   </si>
   <si>
     <t xml:space="preserve">1.4751238822937</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">1.47927916049957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55407416820526</t>
+    <t xml:space="preserve">1.55407404899597</t>
   </si>
   <si>
     <t xml:space="preserve">1.4917448759079</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">1.43772637844086</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37955248355865</t>
+    <t xml:space="preserve">1.37955260276794</t>
   </si>
   <si>
     <t xml:space="preserve">1.43357110023499</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">1.47461652755737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44002139568329</t>
+    <t xml:space="preserve">1.440021276474</t>
   </si>
   <si>
     <t xml:space="preserve">1.46596765518188</t>
@@ -1334,25 +1334,25 @@
     <t xml:space="preserve">1.51786029338837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52650916576385</t>
+    <t xml:space="preserve">1.52650904655457</t>
   </si>
   <si>
     <t xml:space="preserve">1.53515779972076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59137487411499</t>
+    <t xml:space="preserve">1.59137499332428</t>
   </si>
   <si>
     <t xml:space="preserve">1.62164568901062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63461887836456</t>
+    <t xml:space="preserve">1.63461875915527</t>
   </si>
   <si>
     <t xml:space="preserve">1.63894331455231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61732125282288</t>
+    <t xml:space="preserve">1.61732137203217</t>
   </si>
   <si>
     <t xml:space="preserve">1.58705067634583</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">1.62597000598907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56542861461639</t>
+    <t xml:space="preserve">1.5654284954071</t>
   </si>
   <si>
     <t xml:space="preserve">1.57407748699188</t>
@@ -1376,10 +1376,10 @@
     <t xml:space="preserve">1.5394823551178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52218461036682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50921154022217</t>
+    <t xml:space="preserve">1.52218472957611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50921142101288</t>
   </si>
   <si>
     <t xml:space="preserve">1.50056278705597</t>
@@ -1391,16 +1391,16 @@
     <t xml:space="preserve">1.48326528072357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47029221057892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46164345741272</t>
+    <t xml:space="preserve">1.47029209136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46164333820343</t>
   </si>
   <si>
     <t xml:space="preserve">1.60867249965668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60002386569977</t>
+    <t xml:space="preserve">1.60002374649048</t>
   </si>
   <si>
     <t xml:space="preserve">1.58272624015808</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">1.61299693584442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64759194850922</t>
+    <t xml:space="preserve">1.64759206771851</t>
   </si>
   <si>
     <t xml:space="preserve">1.64326763153076</t>
@@ -1418,16 +1418,16 @@
     <t xml:space="preserve">1.69083595275879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72975528240204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69516026973724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66921401023865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66056501865387</t>
+    <t xml:space="preserve">1.72975540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69516038894653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66921389102936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66056513786316</t>
   </si>
   <si>
     <t xml:space="preserve">1.6562408208847</t>
@@ -1454,7 +1454,7 @@
     <t xml:space="preserve">1.65191638469696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70380914211273</t>
+    <t xml:space="preserve">1.70380902290344</t>
   </si>
   <si>
     <t xml:space="preserve">1.8162430524826</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">2.04111123085022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11030149459839</t>
+    <t xml:space="preserve">2.11030173301697</t>
   </si>
   <si>
     <t xml:space="preserve">2.33516955375671</t>
@@ -1475,13 +1475,13 @@
     <t xml:space="preserve">2.23138451576233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34381866455078</t>
+    <t xml:space="preserve">2.34381890296936</t>
   </si>
   <si>
     <t xml:space="preserve">2.38706231117249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40435981750488</t>
+    <t xml:space="preserve">2.40436005592346</t>
   </si>
   <si>
     <t xml:space="preserve">2.41300868988037</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">2.36111617088318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42165756225586</t>
+    <t xml:space="preserve">2.42165732383728</t>
   </si>
   <si>
     <t xml:space="preserve">2.29192614555359</t>
@@ -1499,13 +1499,13 @@
     <t xml:space="preserve">2.15354561805725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97192120552063</t>
+    <t xml:space="preserve">1.97192144393921</t>
   </si>
   <si>
     <t xml:space="preserve">1.98056995868683</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07570672035217</t>
+    <t xml:space="preserve">2.07570648193359</t>
   </si>
   <si>
     <t xml:space="preserve">2.01516485214233</t>
@@ -1523,16 +1523,16 @@
     <t xml:space="preserve">1.86813592910767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76435029506683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78164803981781</t>
+    <t xml:space="preserve">1.76435041427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78164792060852</t>
   </si>
   <si>
     <t xml:space="preserve">1.8248918056488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73840427398682</t>
+    <t xml:space="preserve">1.73840415477753</t>
   </si>
   <si>
     <t xml:space="preserve">1.79894542694092</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">1.75570166110992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8075944185257</t>
+    <t xml:space="preserve">1.80759429931641</t>
   </si>
   <si>
     <t xml:space="preserve">1.74705290794373</t>
@@ -1559,10 +1559,10 @@
     <t xml:space="preserve">1.83354067802429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90273094177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91137969493866</t>
+    <t xml:space="preserve">1.90273106098175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91137957572937</t>
   </si>
   <si>
     <t xml:space="preserve">2.06705760955811</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">2.11000943183899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07424688339233</t>
+    <t xml:space="preserve">2.07424664497375</t>
   </si>
   <si>
     <t xml:space="preserve">2.06530594825745</t>
@@ -1586,19 +1586,19 @@
     <t xml:space="preserve">2.01166176795959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99378025531769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96695804595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94013595581055</t>
+    <t xml:space="preserve">1.9937801361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96695816516876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94013607501984</t>
   </si>
   <si>
     <t xml:space="preserve">1.90437316894531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94907665252686</t>
+    <t xml:space="preserve">1.94907653331757</t>
   </si>
   <si>
     <t xml:space="preserve">1.92225468158722</t>
@@ -1616,16 +1616,16 @@
     <t xml:space="preserve">1.87755084037781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89543223381042</t>
+    <t xml:space="preserve">1.89543235301971</t>
   </si>
   <si>
     <t xml:space="preserve">1.8596693277359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84178805351257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82390642166138</t>
+    <t xml:space="preserve">1.84178793430328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82390654087067</t>
   </si>
   <si>
     <t xml:space="preserve">1.81496584415436</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">1.80602514743805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79708456993103</t>
+    <t xml:space="preserve">1.79708445072174</t>
   </si>
   <si>
     <t xml:space="preserve">1.85072863101959</t>
@@ -1643,16 +1643,16 @@
     <t xml:space="preserve">1.83284735679626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86861026287079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78814363479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77026236057281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76132166385651</t>
+    <t xml:space="preserve">1.8686101436615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78814375400543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77026224136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76132154464722</t>
   </si>
   <si>
     <t xml:space="preserve">1.76579189300537</t>
@@ -1667,19 +1667,19 @@
     <t xml:space="preserve">2.1189501285553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21729850769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12789106369019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10106873512268</t>
+    <t xml:space="preserve">2.21729826927185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12789130210876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10106897354126</t>
   </si>
   <si>
     <t xml:space="preserve">2.02954292297363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03848385810852</t>
+    <t xml:space="preserve">2.0384840965271</t>
   </si>
   <si>
     <t xml:space="preserve">2.04742455482483</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">2.09212803840637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18153524398804</t>
+    <t xml:space="preserve">2.18153548240662</t>
   </si>
   <si>
     <t xml:space="preserve">2.15471315383911</t>
@@ -1703,22 +1703,22 @@
     <t xml:space="preserve">2.13683176040649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14577269554138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23517966270447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37823128700256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36035013198853</t>
+    <t xml:space="preserve">2.1457724571228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23517942428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37823104858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36034989356995</t>
   </si>
   <si>
     <t xml:space="preserve">2.35140895843506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34246802330017</t>
+    <t xml:space="preserve">2.34246826171875</t>
   </si>
   <si>
     <t xml:space="preserve">2.32458662986755</t>

--- a/data/AC5.MI.xlsx
+++ b/data/AC5.MI.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">1.22008192539215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21931040287018</t>
+    <t xml:space="preserve">1.2193101644516</t>
   </si>
   <si>
     <t xml:space="preserve">1.18689811229706</t>
@@ -56,55 +56,55 @@
     <t xml:space="preserve">1.21159327030182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1876699924469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18844163417816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19615876674652</t>
+    <t xml:space="preserve">1.18766987323761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18844175338745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19615864753723</t>
   </si>
   <si>
     <t xml:space="preserve">1.18149602413177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17455077171326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08348846435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02252304553986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00322997570038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07654297351837</t>
+    <t xml:space="preserve">1.17455089092255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08348822593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02252292633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00322985649109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07654285430908</t>
   </si>
   <si>
     <t xml:space="preserve">1.12593269348145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09429216384888</t>
+    <t xml:space="preserve">1.09429252147675</t>
   </si>
   <si>
     <t xml:space="preserve">1.10355293750763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14291036128998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11821556091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12361752986908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11127007007599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13210642337799</t>
+    <t xml:space="preserve">1.14291024208069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11821532249451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12361741065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11127018928528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13210654258728</t>
   </si>
   <si>
     <t xml:space="preserve">1.11204183101654</t>
@@ -116,10 +116,10 @@
     <t xml:space="preserve">1.02638149261475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975448191165924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992425918579102</t>
+    <t xml:space="preserve">0.975448250770569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992425858974457</t>
   </si>
   <si>
     <t xml:space="preserve">0.999371349811554</t>
@@ -128,34 +128,34 @@
     <t xml:space="preserve">1.01789247989655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06805384159088</t>
+    <t xml:space="preserve">1.06805396080017</t>
   </si>
   <si>
     <t xml:space="preserve">1.05107629299164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04181575775146</t>
+    <t xml:space="preserve">1.04181563854218</t>
   </si>
   <si>
     <t xml:space="preserve">1.04258728027344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08811867237091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08117318153381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07191264629364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07422769069672</t>
+    <t xml:space="preserve">1.0881187915802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0811733007431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07191252708435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07422780990601</t>
   </si>
   <si>
     <t xml:space="preserve">1.06110870838165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07345616817474</t>
+    <t xml:space="preserve">1.07345604896545</t>
   </si>
   <si>
     <t xml:space="preserve">1.07036912441254</t>
@@ -164,10 +164,10 @@
     <t xml:space="preserve">1.08040153980255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10200929641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09969437122345</t>
+    <t xml:space="preserve">1.10200953483582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09969425201416</t>
   </si>
   <si>
     <t xml:space="preserve">1.08426010608673</t>
@@ -176,22 +176,22 @@
     <t xml:space="preserve">1.1074116230011</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08966207504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0904335975647</t>
+    <t xml:space="preserve">1.08966195583344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09043371677399</t>
   </si>
   <si>
     <t xml:space="preserve">1.09506404399872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08580338954926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06651055812836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09197735786438</t>
+    <t xml:space="preserve">1.08580350875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06651079654694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0919771194458</t>
   </si>
   <si>
     <t xml:space="preserve">1.11898732185364</t>
@@ -203,25 +203,25 @@
     <t xml:space="preserve">1.126704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19152867794037</t>
+    <t xml:space="preserve">1.19152843952179</t>
   </si>
   <si>
     <t xml:space="preserve">1.19230020046234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17532241344452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18072462081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28027582168579</t>
+    <t xml:space="preserve">1.17532253265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18072438240051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2802757024765</t>
   </si>
   <si>
     <t xml:space="preserve">1.26561319828033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22625577449799</t>
+    <t xml:space="preserve">1.2262556552887</t>
   </si>
   <si>
     <t xml:space="preserve">1.23474454879761</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">1.25017881393433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21004974842072</t>
+    <t xml:space="preserve">1.21004951000214</t>
   </si>
   <si>
     <t xml:space="preserve">1.18921339511871</t>
@@ -239,37 +239,37 @@
     <t xml:space="preserve">1.25789606571198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25635266304016</t>
+    <t xml:space="preserve">1.25635278224945</t>
   </si>
   <si>
     <t xml:space="preserve">1.24323344230652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2316575050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23088598251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22316884994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24014663696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27101516723633</t>
+    <t xml:space="preserve">1.23165762424469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23088610172272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22316873073578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2401465177536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27101504802704</t>
   </si>
   <si>
     <t xml:space="preserve">1.26792824268341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27950417995453</t>
+    <t xml:space="preserve">1.27950406074524</t>
   </si>
   <si>
     <t xml:space="preserve">1.29725348949432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31191599369049</t>
+    <t xml:space="preserve">1.31191623210907</t>
   </si>
   <si>
     <t xml:space="preserve">1.31268775463104</t>
@@ -278,13 +278,13 @@
     <t xml:space="preserve">1.3065140247345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32503533363342</t>
+    <t xml:space="preserve">1.32503521442413</t>
   </si>
   <si>
     <t xml:space="preserve">1.32272005081177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29570996761322</t>
+    <t xml:space="preserve">1.29571008682251</t>
   </si>
   <si>
     <t xml:space="preserve">1.33853030204773</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">1.2869873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26002657413483</t>
+    <t xml:space="preserve">1.26002645492554</t>
   </si>
   <si>
     <t xml:space="preserve">1.2631983757019</t>
@@ -311,28 +311,28 @@
     <t xml:space="preserve">1.26081955432892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25209677219391</t>
+    <t xml:space="preserve">1.2520968914032</t>
   </si>
   <si>
     <t xml:space="preserve">1.24496018886566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25051081180573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23623752593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21165525913239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19341707229614</t>
+    <t xml:space="preserve">1.25051093101501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23623728752136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21165537834167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19341719150543</t>
   </si>
   <si>
     <t xml:space="preserve">1.1973819732666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19103825092316</t>
+    <t xml:space="preserve">1.19103813171387</t>
   </si>
   <si>
     <t xml:space="preserve">1.2409952878952</t>
@@ -344,37 +344,37 @@
     <t xml:space="preserve">1.21562027931213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22117102146149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16169846057892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15773367881775</t>
+    <t xml:space="preserve">1.2211709022522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16169834136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15773355960846</t>
   </si>
   <si>
     <t xml:space="preserve">1.22513592243195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21799910068512</t>
+    <t xml:space="preserve">1.21799921989441</t>
   </si>
   <si>
     <t xml:space="preserve">1.25368273258209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2861944437027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28064382076263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3083975315094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27667891979218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30443263053894</t>
+    <t xml:space="preserve">1.28619432449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28064358234406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30839741230011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2766786813736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30443274974823</t>
   </si>
   <si>
     <t xml:space="preserve">1.28222954273224</t>
@@ -383,10 +383,10 @@
     <t xml:space="preserve">1.30522561073303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27271389961243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28460848331451</t>
+    <t xml:space="preserve">1.27271401882172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2846086025238</t>
   </si>
   <si>
     <t xml:space="preserve">1.27350687980652</t>
@@ -398,10 +398,10 @@
     <t xml:space="preserve">1.30046784877777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29888188838959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31632721424103</t>
+    <t xml:space="preserve">1.29888200759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31632709503174</t>
   </si>
   <si>
     <t xml:space="preserve">1.30760455131531</t>
@@ -410,10 +410,10 @@
     <t xml:space="preserve">1.31553423404694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32425689697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33218669891357</t>
+    <t xml:space="preserve">1.32425677776337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.332186460495</t>
   </si>
   <si>
     <t xml:space="preserve">1.33615124225616</t>
@@ -422,43 +422,43 @@
     <t xml:space="preserve">1.32663571834564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35994040966034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38928008079529</t>
+    <t xml:space="preserve">1.35994052886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38928020000458</t>
   </si>
   <si>
     <t xml:space="preserve">1.42734265327454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41069054603577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40355372428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39958882331848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38531541824341</t>
+    <t xml:space="preserve">1.41069042682648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40355360507965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39958894252777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3853155374527</t>
   </si>
   <si>
     <t xml:space="preserve">1.34804594516754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3639053106308</t>
+    <t xml:space="preserve">1.36390542984009</t>
   </si>
   <si>
     <t xml:space="preserve">1.37976479530334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3646981716156</t>
+    <t xml:space="preserve">1.36469805240631</t>
   </si>
   <si>
     <t xml:space="preserve">1.36707723140717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36787021160126</t>
+    <t xml:space="preserve">1.36786997318268</t>
   </si>
   <si>
     <t xml:space="preserve">1.3750067949295</t>
@@ -473,16 +473,16 @@
     <t xml:space="preserve">1.36945605278015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35121786594391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32504987716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32108497619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29967486858368</t>
+    <t xml:space="preserve">1.35121762752533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32504999637604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32108509540558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29967498779297</t>
   </si>
   <si>
     <t xml:space="preserve">1.29650294780731</t>
@@ -491,49 +491,49 @@
     <t xml:space="preserve">1.29333114624023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27588582038879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29729604721069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30681157112122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29174506664276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27905774116516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26240539550781</t>
+    <t xml:space="preserve">1.2758857011795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2972959280014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30681169033051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29174518585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27905786037445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26240527629852</t>
   </si>
   <si>
     <t xml:space="preserve">1.25288987159729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26637017726898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27509272098541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29491710662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27826488018036</t>
+    <t xml:space="preserve">1.26637029647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2750928401947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29491698741913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27826476097107</t>
   </si>
   <si>
     <t xml:space="preserve">1.28381538391113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27192091941833</t>
+    <t xml:space="preserve">1.27192103862762</t>
   </si>
   <si>
     <t xml:space="preserve">1.26874911785126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2655770778656</t>
+    <t xml:space="preserve">1.26557719707489</t>
   </si>
   <si>
     <t xml:space="preserve">1.24178814888</t>
@@ -542,34 +542,34 @@
     <t xml:space="preserve">1.23861646652222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20531165599823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22910070419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21324133872986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20610463619232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1981748342514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19183135032654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21641325950623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20293259620667</t>
+    <t xml:space="preserve">1.20531153678894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22910058498383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21324121952057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2061048746109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19817495346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19183111190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21641314029694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20293271541595</t>
   </si>
   <si>
     <t xml:space="preserve">1.20927655696869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23465144634247</t>
+    <t xml:space="preserve">1.23465156555176</t>
   </si>
   <si>
     <t xml:space="preserve">1.22196400165558</t>
@@ -581,28 +581,28 @@
     <t xml:space="preserve">1.23703038692474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22989356517792</t>
+    <t xml:space="preserve">1.22989344596863</t>
   </si>
   <si>
     <t xml:space="preserve">1.23306548595428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23782324790955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29412412643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27985060214996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27033507823944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27747178077698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23385834693909</t>
+    <t xml:space="preserve">1.23782336711884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29412400722504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27985072135925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27033495903015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27747166156769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23385846614838</t>
   </si>
   <si>
     <t xml:space="preserve">1.22830784320831</t>
@@ -614,10 +614,10 @@
     <t xml:space="preserve">1.2195850610733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21244835853577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21879196166992</t>
+    <t xml:space="preserve">1.21244859695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2187922000885</t>
   </si>
   <si>
     <t xml:space="preserve">1.2203780412674</t>
@@ -626,13 +626,13 @@
     <t xml:space="preserve">1.25606155395508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24892497062683</t>
+    <t xml:space="preserve">1.24892485141754</t>
   </si>
   <si>
     <t xml:space="preserve">1.2647842168808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32584285736084</t>
+    <t xml:space="preserve">1.32584297657013</t>
   </si>
   <si>
     <t xml:space="preserve">1.32822167873383</t>
@@ -641,28 +641,28 @@
     <t xml:space="preserve">1.36152637004852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.352010846138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34408116340637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37183487415314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3742139339447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40593254566193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4178272485733</t>
+    <t xml:space="preserve">1.35201072692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34408128261566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37183511257172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37421381473541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40593266487122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41782712936401</t>
   </si>
   <si>
     <t xml:space="preserve">1.40196776390076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43527245521545</t>
+    <t xml:space="preserve">1.43527233600616</t>
   </si>
   <si>
     <t xml:space="preserve">1.43447947502136</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">1.43923735618591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39800298213959</t>
+    <t xml:space="preserve">1.3980028629303</t>
   </si>
   <si>
     <t xml:space="preserve">1.40989744663239</t>
@@ -689,13 +689,13 @@
     <t xml:space="preserve">1.43685841560364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4749208688736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45113170146942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45906150341034</t>
+    <t xml:space="preserve">1.47492098808289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45113182067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45906162261963</t>
   </si>
   <si>
     <t xml:space="preserve">1.50267457962036</t>
@@ -704,58 +704,58 @@
     <t xml:space="preserve">1.48285055160522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50346779823303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4733350276947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48919427394867</t>
+    <t xml:space="preserve">1.50346767902374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47333490848541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48919415473938</t>
   </si>
   <si>
     <t xml:space="preserve">1.52249884605408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50663959980011</t>
+    <t xml:space="preserve">1.50663948059082</t>
   </si>
   <si>
     <t xml:space="preserve">1.51298320293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5288428068161</t>
+    <t xml:space="preserve">1.52884268760681</t>
   </si>
   <si>
     <t xml:space="preserve">1.4971239566803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4860223531723</t>
+    <t xml:space="preserve">1.48602223396301</t>
   </si>
   <si>
     <t xml:space="preserve">1.50426065921783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53765249252319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57104432582855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62561142444611</t>
+    <t xml:space="preserve">1.5376523733139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57104444503784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6256115436554</t>
   </si>
   <si>
     <t xml:space="preserve">1.66470420360565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69402372837067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71845674514771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73963224887848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64352869987488</t>
+    <t xml:space="preserve">1.69402384757996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71845686435699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7396320104599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64352893829346</t>
   </si>
   <si>
     <t xml:space="preserve">1.63701343536377</t>
@@ -764,22 +764,22 @@
     <t xml:space="preserve">1.6109516620636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60199284553528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61502385139465</t>
+    <t xml:space="preserve">1.60199272632599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61502397060394</t>
   </si>
   <si>
     <t xml:space="preserve">1.59059059619904</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59221971035004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56371438503265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56534326076508</t>
+    <t xml:space="preserve">1.59221959114075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56371426582336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56534337997437</t>
   </si>
   <si>
     <t xml:space="preserve">1.55882787704468</t>
@@ -788,19 +788,19 @@
     <t xml:space="preserve">1.55149781703949</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55557000637054</t>
+    <t xml:space="preserve">1.55556988716125</t>
   </si>
   <si>
     <t xml:space="preserve">1.5229926109314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58000314235687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58081758022308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59466290473938</t>
+    <t xml:space="preserve">1.58000326156616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58081746101379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59466278553009</t>
   </si>
   <si>
     <t xml:space="preserve">1.57430195808411</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">1.54742574691772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53683805465698</t>
+    <t xml:space="preserve">1.53683793544769</t>
   </si>
   <si>
     <t xml:space="preserve">1.54905450344086</t>
@@ -818,55 +818,55 @@
     <t xml:space="preserve">1.53928136825562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54498243331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53520917892456</t>
+    <t xml:space="preserve">1.5449823141098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53520905971527</t>
   </si>
   <si>
     <t xml:space="preserve">1.54416799545288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56452894210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60036396980286</t>
+    <t xml:space="preserve">1.56452882289886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60036408901215</t>
   </si>
   <si>
     <t xml:space="preserve">1.61665272712708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58896172046661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58814752101898</t>
+    <t xml:space="preserve">1.5889618396759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58814764022827</t>
   </si>
   <si>
     <t xml:space="preserve">1.61583817005157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61258041858673</t>
+    <t xml:space="preserve">1.61258053779602</t>
   </si>
   <si>
     <t xml:space="preserve">1.64515781402588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63538455963135</t>
+    <t xml:space="preserve">1.63538467884064</t>
   </si>
   <si>
     <t xml:space="preserve">1.62886905670166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60525047779083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62072479724884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63864231109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63049817085266</t>
+    <t xml:space="preserve">1.60525059700012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62072491645813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63864243030548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63049805164337</t>
   </si>
   <si>
     <t xml:space="preserve">1.64841544628143</t>
@@ -884,43 +884,43 @@
     <t xml:space="preserve">1.62153923511505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63375580310822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67773509025574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60606479644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59303402900696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6028071641922</t>
+    <t xml:space="preserve">1.6337559223175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67773520946503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60606503486633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59303390979767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60280740261078</t>
   </si>
   <si>
     <t xml:space="preserve">1.65981769561768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65655970573425</t>
+    <t xml:space="preserve">1.65655994415283</t>
   </si>
   <si>
     <t xml:space="preserve">1.64027118682861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68099284172058</t>
+    <t xml:space="preserve">1.68099296092987</t>
   </si>
   <si>
     <t xml:space="preserve">1.69565272331238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68587946891785</t>
+    <t xml:space="preserve">1.68587958812714</t>
   </si>
   <si>
     <t xml:space="preserve">1.76732313632965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81618916988373</t>
+    <t xml:space="preserve">1.81618893146515</t>
   </si>
   <si>
     <t xml:space="preserve">1.79501366615295</t>
@@ -929,85 +929,85 @@
     <t xml:space="preserve">1.83247768878937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84876656532288</t>
+    <t xml:space="preserve">1.84876644611359</t>
   </si>
   <si>
     <t xml:space="preserve">1.86342632770538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79175591468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81944692134857</t>
+    <t xml:space="preserve">1.79175615310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81944680213928</t>
   </si>
   <si>
     <t xml:space="preserve">1.8064159154892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80804467201233</t>
+    <t xml:space="preserve">1.80804491043091</t>
   </si>
   <si>
     <t xml:space="preserve">1.81781816482544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80967354774475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81130242347717</t>
+    <t xml:space="preserve">1.80967342853546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81130230426788</t>
   </si>
   <si>
     <t xml:space="preserve">1.8292201757431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8275910615921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79827129840851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77546751499176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78361165523529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88948822021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95138514041901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96441638469696</t>
+    <t xml:space="preserve">1.82759118080139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79827153682709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77546715736389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78361177444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88948810100555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95138537883759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96441602706909</t>
   </si>
   <si>
     <t xml:space="preserve">1.94161200523376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94975662231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9953647851944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01979780197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99210715293884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91392111778259</t>
+    <t xml:space="preserve">1.94975650310516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99536466598511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01979756355286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99210703372955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91392123699188</t>
   </si>
   <si>
     <t xml:space="preserve">1.85528230667114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79990041255951</t>
+    <t xml:space="preserve">1.7999005317688</t>
   </si>
   <si>
     <t xml:space="preserve">1.90903472900391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9236946105957</t>
+    <t xml:space="preserve">1.92369425296783</t>
   </si>
   <si>
     <t xml:space="preserve">1.98722052574158</t>
@@ -1016,136 +1016,133 @@
     <t xml:space="preserve">1.95627200603485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97418940067291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8731997013092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88623070716858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86994159221649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89763236045837</t>
+    <t xml:space="preserve">1.97418963909149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87319946289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86994171142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89763259887695</t>
   </si>
   <si>
     <t xml:space="preserve">1.86668407917023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84387993812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83573544025421</t>
+    <t xml:space="preserve">1.84387981891632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83573532104492</t>
   </si>
   <si>
     <t xml:space="preserve">1.82433354854584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77383852005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80315804481506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86831295490265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86179733276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90414822101593</t>
+    <t xml:space="preserve">1.77383863925934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80315828323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86831283569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86179757118225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90414798259735</t>
   </si>
   <si>
     <t xml:space="preserve">1.87971520423889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88460159301758</t>
+    <t xml:space="preserve">1.88460147380829</t>
   </si>
   <si>
     <t xml:space="preserve">1.88134407997131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85691094398499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93021023273468</t>
+    <t xml:space="preserve">1.85691070556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93020987510681</t>
   </si>
   <si>
     <t xml:space="preserve">1.90577685832977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97093152999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97907614707947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95464324951172</t>
+    <t xml:space="preserve">1.97093164920807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97907590866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95464301109314</t>
   </si>
   <si>
     <t xml:space="preserve">2.03608632087708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04423069953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96278762817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94649863243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9220654964447</t>
+    <t xml:space="preserve">2.04423117637634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96278750896454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94649851322174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92206573486328</t>
   </si>
   <si>
     <t xml:space="preserve">1.93835437297821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01165366172791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00350904464722</t>
+    <t xml:space="preserve">2.01165342330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0035092830658</t>
   </si>
   <si>
     <t xml:space="preserve">2.0443971157074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03608655929565</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.05270743370056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00284457206726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01946544647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96960210800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96129131317139</t>
+    <t xml:space="preserve">2.00284433364868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01946520805359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96960186958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96129155158997</t>
   </si>
   <si>
     <t xml:space="preserve">2.0610179901123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9862232208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95298063755035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90311717987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84494364261627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91142809391022</t>
+    <t xml:space="preserve">1.98622298240662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95298087596893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90311741828918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84494376182556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91142797470093</t>
   </si>
   <si>
     <t xml:space="preserve">1.82001197338104</t>
@@ -1154,13 +1151,13 @@
     <t xml:space="preserve">1.83663320541382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81170153617859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89480698108673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79508018493652</t>
+    <t xml:space="preserve">1.81170117855072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89480686187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79508030414581</t>
   </si>
   <si>
     <t xml:space="preserve">1.77845931053162</t>
@@ -1172,13 +1169,13 @@
     <t xml:space="preserve">1.80339097976685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76183784008026</t>
+    <t xml:space="preserve">1.76183795928955</t>
   </si>
   <si>
     <t xml:space="preserve">1.70366406440735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64133489131927</t>
+    <t xml:space="preserve">1.64133501052856</t>
   </si>
   <si>
     <t xml:space="preserve">1.65795600414276</t>
@@ -1187,7 +1184,7 @@
     <t xml:space="preserve">1.61224818229675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5332977771759</t>
+    <t xml:space="preserve">1.53329765796661</t>
   </si>
   <si>
     <t xml:space="preserve">1.52914249897003</t>
@@ -1199,10 +1196,10 @@
     <t xml:space="preserve">1.4626579284668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49590015411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50836598873138</t>
+    <t xml:space="preserve">1.49590027332306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50836610794067</t>
   </si>
   <si>
     <t xml:space="preserve">1.48343431949615</t>
@@ -1214,49 +1211,49 @@
     <t xml:space="preserve">1.47096860408783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46681320667267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45434749126434</t>
+    <t xml:space="preserve">1.46681332588196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45434737205505</t>
   </si>
   <si>
     <t xml:space="preserve">1.41279470920563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38786280155182</t>
+    <t xml:space="preserve">1.38786292076111</t>
   </si>
   <si>
     <t xml:space="preserve">1.37539708614349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3587760925293</t>
+    <t xml:space="preserve">1.35877597332001</t>
   </si>
   <si>
     <t xml:space="preserve">1.35046553611755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36293137073517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40448403358459</t>
+    <t xml:space="preserve">1.36293125152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40448415279388</t>
   </si>
   <si>
     <t xml:space="preserve">1.39617347717285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40863943099976</t>
+    <t xml:space="preserve">1.40863955020905</t>
   </si>
   <si>
     <t xml:space="preserve">1.40032875537872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42941570281982</t>
+    <t xml:space="preserve">1.4294159412384</t>
   </si>
   <si>
     <t xml:space="preserve">1.4169499874115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44188165664673</t>
+    <t xml:space="preserve">1.44188153743744</t>
   </si>
   <si>
     <t xml:space="preserve">1.45019221305847</t>
@@ -1265,13 +1262,13 @@
     <t xml:space="preserve">1.4460369348526</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42526042461395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51252126693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50005555152893</t>
+    <t xml:space="preserve">1.42526054382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51252114772797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50005543231964</t>
   </si>
   <si>
     <t xml:space="preserve">1.520831823349</t>
@@ -1280,25 +1277,25 @@
     <t xml:space="preserve">1.4751238822937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47927916049957</t>
+    <t xml:space="preserve">1.47927904129028</t>
   </si>
   <si>
     <t xml:space="preserve">1.55407404899597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4917448759079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50421071052551</t>
+    <t xml:space="preserve">1.49174499511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5042108297348</t>
   </si>
   <si>
     <t xml:space="preserve">1.45850265026093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43772637844086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37955260276794</t>
+    <t xml:space="preserve">1.43772625923157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37955236434937</t>
   </si>
   <si>
     <t xml:space="preserve">1.43357110023499</t>
@@ -1316,16 +1313,16 @@
     <t xml:space="preserve">1.440021276474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46596765518188</t>
+    <t xml:space="preserve">1.46596789360046</t>
   </si>
   <si>
     <t xml:space="preserve">1.45731890201569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47894084453583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51353597640991</t>
+    <t xml:space="preserve">1.47894096374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51353585720062</t>
   </si>
   <si>
     <t xml:space="preserve">1.5308336019516</t>
@@ -1334,10 +1331,10 @@
     <t xml:space="preserve">1.51786029338837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52650904655457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53515779972076</t>
+    <t xml:space="preserve">1.52650916576385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53515791893005</t>
   </si>
   <si>
     <t xml:space="preserve">1.59137499332428</t>
@@ -1346,46 +1343,49 @@
     <t xml:space="preserve">1.62164568901062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63461875915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63894331455231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61732137203217</t>
+    <t xml:space="preserve">1.63461887836456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63894319534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61732125282288</t>
   </si>
   <si>
     <t xml:space="preserve">1.58705067634583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62597000598907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5654284954071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57407748699188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55677974224091</t>
+    <t xml:space="preserve">1.62597012519836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56542873382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5740772485733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5567798614502</t>
   </si>
   <si>
     <t xml:space="preserve">1.54380667209625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5394823551178</t>
+    <t xml:space="preserve">1.53948223590851</t>
   </si>
   <si>
     <t xml:space="preserve">1.52218472957611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50921142101288</t>
+    <t xml:space="preserve">1.50921165943146</t>
   </si>
   <si>
     <t xml:space="preserve">1.50056278705597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54813098907471</t>
+    <t xml:space="preserve">1.548131108284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48758983612061</t>
   </si>
   <si>
     <t xml:space="preserve">1.48326528072357</t>
@@ -1397,19 +1397,19 @@
     <t xml:space="preserve">1.46164333820343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60867249965668</t>
+    <t xml:space="preserve">1.60867261886597</t>
   </si>
   <si>
     <t xml:space="preserve">1.60002374649048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58272624015808</t>
+    <t xml:space="preserve">1.58272612094879</t>
   </si>
   <si>
     <t xml:space="preserve">1.61299693584442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64759206771851</t>
+    <t xml:space="preserve">1.64759194850922</t>
   </si>
   <si>
     <t xml:space="preserve">1.64326763153076</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">1.69083595275879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72975540161133</t>
+    <t xml:space="preserve">1.72975528240204</t>
   </si>
   <si>
     <t xml:space="preserve">1.69516038894653</t>
@@ -1427,31 +1427,31 @@
     <t xml:space="preserve">1.66921389102936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66056513786316</t>
+    <t xml:space="preserve">1.66056501865387</t>
   </si>
   <si>
     <t xml:space="preserve">1.6562408208847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72110652923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68651151657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67786276340485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66488945484161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6735383272171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68218719959259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65191638469696</t>
+    <t xml:space="preserve">1.72110664844513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68651163578033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67786288261414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6648895740509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67353820800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6821870803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65191626548767</t>
   </si>
   <si>
     <t xml:space="preserve">1.70380902290344</t>
@@ -1463,25 +1463,25 @@
     <t xml:space="preserve">2.02381372451782</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04111123085022</t>
+    <t xml:space="preserve">2.0411114692688</t>
   </si>
   <si>
     <t xml:space="preserve">2.11030173301697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33516955375671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23138451576233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34381890296936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38706231117249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40436005592346</t>
+    <t xml:space="preserve">2.33517003059387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23138427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34381866455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38706207275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40435981750488</t>
   </si>
   <si>
     <t xml:space="preserve">2.41300868988037</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">2.36111617088318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42165732383728</t>
+    <t xml:space="preserve">2.42165756225586</t>
   </si>
   <si>
     <t xml:space="preserve">2.29192614555359</t>
@@ -1499,25 +1499,25 @@
     <t xml:space="preserve">2.15354561805725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97192144393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98056995868683</t>
+    <t xml:space="preserve">1.97192108631134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98056983947754</t>
   </si>
   <si>
     <t xml:space="preserve">2.07570648193359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01516485214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77299928665161</t>
+    <t xml:space="preserve">2.01516509056091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77299916744232</t>
   </si>
   <si>
     <t xml:space="preserve">1.56975305080414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72543108463287</t>
+    <t xml:space="preserve">1.72543096542358</t>
   </si>
   <si>
     <t xml:space="preserve">1.86813592910767</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">1.76435041427612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78164792060852</t>
+    <t xml:space="preserve">1.78164803981781</t>
   </si>
   <si>
     <t xml:space="preserve">1.8248918056488</t>
@@ -1535,10 +1535,10 @@
     <t xml:space="preserve">1.73840415477753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79894542694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79029667377472</t>
+    <t xml:space="preserve">1.79894554615021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7902969121933</t>
   </si>
   <si>
     <t xml:space="preserve">1.89408218860626</t>
@@ -1547,10 +1547,10 @@
     <t xml:space="preserve">1.85948717594147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75570166110992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80759429931641</t>
+    <t xml:space="preserve">1.75570178031921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80759418010712</t>
   </si>
   <si>
     <t xml:space="preserve">1.74705290794373</t>
@@ -1559,25 +1559,25 @@
     <t xml:space="preserve">1.83354067802429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90273106098175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91137957572937</t>
+    <t xml:space="preserve">1.90273094177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91137993335724</t>
   </si>
   <si>
     <t xml:space="preserve">2.06705760955811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11895060539246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0843551158905</t>
+    <t xml:space="preserve">2.11895036697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08435535430908</t>
   </si>
   <si>
     <t xml:space="preserve">2.11000943183899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07424664497375</t>
+    <t xml:space="preserve">2.07424688339233</t>
   </si>
   <si>
     <t xml:space="preserve">2.06530594825745</t>
@@ -1586,10 +1586,10 @@
     <t xml:space="preserve">2.01166176795959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9937801361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96695816516876</t>
+    <t xml:space="preserve">1.99378025531769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96695828437805</t>
   </si>
   <si>
     <t xml:space="preserve">1.94013607501984</t>
@@ -1598,10 +1598,10 @@
     <t xml:space="preserve">1.90437316894531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94907653331757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92225468158722</t>
+    <t xml:space="preserve">1.94907665252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92225456237793</t>
   </si>
   <si>
     <t xml:space="preserve">1.91331386566162</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">1.88649141788483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93119525909424</t>
+    <t xml:space="preserve">1.93119537830353</t>
   </si>
   <si>
     <t xml:space="preserve">1.87755084037781</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">1.80602514743805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79708445072174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85072863101959</t>
+    <t xml:space="preserve">1.79708456993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85072875022888</t>
   </si>
   <si>
     <t xml:space="preserve">1.83284735679626</t>
@@ -1646,16 +1646,16 @@
     <t xml:space="preserve">1.8686101436615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78814375400543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77026224136353</t>
+    <t xml:space="preserve">1.78814363479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77026236057281</t>
   </si>
   <si>
     <t xml:space="preserve">1.76132154464722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76579189300537</t>
+    <t xml:space="preserve">1.76579201221466</t>
   </si>
   <si>
     <t xml:space="preserve">1.7434401512146</t>
@@ -1667,19 +1667,19 @@
     <t xml:space="preserve">2.1189501285553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21729826927185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12789130210876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10106897354126</t>
+    <t xml:space="preserve">2.21729850769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12789106369019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10106873512268</t>
   </si>
   <si>
     <t xml:space="preserve">2.02954292297363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0384840965271</t>
+    <t xml:space="preserve">2.03848385810852</t>
   </si>
   <si>
     <t xml:space="preserve">2.04742455482483</t>
@@ -1697,19 +1697,19 @@
     <t xml:space="preserve">2.18153548240662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15471315383911</t>
+    <t xml:space="preserve">2.15471339225769</t>
   </si>
   <si>
     <t xml:space="preserve">2.13683176040649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1457724571228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23517942428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37823104858398</t>
+    <t xml:space="preserve">2.14577269554138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23517966270447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37823128700256</t>
   </si>
   <si>
     <t xml:space="preserve">2.36034989356995</t>
@@ -1718,19 +1718,19 @@
     <t xml:space="preserve">2.35140895843506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34246826171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32458662986755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3787899017334</t>
+    <t xml:space="preserve">2.34246802330017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32458686828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37878966331482</t>
   </si>
   <si>
     <t xml:space="preserve">2.36034965515137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3695695400238</t>
+    <t xml:space="preserve">2.36956977844238</t>
   </si>
   <si>
     <t xml:space="preserve">2.33268928527832</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">2.2128279209137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22204780578613</t>
+    <t xml:space="preserve">2.22204804420471</t>
   </si>
   <si>
     <t xml:space="preserve">2.07452607154846</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">2.13906693458557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24970817565918</t>
+    <t xml:space="preserve">2.24970841407776</t>
   </si>
   <si>
     <t xml:space="preserve">2.28658890724182</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">2.3234691619873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34190917015076</t>
+    <t xml:space="preserve">2.34190940856934</t>
   </si>
   <si>
     <t xml:space="preserve">2.31424903869629</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">2.05608582496643</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02842545509338</t>
+    <t xml:space="preserve">2.02842569351196</t>
   </si>
   <si>
     <t xml:space="preserve">2.08374619483948</t>
@@ -18884,7 +18884,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G634" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18910,7 +18910,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G635" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18936,7 +18936,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G636" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18962,7 +18962,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G637" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18988,7 +18988,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G638" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19092,7 +19092,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G642" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19118,7 +19118,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G643" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19170,7 +19170,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G645" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19196,7 +19196,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G646" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19222,7 +19222,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G647" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19248,7 +19248,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G648" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19274,7 +19274,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G649" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19300,7 +19300,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G650" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19326,7 +19326,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G651" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19378,7 +19378,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G653" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19404,7 +19404,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G654" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19560,7 +19560,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G660" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19586,7 +19586,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G661" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19612,7 +19612,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G662" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19664,7 +19664,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G664" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19690,7 +19690,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G665" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19794,7 +19794,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G669" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19846,7 +19846,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G671" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20028,7 +20028,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G678" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20158,7 +20158,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G683" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20184,7 +20184,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G684" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20210,7 +20210,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G685" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20236,7 +20236,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G686" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20262,7 +20262,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G687" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20470,7 +20470,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G695" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20496,7 +20496,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G696" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20704,7 +20704,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G704" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20808,7 +20808,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G708" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20834,7 +20834,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G709" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20990,7 +20990,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G715" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21016,7 +21016,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G716" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21042,7 +21042,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G717" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21068,7 +21068,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G718" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21094,7 +21094,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G719" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21120,7 +21120,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G720" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21146,7 +21146,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G721" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21172,7 +21172,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G722" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21198,7 +21198,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G723" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21224,7 +21224,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G724" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21250,7 +21250,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G725" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21276,7 +21276,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G726" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21302,7 +21302,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G727" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21328,7 +21328,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G728" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21354,7 +21354,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G729" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21380,7 +21380,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G730" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21406,7 +21406,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G731" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21432,7 +21432,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G732" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21458,7 +21458,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G733" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21484,7 +21484,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G734" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21510,7 +21510,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G735" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21536,7 +21536,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G736" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21562,7 +21562,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G737" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21588,7 +21588,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G738" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21614,7 +21614,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G739" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21640,7 +21640,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G740" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21666,7 +21666,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G741" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21692,7 +21692,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G742" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21718,7 +21718,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G743" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21744,7 +21744,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G744" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21770,7 +21770,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G745" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21796,7 +21796,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G746" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21822,7 +21822,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G747" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21848,7 +21848,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G748" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21874,7 +21874,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G749" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21900,7 +21900,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G750" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21926,7 +21926,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G751" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21952,7 +21952,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G752" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21978,7 +21978,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G753" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22004,7 +22004,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G754" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22030,7 +22030,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G755" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22056,7 +22056,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G756" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22082,7 +22082,7 @@
         <v>1.75</v>
       </c>
       <c r="G757" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22108,7 +22108,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G758" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22134,7 +22134,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G759" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22160,7 +22160,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G760" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22186,7 +22186,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G761" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22212,7 +22212,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G762" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22238,7 +22238,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G763" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22264,7 +22264,7 @@
         <v>1.63499999046326</v>
       </c>
       <c r="G764" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22290,7 +22290,7 @@
         <v>1.625</v>
       </c>
       <c r="G765" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22316,7 +22316,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G766" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22342,7 +22342,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G767" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22368,7 +22368,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G768" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22394,7 +22394,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G769" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22420,7 +22420,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G770" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22446,7 +22446,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G771" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22472,7 +22472,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G772" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22498,7 +22498,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G773" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22524,7 +22524,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G774" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22550,7 +22550,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G775" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22576,7 +22576,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G776" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22602,7 +22602,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G777" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22628,7 +22628,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G778" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22654,7 +22654,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G779" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22680,7 +22680,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G780" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22706,7 +22706,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G781" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22732,7 +22732,7 @@
         <v>1.68499994277954</v>
       </c>
       <c r="G782" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22758,7 +22758,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G783" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22784,7 +22784,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G784" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22810,7 +22810,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G785" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22836,7 +22836,7 @@
         <v>1.75</v>
       </c>
       <c r="G786" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22862,7 +22862,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G787" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22888,7 +22888,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G788" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22914,7 +22914,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G789" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22940,7 +22940,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G790" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22966,7 +22966,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G791" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22992,7 +22992,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G792" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23018,7 +23018,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G793" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23044,7 +23044,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G794" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23070,7 +23070,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G795" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23096,7 +23096,7 @@
         <v>1.75</v>
       </c>
       <c r="G796" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23122,7 +23122,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G797" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23148,7 +23148,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G798" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23174,7 +23174,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G799" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23200,7 +23200,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G800" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23226,7 +23226,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G801" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23252,7 +23252,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G802" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23278,7 +23278,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G803" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23304,7 +23304,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G804" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23330,7 +23330,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G805" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23356,7 +23356,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G806" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23382,7 +23382,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G807" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23408,7 +23408,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G808" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23434,7 +23434,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G809" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23460,7 +23460,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G810" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23486,7 +23486,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G811" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23512,7 +23512,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G812" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23538,7 +23538,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G813" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23564,7 +23564,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G814" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23590,7 +23590,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G815" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23616,7 +23616,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G816" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23642,7 +23642,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G817" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23668,7 +23668,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G818" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23694,7 +23694,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G819" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23720,7 +23720,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G820" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23746,7 +23746,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G821" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23772,7 +23772,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G822" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23798,7 +23798,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G823" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23824,7 +23824,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G824" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23850,7 +23850,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G825" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23876,7 +23876,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G826" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23902,7 +23902,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G827" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23928,7 +23928,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G828" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23954,7 +23954,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G829" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23980,7 +23980,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G830" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24006,7 +24006,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G831" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24032,7 +24032,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G832" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24058,7 +24058,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G833" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24084,7 +24084,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G834" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24110,7 +24110,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G835" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24136,7 +24136,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G836" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24162,7 +24162,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G837" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24188,7 +24188,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G838" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24214,7 +24214,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G839" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24240,7 +24240,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G840" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24266,7 +24266,7 @@
         <v>1.75</v>
       </c>
       <c r="G841" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24292,7 +24292,7 @@
         <v>1.75</v>
       </c>
       <c r="G842" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24318,7 +24318,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G843" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24344,7 +24344,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G844" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24370,7 +24370,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G845" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24396,7 +24396,7 @@
         <v>1.75</v>
       </c>
       <c r="G846" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24422,7 +24422,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G847" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24448,7 +24448,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G848" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24474,7 +24474,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G849" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24500,7 +24500,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G850" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24526,7 +24526,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G851" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24552,7 +24552,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G852" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24578,7 +24578,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G853" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24604,7 +24604,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G854" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24630,7 +24630,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24656,7 +24656,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G856" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24682,7 +24682,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G857" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24708,7 +24708,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G858" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24734,7 +24734,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G859" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24760,7 +24760,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G860" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24786,7 +24786,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G861" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24812,7 +24812,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G862" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24838,7 +24838,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G863" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24864,7 +24864,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G864" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24890,7 +24890,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G865" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24916,7 +24916,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G866" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24942,7 +24942,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G867" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24968,7 +24968,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G868" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24994,7 +24994,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G869" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25020,7 +25020,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G870" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25046,7 +25046,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G871" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25072,7 +25072,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G872" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25098,7 +25098,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G873" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25124,7 +25124,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G874" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25150,7 +25150,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G875" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25176,7 +25176,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G876" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25202,7 +25202,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G877" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25228,7 +25228,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G878" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25254,7 +25254,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G879" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25280,7 +25280,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G880" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25306,7 +25306,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G881" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25332,7 +25332,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G882" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25358,7 +25358,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G883" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25384,7 +25384,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G884" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25410,7 +25410,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G885" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25436,7 +25436,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G886" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25462,7 +25462,7 @@
         <v>1.66499996185303</v>
       </c>
       <c r="G887" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25488,7 +25488,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G888" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25514,7 +25514,7 @@
         <v>1.68499994277954</v>
       </c>
       <c r="G889" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25540,7 +25540,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G890" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25566,7 +25566,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G891" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25592,7 +25592,7 @@
         <v>1.75</v>
       </c>
       <c r="G892" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25618,7 +25618,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G893" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25644,7 +25644,7 @@
         <v>1.75</v>
       </c>
       <c r="G894" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25670,7 +25670,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G895" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25696,7 +25696,7 @@
         <v>1.75</v>
       </c>
       <c r="G896" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25722,7 +25722,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G897" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25748,7 +25748,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G898" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25774,7 +25774,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G899" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25800,7 +25800,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G900" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25826,7 +25826,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G901" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25852,7 +25852,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G902" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25878,7 +25878,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G903" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25904,7 +25904,7 @@
         <v>1.875</v>
       </c>
       <c r="G904" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25930,7 +25930,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G905" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25956,7 +25956,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G906" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25982,7 +25982,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G907" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26008,7 +26008,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G908" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26034,7 +26034,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G909" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26060,7 +26060,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G910" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26086,7 +26086,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26112,7 +26112,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G912" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26138,7 +26138,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G913" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26164,7 +26164,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G914" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26190,7 +26190,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G915" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26216,7 +26216,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G916" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26242,7 +26242,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G917" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26268,7 +26268,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G918" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26294,7 +26294,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G919" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26320,7 +26320,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G920" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26346,7 +26346,7 @@
         <v>1.75</v>
       </c>
       <c r="G921" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26372,7 +26372,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G922" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26398,7 +26398,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G923" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26424,7 +26424,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G924" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26450,7 +26450,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G925" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26476,7 +26476,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G926" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26502,7 +26502,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G927" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26528,7 +26528,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G928" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26554,7 +26554,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G929" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26580,7 +26580,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G930" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26606,7 +26606,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G931" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26632,7 +26632,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G932" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26658,7 +26658,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G933" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26684,7 +26684,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G934" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26710,7 +26710,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G935" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26736,7 +26736,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G936" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26762,7 +26762,7 @@
         <v>1.75</v>
       </c>
       <c r="G937" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26788,7 +26788,7 @@
         <v>1.75</v>
       </c>
       <c r="G938" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26814,7 +26814,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G939" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26840,7 +26840,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G940" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26866,7 +26866,7 @@
         <v>1.75</v>
       </c>
       <c r="G941" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26892,7 +26892,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G942" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26918,7 +26918,7 @@
         <v>1.75</v>
       </c>
       <c r="G943" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26944,7 +26944,7 @@
         <v>1.75</v>
       </c>
       <c r="G944" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26970,7 +26970,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26996,7 +26996,7 @@
         <v>1.75</v>
       </c>
       <c r="G946" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27022,7 +27022,7 @@
         <v>1.75</v>
       </c>
       <c r="G947" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27048,7 +27048,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G948" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27074,7 +27074,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G949" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27126,7 +27126,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G951" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27178,7 +27178,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G953" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27204,7 +27204,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G954" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27230,7 +27230,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G955" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27308,7 +27308,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G958" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -27334,7 +27334,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G959" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27360,7 +27360,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G960" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -27386,7 +27386,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G961" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27464,7 +27464,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G964" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27490,7 +27490,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G965" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27516,7 +27516,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G966" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27542,7 +27542,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G967" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27620,7 +27620,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G970" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27646,7 +27646,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G971" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27672,7 +27672,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G972" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27698,7 +27698,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G973" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27750,7 +27750,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G975" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27776,7 +27776,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G976" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27802,7 +27802,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G977" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27828,7 +27828,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G978" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27854,7 +27854,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G979" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27932,7 +27932,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G982" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27958,7 +27958,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G983" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27984,7 +27984,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G984" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28010,7 +28010,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G985" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28088,7 +28088,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G988" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28114,7 +28114,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G989" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28140,7 +28140,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G990" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28166,7 +28166,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G991" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28244,7 +28244,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G994" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28322,7 +28322,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G997" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28452,7 +28452,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1002" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -28504,7 +28504,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1004" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -28530,7 +28530,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1005" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -28608,7 +28608,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1008" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28738,7 +28738,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G1013" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28894,7 +28894,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1019" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28920,7 +28920,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1020" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -30038,7 +30038,7 @@
         <v>1.75</v>
       </c>
       <c r="G1063" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30064,7 +30064,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1064" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30168,7 +30168,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G1068" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30272,7 +30272,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1072" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -30298,7 +30298,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G1073" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30324,7 +30324,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G1074" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -30350,7 +30350,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G1075" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -30428,7 +30428,7 @@
         <v>1.75</v>
       </c>
       <c r="G1078" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -30454,7 +30454,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1079" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -30480,7 +30480,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G1080" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -58152,7 +58152,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.633587963</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>500</v>
@@ -58173,6 +58173,32 @@
         <v>647</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6494675926</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>6760</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>2.04999995231628</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>2.01999998092651</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>2.01999998092651</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>676</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AC5.MI.xlsx
+++ b/data/AC5.MI.xlsx
@@ -44,31 +44,31 @@
     <t xml:space="preserve">AC5.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22008204460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21931028366089</t>
+    <t xml:space="preserve">1.22008192539215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2193101644516</t>
   </si>
   <si>
     <t xml:space="preserve">1.18689811229706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21159315109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1876699924469</t>
+    <t xml:space="preserve">1.21159327030182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18766987323761</t>
   </si>
   <si>
     <t xml:space="preserve">1.18844163417816</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19615864753723</t>
+    <t xml:space="preserve">1.19615876674652</t>
   </si>
   <si>
     <t xml:space="preserve">1.18149614334106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17455065250397</t>
+    <t xml:space="preserve">1.17455077171326</t>
   </si>
   <si>
     <t xml:space="preserve">1.08348834514618</t>
@@ -77,25 +77,25 @@
     <t xml:space="preserve">1.02252292633057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00322997570038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07654285430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12593269348145</t>
+    <t xml:space="preserve">1.00322985649109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07654273509979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12593257427216</t>
   </si>
   <si>
     <t xml:space="preserve">1.09429240226746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10355281829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14291024208069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1182154417038</t>
+    <t xml:space="preserve">1.10355293750763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14291048049927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11821556091309</t>
   </si>
   <si>
     <t xml:space="preserve">1.12361752986908</t>
@@ -104,43 +104,43 @@
     <t xml:space="preserve">1.11127007007599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13210654258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11204183101654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10586810112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02638161182404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975448250770569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992425978183746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999371349811554</t>
+    <t xml:space="preserve">1.13210642337799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11204195022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10586798191071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02638149261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975448131561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992425858974457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999371230602264</t>
   </si>
   <si>
     <t xml:space="preserve">1.01789259910583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06805396080017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05107629299164</t>
+    <t xml:space="preserve">1.06805408000946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05107641220093</t>
   </si>
   <si>
     <t xml:space="preserve">1.04181575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04258751869202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0881187915802</t>
+    <t xml:space="preserve">1.04258728027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08811867237091</t>
   </si>
   <si>
     <t xml:space="preserve">1.0811733007431</t>
@@ -149,58 +149,58 @@
     <t xml:space="preserve">1.07191264629364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07422769069672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06110846996307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07345628738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07036936283112</t>
+    <t xml:space="preserve">1.07422780990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06110858917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07345604896545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07036912441254</t>
   </si>
   <si>
     <t xml:space="preserve">1.08040130138397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10200953483582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09969425201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08425986766815</t>
+    <t xml:space="preserve">1.10200929641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09969437122345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08426010608673</t>
   </si>
   <si>
     <t xml:space="preserve">1.10741150379181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08966195583344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0904335975647</t>
+    <t xml:space="preserve">1.08966207504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09043383598328</t>
   </si>
   <si>
     <t xml:space="preserve">1.09506404399872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08580338954926</t>
+    <t xml:space="preserve">1.08580350875854</t>
   </si>
   <si>
     <t xml:space="preserve">1.06651055812836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09197700023651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11898744106293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10432469844818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.126704454422</t>
+    <t xml:space="preserve">1.0919771194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11898720264435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10432457923889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12670433521271</t>
   </si>
   <si>
     <t xml:space="preserve">1.19152855873108</t>
@@ -215,13 +215,13 @@
     <t xml:space="preserve">1.1807245016098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28027582168579</t>
+    <t xml:space="preserve">1.2802757024765</t>
   </si>
   <si>
     <t xml:space="preserve">1.26561319828033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22625577449799</t>
+    <t xml:space="preserve">1.2262556552887</t>
   </si>
   <si>
     <t xml:space="preserve">1.23474454879761</t>
@@ -230,19 +230,19 @@
     <t xml:space="preserve">1.25017881393433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21004962921143</t>
+    <t xml:space="preserve">1.21004951000214</t>
   </si>
   <si>
     <t xml:space="preserve">1.189213514328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25789618492126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25635254383087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24323332309723</t>
+    <t xml:space="preserve">1.25789606571198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25635266304016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24323344230652</t>
   </si>
   <si>
     <t xml:space="preserve">1.23165762424469</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">1.23088598251343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22316896915436</t>
+    <t xml:space="preserve">1.22316873073578</t>
   </si>
   <si>
     <t xml:space="preserve">1.24014639854431</t>
@@ -272,31 +272,31 @@
     <t xml:space="preserve">1.31191599369049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31268775463104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3065140247345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32503509521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32272017002106</t>
+    <t xml:space="preserve">1.31268787384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30651390552521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32503533363342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32272005081177</t>
   </si>
   <si>
     <t xml:space="preserve">1.29571008682251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33853030204773</t>
+    <t xml:space="preserve">1.33853018283844</t>
   </si>
   <si>
     <t xml:space="preserve">1.32901465892792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28857326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28698742389679</t>
+    <t xml:space="preserve">1.28857338428497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2869873046875</t>
   </si>
   <si>
     <t xml:space="preserve">1.26002645492554</t>
@@ -305,55 +305,55 @@
     <t xml:space="preserve">1.2631983757019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25923359394073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26081943511963</t>
+    <t xml:space="preserve">1.25923335552216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26081967353821</t>
   </si>
   <si>
     <t xml:space="preserve">1.25209677219391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24496006965637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2505110502243</t>
+    <t xml:space="preserve">1.24496018886566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25051093101501</t>
   </si>
   <si>
     <t xml:space="preserve">1.23623728752136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21165537834167</t>
+    <t xml:space="preserve">1.21165525913239</t>
   </si>
   <si>
     <t xml:space="preserve">1.19341719150543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1973819732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19103813171387</t>
+    <t xml:space="preserve">1.19738185405731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19103825092316</t>
   </si>
   <si>
     <t xml:space="preserve">1.2409952878952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22354996204376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21562016010284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2211709022522</t>
+    <t xml:space="preserve">1.22354984283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21562027931213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22117102146149</t>
   </si>
   <si>
     <t xml:space="preserve">1.16169846057892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15773367881775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22513592243195</t>
+    <t xml:space="preserve">1.15773355960846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22513580322266</t>
   </si>
   <si>
     <t xml:space="preserve">1.21799921989441</t>
@@ -362,28 +362,28 @@
     <t xml:space="preserve">1.25368273258209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2861944437027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28064370155334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30839741230011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2766786813736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30443263053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28222966194153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30522561073303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27271389961243</t>
+    <t xml:space="preserve">1.28619456291199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28064358234406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30839765071869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27667891979218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30443251132965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28222954273224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30522572994232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27271401882172</t>
   </si>
   <si>
     <t xml:space="preserve">1.28460848331451</t>
@@ -392,16 +392,16 @@
     <t xml:space="preserve">1.27350699901581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29253816604614</t>
+    <t xml:space="preserve">1.29253828525543</t>
   </si>
   <si>
     <t xml:space="preserve">1.30046784877777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29888188838959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31632721424103</t>
+    <t xml:space="preserve">1.29888200759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31632709503174</t>
   </si>
   <si>
     <t xml:space="preserve">1.30760455131531</t>
@@ -410,64 +410,64 @@
     <t xml:space="preserve">1.31553423404694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32425677776337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33218657970428</t>
+    <t xml:space="preserve">1.32425701618195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.332186460495</t>
   </si>
   <si>
     <t xml:space="preserve">1.33615136146545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32663571834564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35994052886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38928031921387</t>
+    <t xml:space="preserve">1.32663559913635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35994040966034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38928020000458</t>
   </si>
   <si>
     <t xml:space="preserve">1.42734265327454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41069054603577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40355384349823</t>
+    <t xml:space="preserve">1.41069042682648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40355372428894</t>
   </si>
   <si>
     <t xml:space="preserve">1.39958882331848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38531529903412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34804606437683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36390519142151</t>
+    <t xml:space="preserve">1.3853155374527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34804594516754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3639053106308</t>
   </si>
   <si>
     <t xml:space="preserve">1.37976467609406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3646981716156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36707723140717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36787009239197</t>
+    <t xml:space="preserve">1.36469829082489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36707699298859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36787021160126</t>
   </si>
   <si>
     <t xml:space="preserve">1.3750067949295</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34011614322662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33377242088318</t>
+    <t xml:space="preserve">1.34011650085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33377265930176</t>
   </si>
   <si>
     <t xml:space="preserve">1.36945617198944</t>
@@ -476,10 +476,10 @@
     <t xml:space="preserve">1.35121774673462</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32504987716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32108497619629</t>
+    <t xml:space="preserve">1.32504975795746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32108509540558</t>
   </si>
   <si>
     <t xml:space="preserve">1.29967486858368</t>
@@ -488,10 +488,10 @@
     <t xml:space="preserve">1.29650294780731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29333126544952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2758857011795</t>
+    <t xml:space="preserve">1.29333114624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27588582038879</t>
   </si>
   <si>
     <t xml:space="preserve">1.2972959280014</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">1.30681157112122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29174506664276</t>
+    <t xml:space="preserve">1.29174518585205</t>
   </si>
   <si>
     <t xml:space="preserve">1.27905774116516</t>
@@ -515,19 +515,19 @@
     <t xml:space="preserve">1.26637029647827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2750928401947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29491722583771</t>
+    <t xml:space="preserve">1.27509272098541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29491698741913</t>
   </si>
   <si>
     <t xml:space="preserve">1.27826476097107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28381538391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27192103862762</t>
+    <t xml:space="preserve">1.28381550312042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27192091941833</t>
   </si>
   <si>
     <t xml:space="preserve">1.26874911785126</t>
@@ -536,31 +536,31 @@
     <t xml:space="preserve">1.2655770778656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24178814888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23861634731293</t>
+    <t xml:space="preserve">1.24178826808929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23861646652222</t>
   </si>
   <si>
     <t xml:space="preserve">1.20531177520752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22910058498383</t>
+    <t xml:space="preserve">1.22910070419312</t>
   </si>
   <si>
     <t xml:space="preserve">1.21324133872986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20610475540161</t>
+    <t xml:space="preserve">1.20610463619232</t>
   </si>
   <si>
     <t xml:space="preserve">1.19817507266998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19183123111725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21641337871552</t>
+    <t xml:space="preserve">1.19183111190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21641325950623</t>
   </si>
   <si>
     <t xml:space="preserve">1.20293271541595</t>
@@ -569,40 +569,40 @@
     <t xml:space="preserve">1.20927655696869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23465156555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22196388244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23940932750702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23703038692474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2298938035965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23306560516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23782336711884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29412412643433</t>
+    <t xml:space="preserve">1.23465144634247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22196412086487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23940920829773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23703026771545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22989368438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23306548595428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23782348632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29412400722504</t>
   </si>
   <si>
     <t xml:space="preserve">1.27985060214996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27033495903015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27747166156769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23385834693909</t>
+    <t xml:space="preserve">1.27033519744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27747178077698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23385846614838</t>
   </si>
   <si>
     <t xml:space="preserve">1.22830772399902</t>
@@ -611,13 +611,13 @@
     <t xml:space="preserve">1.21720612049103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2195850610733</t>
+    <t xml:space="preserve">1.21958494186401</t>
   </si>
   <si>
     <t xml:space="preserve">1.21244835853577</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2187922000885</t>
+    <t xml:space="preserve">1.21879208087921</t>
   </si>
   <si>
     <t xml:space="preserve">1.22037792205811</t>
@@ -629,7 +629,7 @@
     <t xml:space="preserve">1.24892497062683</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26478433609009</t>
+    <t xml:space="preserve">1.2647842168808</t>
   </si>
   <si>
     <t xml:space="preserve">1.32584285736084</t>
@@ -638,37 +638,37 @@
     <t xml:space="preserve">1.32822167873383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36152637004852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35201072692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34408092498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37183487415314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37421381473541</t>
+    <t xml:space="preserve">1.36152648925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.352010846138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34408104419708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37183499336243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3742139339447</t>
   </si>
   <si>
     <t xml:space="preserve">1.40593254566193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41782712936401</t>
+    <t xml:space="preserve">1.41782701015472</t>
   </si>
   <si>
     <t xml:space="preserve">1.40196776390076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43527245521545</t>
+    <t xml:space="preserve">1.43527233600616</t>
   </si>
   <si>
     <t xml:space="preserve">1.43447947502136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41941297054291</t>
+    <t xml:space="preserve">1.4194130897522</t>
   </si>
   <si>
     <t xml:space="preserve">1.43923723697662</t>
@@ -680,10 +680,10 @@
     <t xml:space="preserve">1.40989744663239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41148340702057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42496383190155</t>
+    <t xml:space="preserve">1.41148328781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42496407032013</t>
   </si>
   <si>
     <t xml:space="preserve">1.43685841560364</t>
@@ -698,16 +698,16 @@
     <t xml:space="preserve">1.45906162261963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50267469882965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48285043239594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50346779823303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4733350276947</t>
+    <t xml:space="preserve">1.50267457962036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48285055160522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50346767902374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47333490848541</t>
   </si>
   <si>
     <t xml:space="preserve">1.48919427394867</t>
@@ -716,34 +716,34 @@
     <t xml:space="preserve">1.52249884605408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50663948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51298332214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52884268760681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49712383747101</t>
+    <t xml:space="preserve">1.50663959980011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51298320293427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52884256839752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4971239566803</t>
   </si>
   <si>
     <t xml:space="preserve">1.4860223531723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50426054000854</t>
+    <t xml:space="preserve">1.50426077842712</t>
   </si>
   <si>
     <t xml:space="preserve">1.5376523733139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57104420661926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62561142444611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66470420360565</t>
+    <t xml:space="preserve">1.57104432582855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6256115436554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66470408439636</t>
   </si>
   <si>
     <t xml:space="preserve">1.69402372837067</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">1.71845698356628</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73963224887848</t>
+    <t xml:space="preserve">1.73963212966919</t>
   </si>
   <si>
     <t xml:space="preserve">1.64352893829346</t>
@@ -761,13 +761,13 @@
     <t xml:space="preserve">1.63701343536377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61095154285431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60199284553528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61502373218536</t>
+    <t xml:space="preserve">1.6109516620636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60199272632599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61502385139465</t>
   </si>
   <si>
     <t xml:space="preserve">1.59059059619904</t>
@@ -779,25 +779,25 @@
     <t xml:space="preserve">1.56371426582336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56534326076508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55882775783539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55149781703949</t>
+    <t xml:space="preserve">1.56534337997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55882787704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55149793624878</t>
   </si>
   <si>
     <t xml:space="preserve">1.55557000637054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5229926109314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58000302314758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58081758022308</t>
+    <t xml:space="preserve">1.52299273014069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58000314235687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58081746101379</t>
   </si>
   <si>
     <t xml:space="preserve">1.59466278553009</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">1.5743020772934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54742562770844</t>
+    <t xml:space="preserve">1.54742574691772</t>
   </si>
   <si>
     <t xml:space="preserve">1.53683805465698</t>
@@ -815,19 +815,19 @@
     <t xml:space="preserve">1.54905450344086</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5392814874649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5449823141098</t>
+    <t xml:space="preserve">1.53928136825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54498243331909</t>
   </si>
   <si>
     <t xml:space="preserve">1.53520917892456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54416811466217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56452894210815</t>
+    <t xml:space="preserve">1.54416799545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56452882289886</t>
   </si>
   <si>
     <t xml:space="preserve">1.60036396980286</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">1.61665272712708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58896195888519</t>
+    <t xml:space="preserve">1.58896172046661</t>
   </si>
   <si>
     <t xml:space="preserve">1.58814752101898</t>
@@ -848,46 +848,46 @@
     <t xml:space="preserve">1.61258041858673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64515793323517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63538455963135</t>
+    <t xml:space="preserve">1.64515781402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63538444042206</t>
   </si>
   <si>
     <t xml:space="preserve">1.62886917591095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60525047779083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62072479724884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63864254951477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63049817085266</t>
+    <t xml:space="preserve">1.60525059700012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62072491645813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63864243030548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63049805164337</t>
   </si>
   <si>
     <t xml:space="preserve">1.64841544628143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6182816028595</t>
+    <t xml:space="preserve">1.61828148365021</t>
   </si>
   <si>
     <t xml:space="preserve">1.62398254871368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65330231189728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62153935432434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63375568389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67773509025574</t>
+    <t xml:space="preserve">1.6533020734787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62153923511505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6337559223175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67773520946503</t>
   </si>
   <si>
     <t xml:space="preserve">1.60606491565704</t>
@@ -899,94 +899,94 @@
     <t xml:space="preserve">1.60280728340149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65981793403625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65655982494354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64027106761932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68099296092987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69565272331238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68587958812714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76732301712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81618928909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79501366615295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83247780799866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84876656532288</t>
+    <t xml:space="preserve">1.65981769561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65655994415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6402713060379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68099308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69565296173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68587946891785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76732313632965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81618905067444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79501402378082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83247792720795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8487663269043</t>
   </si>
   <si>
     <t xml:space="preserve">1.86342632770538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7917560338974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81944680213928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8064159154892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80804467201233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81781804561615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80967330932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81130266189575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82922005653381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82759118080139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79827153682709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77546763420105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78361189365387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88948798179626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95138514041901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96441602706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94161212444305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94975626468658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99536466598511</t>
+    <t xml:space="preserve">1.79175627231598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81944692134857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80641579627991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80804491043091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81781816482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80967354774475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81130242347717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82921993732452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82759130001068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79827129840851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77546751499176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78361177444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88948810100555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95138537883759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96441626548767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94161200523376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94975674152374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99536490440369</t>
   </si>
   <si>
     <t xml:space="preserve">2.01979780197144</t>
@@ -995,88 +995,88 @@
     <t xml:space="preserve">1.99210679531097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91392135620117</t>
+    <t xml:space="preserve">1.91392111778259</t>
   </si>
   <si>
     <t xml:space="preserve">1.85528206825256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7999005317688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9090348482132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9236946105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98722004890442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95627212524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97418940067291</t>
+    <t xml:space="preserve">1.79990041255951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90903472900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92369449138641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98722052574158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95627176761627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97418963909149</t>
   </si>
   <si>
     <t xml:space="preserve">1.87319958209991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88623070716858</t>
+    <t xml:space="preserve">1.88623046875</t>
   </si>
   <si>
     <t xml:space="preserve">1.86994183063507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89763271808624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86668395996094</t>
+    <t xml:space="preserve">1.89763236045837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86668419837952</t>
   </si>
   <si>
     <t xml:space="preserve">1.84387993812561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8357355594635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82433331012726</t>
+    <t xml:space="preserve">1.83573567867279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82433342933655</t>
   </si>
   <si>
     <t xml:space="preserve">1.77383852005005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80315816402435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86831307411194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86179745197296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90414786338806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87971496582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88460147380829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88134384155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85691094398499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93020987510681</t>
+    <t xml:space="preserve">1.80315828323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86831283569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86179721355438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90414822101593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87971520423889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88460171222687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88134396076202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8569108247757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93020963668823</t>
   </si>
   <si>
     <t xml:space="preserve">1.90577685832977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97093200683594</t>
+    <t xml:space="preserve">1.97093188762665</t>
   </si>
   <si>
     <t xml:space="preserve">1.97907614707947</t>
@@ -1088,31 +1088,34 @@
     <t xml:space="preserve">2.03608632087708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04423046112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96278738975525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94649863243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92206525802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9383544921875</t>
+    <t xml:space="preserve">2.04423093795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96278750896454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94649851322174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9220654964447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93835461139679</t>
   </si>
   <si>
     <t xml:space="preserve">2.01165342330933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00350904464722</t>
+    <t xml:space="preserve">2.0035092830658</t>
   </si>
   <si>
     <t xml:space="preserve">2.0443971157074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05270767211914</t>
+    <t xml:space="preserve">2.03608655929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05270743370056</t>
   </si>
   <si>
     <t xml:space="preserve">2.00284433364868</t>
@@ -1121,25 +1124,25 @@
     <t xml:space="preserve">2.01946544647217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96960175037384</t>
+    <t xml:space="preserve">1.96960163116455</t>
   </si>
   <si>
     <t xml:space="preserve">1.96129131317139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0610179901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98622334003448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95298075675964</t>
+    <t xml:space="preserve">2.06101822853088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98622298240662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95298063755035</t>
   </si>
   <si>
     <t xml:space="preserve">1.90311753749847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84494364261627</t>
+    <t xml:space="preserve">1.84494376182556</t>
   </si>
   <si>
     <t xml:space="preserve">1.91142809391022</t>
@@ -1148,25 +1151,25 @@
     <t xml:space="preserve">1.82001197338104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83663296699524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8117014169693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89480686187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79508018493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77845919132233</t>
+    <t xml:space="preserve">1.83663308620453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81170153617859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89480698108673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79508030414581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77845931053162</t>
   </si>
   <si>
     <t xml:space="preserve">1.71197462081909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80339086055756</t>
+    <t xml:space="preserve">1.80339097976685</t>
   </si>
   <si>
     <t xml:space="preserve">1.76183795928955</t>
@@ -1187,19 +1190,19 @@
     <t xml:space="preserve">1.5332977771759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52914261817932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48758959770203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46265804767609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49590027332306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50836622714996</t>
+    <t xml:space="preserve">1.52914249897003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48758971691132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4626579284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49590015411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50836610794067</t>
   </si>
   <si>
     <t xml:space="preserve">1.48343431949615</t>
@@ -1208,7 +1211,7 @@
     <t xml:space="preserve">1.51667666435242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47096848487854</t>
+    <t xml:space="preserve">1.47096860408783</t>
   </si>
   <si>
     <t xml:space="preserve">1.46681320667267</t>
@@ -1232,64 +1235,64 @@
     <t xml:space="preserve">1.35046553611755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36293125152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40448403358459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39617335796356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40863943099976</t>
+    <t xml:space="preserve">1.36293137073517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40448427200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39617347717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40863931179047</t>
   </si>
   <si>
     <t xml:space="preserve">1.40032875537872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42941570281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41694986820221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44188165664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45019221305847</t>
+    <t xml:space="preserve">1.42941582202911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4169499874115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44188153743744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45019209384918</t>
   </si>
   <si>
     <t xml:space="preserve">1.4460369348526</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42526054382324</t>
+    <t xml:space="preserve">1.42526042461395</t>
   </si>
   <si>
     <t xml:space="preserve">1.51252138614655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50005531311035</t>
+    <t xml:space="preserve">1.50005543231964</t>
   </si>
   <si>
     <t xml:space="preserve">1.52083194255829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4751238822937</t>
+    <t xml:space="preserve">1.47512376308441</t>
   </si>
   <si>
     <t xml:space="preserve">1.47927904129028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55407404899597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4917448759079</t>
+    <t xml:space="preserve">1.55407416820526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49174475669861</t>
   </si>
   <si>
     <t xml:space="preserve">1.50421071052551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45850276947021</t>
+    <t xml:space="preserve">1.45850265026093</t>
   </si>
   <si>
     <t xml:space="preserve">1.43772637844086</t>
@@ -1307,28 +1310,28 @@
     <t xml:space="preserve">1.50488722324371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47461640834808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44002139568329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46596777439117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4573187828064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47894084453583</t>
+    <t xml:space="preserve">1.47461652755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.440021276474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46596765518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45731890201569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47894096374512</t>
   </si>
   <si>
     <t xml:space="preserve">1.51353597640991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53083348274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51786041259766</t>
+    <t xml:space="preserve">1.5308336019516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51786029338837</t>
   </si>
   <si>
     <t xml:space="preserve">1.52650904655457</t>
@@ -1337,7 +1340,7 @@
     <t xml:space="preserve">1.53515779972076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59137511253357</t>
+    <t xml:space="preserve">1.59137499332428</t>
   </si>
   <si>
     <t xml:space="preserve">1.62164568901062</t>
@@ -1349,7 +1352,7 @@
     <t xml:space="preserve">1.63894319534302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61732125282288</t>
+    <t xml:space="preserve">1.61732137203217</t>
   </si>
   <si>
     <t xml:space="preserve">1.58705067634583</t>
@@ -1358,13 +1361,13 @@
     <t xml:space="preserve">1.62597000598907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5654284954071</t>
+    <t xml:space="preserve">1.56542861461639</t>
   </si>
   <si>
     <t xml:space="preserve">1.57407748699188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5567798614502</t>
+    <t xml:space="preserve">1.55677974224091</t>
   </si>
   <si>
     <t xml:space="preserve">1.54380667209625</t>
@@ -1373,34 +1376,31 @@
     <t xml:space="preserve">1.53948223590851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5221848487854</t>
+    <t xml:space="preserve">1.52218472957611</t>
   </si>
   <si>
     <t xml:space="preserve">1.50921154022217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50056290626526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54813098907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48758971691132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48326528072357</t>
+    <t xml:space="preserve">1.50056278705597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.548131108284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48326516151428</t>
   </si>
   <si>
     <t xml:space="preserve">1.47029209136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46164333820343</t>
+    <t xml:space="preserve">1.46164345741272</t>
   </si>
   <si>
     <t xml:space="preserve">1.60867249965668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60002362728119</t>
+    <t xml:space="preserve">1.60002374649048</t>
   </si>
   <si>
     <t xml:space="preserve">1.58272624015808</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">1.64326763153076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6908358335495</t>
+    <t xml:space="preserve">1.69083595275879</t>
   </si>
   <si>
     <t xml:space="preserve">1.72975540161133</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">1.69516026973724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66921401023865</t>
+    <t xml:space="preserve">1.66921389102936</t>
   </si>
   <si>
     <t xml:space="preserve">1.66056513786316</t>
@@ -1445,19 +1445,19 @@
     <t xml:space="preserve">1.6648895740509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67353820800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6821870803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65191650390625</t>
+    <t xml:space="preserve">1.6735383272171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68218719959259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65191638469696</t>
   </si>
   <si>
     <t xml:space="preserve">1.70380914211273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81624317169189</t>
+    <t xml:space="preserve">1.8162430524826</t>
   </si>
   <si>
     <t xml:space="preserve">2.02381372451782</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">2.34381866455078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38706254959106</t>
+    <t xml:space="preserve">2.38706231117249</t>
   </si>
   <si>
     <t xml:space="preserve">2.40436005592346</t>
@@ -1487,22 +1487,22 @@
     <t xml:space="preserve">2.41300868988037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3611159324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42165756225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29192590713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15354537963867</t>
+    <t xml:space="preserve">2.36111617088318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42165732383728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29192614555359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15354561805725</t>
   </si>
   <si>
     <t xml:space="preserve">1.97192120552063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98057007789612</t>
+    <t xml:space="preserve">1.98056995868683</t>
   </si>
   <si>
     <t xml:space="preserve">2.07570648193359</t>
@@ -1511,40 +1511,40 @@
     <t xml:space="preserve">2.01516485214233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77299916744232</t>
+    <t xml:space="preserve">1.77299928665161</t>
   </si>
   <si>
     <t xml:space="preserve">1.56975305080414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72543108463287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86813580989838</t>
+    <t xml:space="preserve">1.72543096542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86813592910767</t>
   </si>
   <si>
     <t xml:space="preserve">1.76435041427612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78164803981781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8248918056488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73840427398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7989456653595</t>
+    <t xml:space="preserve">1.78164792060852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82489192485809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73840415477753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79894542694092</t>
   </si>
   <si>
     <t xml:space="preserve">1.79029679298401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89408206939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85948705673218</t>
+    <t xml:space="preserve">1.89408218860626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85948717594147</t>
   </si>
   <si>
     <t xml:space="preserve">1.75570166110992</t>
@@ -1553,22 +1553,22 @@
     <t xml:space="preserve">1.80759429931641</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74705278873444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.833540558815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90273094177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91137969493866</t>
+    <t xml:space="preserve">1.74705290794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83354067802429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90273106098175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91137981414795</t>
   </si>
   <si>
     <t xml:space="preserve">2.06705760955811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11895036697388</t>
+    <t xml:space="preserve">2.11895060539246</t>
   </si>
   <si>
     <t xml:space="preserve">2.08435535430908</t>
@@ -1586,31 +1586,31 @@
     <t xml:space="preserve">2.01166176795959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99378025531769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96695804595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94013595581055</t>
+    <t xml:space="preserve">1.9937801361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96695816516876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94013607501984</t>
   </si>
   <si>
     <t xml:space="preserve">1.90437316894531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94907665252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92225444316864</t>
+    <t xml:space="preserve">1.94907677173615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92225456237793</t>
   </si>
   <si>
     <t xml:space="preserve">1.91331386566162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88649141788483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93119513988495</t>
+    <t xml:space="preserve">1.88649153709412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93119525909424</t>
   </si>
   <si>
     <t xml:space="preserve">1.87755084037781</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">1.89543223381042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85966944694519</t>
+    <t xml:space="preserve">1.8596693277359</t>
   </si>
   <si>
     <t xml:space="preserve">1.84178793430328</t>
@@ -1631,16 +1631,16 @@
     <t xml:space="preserve">1.81496584415436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80602502822876</t>
+    <t xml:space="preserve">1.80602514743805</t>
   </si>
   <si>
     <t xml:space="preserve">1.79708445072174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85072863101959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83284723758698</t>
+    <t xml:space="preserve">1.85072875022888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83284735679626</t>
   </si>
   <si>
     <t xml:space="preserve">1.8686101436615</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">1.77026224136353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76132154464722</t>
+    <t xml:space="preserve">1.76132166385651</t>
   </si>
   <si>
     <t xml:space="preserve">1.76579189300537</t>
@@ -1670,13 +1670,13 @@
     <t xml:space="preserve">2.21729826927185</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12789106369019</t>
+    <t xml:space="preserve">2.12789130210876</t>
   </si>
   <si>
     <t xml:space="preserve">2.10106873512268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02954316139221</t>
+    <t xml:space="preserve">2.02954292297363</t>
   </si>
   <si>
     <t xml:space="preserve">2.03848385810852</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">2.18153548240662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15471315383911</t>
+    <t xml:space="preserve">2.15471339225769</t>
   </si>
   <si>
     <t xml:space="preserve">2.13683176040649</t>
@@ -1706,31 +1706,31 @@
     <t xml:space="preserve">2.1457724571228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23517942428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37823104858398</t>
+    <t xml:space="preserve">2.23517966270447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37823128700256</t>
   </si>
   <si>
     <t xml:space="preserve">2.36034989356995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35140919685364</t>
+    <t xml:space="preserve">2.35140895843506</t>
   </si>
   <si>
     <t xml:space="preserve">2.34246826171875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32458686828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37878966331482</t>
+    <t xml:space="preserve">2.32458662986755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3787899017334</t>
   </si>
   <si>
     <t xml:space="preserve">2.36034965515137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36956977844238</t>
+    <t xml:space="preserve">2.3695695400238</t>
   </si>
   <si>
     <t xml:space="preserve">2.33268928527832</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">2.2128279209137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22204804420471</t>
+    <t xml:space="preserve">2.22204780578613</t>
   </si>
   <si>
     <t xml:space="preserve">2.07452607154846</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">2.13906693458557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24970841407776</t>
+    <t xml:space="preserve">2.24970817565918</t>
   </si>
   <si>
     <t xml:space="preserve">2.28658890724182</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">2.3234691619873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34190940856934</t>
+    <t xml:space="preserve">2.34190917015076</t>
   </si>
   <si>
     <t xml:space="preserve">2.31424903869629</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">2.05608582496643</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02842569351196</t>
+    <t xml:space="preserve">2.02842545509338</t>
   </si>
   <si>
     <t xml:space="preserve">2.08374619483948</t>
@@ -18884,7 +18884,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G634" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18910,7 +18910,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G635" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18936,7 +18936,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G636" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18962,7 +18962,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G637" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18988,7 +18988,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G638" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19092,7 +19092,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G642" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19118,7 +19118,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G643" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19170,7 +19170,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G645" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19196,7 +19196,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G646" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19222,7 +19222,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G647" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19248,7 +19248,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G648" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19274,7 +19274,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G649" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19300,7 +19300,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G650" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19326,7 +19326,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G651" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19378,7 +19378,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G653" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19404,7 +19404,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G654" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19560,7 +19560,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G660" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19586,7 +19586,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G661" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19612,7 +19612,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G662" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19664,7 +19664,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G664" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19690,7 +19690,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G665" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19794,7 +19794,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G669" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19846,7 +19846,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G671" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20028,7 +20028,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G678" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20158,7 +20158,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G683" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20184,7 +20184,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G684" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20210,7 +20210,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G685" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20236,7 +20236,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G686" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20262,7 +20262,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G687" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20470,7 +20470,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G695" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20496,7 +20496,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G696" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20704,7 +20704,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G704" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20808,7 +20808,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G708" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20834,7 +20834,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G709" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20990,7 +20990,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G715" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21016,7 +21016,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G716" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21042,7 +21042,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G717" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21068,7 +21068,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G718" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21094,7 +21094,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G719" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21120,7 +21120,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G720" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21146,7 +21146,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G721" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21172,7 +21172,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G722" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21198,7 +21198,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G723" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21224,7 +21224,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G724" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21250,7 +21250,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G725" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21276,7 +21276,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G726" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21302,7 +21302,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G727" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21328,7 +21328,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G728" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21354,7 +21354,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G729" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21380,7 +21380,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G730" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21406,7 +21406,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G731" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21432,7 +21432,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G732" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21458,7 +21458,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G733" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21484,7 +21484,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G734" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21510,7 +21510,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G735" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21536,7 +21536,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G736" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21562,7 +21562,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G737" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21588,7 +21588,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G738" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21614,7 +21614,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G739" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21640,7 +21640,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G740" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21666,7 +21666,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G741" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21692,7 +21692,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G742" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21718,7 +21718,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G743" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21744,7 +21744,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G744" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21770,7 +21770,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G745" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21796,7 +21796,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G746" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21822,7 +21822,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G747" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21848,7 +21848,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G748" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21874,7 +21874,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G749" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21900,7 +21900,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G750" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21926,7 +21926,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G751" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21952,7 +21952,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G752" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21978,7 +21978,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G753" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22004,7 +22004,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G754" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22030,7 +22030,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G755" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22056,7 +22056,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G756" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22082,7 +22082,7 @@
         <v>1.75</v>
       </c>
       <c r="G757" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22108,7 +22108,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G758" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22134,7 +22134,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G759" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22160,7 +22160,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G760" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22186,7 +22186,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G761" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22212,7 +22212,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G762" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22238,7 +22238,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G763" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22264,7 +22264,7 @@
         <v>1.63499999046326</v>
       </c>
       <c r="G764" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22290,7 +22290,7 @@
         <v>1.625</v>
       </c>
       <c r="G765" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22316,7 +22316,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G766" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22342,7 +22342,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G767" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22368,7 +22368,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G768" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22394,7 +22394,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G769" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22420,7 +22420,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G770" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22446,7 +22446,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G771" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22472,7 +22472,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G772" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22498,7 +22498,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G773" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22524,7 +22524,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G774" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22550,7 +22550,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G775" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22576,7 +22576,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G776" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22602,7 +22602,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G777" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22628,7 +22628,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G778" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22654,7 +22654,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G779" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22680,7 +22680,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G780" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22706,7 +22706,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G781" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22732,7 +22732,7 @@
         <v>1.68499994277954</v>
       </c>
       <c r="G782" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22758,7 +22758,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G783" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22784,7 +22784,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G784" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22810,7 +22810,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G785" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22836,7 +22836,7 @@
         <v>1.75</v>
       </c>
       <c r="G786" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22862,7 +22862,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G787" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22888,7 +22888,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G788" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22914,7 +22914,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G789" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22940,7 +22940,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G790" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22966,7 +22966,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G791" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22992,7 +22992,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G792" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23018,7 +23018,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G793" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23044,7 +23044,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G794" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23070,7 +23070,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G795" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23096,7 +23096,7 @@
         <v>1.75</v>
       </c>
       <c r="G796" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23122,7 +23122,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G797" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23148,7 +23148,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G798" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23174,7 +23174,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G799" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23200,7 +23200,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G800" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23226,7 +23226,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G801" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23252,7 +23252,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G802" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23278,7 +23278,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G803" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23304,7 +23304,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G804" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23330,7 +23330,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G805" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23356,7 +23356,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G806" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23382,7 +23382,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G807" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23408,7 +23408,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G808" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23434,7 +23434,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G809" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23460,7 +23460,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G810" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23486,7 +23486,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G811" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23512,7 +23512,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G812" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23538,7 +23538,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G813" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23564,7 +23564,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G814" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23590,7 +23590,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G815" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23616,7 +23616,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G816" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23642,7 +23642,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G817" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23668,7 +23668,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G818" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23694,7 +23694,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G819" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23720,7 +23720,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G820" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23746,7 +23746,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G821" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23772,7 +23772,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G822" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23798,7 +23798,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G823" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23824,7 +23824,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G824" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23850,7 +23850,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G825" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23876,7 +23876,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G826" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23902,7 +23902,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G827" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23928,7 +23928,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G828" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23954,7 +23954,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G829" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23980,7 +23980,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G830" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24006,7 +24006,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G831" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24032,7 +24032,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G832" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24058,7 +24058,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G833" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24084,7 +24084,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G834" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24110,7 +24110,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G835" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24136,7 +24136,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G836" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24162,7 +24162,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G837" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24188,7 +24188,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G838" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24214,7 +24214,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G839" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24240,7 +24240,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G840" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24266,7 +24266,7 @@
         <v>1.75</v>
       </c>
       <c r="G841" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24292,7 +24292,7 @@
         <v>1.75</v>
       </c>
       <c r="G842" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24318,7 +24318,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G843" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24344,7 +24344,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G844" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24370,7 +24370,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G845" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24396,7 +24396,7 @@
         <v>1.75</v>
       </c>
       <c r="G846" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24422,7 +24422,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G847" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24448,7 +24448,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G848" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24474,7 +24474,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G849" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24500,7 +24500,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G850" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24526,7 +24526,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G851" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24552,7 +24552,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G852" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24578,7 +24578,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G853" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24604,7 +24604,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G854" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24630,7 +24630,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24656,7 +24656,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G856" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24682,7 +24682,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G857" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24708,7 +24708,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G858" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24734,7 +24734,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G859" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24760,7 +24760,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G860" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24786,7 +24786,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G861" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24812,7 +24812,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G862" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24838,7 +24838,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G863" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24864,7 +24864,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G864" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24890,7 +24890,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G865" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24916,7 +24916,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G866" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24942,7 +24942,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G867" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24968,7 +24968,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G868" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24994,7 +24994,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G869" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25020,7 +25020,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G870" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25046,7 +25046,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G871" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25072,7 +25072,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G872" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25098,7 +25098,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G873" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25124,7 +25124,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G874" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25150,7 +25150,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G875" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25176,7 +25176,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G876" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25202,7 +25202,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G877" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25228,7 +25228,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G878" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25254,7 +25254,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G879" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25280,7 +25280,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G880" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25306,7 +25306,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G881" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25332,7 +25332,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G882" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25358,7 +25358,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G883" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25384,7 +25384,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G884" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25410,7 +25410,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G885" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25436,7 +25436,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G886" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25462,7 +25462,7 @@
         <v>1.66499996185303</v>
       </c>
       <c r="G887" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25488,7 +25488,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G888" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25514,7 +25514,7 @@
         <v>1.68499994277954</v>
       </c>
       <c r="G889" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25540,7 +25540,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G890" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25566,7 +25566,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G891" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25592,7 +25592,7 @@
         <v>1.75</v>
       </c>
       <c r="G892" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25618,7 +25618,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G893" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25644,7 +25644,7 @@
         <v>1.75</v>
       </c>
       <c r="G894" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25670,7 +25670,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G895" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25696,7 +25696,7 @@
         <v>1.75</v>
       </c>
       <c r="G896" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25722,7 +25722,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G897" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25748,7 +25748,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G898" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25774,7 +25774,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G899" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25800,7 +25800,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G900" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25826,7 +25826,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G901" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25852,7 +25852,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G902" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25878,7 +25878,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G903" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25904,7 +25904,7 @@
         <v>1.875</v>
       </c>
       <c r="G904" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25930,7 +25930,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G905" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25956,7 +25956,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G906" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25982,7 +25982,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G907" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26008,7 +26008,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G908" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26034,7 +26034,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G909" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26060,7 +26060,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G910" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26086,7 +26086,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26112,7 +26112,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G912" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26138,7 +26138,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G913" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26164,7 +26164,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G914" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26190,7 +26190,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G915" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26216,7 +26216,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G916" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26242,7 +26242,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G917" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26268,7 +26268,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G918" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26294,7 +26294,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G919" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26320,7 +26320,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G920" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26346,7 +26346,7 @@
         <v>1.75</v>
       </c>
       <c r="G921" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26372,7 +26372,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G922" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26398,7 +26398,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G923" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26424,7 +26424,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G924" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26450,7 +26450,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G925" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26476,7 +26476,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G926" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26502,7 +26502,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G927" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26528,7 +26528,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G928" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26554,7 +26554,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G929" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26580,7 +26580,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G930" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26606,7 +26606,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G931" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26632,7 +26632,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G932" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26658,7 +26658,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G933" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26684,7 +26684,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G934" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26710,7 +26710,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G935" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26736,7 +26736,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G936" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26762,7 +26762,7 @@
         <v>1.75</v>
       </c>
       <c r="G937" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26788,7 +26788,7 @@
         <v>1.75</v>
       </c>
       <c r="G938" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26814,7 +26814,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G939" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26840,7 +26840,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G940" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26866,7 +26866,7 @@
         <v>1.75</v>
       </c>
       <c r="G941" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26892,7 +26892,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G942" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26918,7 +26918,7 @@
         <v>1.75</v>
       </c>
       <c r="G943" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26944,7 +26944,7 @@
         <v>1.75</v>
       </c>
       <c r="G944" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26970,7 +26970,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26996,7 +26996,7 @@
         <v>1.75</v>
       </c>
       <c r="G946" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27022,7 +27022,7 @@
         <v>1.75</v>
       </c>
       <c r="G947" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27048,7 +27048,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G948" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27074,7 +27074,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G949" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27126,7 +27126,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G951" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27178,7 +27178,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G953" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27204,7 +27204,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G954" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27230,7 +27230,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G955" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27308,7 +27308,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G958" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -27334,7 +27334,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G959" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27360,7 +27360,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G960" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -27386,7 +27386,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G961" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27464,7 +27464,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G964" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27490,7 +27490,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G965" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27516,7 +27516,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G966" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27542,7 +27542,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G967" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27620,7 +27620,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G970" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27646,7 +27646,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G971" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27672,7 +27672,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G972" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27698,7 +27698,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G973" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27750,7 +27750,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G975" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27776,7 +27776,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G976" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27802,7 +27802,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G977" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27828,7 +27828,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G978" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27854,7 +27854,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G979" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27932,7 +27932,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G982" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27958,7 +27958,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G983" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27984,7 +27984,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G984" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28010,7 +28010,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G985" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28088,7 +28088,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G988" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28114,7 +28114,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G989" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28140,7 +28140,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G990" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28166,7 +28166,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G991" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28244,7 +28244,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G994" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28322,7 +28322,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G997" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28452,7 +28452,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1002" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -28504,7 +28504,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1004" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -28530,7 +28530,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1005" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -28608,7 +28608,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1008" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28738,7 +28738,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G1013" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28894,7 +28894,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1019" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28920,7 +28920,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1020" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -30038,7 +30038,7 @@
         <v>1.75</v>
       </c>
       <c r="G1063" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30064,7 +30064,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1064" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30168,7 +30168,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G1068" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30272,7 +30272,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1072" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -30298,7 +30298,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G1073" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30324,7 +30324,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G1074" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -30350,7 +30350,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G1075" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -30428,7 +30428,7 @@
         <v>1.75</v>
       </c>
       <c r="G1078" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -30454,7 +30454,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1079" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -30480,7 +30480,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G1080" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -58256,27 +58256,53 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.5349652778</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
-        <v>1200</v>
+        <v>2986</v>
       </c>
       <c r="C2149" t="n">
-        <v>2.01999998092651</v>
+        <v>2.02999997138977</v>
       </c>
       <c r="D2149" t="n">
-        <v>2.01999998092651</v>
+        <v>2.00999999046326</v>
       </c>
       <c r="E2149" t="n">
         <v>2.01999998092651</v>
       </c>
       <c r="F2149" t="n">
+        <v>2.02999997138977</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>681</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C2150" t="n">
         <v>2.01999998092651</v>
       </c>
-      <c r="G2149" t="s">
+      <c r="D2150" t="n">
+        <v>2.01999998092651</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>2.01999998092651</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>2.01999998092651</v>
+      </c>
+      <c r="G2150" t="s">
         <v>649</v>
       </c>
-      <c r="H2149" t="s">
+      <c r="H2150" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AC5.MI.xlsx
+++ b/data/AC5.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="687">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24246168136597</t>
+    <t xml:space="preserve">1.24246180057526</t>
   </si>
   <si>
     <t xml:space="preserve">AC5.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22008192539215</t>
+    <t xml:space="preserve">1.22008204460144</t>
   </si>
   <si>
     <t xml:space="preserve">1.21931028366089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18689823150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21159291267395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1876699924469</t>
+    <t xml:space="preserve">1.18689811229706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21159315109253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18766987323761</t>
   </si>
   <si>
     <t xml:space="preserve">1.18844163417816</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19615864753723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18149626255035</t>
+    <t xml:space="preserve">1.19615876674652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18149614334106</t>
   </si>
   <si>
     <t xml:space="preserve">1.17455077171326</t>
@@ -74,40 +74,40 @@
     <t xml:space="preserve">1.08348834514618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02252292633057</t>
+    <t xml:space="preserve">1.02252280712128</t>
   </si>
   <si>
     <t xml:space="preserve">1.00322997570038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07654273509979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12593281269073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09429228305817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10355293750763</t>
+    <t xml:space="preserve">1.07654309272766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12593257427216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09429216384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10355281829834</t>
   </si>
   <si>
     <t xml:space="preserve">1.14291036128998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1182154417038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12361752986908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11127018928528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1321063041687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11204183101654</t>
+    <t xml:space="preserve">1.11821556091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12361764907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11127007007599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13210654258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11204195022583</t>
   </si>
   <si>
     <t xml:space="preserve">1.10586798191071</t>
@@ -116,13 +116,13 @@
     <t xml:space="preserve">1.02638149261475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975448369979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992425978183746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999371349811554</t>
+    <t xml:space="preserve">0.975448250770569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992426037788391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999371290206909</t>
   </si>
   <si>
     <t xml:space="preserve">1.01789247989655</t>
@@ -131,10 +131,10 @@
     <t xml:space="preserve">1.06805396080017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05107641220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04181563854218</t>
+    <t xml:space="preserve">1.05107629299164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04181575775146</t>
   </si>
   <si>
     <t xml:space="preserve">1.04258739948273</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">1.08811867237091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0811733007431</t>
+    <t xml:space="preserve">1.08117318153381</t>
   </si>
   <si>
     <t xml:space="preserve">1.07191264629364</t>
@@ -152,13 +152,13 @@
     <t xml:space="preserve">1.07422769069672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06110846996307</t>
+    <t xml:space="preserve">1.06110858917236</t>
   </si>
   <si>
     <t xml:space="preserve">1.07345604896545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07036936283112</t>
+    <t xml:space="preserve">1.07036912441254</t>
   </si>
   <si>
     <t xml:space="preserve">1.08040142059326</t>
@@ -176,31 +176,31 @@
     <t xml:space="preserve">1.10741138458252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08966195583344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0904335975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09506416320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08580362796783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06651067733765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0919771194458</t>
+    <t xml:space="preserve">1.08966207504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09043371677399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09506404399872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08580327033997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06651043891907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09197723865509</t>
   </si>
   <si>
     <t xml:space="preserve">1.11898732185364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10432469844818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12670457363129</t>
+    <t xml:space="preserve">1.10432457923889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.126704454422</t>
   </si>
   <si>
     <t xml:space="preserve">1.19152867794037</t>
@@ -212,58 +212,58 @@
     <t xml:space="preserve">1.17532253265381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18072438240051</t>
+    <t xml:space="preserve">1.1807245016098</t>
   </si>
   <si>
     <t xml:space="preserve">1.2802757024765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26561319828033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2262556552887</t>
+    <t xml:space="preserve">1.26561307907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22625553607941</t>
   </si>
   <si>
     <t xml:space="preserve">1.23474454879761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25017893314362</t>
+    <t xml:space="preserve">1.25017881393433</t>
   </si>
   <si>
     <t xml:space="preserve">1.21004962921143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.189213514328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25789606571198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25635254383087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24323332309723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23165762424469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23088586330414</t>
+    <t xml:space="preserve">1.18921327590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25789594650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25635242462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24323320388794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2316575050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23088622093201</t>
   </si>
   <si>
     <t xml:space="preserve">1.22316884994507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24014663696289</t>
+    <t xml:space="preserve">1.2401465177536</t>
   </si>
   <si>
     <t xml:space="preserve">1.27101504802704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2679283618927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27950394153595</t>
+    <t xml:space="preserve">1.26792824268341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27950406074524</t>
   </si>
   <si>
     <t xml:space="preserve">1.29725337028503</t>
@@ -278,43 +278,43 @@
     <t xml:space="preserve">1.3065140247345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32503521442413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32272028923035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2957102060318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33853030204773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32901465892792</t>
+    <t xml:space="preserve">1.32503509521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32272005081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29571008682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33853018283844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32901477813721</t>
   </si>
   <si>
     <t xml:space="preserve">1.28857326507568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2869873046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26002633571625</t>
+    <t xml:space="preserve">1.28698742389679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26002645492554</t>
   </si>
   <si>
     <t xml:space="preserve">1.2631983757019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25923359394073</t>
+    <t xml:space="preserve">1.25923347473145</t>
   </si>
   <si>
     <t xml:space="preserve">1.26081943511963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2520968914032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24495995044708</t>
+    <t xml:space="preserve">1.25209677219391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24496006965637</t>
   </si>
   <si>
     <t xml:space="preserve">1.25051093101501</t>
@@ -326,22 +326,22 @@
     <t xml:space="preserve">1.21165537834167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19341719150543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1973819732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19103825092316</t>
+    <t xml:space="preserve">1.19341707229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19738185405731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19103813171387</t>
   </si>
   <si>
     <t xml:space="preserve">1.2409952878952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22354984283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21562016010284</t>
+    <t xml:space="preserve">1.22354996204376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21562027931213</t>
   </si>
   <si>
     <t xml:space="preserve">1.2211709022522</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">1.16169846057892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15773367881775</t>
+    <t xml:space="preserve">1.15773355960846</t>
   </si>
   <si>
     <t xml:space="preserve">1.22513580322266</t>
@@ -359,16 +359,16 @@
     <t xml:space="preserve">1.21799921989441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2536826133728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2861944437027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28064358234406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3083975315094</t>
+    <t xml:space="preserve">1.25368273258209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28619432449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28064370155334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30839741230011</t>
   </si>
   <si>
     <t xml:space="preserve">1.2766786813736</t>
@@ -377,34 +377,34 @@
     <t xml:space="preserve">1.30443263053894</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28222966194153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30522584915161</t>
+    <t xml:space="preserve">1.28222954273224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30522549152374</t>
   </si>
   <si>
     <t xml:space="preserve">1.27271401882172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2846086025238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27350699901581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29253816604614</t>
+    <t xml:space="preserve">1.28460836410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27350687980652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29253828525543</t>
   </si>
   <si>
     <t xml:space="preserve">1.30046784877777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29888188838959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31632721424103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30760443210602</t>
+    <t xml:space="preserve">1.2988817691803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31632697582245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30760455131531</t>
   </si>
   <si>
     <t xml:space="preserve">1.31553435325623</t>
@@ -413,31 +413,31 @@
     <t xml:space="preserve">1.32425689697266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33218669891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33615136146545</t>
+    <t xml:space="preserve">1.33218657970428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33615124225616</t>
   </si>
   <si>
     <t xml:space="preserve">1.32663571834564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35994052886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38928031921387</t>
+    <t xml:space="preserve">1.35994064807892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38928020000458</t>
   </si>
   <si>
     <t xml:space="preserve">1.42734265327454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41069042682648</t>
+    <t xml:space="preserve">1.41069054603577</t>
   </si>
   <si>
     <t xml:space="preserve">1.40355372428894</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39958870410919</t>
+    <t xml:space="preserve">1.39958882331848</t>
   </si>
   <si>
     <t xml:space="preserve">1.38531529903412</t>
@@ -452,76 +452,76 @@
     <t xml:space="preserve">1.37976467609406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36469805240631</t>
+    <t xml:space="preserve">1.3646981716156</t>
   </si>
   <si>
     <t xml:space="preserve">1.36707711219788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36787009239197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37500691413879</t>
+    <t xml:space="preserve">1.36787021160126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37500667572021</t>
   </si>
   <si>
     <t xml:space="preserve">1.34011626243591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33377254009247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36945593357086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35121774673462</t>
+    <t xml:space="preserve">1.33377242088318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36945605278015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35121786594391</t>
   </si>
   <si>
     <t xml:space="preserve">1.32504975795746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32108509540558</t>
+    <t xml:space="preserve">1.32108497619629</t>
   </si>
   <si>
     <t xml:space="preserve">1.29967498779297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2965030670166</t>
+    <t xml:space="preserve">1.29650294780731</t>
   </si>
   <si>
     <t xml:space="preserve">1.29333114624023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2758857011795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29729616641998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30681157112122</t>
+    <t xml:space="preserve">1.27588582038879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2972959280014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30681169033051</t>
   </si>
   <si>
     <t xml:space="preserve">1.29174506664276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27905762195587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26240539550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.252889752388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26637017726898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27509272098541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29491698741913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27826476097107</t>
+    <t xml:space="preserve">1.27905774116516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26240527629852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25288987159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26637005805969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27509295940399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29491710662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27826488018036</t>
   </si>
   <si>
     <t xml:space="preserve">1.28381550312042</t>
@@ -530,61 +530,61 @@
     <t xml:space="preserve">1.27192091941833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26874911785126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26557731628418</t>
+    <t xml:space="preserve">1.26874899864197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2655770778656</t>
   </si>
   <si>
     <t xml:space="preserve">1.24178814888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23861646652222</t>
+    <t xml:space="preserve">1.23861634731293</t>
   </si>
   <si>
     <t xml:space="preserve">1.20531165599823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22910058498383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21324121952057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20610463619232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19817495346069</t>
+    <t xml:space="preserve">1.22910046577454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21324133872986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20610475540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19817507266998</t>
   </si>
   <si>
     <t xml:space="preserve">1.19183123111725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21641325950623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20293259620667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2092764377594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23465156555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22196400165558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23940932750702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23703038692474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22989356517792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.233065366745</t>
+    <t xml:space="preserve">1.21641337871552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20293271541595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20927655696869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23465144634247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22196388244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23940908908844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23703026771545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22989368438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23306548595428</t>
   </si>
   <si>
     <t xml:space="preserve">1.23782336711884</t>
@@ -596,94 +596,94 @@
     <t xml:space="preserve">1.27985060214996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27033519744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2774715423584</t>
+    <t xml:space="preserve">1.27033507823944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27747166156769</t>
   </si>
   <si>
     <t xml:space="preserve">1.23385858535767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22830784320831</t>
+    <t xml:space="preserve">1.22830772399902</t>
   </si>
   <si>
     <t xml:space="preserve">1.21720612049103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21958529949188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21244835853577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2187922000885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22037816047668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25606155395508</t>
+    <t xml:space="preserve">1.21958518028259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21244847774506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21879196166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2203780412674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25606167316437</t>
   </si>
   <si>
     <t xml:space="preserve">1.24892497062683</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2647842168808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32584273815155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32822179794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36152625083923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35201072692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34408116340637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37183499336243</t>
+    <t xml:space="preserve">1.26478433609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32584297657013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32822167873383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36152637004852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.352010846138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34408104419708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37183487415314</t>
   </si>
   <si>
     <t xml:space="preserve">1.3742139339447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40593266487122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41782701015472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40196776390076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43527233600616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43447935581207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41941297054291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43923723697662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39800298213959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40989756584167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41148340702057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42496395111084</t>
+    <t xml:space="preserve">1.40593254566193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41782712936401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40196788311005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43527245521545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43447947502136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4194130897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43923735618591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3980028629303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4098973274231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41148328781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42496383190155</t>
   </si>
   <si>
     <t xml:space="preserve">1.43685841560364</t>
@@ -695,10 +695,10 @@
     <t xml:space="preserve">1.45113170146942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45906150341034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50267481803894</t>
+    <t xml:space="preserve">1.45906162261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50267469882965</t>
   </si>
   <si>
     <t xml:space="preserve">1.48285055160522</t>
@@ -707,40 +707,40 @@
     <t xml:space="preserve">1.50346767902374</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47333490848541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48919427394867</t>
+    <t xml:space="preserve">1.4733350276947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48919415473938</t>
   </si>
   <si>
     <t xml:space="preserve">1.52249884605408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50663959980011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51298320293427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52884256839752</t>
+    <t xml:space="preserve">1.50663948059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51298332214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52884268760681</t>
   </si>
   <si>
     <t xml:space="preserve">1.49712383747101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4860223531723</t>
+    <t xml:space="preserve">1.48602223396301</t>
   </si>
   <si>
     <t xml:space="preserve">1.50426065921783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5376523733139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57104444503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6256115436554</t>
+    <t xml:space="preserve">1.53765249252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57104432582855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62561142444611</t>
   </si>
   <si>
     <t xml:space="preserve">1.66470408439636</t>
@@ -752,28 +752,28 @@
     <t xml:space="preserve">1.71845686435699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73963212966919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64352869987488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63701355457306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6109516620636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60199284553528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61502385139465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59059083461761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59221971035004</t>
+    <t xml:space="preserve">1.73963224887848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64352905750275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63701343536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61095154285431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60199272632599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61502373218536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59059071540833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59221959114075</t>
   </si>
   <si>
     <t xml:space="preserve">1.56371426582336</t>
@@ -782,46 +782,46 @@
     <t xml:space="preserve">1.56534326076508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55882787704468</t>
+    <t xml:space="preserve">1.55882775783539</t>
   </si>
   <si>
     <t xml:space="preserve">1.55149781703949</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55557012557983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52299273014069</t>
+    <t xml:space="preserve">1.55557000637054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5229926109314</t>
   </si>
   <si>
     <t xml:space="preserve">1.58000314235687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58081746101379</t>
+    <t xml:space="preserve">1.58081758022308</t>
   </si>
   <si>
     <t xml:space="preserve">1.59466278553009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57430219650269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54742574691772</t>
+    <t xml:space="preserve">1.57430195808411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54742562770844</t>
   </si>
   <si>
     <t xml:space="preserve">1.53683805465698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54905450344086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53928136825562</t>
+    <t xml:space="preserve">1.54905462265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53928124904633</t>
   </si>
   <si>
     <t xml:space="preserve">1.54498243331909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53520917892456</t>
+    <t xml:space="preserve">1.53520929813385</t>
   </si>
   <si>
     <t xml:space="preserve">1.54416799545288</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">1.56452882289886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60036385059357</t>
+    <t xml:space="preserve">1.60036408901215</t>
   </si>
   <si>
     <t xml:space="preserve">1.61665260791779</t>
@@ -839,31 +839,31 @@
     <t xml:space="preserve">1.58896195888519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58814740180969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61583805084229</t>
+    <t xml:space="preserve">1.58814752101898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61583817005157</t>
   </si>
   <si>
     <t xml:space="preserve">1.61258041858673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64515781402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63538444042206</t>
+    <t xml:space="preserve">1.64515793323517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63538455963135</t>
   </si>
   <si>
     <t xml:space="preserve">1.62886917591095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60525059700012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62072479724884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63864254951477</t>
+    <t xml:space="preserve">1.60525047779083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62072491645813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63864243030548</t>
   </si>
   <si>
     <t xml:space="preserve">1.63049805164337</t>
@@ -872,25 +872,25 @@
     <t xml:space="preserve">1.64841544628143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61828148365021</t>
+    <t xml:space="preserve">1.61828136444092</t>
   </si>
   <si>
     <t xml:space="preserve">1.62398254871368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65330231189728</t>
+    <t xml:space="preserve">1.6533020734787</t>
   </si>
   <si>
     <t xml:space="preserve">1.62153935432434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63375568389893</t>
+    <t xml:space="preserve">1.63375580310822</t>
   </si>
   <si>
     <t xml:space="preserve">1.67773520946503</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60606503486633</t>
+    <t xml:space="preserve">1.60606515407562</t>
   </si>
   <si>
     <t xml:space="preserve">1.59303402900696</t>
@@ -899,13 +899,13 @@
     <t xml:space="preserve">1.60280728340149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65981769561768</t>
+    <t xml:space="preserve">1.65981793403625</t>
   </si>
   <si>
     <t xml:space="preserve">1.65655994415283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64027118682861</t>
+    <t xml:space="preserve">1.64027106761932</t>
   </si>
   <si>
     <t xml:space="preserve">1.68099284172058</t>
@@ -914,43 +914,43 @@
     <t xml:space="preserve">1.69565272331238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68587958812714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76732325553894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81618893146515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79501378536224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83247756958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84876620769501</t>
+    <t xml:space="preserve">1.68587946891785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76732313632965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81618916988373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79501354694366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83247768878937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84876656532288</t>
   </si>
   <si>
     <t xml:space="preserve">1.86342644691467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79175627231598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81944668292999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80641603469849</t>
+    <t xml:space="preserve">1.7917560338974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81944692134857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80641579627991</t>
   </si>
   <si>
     <t xml:space="preserve">1.80804467201233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81781780719757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80967342853546</t>
+    <t xml:space="preserve">1.81781792640686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80967330932617</t>
   </si>
   <si>
     <t xml:space="preserve">1.81130242347717</t>
@@ -959,40 +959,40 @@
     <t xml:space="preserve">1.82922005653381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8275910615921</t>
+    <t xml:space="preserve">1.82759130001068</t>
   </si>
   <si>
     <t xml:space="preserve">1.79827153682709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77546739578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78361177444458</t>
+    <t xml:space="preserve">1.77546751499176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78361165523529</t>
   </si>
   <si>
     <t xml:space="preserve">1.88948822021484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95138514041901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96441638469696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94161212444305</t>
+    <t xml:space="preserve">1.9513852596283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96441614627838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94161224365234</t>
   </si>
   <si>
     <t xml:space="preserve">1.94975638389587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99536514282227</t>
+    <t xml:space="preserve">1.99536454677582</t>
   </si>
   <si>
     <t xml:space="preserve">2.01979780197144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99210691452026</t>
+    <t xml:space="preserve">1.99210703372955</t>
   </si>
   <si>
     <t xml:space="preserve">1.91392123699188</t>
@@ -1001,31 +1001,31 @@
     <t xml:space="preserve">1.85528218746185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79990041255951</t>
+    <t xml:space="preserve">1.7999005317688</t>
   </si>
   <si>
     <t xml:space="preserve">1.90903472900391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9236946105957</t>
+    <t xml:space="preserve">1.92369449138641</t>
   </si>
   <si>
     <t xml:space="preserve">1.98722040653229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95627188682556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97418940067291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87319934368134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88623046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86994194984436</t>
+    <t xml:space="preserve">1.95627176761627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9741895198822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87319910526276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88623034954071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86994183063507</t>
   </si>
   <si>
     <t xml:space="preserve">1.89763259887695</t>
@@ -1037,49 +1037,49 @@
     <t xml:space="preserve">1.84387981891632</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8357355594635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82433331012726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77383852005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80315816402435</t>
+    <t xml:space="preserve">1.83573544025421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82433342933655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77383828163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80315804481506</t>
   </si>
   <si>
     <t xml:space="preserve">1.86831295490265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86179745197296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90414798259735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87971496582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88460147380829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88134384155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85691070556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93021011352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90577685832977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97093188762665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97907614707947</t>
+    <t xml:space="preserve">1.86179757118225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90414810180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8797150850296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88460123538971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88134372234344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8569108247757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93020975589752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90577697753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97093176841736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97907590866089</t>
   </si>
   <si>
     <t xml:space="preserve">1.95464313030243</t>
@@ -1088,16 +1088,16 @@
     <t xml:space="preserve">2.03608632087708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04423093795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96278762817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94649887084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9220654964447</t>
+    <t xml:space="preserve">2.04423069953918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96278774738312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94649863243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92206561565399</t>
   </si>
   <si>
     <t xml:space="preserve">1.9383544921875</t>
@@ -1109,61 +1109,61 @@
     <t xml:space="preserve">2.00350904464722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04439687728882</t>
+    <t xml:space="preserve">2.0443971157074</t>
   </si>
   <si>
     <t xml:space="preserve">2.05270743370056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0028440952301</t>
+    <t xml:space="preserve">2.00284433364868</t>
   </si>
   <si>
     <t xml:space="preserve">2.01946520805359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96960198879242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96129155158997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06101822853088</t>
+    <t xml:space="preserve">1.96960186958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96129131317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0610179901123</t>
   </si>
   <si>
     <t xml:space="preserve">1.98622298240662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95298075675964</t>
+    <t xml:space="preserve">1.95298087596893</t>
   </si>
   <si>
     <t xml:space="preserve">1.90311741828918</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84494352340698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91142785549164</t>
+    <t xml:space="preserve">1.84494364261627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91142797470093</t>
   </si>
   <si>
     <t xml:space="preserve">1.82001197338104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83663320541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81170153617859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89480686187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7950804233551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77845919132233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71197474002838</t>
+    <t xml:space="preserve">1.83663308620453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81170129776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89480698108673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79508030414581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77845931053162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71197462081909</t>
   </si>
   <si>
     <t xml:space="preserve">1.80339097976685</t>
@@ -1172,16 +1172,16 @@
     <t xml:space="preserve">1.76183795928955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70366418361664</t>
+    <t xml:space="preserve">1.70366406440735</t>
   </si>
   <si>
     <t xml:space="preserve">1.64133501052856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65795600414276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61224794387817</t>
+    <t xml:space="preserve">1.65795612335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61224818229675</t>
   </si>
   <si>
     <t xml:space="preserve">1.5332977771759</t>
@@ -1190,13 +1190,13 @@
     <t xml:space="preserve">1.52914249897003</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48758959770203</t>
+    <t xml:space="preserve">1.48758971691132</t>
   </si>
   <si>
     <t xml:space="preserve">1.4626579284668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49590015411377</t>
+    <t xml:space="preserve">1.49590027332306</t>
   </si>
   <si>
     <t xml:space="preserve">1.50836610794067</t>
@@ -1205,19 +1205,19 @@
     <t xml:space="preserve">1.48343431949615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51667666435242</t>
+    <t xml:space="preserve">1.51667678356171</t>
   </si>
   <si>
     <t xml:space="preserve">1.47096848487854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46681320667267</t>
+    <t xml:space="preserve">1.46681332588196</t>
   </si>
   <si>
     <t xml:space="preserve">1.45434737205505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41279482841492</t>
+    <t xml:space="preserve">1.41279470920563</t>
   </si>
   <si>
     <t xml:space="preserve">1.38786292076111</t>
@@ -1232,25 +1232,25 @@
     <t xml:space="preserve">1.35046553611755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36293125152588</t>
+    <t xml:space="preserve">1.36293137073517</t>
   </si>
   <si>
     <t xml:space="preserve">1.40448415279388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39617359638214</t>
+    <t xml:space="preserve">1.39617347717285</t>
   </si>
   <si>
     <t xml:space="preserve">1.40863955020905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40032887458801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42941582202911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4169499874115</t>
+    <t xml:space="preserve">1.40032875537872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4294159412384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41694986820221</t>
   </si>
   <si>
     <t xml:space="preserve">1.44188153743744</t>
@@ -1259,13 +1259,13 @@
     <t xml:space="preserve">1.45019209384918</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44603681564331</t>
+    <t xml:space="preserve">1.44603705406189</t>
   </si>
   <si>
     <t xml:space="preserve">1.42526054382324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51252138614655</t>
+    <t xml:space="preserve">1.51252126693726</t>
   </si>
   <si>
     <t xml:space="preserve">1.50005543231964</t>
@@ -1286,13 +1286,13 @@
     <t xml:space="preserve">1.4917448759079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5042108297348</t>
+    <t xml:space="preserve">1.50421071052551</t>
   </si>
   <si>
     <t xml:space="preserve">1.45850276947021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43772614002228</t>
+    <t xml:space="preserve">1.43772637844086</t>
   </si>
   <si>
     <t xml:space="preserve">1.37955236434937</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">1.4335709810257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49191403388977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50488710403442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47461652755737</t>
+    <t xml:space="preserve">1.49191391468048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.504887342453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47461640834808</t>
   </si>
   <si>
     <t xml:space="preserve">1.440021276474</t>
@@ -1328,10 +1328,10 @@
     <t xml:space="preserve">1.53083348274231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51786029338837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52650904655457</t>
+    <t xml:space="preserve">1.51786041259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52650916576385</t>
   </si>
   <si>
     <t xml:space="preserve">1.53515791893005</t>
@@ -1340,13 +1340,13 @@
     <t xml:space="preserve">1.59137499332428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62164580821991</t>
+    <t xml:space="preserve">1.62164556980133</t>
   </si>
   <si>
     <t xml:space="preserve">1.63461887836456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63894331455231</t>
+    <t xml:space="preserve">1.63894319534302</t>
   </si>
   <si>
     <t xml:space="preserve">1.61732125282288</t>
@@ -1382,16 +1382,16 @@
     <t xml:space="preserve">1.50056278705597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54813098907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48758971691132</t>
+    <t xml:space="preserve">1.548131108284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48758983612061</t>
   </si>
   <si>
     <t xml:space="preserve">1.48326528072357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47029221057892</t>
+    <t xml:space="preserve">1.47029209136963</t>
   </si>
   <si>
     <t xml:space="preserve">1.46164333820343</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">1.60867261886597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60002374649048</t>
+    <t xml:space="preserve">1.60002362728119</t>
   </si>
   <si>
     <t xml:space="preserve">1.58272612094879</t>
@@ -1409,22 +1409,22 @@
     <t xml:space="preserve">1.61299693584442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64759194850922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64326763153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69083595275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72975528240204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69516026973724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66921377182007</t>
+    <t xml:space="preserve">1.64759206771851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64326751232147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6908358335495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72975540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69516038894653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66921401023865</t>
   </si>
   <si>
     <t xml:space="preserve">1.66056501865387</t>
@@ -1436,13 +1436,13 @@
     <t xml:space="preserve">1.72110664844513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68651151657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67786276340485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66488945484161</t>
+    <t xml:space="preserve">1.68651163578033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67786288261414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6648895740509</t>
   </si>
   <si>
     <t xml:space="preserve">1.67353820800781</t>
@@ -1451,31 +1451,31 @@
     <t xml:space="preserve">1.6821870803833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65191626548767</t>
+    <t xml:space="preserve">1.65191638469696</t>
   </si>
   <si>
     <t xml:space="preserve">1.70380902290344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8162430524826</t>
+    <t xml:space="preserve">1.81624317169189</t>
   </si>
   <si>
     <t xml:space="preserve">2.02381372451782</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0411114692688</t>
+    <t xml:space="preserve">2.04111123085022</t>
   </si>
   <si>
     <t xml:space="preserve">2.11030173301697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33516979217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23138427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3438184261322</t>
+    <t xml:space="preserve">2.33517003059387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23138451576233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34381866455078</t>
   </si>
   <si>
     <t xml:space="preserve">2.38706231117249</t>
@@ -1484,22 +1484,22 @@
     <t xml:space="preserve">2.40435981750488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41300845146179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36111617088318</t>
+    <t xml:space="preserve">2.41300892829895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3611159324646</t>
   </si>
   <si>
     <t xml:space="preserve">2.42165756225586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29192590713501</t>
+    <t xml:space="preserve">2.29192614555359</t>
   </si>
   <si>
     <t xml:space="preserve">2.15354561805725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97192108631134</t>
+    <t xml:space="preserve">1.97192120552063</t>
   </si>
   <si>
     <t xml:space="preserve">1.98056983947754</t>
@@ -1511,19 +1511,19 @@
     <t xml:space="preserve">2.01516509056091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77299928665161</t>
+    <t xml:space="preserve">1.77299916744232</t>
   </si>
   <si>
     <t xml:space="preserve">1.56975305080414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72543096542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86813604831696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76435053348541</t>
+    <t xml:space="preserve">1.72543108463287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86813592910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76435029506683</t>
   </si>
   <si>
     <t xml:space="preserve">1.78164803981781</t>
@@ -1532,25 +1532,25 @@
     <t xml:space="preserve">1.8248918056488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73840415477753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79894554615021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7902969121933</t>
+    <t xml:space="preserve">1.73840427398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7989456653595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79029679298401</t>
   </si>
   <si>
     <t xml:space="preserve">1.89408218860626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85948705673218</t>
+    <t xml:space="preserve">1.85948717594147</t>
   </si>
   <si>
     <t xml:space="preserve">1.75570178031921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80759429931641</t>
+    <t xml:space="preserve">1.80759418010712</t>
   </si>
   <si>
     <t xml:space="preserve">1.74705290794373</t>
@@ -1559,10 +1559,10 @@
     <t xml:space="preserve">1.83354067802429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90273118019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91137993335724</t>
+    <t xml:space="preserve">1.90273094177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91137981414795</t>
   </si>
   <si>
     <t xml:space="preserve">2.06705760955811</t>
@@ -1574,252 +1574,255 @@
     <t xml:space="preserve">2.08435535430908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11000943183899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07424688339233</t>
+    <t xml:space="preserve">2.11000967025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07424664497375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06530570983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01166176795959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99378025531769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96695828437805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94013619422913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9043732881546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94907665252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92225444316864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91331386566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88649141788483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93119537830353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87755084037781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89543235301971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85966944694519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84178793430328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82390654087067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81496596336365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80602502822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79708445072174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85072863101959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83284735679626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8686101436615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78814375400543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77026224136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76132154464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76579189300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7434401512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05636525154114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1189501285553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21729826927185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12789106369019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10106873512268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02954292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03848385810852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04742455482483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0206024646759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08318758010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09212803840637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18153548240662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15471315383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13683176040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1457724571228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23517942428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37823104858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36034989356995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35140895843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34246826171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32458686828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37878966331482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36034965515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36956977844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33268928527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29580879211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25892853736877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26814842224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24048805236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20360779762268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19438767433167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2128279209137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22204804420471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07452607154846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09296607971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12062644958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14828681945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13906693458557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24970841407776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28658890724182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23126816749573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16672706604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15750694274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17594718933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18516731262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27736854553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30502891540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3234691619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34190940856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31424903869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12984657287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10218644142151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05608582496643</t>
   </si>
   <si>
     <t xml:space="preserve">2.06530594825745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01166176795959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99378025531769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96695828437805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94013607501984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90437316894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94907665252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92225456237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91331386566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88649141788483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93119537830353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87755084037781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89543235301971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8596693277359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84178793430328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82390654087067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81496584415436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80602514743805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79708456993103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85072875022888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83284735679626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8686101436615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78814363479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77026236057281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76132154464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76579201221466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7434401512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05636501312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1189501285553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21729850769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12789106369019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10106873512268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02954292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03848385810852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04742455482483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0206024646759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08318734169006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09212803840637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18153548240662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15471339225769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13683176040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14577269554138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23517966270447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37823128700256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36034989356995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35140895843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34246802330017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32458686828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37878966331482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36034965515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36956977844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33268928527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29580879211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25892853736877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26814842224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24048805236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20360779762268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19438767433167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2128279209137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22204804420471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07452607154846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09296607971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12062644958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14828681945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13906693458557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24970841407776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28658890724182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23126816749573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16672706604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15750694274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17594718933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18516731262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27736854553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30502891540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3234691619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34190940856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31424903869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12984657287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10218644142151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05608582496643</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.02842569351196</t>
   </si>
   <si>
@@ -2067,6 +2070,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.0699999332428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98500001430511</t>
   </si>
 </sst>
 </file>
@@ -43220,7 +43226,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1570" t="s">
-        <v>522</v>
+        <v>602</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43246,7 +43252,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1571" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43272,7 +43278,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1572" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43298,7 +43304,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1573" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43324,7 +43330,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1574" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44156,7 +44162,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1606" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44182,7 +44188,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1607" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44208,7 +44214,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1608" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44234,7 +44240,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1609" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44260,7 +44266,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1610" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44390,7 +44396,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1615" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45170,7 +45176,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1645" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45196,7 +45202,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1646" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45222,7 +45228,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1647" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45248,7 +45254,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1648" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45274,7 +45280,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1649" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45300,7 +45306,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1650" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45326,7 +45332,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1651" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45352,7 +45358,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1652" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45378,7 +45384,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1653" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45404,7 +45410,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1654" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45430,7 +45436,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1655" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45456,7 +45462,7 @@
         <v>2.25</v>
       </c>
       <c r="G1656" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45482,7 +45488,7 @@
         <v>2.25</v>
       </c>
       <c r="G1657" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45508,7 +45514,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1658" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45534,7 +45540,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1659" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45560,7 +45566,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1660" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45586,7 +45592,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1661" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45612,7 +45618,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1662" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45638,7 +45644,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1663" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45664,7 +45670,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1664" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45690,7 +45696,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1665" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -45716,7 +45722,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1666" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45742,7 +45748,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1667" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45768,7 +45774,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1668" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45794,7 +45800,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1669" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45820,7 +45826,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1670" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45846,7 +45852,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1671" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45872,7 +45878,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1672" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45898,7 +45904,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1673" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45924,7 +45930,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1674" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45950,7 +45956,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1675" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45976,7 +45982,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1676" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46002,7 +46008,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1677" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46028,7 +46034,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1678" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46054,7 +46060,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1679" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46080,7 +46086,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1680" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46106,7 +46112,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1681" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46132,7 +46138,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1682" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46158,7 +46164,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1683" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46184,7 +46190,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1684" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46210,7 +46216,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1685" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46236,7 +46242,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1686" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46262,7 +46268,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1687" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46288,7 +46294,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1688" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46314,7 +46320,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1689" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46340,7 +46346,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1690" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46366,7 +46372,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1691" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46392,7 +46398,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1692" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46418,7 +46424,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1693" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46444,7 +46450,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1694" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46470,7 +46476,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1695" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46496,7 +46502,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1696" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46522,7 +46528,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1697" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46548,7 +46554,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1698" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46574,7 +46580,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1699" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46600,7 +46606,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1700" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46626,7 +46632,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1701" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46652,7 +46658,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1702" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46678,7 +46684,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1703" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -46704,7 +46710,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1704" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -46730,7 +46736,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1705" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46756,7 +46762,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1706" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46782,7 +46788,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1707" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46808,7 +46814,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1708" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46834,7 +46840,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1709" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46860,7 +46866,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1710" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46886,7 +46892,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1711" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46912,7 +46918,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1712" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46938,7 +46944,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1713" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46964,7 +46970,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1714" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46990,7 +46996,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1715" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47016,7 +47022,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1716" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47042,7 +47048,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1717" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47068,7 +47074,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1718" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47094,7 +47100,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1719" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47120,7 +47126,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1720" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47146,7 +47152,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1721" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47172,7 +47178,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1722" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47198,7 +47204,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1723" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47224,7 +47230,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1724" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47250,7 +47256,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1725" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47276,7 +47282,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1726" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47302,7 +47308,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47328,7 +47334,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1728" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47354,7 +47360,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1729" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47380,7 +47386,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1730" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47406,7 +47412,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1731" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47432,7 +47438,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1732" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47458,7 +47464,7 @@
         <v>2</v>
       </c>
       <c r="G1733" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47484,7 +47490,7 @@
         <v>2</v>
       </c>
       <c r="G1734" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47510,7 +47516,7 @@
         <v>2</v>
       </c>
       <c r="G1735" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47536,7 +47542,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1736" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47562,7 +47568,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1737" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47588,7 +47594,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1738" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47614,7 +47620,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1739" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47640,7 +47646,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1740" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47666,7 +47672,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1741" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47692,7 +47698,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1742" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47718,7 +47724,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1743" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47744,7 +47750,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1744" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47770,7 +47776,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47796,7 +47802,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1746" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47822,7 +47828,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1747" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47848,7 +47854,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1748" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47874,7 +47880,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1749" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47900,7 +47906,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1750" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47926,7 +47932,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1751" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47952,7 +47958,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1752" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47978,7 +47984,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1753" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48004,7 +48010,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1754" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48030,7 +48036,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1755" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48056,7 +48062,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1756" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48082,7 +48088,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1757" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48108,7 +48114,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1758" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48134,7 +48140,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1759" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48160,7 +48166,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1760" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48186,7 +48192,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48212,7 +48218,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1762" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48238,7 +48244,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1763" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48264,7 +48270,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1764" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48290,7 +48296,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1765" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48316,7 +48322,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1766" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48342,7 +48348,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1767" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48368,7 +48374,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1768" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48394,7 +48400,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1769" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48420,7 +48426,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1770" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48446,7 +48452,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1771" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48472,7 +48478,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1772" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48498,7 +48504,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1773" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48524,7 +48530,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1774" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48550,7 +48556,7 @@
         <v>2</v>
       </c>
       <c r="G1775" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48576,7 +48582,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1776" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48602,7 +48608,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1777" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48628,7 +48634,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1778" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48654,7 +48660,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1779" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48680,7 +48686,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1780" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48706,7 +48712,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1781" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48732,7 +48738,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1782" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48758,7 +48764,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1783" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48784,7 +48790,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1784" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48810,7 +48816,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1785" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48836,7 +48842,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1786" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48862,7 +48868,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1787" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48888,7 +48894,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1788" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48914,7 +48920,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1789" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48940,7 +48946,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1790" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48966,7 +48972,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1791" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48992,7 +48998,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1792" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49018,7 +49024,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1793" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49044,7 +49050,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49070,7 +49076,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1795" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49096,7 +49102,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49122,7 +49128,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1797" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49148,7 +49154,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1798" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49174,7 +49180,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1799" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49200,7 +49206,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1800" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49226,7 +49232,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1801" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49252,7 +49258,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1802" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49278,7 +49284,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1803" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49304,7 +49310,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1804" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49330,7 +49336,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1805" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49356,7 +49362,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1806" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49382,7 +49388,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49408,7 +49414,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1808" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49434,7 +49440,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1809" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49460,7 +49466,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1810" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49486,7 +49492,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1811" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49512,7 +49518,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1812" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49538,7 +49544,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1813" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49564,7 +49570,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1814" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49590,7 +49596,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1815" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49616,7 +49622,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1816" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49642,7 +49648,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1817" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49668,7 +49674,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1818" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49694,7 +49700,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1819" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49720,7 +49726,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1820" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49746,7 +49752,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1821" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49772,7 +49778,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1822" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49798,7 +49804,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1823" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49824,7 +49830,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1824" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49850,7 +49856,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1825" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49876,7 +49882,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1826" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49902,7 +49908,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1827" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49928,7 +49934,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1828" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49954,7 +49960,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1829" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49980,7 +49986,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1830" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50006,7 +50012,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1831" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50032,7 +50038,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1832" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50058,7 +50064,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1833" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50084,7 +50090,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1834" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50110,7 +50116,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1835" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50136,7 +50142,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1836" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50162,7 +50168,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1837" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50188,7 +50194,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1838" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50214,7 +50220,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1839" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50240,7 +50246,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1840" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50266,7 +50272,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1841" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50292,7 +50298,7 @@
         <v>2</v>
       </c>
       <c r="G1842" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50318,7 +50324,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1843" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50344,7 +50350,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1844" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50370,7 +50376,7 @@
         <v>2</v>
       </c>
       <c r="G1845" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50396,7 +50402,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1846" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50422,7 +50428,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1847" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50448,7 +50454,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1848" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50474,7 +50480,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1849" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50500,7 +50506,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1850" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50526,7 +50532,7 @@
         <v>2</v>
       </c>
       <c r="G1851" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50552,7 +50558,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1852" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50578,7 +50584,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1853" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50604,7 +50610,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1854" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50630,7 +50636,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1855" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50656,7 +50662,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1856" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50682,7 +50688,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1857" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50708,7 +50714,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1858" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -50734,7 +50740,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1859" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50760,7 +50766,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1860" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50786,7 +50792,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1861" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50812,7 +50818,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1862" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50838,7 +50844,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1863" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50864,7 +50870,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1864" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50890,7 +50896,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1865" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50916,7 +50922,7 @@
         <v>2</v>
       </c>
       <c r="G1866" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50942,7 +50948,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1867" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50968,7 +50974,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1868" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50994,7 +51000,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1869" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51020,7 +51026,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1870" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51046,7 +51052,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1871" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51072,7 +51078,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1872" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51098,7 +51104,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1873" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51124,7 +51130,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1874" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51150,7 +51156,7 @@
         <v>2</v>
       </c>
       <c r="G1875" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51176,7 +51182,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1876" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51202,7 +51208,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1877" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51228,7 +51234,7 @@
         <v>2</v>
       </c>
       <c r="G1878" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51254,7 +51260,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1879" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51280,7 +51286,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1880" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51306,7 +51312,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1881" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51332,7 +51338,7 @@
         <v>2</v>
       </c>
       <c r="G1882" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51358,7 +51364,7 @@
         <v>2</v>
       </c>
       <c r="G1883" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51384,7 +51390,7 @@
         <v>2</v>
       </c>
       <c r="G1884" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51410,7 +51416,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1885" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51436,7 +51442,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1886" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51462,7 +51468,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1887" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51488,7 +51494,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1888" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51514,7 +51520,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1889" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51540,7 +51546,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1890" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51566,7 +51572,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1891" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51592,7 +51598,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1892" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51618,7 +51624,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1893" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51644,7 +51650,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1894" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51670,7 +51676,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1895" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51696,7 +51702,7 @@
         <v>2</v>
       </c>
       <c r="G1896" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51722,7 +51728,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1897" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51748,7 +51754,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1898" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51774,7 +51780,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1899" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51800,7 +51806,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1900" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51826,7 +51832,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1901" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51852,7 +51858,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1902" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51878,7 +51884,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1903" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51904,7 +51910,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1904" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51930,7 +51936,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1905" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51956,7 +51962,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1906" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51982,7 +51988,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1907" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52008,7 +52014,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1908" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52034,7 +52040,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1909" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52060,7 +52066,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1910" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52086,7 +52092,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1911" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52112,7 +52118,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1912" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52138,7 +52144,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1913" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52164,7 +52170,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1914" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52190,7 +52196,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1915" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52216,7 +52222,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1916" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52242,7 +52248,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1917" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52268,7 +52274,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1918" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52294,7 +52300,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1919" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52320,7 +52326,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1920" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52346,7 +52352,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1921" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52372,7 +52378,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1922" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52398,7 +52404,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1923" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52424,7 +52430,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1924" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52450,7 +52456,7 @@
         <v>2</v>
       </c>
       <c r="G1925" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52476,7 +52482,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1926" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52502,7 +52508,7 @@
         <v>2</v>
       </c>
       <c r="G1927" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52528,7 +52534,7 @@
         <v>2</v>
       </c>
       <c r="G1928" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52554,7 +52560,7 @@
         <v>2</v>
       </c>
       <c r="G1929" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52580,7 +52586,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1930" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52606,7 +52612,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1931" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52632,7 +52638,7 @@
         <v>2</v>
       </c>
       <c r="G1932" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52658,7 +52664,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1933" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52684,7 +52690,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1934" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52710,7 +52716,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1935" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52736,7 +52742,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1936" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52762,7 +52768,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1937" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52788,7 +52794,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1938" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52814,7 +52820,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1939" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52840,7 +52846,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1940" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52866,7 +52872,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1941" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52892,7 +52898,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1942" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52918,7 +52924,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1943" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52944,7 +52950,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1944" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52970,7 +52976,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1945" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52996,7 +53002,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1946" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53022,7 +53028,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1947" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53048,7 +53054,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1948" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53074,7 +53080,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1949" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53100,7 +53106,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1950" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53126,7 +53132,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1951" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53152,7 +53158,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1952" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53178,7 +53184,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1953" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53204,7 +53210,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1954" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53230,7 +53236,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1955" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53256,7 +53262,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1956" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53282,7 +53288,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1957" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53308,7 +53314,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1958" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53334,7 +53340,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1959" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53360,7 +53366,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1960" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53386,7 +53392,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1961" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53412,7 +53418,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1962" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53438,7 +53444,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1963" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53464,7 +53470,7 @@
         <v>2</v>
       </c>
       <c r="G1964" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53490,7 +53496,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1965" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53516,7 +53522,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1966" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53542,7 +53548,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1967" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53568,7 +53574,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1968" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53594,7 +53600,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1969" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53620,7 +53626,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1970" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53646,7 +53652,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1971" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53672,7 +53678,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1972" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53698,7 +53704,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1973" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53724,7 +53730,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1974" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53750,7 +53756,7 @@
         <v>1.75</v>
       </c>
       <c r="G1975" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53776,7 +53782,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1976" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53802,7 +53808,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1977" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53828,7 +53834,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1978" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53854,7 +53860,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1979" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53880,7 +53886,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1980" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53906,7 +53912,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1981" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53932,7 +53938,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G1982" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53958,7 +53964,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1983" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53984,7 +53990,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1984" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54010,7 +54016,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1985" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54036,7 +54042,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G1986" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54062,7 +54068,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G1987" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54088,7 +54094,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1988" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54114,7 +54120,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1989" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54140,7 +54146,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1990" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54166,7 +54172,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1991" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54192,7 +54198,7 @@
         <v>1.75</v>
       </c>
       <c r="G1992" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54218,7 +54224,7 @@
         <v>1.75</v>
       </c>
       <c r="G1993" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54244,7 +54250,7 @@
         <v>1.75</v>
       </c>
       <c r="G1994" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54270,7 +54276,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1995" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54296,7 +54302,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1996" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54322,7 +54328,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1997" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54348,7 +54354,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1998" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54374,7 +54380,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G1999" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54400,7 +54406,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2000" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54426,7 +54432,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54452,7 +54458,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2002" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54478,7 +54484,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2003" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54504,7 +54510,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2004" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54530,7 +54536,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2005" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54556,7 +54562,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2006" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54582,7 +54588,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54608,7 +54614,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2008" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54634,7 +54640,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2009" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54660,7 +54666,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2010" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54686,7 +54692,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2011" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54712,7 +54718,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G2012" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54738,7 +54744,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2013" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54764,7 +54770,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2014" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54790,7 +54796,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2015" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54816,7 +54822,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2016" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54842,7 +54848,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2017" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54868,7 +54874,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2018" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54894,7 +54900,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2019" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54920,7 +54926,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2020" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54946,7 +54952,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2021" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54972,7 +54978,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G2022" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54998,7 +55004,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2023" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55024,7 +55030,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2024" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55050,7 +55056,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2025" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55076,7 +55082,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2026" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55102,7 +55108,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2027" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55128,7 +55134,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2028" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55154,7 +55160,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2029" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55180,7 +55186,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2030" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55206,7 +55212,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2031" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55232,7 +55238,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2032" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55258,7 +55264,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2033" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55284,7 +55290,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2034" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55310,7 +55316,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2035" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55336,7 +55342,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2036" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55362,7 +55368,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2037" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55388,7 +55394,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2038" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55414,7 +55420,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2039" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55440,7 +55446,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55466,7 +55472,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2041" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55492,7 +55498,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2042" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55518,7 +55524,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2043" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55544,7 +55550,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2044" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55570,7 +55576,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2045" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55596,7 +55602,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2046" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55622,7 +55628,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2047" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55648,7 +55654,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2048" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55674,7 +55680,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2049" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55700,7 +55706,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2050" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55726,7 +55732,7 @@
         <v>2</v>
       </c>
       <c r="G2051" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55752,7 +55758,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2052" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55778,7 +55784,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55804,7 +55810,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2054" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55830,7 +55836,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2055" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55856,7 +55862,7 @@
         <v>2</v>
       </c>
       <c r="G2056" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55882,7 +55888,7 @@
         <v>2</v>
       </c>
       <c r="G2057" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55908,7 +55914,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2058" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55934,7 +55940,7 @@
         <v>2</v>
       </c>
       <c r="G2059" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55960,7 +55966,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2060" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55986,7 +55992,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2061" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56012,7 +56018,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2062" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56038,7 +56044,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2063" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56064,7 +56070,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2064" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56090,7 +56096,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2065" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56116,7 +56122,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2066" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56142,7 +56148,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2067" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56168,7 +56174,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2068" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56194,7 +56200,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2069" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56220,7 +56226,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56246,7 +56252,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2071" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56272,7 +56278,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2072" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56298,7 +56304,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2073" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56324,7 +56330,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2074" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56350,7 +56356,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2075" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56376,7 +56382,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2076" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56402,7 +56408,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2077" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56428,7 +56434,7 @@
         <v>2</v>
       </c>
       <c r="G2078" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56454,7 +56460,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2079" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56480,7 +56486,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2080" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56506,7 +56512,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2081" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56532,7 +56538,7 @@
         <v>2</v>
       </c>
       <c r="G2082" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56558,7 +56564,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2083" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56584,7 +56590,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2084" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56610,7 +56616,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2085" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56636,7 +56642,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56662,7 +56668,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56688,7 +56694,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2088" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56714,7 +56720,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2089" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56740,7 +56746,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2090" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56766,7 +56772,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2091" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56792,7 +56798,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2092" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56818,7 +56824,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2093" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56844,7 +56850,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2094" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56870,7 +56876,7 @@
         <v>2</v>
       </c>
       <c r="G2095" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56896,7 +56902,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2096" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56922,7 +56928,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56948,7 +56954,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2098" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56974,7 +56980,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2099" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57000,7 +57006,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2100" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57026,7 +57032,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2101" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57052,7 +57058,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2102" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57078,7 +57084,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G2103" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57104,7 +57110,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2104" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57130,7 +57136,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2105" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57156,7 +57162,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2106" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57182,7 +57188,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2107" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57208,7 +57214,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2108" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57234,7 +57240,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57260,7 +57266,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2110" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57286,7 +57292,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G2111" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57312,7 +57318,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2112" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57338,7 +57344,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2113" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57364,7 +57370,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2114" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57390,7 +57396,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57416,7 +57422,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G2116" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57442,7 +57448,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2117" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57468,7 +57474,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2118" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57494,7 +57500,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G2119" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57520,7 +57526,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2120" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57546,7 +57552,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2121" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57572,7 +57578,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2122" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57598,7 +57604,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G2123" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57624,7 +57630,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2124" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57650,7 +57656,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2125" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57676,7 +57682,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2126" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57702,7 +57708,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2127" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57728,7 +57734,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2128" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57754,7 +57760,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2129" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57780,7 +57786,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2130" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57806,7 +57812,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2131" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57832,7 +57838,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2132" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57858,7 +57864,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2133" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57884,7 +57890,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2134" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57910,7 +57916,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2135" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57936,7 +57942,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2136" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57962,7 +57968,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2137" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57988,7 +57994,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58014,7 +58020,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2139" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58040,7 +58046,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2140" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58066,7 +58072,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2141" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58092,7 +58098,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58118,7 +58124,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2143" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58144,7 +58150,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2144" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58170,7 +58176,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2145" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58196,7 +58202,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2146" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58222,7 +58228,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2147" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58248,7 +58254,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2148" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58274,7 +58280,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2149" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58300,7 +58306,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2150" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58326,7 +58332,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2151" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58352,7 +58358,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2152" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58360,7 +58366,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.5636574074</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>4994</v>
@@ -58378,9 +58384,35 @@
         <v>2</v>
       </c>
       <c r="G2153" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6397685185</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>5963</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>1.98500001430511</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>1.98500001430511</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>686</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AC5.MI.xlsx
+++ b/data/AC5.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="686">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24246180057526</t>
+    <t xml:space="preserve">1.24246168136597</t>
   </si>
   <si>
     <t xml:space="preserve">AC5.MI</t>
@@ -56,13 +56,13 @@
     <t xml:space="preserve">1.21159315109253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18766987323761</t>
+    <t xml:space="preserve">1.1876699924469</t>
   </si>
   <si>
     <t xml:space="preserve">1.18844163417816</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19615876674652</t>
+    <t xml:space="preserve">1.19615864753723</t>
   </si>
   <si>
     <t xml:space="preserve">1.18149614334106</t>
@@ -77,37 +77,37 @@
     <t xml:space="preserve">1.02252280712128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00322997570038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07654309272766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12593257427216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09429216384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10355281829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14291036128998</t>
+    <t xml:space="preserve">1.00322985649109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07654285430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12593269348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09429228305817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10355293750763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14291048049927</t>
   </si>
   <si>
     <t xml:space="preserve">1.11821556091309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12361764907837</t>
+    <t xml:space="preserve">1.12361752986908</t>
   </si>
   <si>
     <t xml:space="preserve">1.11127007007599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13210654258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11204195022583</t>
+    <t xml:space="preserve">1.1321063041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11204183101654</t>
   </si>
   <si>
     <t xml:space="preserve">1.10586798191071</t>
@@ -116,25 +116,25 @@
     <t xml:space="preserve">1.02638149261475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975448250770569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992426037788391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999371290206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01789247989655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06805396080017</t>
+    <t xml:space="preserve">0.975448369979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992425799369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999371230602264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01789259910583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06805408000946</t>
   </si>
   <si>
     <t xml:space="preserve">1.05107629299164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04181575775146</t>
+    <t xml:space="preserve">1.04181563854218</t>
   </si>
   <si>
     <t xml:space="preserve">1.04258739948273</t>
@@ -149,49 +149,49 @@
     <t xml:space="preserve">1.07191264629364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07422769069672</t>
+    <t xml:space="preserve">1.07422757148743</t>
   </si>
   <si>
     <t xml:space="preserve">1.06110858917236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07345604896545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07036912441254</t>
+    <t xml:space="preserve">1.07345592975616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07036924362183</t>
   </si>
   <si>
     <t xml:space="preserve">1.08040142059326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10200953483582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09969437122345</t>
+    <t xml:space="preserve">1.1020096540451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09969425201416</t>
   </si>
   <si>
     <t xml:space="preserve">1.08426010608673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10741138458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08966207504272</t>
+    <t xml:space="preserve">1.10741150379181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08966183662415</t>
   </si>
   <si>
     <t xml:space="preserve">1.09043371677399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09506404399872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08580327033997</t>
+    <t xml:space="preserve">1.09506416320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08580350875854</t>
   </si>
   <si>
     <t xml:space="preserve">1.06651043891907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09197723865509</t>
+    <t xml:space="preserve">1.0919771194458</t>
   </si>
   <si>
     <t xml:space="preserve">1.11898732185364</t>
@@ -203,10 +203,10 @@
     <t xml:space="preserve">1.126704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19152867794037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19230020046234</t>
+    <t xml:space="preserve">1.19152855873108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19230031967163</t>
   </si>
   <si>
     <t xml:space="preserve">1.17532253265381</t>
@@ -218,43 +218,43 @@
     <t xml:space="preserve">1.2802757024765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26561307907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22625553607941</t>
+    <t xml:space="preserve">1.26561319828033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2262556552887</t>
   </si>
   <si>
     <t xml:space="preserve">1.23474454879761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25017881393433</t>
+    <t xml:space="preserve">1.25017893314362</t>
   </si>
   <si>
     <t xml:space="preserve">1.21004962921143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18921327590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25789594650269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25635242462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24323320388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2316575050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23088622093201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22316884994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2401465177536</t>
+    <t xml:space="preserve">1.18921315670013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25789606571198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25635266304016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24323332309723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23165762424469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23088598251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22316896915436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24014663696289</t>
   </si>
   <si>
     <t xml:space="preserve">1.27101504802704</t>
@@ -263,13 +263,13 @@
     <t xml:space="preserve">1.26792824268341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27950406074524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29725337028503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31191611289978</t>
+    <t xml:space="preserve">1.27950394153595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29725348949432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31191599369049</t>
   </si>
   <si>
     <t xml:space="preserve">1.31268775463104</t>
@@ -278,25 +278,25 @@
     <t xml:space="preserve">1.3065140247345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32503509521484</t>
+    <t xml:space="preserve">1.32503533363342</t>
   </si>
   <si>
     <t xml:space="preserve">1.32272005081177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29571008682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33853018283844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32901477813721</t>
+    <t xml:space="preserve">1.29570996761322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33853030204773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32901465892792</t>
   </si>
   <si>
     <t xml:space="preserve">1.28857326507568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698742389679</t>
+    <t xml:space="preserve">1.2869873046875</t>
   </si>
   <si>
     <t xml:space="preserve">1.26002645492554</t>
@@ -311,13 +311,13 @@
     <t xml:space="preserve">1.26081943511963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25209677219391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24496006965637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25051093101501</t>
+    <t xml:space="preserve">1.2520968914032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24496018886566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25051069259644</t>
   </si>
   <si>
     <t xml:space="preserve">1.23623740673065</t>
@@ -326,10 +326,10 @@
     <t xml:space="preserve">1.21165537834167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19341707229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19738185405731</t>
+    <t xml:space="preserve">1.19341719150543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1973819732666</t>
   </si>
   <si>
     <t xml:space="preserve">1.19103813171387</t>
@@ -338,22 +338,22 @@
     <t xml:space="preserve">1.2409952878952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22354996204376</t>
+    <t xml:space="preserve">1.22354984283447</t>
   </si>
   <si>
     <t xml:space="preserve">1.21562027931213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2211709022522</t>
+    <t xml:space="preserve">1.22117102146149</t>
   </si>
   <si>
     <t xml:space="preserve">1.16169846057892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15773355960846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22513580322266</t>
+    <t xml:space="preserve">1.15773367881775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22513604164124</t>
   </si>
   <si>
     <t xml:space="preserve">1.21799921989441</t>
@@ -368,28 +368,28 @@
     <t xml:space="preserve">1.28064370155334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30839741230011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2766786813736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30443263053894</t>
+    <t xml:space="preserve">1.3083975315094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27667880058289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30443251132965</t>
   </si>
   <si>
     <t xml:space="preserve">1.28222954273224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30522549152374</t>
+    <t xml:space="preserve">1.30522572994232</t>
   </si>
   <si>
     <t xml:space="preserve">1.27271401882172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28460836410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27350687980652</t>
+    <t xml:space="preserve">1.28460848331451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27350676059723</t>
   </si>
   <si>
     <t xml:space="preserve">1.29253828525543</t>
@@ -398,34 +398,34 @@
     <t xml:space="preserve">1.30046784877777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2988817691803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31632697582245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30760455131531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31553435325623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32425689697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33218657970428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33615124225616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32663571834564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35994064807892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38928020000458</t>
+    <t xml:space="preserve">1.29888200759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31632733345032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30760478973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31553411483765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32425677776337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.332186460495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33615148067474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32663595676422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35994052886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38928031921387</t>
   </si>
   <si>
     <t xml:space="preserve">1.42734265327454</t>
@@ -443,37 +443,37 @@
     <t xml:space="preserve">1.38531529903412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34804606437683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3639053106308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37976467609406</t>
+    <t xml:space="preserve">1.34804594516754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36390542984009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37976479530334</t>
   </si>
   <si>
     <t xml:space="preserve">1.3646981716156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36707711219788</t>
+    <t xml:space="preserve">1.36707723140717</t>
   </si>
   <si>
     <t xml:space="preserve">1.36787021160126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37500667572021</t>
+    <t xml:space="preserve">1.37500691413879</t>
   </si>
   <si>
     <t xml:space="preserve">1.34011626243591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33377242088318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36945605278015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35121786594391</t>
+    <t xml:space="preserve">1.33377254009247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36945593357086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35121774673462</t>
   </si>
   <si>
     <t xml:space="preserve">1.32504975795746</t>
@@ -488,109 +488,109 @@
     <t xml:space="preserve">1.29650294780731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29333114624023</t>
+    <t xml:space="preserve">1.29333102703094</t>
   </si>
   <si>
     <t xml:space="preserve">1.27588582038879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2972959280014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30681169033051</t>
+    <t xml:space="preserve">1.29729604721069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30681157112122</t>
   </si>
   <si>
     <t xml:space="preserve">1.29174506664276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27905774116516</t>
+    <t xml:space="preserve">1.27905786037445</t>
   </si>
   <si>
     <t xml:space="preserve">1.26240527629852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25288987159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26637005805969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27509295940399</t>
+    <t xml:space="preserve">1.252889752388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26637029647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2750928401947</t>
   </si>
   <si>
     <t xml:space="preserve">1.29491710662842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27826488018036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28381550312042</t>
+    <t xml:space="preserve">1.27826452255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28381538391113</t>
   </si>
   <si>
     <t xml:space="preserve">1.27192091941833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26874899864197</t>
+    <t xml:space="preserve">1.26874923706055</t>
   </si>
   <si>
     <t xml:space="preserve">1.2655770778656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24178814888</t>
+    <t xml:space="preserve">1.24178802967072</t>
   </si>
   <si>
     <t xml:space="preserve">1.23861634731293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20531165599823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22910046577454</t>
+    <t xml:space="preserve">1.20531177520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22910070419312</t>
   </si>
   <si>
     <t xml:space="preserve">1.21324133872986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20610475540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19817507266998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19183123111725</t>
+    <t xml:space="preserve">1.20610463619232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19817495346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19183135032654</t>
   </si>
   <si>
     <t xml:space="preserve">1.21641337871552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20293271541595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20927655696869</t>
+    <t xml:space="preserve">1.20293259620667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2092764377594</t>
   </si>
   <si>
     <t xml:space="preserve">1.23465144634247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22196388244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23940908908844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23703026771545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22989368438721</t>
+    <t xml:space="preserve">1.221963763237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23940920829773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23703038692474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22989356517792</t>
   </si>
   <si>
     <t xml:space="preserve">1.23306548595428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23782336711884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29412412643433</t>
+    <t xml:space="preserve">1.23782324790955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29412400722504</t>
   </si>
   <si>
     <t xml:space="preserve">1.27985060214996</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">1.21720612049103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21958518028259</t>
+    <t xml:space="preserve">1.2195850610733</t>
   </si>
   <si>
     <t xml:space="preserve">1.21244847774506</t>
@@ -626,58 +626,58 @@
     <t xml:space="preserve">1.25606167316437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24892497062683</t>
+    <t xml:space="preserve">1.24892508983612</t>
   </si>
   <si>
     <t xml:space="preserve">1.26478433609009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32584297657013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32822167873383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36152637004852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.352010846138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34408104419708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37183487415314</t>
+    <t xml:space="preserve">1.32584285736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32822179794312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36152648925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35201072692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34408128261566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37183511257172</t>
   </si>
   <si>
     <t xml:space="preserve">1.3742139339447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40593254566193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41782712936401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40196788311005</t>
+    <t xml:space="preserve">1.40593266487122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4178272485733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40196764469147</t>
   </si>
   <si>
     <t xml:space="preserve">1.43527245521545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43447947502136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4194130897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43923735618591</t>
+    <t xml:space="preserve">1.43447935581207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41941297054291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4392374753952</t>
   </si>
   <si>
     <t xml:space="preserve">1.3980028629303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4098973274231</t>
+    <t xml:space="preserve">1.40989744663239</t>
   </si>
   <si>
     <t xml:space="preserve">1.41148328781128</t>
@@ -686,28 +686,28 @@
     <t xml:space="preserve">1.42496383190155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43685841560364</t>
+    <t xml:space="preserve">1.43685829639435</t>
   </si>
   <si>
     <t xml:space="preserve">1.4749208688736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45113170146942</t>
+    <t xml:space="preserve">1.451131939888</t>
   </si>
   <si>
     <t xml:space="preserve">1.45906162261963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50267469882965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48285055160522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50346767902374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4733350276947</t>
+    <t xml:space="preserve">1.50267481803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48285067081451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50346755981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47333490848541</t>
   </si>
   <si>
     <t xml:space="preserve">1.48919415473938</t>
@@ -722,19 +722,19 @@
     <t xml:space="preserve">1.51298332214355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52884268760681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49712383747101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48602223396301</t>
+    <t xml:space="preserve">1.5288428068161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4971239566803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4860223531723</t>
   </si>
   <si>
     <t xml:space="preserve">1.50426065921783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53765249252319</t>
+    <t xml:space="preserve">1.5376523733139</t>
   </si>
   <si>
     <t xml:space="preserve">1.57104432582855</t>
@@ -743,55 +743,55 @@
     <t xml:space="preserve">1.62561142444611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66470408439636</t>
+    <t xml:space="preserve">1.66470420360565</t>
   </si>
   <si>
     <t xml:space="preserve">1.69402384757996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71845686435699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73963224887848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64352905750275</t>
+    <t xml:space="preserve">1.71845674514771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73963212966919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64352893829346</t>
   </si>
   <si>
     <t xml:space="preserve">1.63701343536377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61095154285431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60199272632599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61502373218536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59059071540833</t>
+    <t xml:space="preserve">1.6109516620636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60199284553528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61502397060394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59059059619904</t>
   </si>
   <si>
     <t xml:space="preserve">1.59221959114075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56371426582336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56534326076508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55882775783539</t>
+    <t xml:space="preserve">1.56371438503265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56534337997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55882787704468</t>
   </si>
   <si>
     <t xml:space="preserve">1.55149781703949</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55557000637054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5229926109314</t>
+    <t xml:space="preserve">1.55556988716125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52299273014069</t>
   </si>
   <si>
     <t xml:space="preserve">1.58000314235687</t>
@@ -812,16 +812,16 @@
     <t xml:space="preserve">1.53683805465698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54905462265015</t>
+    <t xml:space="preserve">1.54905450344086</t>
   </si>
   <si>
     <t xml:space="preserve">1.53928124904633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54498243331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53520929813385</t>
+    <t xml:space="preserve">1.54498255252838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53520917892456</t>
   </si>
   <si>
     <t xml:space="preserve">1.54416799545288</t>
@@ -830,16 +830,16 @@
     <t xml:space="preserve">1.56452882289886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60036408901215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61665260791779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58896195888519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58814752101898</t>
+    <t xml:space="preserve">1.60036385059357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61665272712708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5889618396759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58814764022827</t>
   </si>
   <si>
     <t xml:space="preserve">1.61583817005157</t>
@@ -848,19 +848,19 @@
     <t xml:space="preserve">1.61258041858673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64515793323517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63538455963135</t>
+    <t xml:space="preserve">1.64515781402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63538444042206</t>
   </si>
   <si>
     <t xml:space="preserve">1.62886917591095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60525047779083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62072491645813</t>
+    <t xml:space="preserve">1.60525059700012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62072479724884</t>
   </si>
   <si>
     <t xml:space="preserve">1.63864243030548</t>
@@ -869,19 +869,19 @@
     <t xml:space="preserve">1.63049805164337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64841544628143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61828136444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62398254871368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6533020734787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62153935432434</t>
+    <t xml:space="preserve">1.64841556549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61828148365021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62398242950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65330219268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62153923511505</t>
   </si>
   <si>
     <t xml:space="preserve">1.63375580310822</t>
@@ -899,94 +899,94 @@
     <t xml:space="preserve">1.60280728340149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65981793403625</t>
+    <t xml:space="preserve">1.65981781482697</t>
   </si>
   <si>
     <t xml:space="preserve">1.65655994415283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64027106761932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68099284172058</t>
+    <t xml:space="preserve">1.64027118682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68099296092987</t>
   </si>
   <si>
     <t xml:space="preserve">1.69565272331238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68587946891785</t>
+    <t xml:space="preserve">1.68587958812714</t>
   </si>
   <si>
     <t xml:space="preserve">1.76732313632965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81618916988373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79501354694366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83247768878937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84876656532288</t>
+    <t xml:space="preserve">1.81618905067444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79501378536224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83247756958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84876644611359</t>
   </si>
   <si>
     <t xml:space="preserve">1.86342644691467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7917560338974</t>
+    <t xml:space="preserve">1.79175615310669</t>
   </si>
   <si>
     <t xml:space="preserve">1.81944692134857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80641579627991</t>
+    <t xml:space="preserve">1.8064159154892</t>
   </si>
   <si>
     <t xml:space="preserve">1.80804467201233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81781792640686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80967330932617</t>
+    <t xml:space="preserve">1.81781840324402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80967366695404</t>
   </si>
   <si>
     <t xml:space="preserve">1.81130242347717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82922005653381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82759130001068</t>
+    <t xml:space="preserve">1.82921993732452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8275910615921</t>
   </si>
   <si>
     <t xml:space="preserve">1.79827153682709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77546751499176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78361165523529</t>
+    <t xml:space="preserve">1.77546727657318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78361177444458</t>
   </si>
   <si>
     <t xml:space="preserve">1.88948822021484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9513852596283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96441614627838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94161224365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94975638389587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99536454677582</t>
+    <t xml:space="preserve">1.95138502120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96441602706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94161188602448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94975650310516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99536466598511</t>
   </si>
   <si>
     <t xml:space="preserve">2.01979780197144</t>
@@ -1004,55 +1004,55 @@
     <t xml:space="preserve">1.7999005317688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90903472900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92369449138641</t>
+    <t xml:space="preserve">1.90903460979462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92369437217712</t>
   </si>
   <si>
     <t xml:space="preserve">1.98722040653229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95627176761627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9741895198822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87319910526276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88623034954071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86994183063507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89763259887695</t>
+    <t xml:space="preserve">1.95627188682556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97418940067291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87319946289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88623058795929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86994171142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89763236045837</t>
   </si>
   <si>
     <t xml:space="preserve">1.86668407917023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84387981891632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83573544025421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82433342933655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77383828163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80315804481506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86831295490265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86179757118225</t>
+    <t xml:space="preserve">1.84387993812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8357355594635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82433354854584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77383852005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80315828323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86831283569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86179745197296</t>
   </si>
   <si>
     <t xml:space="preserve">1.90414810180664</t>
@@ -1061,46 +1061,46 @@
     <t xml:space="preserve">1.8797150850296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88460123538971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88134372234344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8569108247757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93020975589752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90577697753906</t>
+    <t xml:space="preserve">1.884601354599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88134384155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85691106319427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93021011352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90577673912048</t>
   </si>
   <si>
     <t xml:space="preserve">1.97093176841736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97907590866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95464313030243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03608632087708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04423069953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96278774738312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94649863243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92206561565399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9383544921875</t>
+    <t xml:space="preserve">1.97907626628876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95464324951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03608655929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04423093795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96278738975525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94649875164032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9220654964447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93835437297821</t>
   </si>
   <si>
     <t xml:space="preserve">2.01165342330933</t>
@@ -1115,28 +1115,28 @@
     <t xml:space="preserve">2.05270743370056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00284433364868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01946520805359</t>
+    <t xml:space="preserve">2.0028440952301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01946544647217</t>
   </si>
   <si>
     <t xml:space="preserve">1.96960186958313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96129131317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0610179901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98622298240662</t>
+    <t xml:space="preserve">1.96129143238068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06101822853088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9862232208252</t>
   </si>
   <si>
     <t xml:space="preserve">1.95298087596893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90311741828918</t>
+    <t xml:space="preserve">1.9031172990799</t>
   </si>
   <si>
     <t xml:space="preserve">1.84494364261627</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">1.81170129776001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89480698108673</t>
+    <t xml:space="preserve">1.89480710029602</t>
   </si>
   <si>
     <t xml:space="preserve">1.79508030414581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77845931053162</t>
+    <t xml:space="preserve">1.77845942974091</t>
   </si>
   <si>
     <t xml:space="preserve">1.71197462081909</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">1.80339097976685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76183795928955</t>
+    <t xml:space="preserve">1.76183807849884</t>
   </si>
   <si>
     <t xml:space="preserve">1.70366406440735</t>
@@ -1181,229 +1181,229 @@
     <t xml:space="preserve">1.65795612335205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61224818229675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5332977771759</t>
+    <t xml:space="preserve">1.61224806308746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53329765796661</t>
   </si>
   <si>
     <t xml:space="preserve">1.52914249897003</t>
   </si>
   <si>
+    <t xml:space="preserve">1.48758959770203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4626579284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49590015411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50836610794067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48343431949615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51667666435242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47096848487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46681320667267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45434749126434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41279470920563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38786280155182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37539708614349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35877597332001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35046553611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36293137073517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40448415279388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39617347717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40863943099976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40032887458801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42941582202911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41694986820221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44188165664673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45019209384918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4460369348526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42526054382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51252126693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50005543231964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52083194255829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47512400150299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47927904129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55407416820526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4917448759079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5042108297348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45850265026093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43772637844086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37955248355865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4335709810257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49191391468048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50488722324371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47461640834808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.440021276474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46596789360046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4573187828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47894084453583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51353597640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53083348274231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51786041259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52650904655457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53515803813934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59137487411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62164556980133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63461875915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63894319534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61732137203217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58705067634583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62597012519836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56542861461639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57407736778259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55677974224091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54380655288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53948223590851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52218461036682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50921154022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50056290626526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.548131108284</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.48758971691132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4626579284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49590027332306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50836610794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48343431949615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51667678356171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47096848487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46681332588196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45434737205505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41279470920563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38786292076111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37539708614349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35877597332001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35046553611755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36293137073517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40448415279388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39617347717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40863955020905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40032875537872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4294159412384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41694986820221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44188153743744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45019209384918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44603705406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42526054382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51252126693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50005543231964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.520831823349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4751238822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47927904129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55407404899597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4917448759079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50421071052551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45850276947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43772637844086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37955236434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4335709810257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49191391468048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.504887342453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47461640834808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.440021276474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46596789360046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45731890201569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47894096374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51353585720062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53083348274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51786041259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52650916576385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53515791893005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59137499332428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62164556980133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63461887836456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63894319534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61732125282288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58705067634583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62597012519836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56542861461639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57407736778259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5567798614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54380667209625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53948223590851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52218472957611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50921154022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50056278705597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.548131108284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48758983612061</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.48326528072357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47029209136963</t>
+    <t xml:space="preserve">1.47029221057892</t>
   </si>
   <si>
     <t xml:space="preserve">1.46164333820343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60867261886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60002362728119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58272612094879</t>
+    <t xml:space="preserve">1.60867249965668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60002374649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58272624015808</t>
   </si>
   <si>
     <t xml:space="preserve">1.61299693584442</t>
@@ -1412,10 +1412,10 @@
     <t xml:space="preserve">1.64759206771851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64326751232147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6908358335495</t>
+    <t xml:space="preserve">1.64326763153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69083595275879</t>
   </si>
   <si>
     <t xml:space="preserve">1.72975540161133</t>
@@ -1424,16 +1424,16 @@
     <t xml:space="preserve">1.69516038894653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66921401023865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66056501865387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6562408208847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72110664844513</t>
+    <t xml:space="preserve">1.66921389102936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66056513786316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65624070167542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72110652923584</t>
   </si>
   <si>
     <t xml:space="preserve">1.68651163578033</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">1.67353820800781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6821870803833</t>
+    <t xml:space="preserve">1.68218719959259</t>
   </si>
   <si>
     <t xml:space="preserve">1.65191638469696</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">1.70380902290344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81624317169189</t>
+    <t xml:space="preserve">1.8162430524826</t>
   </si>
   <si>
     <t xml:space="preserve">2.02381372451782</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">2.11030173301697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33517003059387</t>
+    <t xml:space="preserve">2.33516979217529</t>
   </si>
   <si>
     <t xml:space="preserve">2.23138451576233</t>
@@ -1484,10 +1484,10 @@
     <t xml:space="preserve">2.40435981750488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41300892829895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3611159324646</t>
+    <t xml:space="preserve">2.41300868988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36111617088318</t>
   </si>
   <si>
     <t xml:space="preserve">2.42165756225586</t>
@@ -1499,22 +1499,22 @@
     <t xml:space="preserve">2.15354561805725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97192120552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98056983947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07570648193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01516509056091</t>
+    <t xml:space="preserve">1.97192132472992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98056972026825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07570672035217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01516485214233</t>
   </si>
   <si>
     <t xml:space="preserve">1.77299916744232</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56975305080414</t>
+    <t xml:space="preserve">1.56975317001343</t>
   </si>
   <si>
     <t xml:space="preserve">1.72543108463287</t>
@@ -1523,25 +1523,25 @@
     <t xml:space="preserve">1.86813592910767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76435029506683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78164803981781</t>
+    <t xml:space="preserve">1.76435041427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78164792060852</t>
   </si>
   <si>
     <t xml:space="preserve">1.8248918056488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73840427398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7989456653595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79029679298401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89408218860626</t>
+    <t xml:space="preserve">1.73840415477753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79894554615021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7902969121933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89408230781555</t>
   </si>
   <si>
     <t xml:space="preserve">1.85948717594147</t>
@@ -1559,49 +1559,49 @@
     <t xml:space="preserve">1.83354067802429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90273094177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91137981414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06705760955811</t>
+    <t xml:space="preserve">1.90273106098175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91137969493866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06705784797668</t>
   </si>
   <si>
     <t xml:space="preserve">2.11895036697388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08435535430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11000967025757</t>
+    <t xml:space="preserve">2.0843551158905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11000943183899</t>
   </si>
   <si>
     <t xml:space="preserve">2.07424664497375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06530570983887</t>
+    <t xml:space="preserve">2.06530594825745</t>
   </si>
   <si>
     <t xml:space="preserve">2.01166176795959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99378025531769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96695828437805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94013619422913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9043732881546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94907665252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92225444316864</t>
+    <t xml:space="preserve">1.9937801361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96695816516876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94013607501984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90437316894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94907653331757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92225468158722</t>
   </si>
   <si>
     <t xml:space="preserve">1.91331386566162</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">1.88649141788483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93119537830353</t>
+    <t xml:space="preserve">1.93119525909424</t>
   </si>
   <si>
     <t xml:space="preserve">1.87755084037781</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">1.89543235301971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85966944694519</t>
+    <t xml:space="preserve">1.8596693277359</t>
   </si>
   <si>
     <t xml:space="preserve">1.84178793430328</t>
@@ -1628,10 +1628,10 @@
     <t xml:space="preserve">1.82390654087067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81496596336365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80602502822876</t>
+    <t xml:space="preserve">1.81496584415436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80602514743805</t>
   </si>
   <si>
     <t xml:space="preserve">1.79708445072174</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">1.7434401512146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05636525154114</t>
+    <t xml:space="preserve">2.05636501312256</t>
   </si>
   <si>
     <t xml:space="preserve">2.1189501285553</t>
@@ -1670,16 +1670,16 @@
     <t xml:space="preserve">2.21729826927185</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12789106369019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10106873512268</t>
+    <t xml:space="preserve">2.12789130210876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10106897354126</t>
   </si>
   <si>
     <t xml:space="preserve">2.02954292297363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03848385810852</t>
+    <t xml:space="preserve">2.0384840965271</t>
   </si>
   <si>
     <t xml:space="preserve">2.04742455482483</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">2.0206024646759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08318758010864</t>
+    <t xml:space="preserve">2.08318734169006</t>
   </si>
   <si>
     <t xml:space="preserve">2.09212803840637</t>
@@ -1721,16 +1721,16 @@
     <t xml:space="preserve">2.34246826171875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32458686828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37878966331482</t>
+    <t xml:space="preserve">2.32458662986755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3787899017334</t>
   </si>
   <si>
     <t xml:space="preserve">2.36034965515137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36956977844238</t>
+    <t xml:space="preserve">2.3695695400238</t>
   </si>
   <si>
     <t xml:space="preserve">2.33268928527832</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">2.2128279209137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22204804420471</t>
+    <t xml:space="preserve">2.22204780578613</t>
   </si>
   <si>
     <t xml:space="preserve">2.07452607154846</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">2.13906693458557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24970841407776</t>
+    <t xml:space="preserve">2.24970817565918</t>
   </si>
   <si>
     <t xml:space="preserve">2.28658890724182</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">2.3234691619873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34190940856934</t>
+    <t xml:space="preserve">2.34190917015076</t>
   </si>
   <si>
     <t xml:space="preserve">2.31424903869629</t>
@@ -1820,10 +1820,7 @@
     <t xml:space="preserve">2.05608582496643</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06530594825745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02842569351196</t>
+    <t xml:space="preserve">2.02842545509338</t>
   </si>
   <si>
     <t xml:space="preserve">2.08374619483948</t>
@@ -43226,7 +43223,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1570" t="s">
-        <v>602</v>
+        <v>522</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43252,7 +43249,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1571" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43278,7 +43275,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1572" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43304,7 +43301,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1573" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43330,7 +43327,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1574" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44162,7 +44159,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1606" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44188,7 +44185,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1607" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44214,7 +44211,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1608" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44240,7 +44237,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1609" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44266,7 +44263,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1610" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44396,7 +44393,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1615" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45176,7 +45173,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1645" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45202,7 +45199,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1646" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45228,7 +45225,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1647" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45254,7 +45251,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1648" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45280,7 +45277,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1649" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45306,7 +45303,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1650" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45332,7 +45329,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1651" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45358,7 +45355,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1652" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45384,7 +45381,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1653" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45410,7 +45407,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1654" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45436,7 +45433,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1655" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45462,7 +45459,7 @@
         <v>2.25</v>
       </c>
       <c r="G1656" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45488,7 +45485,7 @@
         <v>2.25</v>
       </c>
       <c r="G1657" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45514,7 +45511,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1658" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45540,7 +45537,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1659" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45566,7 +45563,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1660" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45592,7 +45589,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1661" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45618,7 +45615,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1662" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45644,7 +45641,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1663" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45670,7 +45667,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1664" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45696,7 +45693,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1665" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -45722,7 +45719,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1666" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45748,7 +45745,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1667" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45774,7 +45771,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1668" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45800,7 +45797,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1669" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45826,7 +45823,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1670" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45852,7 +45849,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1671" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45878,7 +45875,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1672" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45904,7 +45901,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1673" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45930,7 +45927,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1674" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45956,7 +45953,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1675" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45982,7 +45979,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1676" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46008,7 +46005,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1677" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46034,7 +46031,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1678" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46060,7 +46057,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1679" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46086,7 +46083,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1680" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46112,7 +46109,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1681" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46138,7 +46135,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1682" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46164,7 +46161,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1683" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46190,7 +46187,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1684" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46216,7 +46213,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1685" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46242,7 +46239,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1686" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46268,7 +46265,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1687" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46294,7 +46291,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1688" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46320,7 +46317,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1689" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46346,7 +46343,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1690" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46372,7 +46369,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1691" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46398,7 +46395,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1692" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46424,7 +46421,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1693" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46450,7 +46447,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1694" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46476,7 +46473,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1695" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46502,7 +46499,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1696" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46528,7 +46525,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1697" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46554,7 +46551,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1698" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46580,7 +46577,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1699" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46606,7 +46603,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1700" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46632,7 +46629,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1701" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46658,7 +46655,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1702" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46684,7 +46681,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1703" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -46710,7 +46707,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1704" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -46736,7 +46733,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1705" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46762,7 +46759,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1706" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46788,7 +46785,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1707" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46814,7 +46811,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1708" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46840,7 +46837,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1709" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46866,7 +46863,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1710" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46892,7 +46889,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1711" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46918,7 +46915,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1712" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46944,7 +46941,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1713" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46970,7 +46967,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1714" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46996,7 +46993,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1715" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47022,7 +47019,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1716" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47048,7 +47045,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1717" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47074,7 +47071,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1718" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47100,7 +47097,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1719" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47126,7 +47123,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1720" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47152,7 +47149,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1721" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47178,7 +47175,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1722" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47204,7 +47201,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1723" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47230,7 +47227,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1724" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47256,7 +47253,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1725" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47282,7 +47279,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1726" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47308,7 +47305,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47334,7 +47331,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1728" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47360,7 +47357,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1729" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47386,7 +47383,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1730" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47412,7 +47409,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1731" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47438,7 +47435,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1732" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47464,7 +47461,7 @@
         <v>2</v>
       </c>
       <c r="G1733" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47490,7 +47487,7 @@
         <v>2</v>
       </c>
       <c r="G1734" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47516,7 +47513,7 @@
         <v>2</v>
       </c>
       <c r="G1735" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47542,7 +47539,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1736" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47568,7 +47565,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1737" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47594,7 +47591,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1738" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47620,7 +47617,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1739" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47646,7 +47643,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1740" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47672,7 +47669,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1741" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47698,7 +47695,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1742" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47724,7 +47721,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1743" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47750,7 +47747,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1744" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47776,7 +47773,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47802,7 +47799,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1746" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47828,7 +47825,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1747" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47854,7 +47851,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1748" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47880,7 +47877,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1749" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47906,7 +47903,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1750" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47932,7 +47929,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1751" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47958,7 +47955,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1752" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47984,7 +47981,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1753" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48010,7 +48007,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1754" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48036,7 +48033,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1755" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48062,7 +48059,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1756" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48088,7 +48085,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1757" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48114,7 +48111,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1758" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48140,7 +48137,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1759" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48166,7 +48163,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1760" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48192,7 +48189,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48218,7 +48215,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1762" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48244,7 +48241,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1763" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48270,7 +48267,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1764" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48296,7 +48293,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1765" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48322,7 +48319,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1766" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48348,7 +48345,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1767" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48374,7 +48371,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1768" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48400,7 +48397,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1769" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48426,7 +48423,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1770" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48452,7 +48449,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1771" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48478,7 +48475,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1772" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48504,7 +48501,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1773" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48530,7 +48527,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1774" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48556,7 +48553,7 @@
         <v>2</v>
       </c>
       <c r="G1775" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48582,7 +48579,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1776" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48608,7 +48605,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1777" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48634,7 +48631,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1778" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48660,7 +48657,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1779" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48686,7 +48683,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1780" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48712,7 +48709,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1781" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48738,7 +48735,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1782" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48764,7 +48761,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1783" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48790,7 +48787,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1784" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48816,7 +48813,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1785" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48842,7 +48839,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1786" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48868,7 +48865,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1787" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48894,7 +48891,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1788" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48920,7 +48917,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1789" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48946,7 +48943,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1790" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48972,7 +48969,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1791" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48998,7 +48995,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1792" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49024,7 +49021,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1793" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49050,7 +49047,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49076,7 +49073,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1795" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49102,7 +49099,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49128,7 +49125,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1797" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49154,7 +49151,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1798" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49180,7 +49177,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1799" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49206,7 +49203,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1800" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49232,7 +49229,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1801" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49258,7 +49255,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1802" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49284,7 +49281,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1803" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49310,7 +49307,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1804" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49336,7 +49333,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1805" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49362,7 +49359,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1806" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49388,7 +49385,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49414,7 +49411,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1808" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49440,7 +49437,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1809" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49466,7 +49463,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1810" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49492,7 +49489,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1811" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49518,7 +49515,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1812" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49544,7 +49541,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1813" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49570,7 +49567,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1814" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49596,7 +49593,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1815" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49622,7 +49619,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1816" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49648,7 +49645,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1817" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49674,7 +49671,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1818" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49700,7 +49697,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1819" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49726,7 +49723,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1820" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49752,7 +49749,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1821" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49778,7 +49775,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1822" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49804,7 +49801,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1823" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49830,7 +49827,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1824" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49856,7 +49853,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1825" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49882,7 +49879,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1826" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49908,7 +49905,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1827" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49934,7 +49931,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1828" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49960,7 +49957,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1829" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49986,7 +49983,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1830" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50012,7 +50009,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1831" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50038,7 +50035,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1832" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50064,7 +50061,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1833" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50090,7 +50087,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1834" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50116,7 +50113,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1835" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50142,7 +50139,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1836" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50168,7 +50165,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1837" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50194,7 +50191,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1838" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50220,7 +50217,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1839" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50246,7 +50243,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1840" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50272,7 +50269,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1841" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50298,7 +50295,7 @@
         <v>2</v>
       </c>
       <c r="G1842" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50324,7 +50321,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1843" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50350,7 +50347,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1844" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50376,7 +50373,7 @@
         <v>2</v>
       </c>
       <c r="G1845" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50402,7 +50399,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1846" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50428,7 +50425,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1847" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50454,7 +50451,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1848" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50480,7 +50477,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1849" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50506,7 +50503,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1850" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50532,7 +50529,7 @@
         <v>2</v>
       </c>
       <c r="G1851" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50558,7 +50555,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1852" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50584,7 +50581,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1853" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50610,7 +50607,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1854" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50636,7 +50633,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1855" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50662,7 +50659,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1856" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50688,7 +50685,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1857" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50714,7 +50711,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1858" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -50740,7 +50737,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1859" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50766,7 +50763,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1860" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50792,7 +50789,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1861" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50818,7 +50815,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1862" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50844,7 +50841,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1863" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50870,7 +50867,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1864" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50896,7 +50893,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1865" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50922,7 +50919,7 @@
         <v>2</v>
       </c>
       <c r="G1866" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50948,7 +50945,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1867" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50974,7 +50971,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1868" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51000,7 +50997,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1869" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51026,7 +51023,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1870" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51052,7 +51049,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1871" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51078,7 +51075,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1872" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51104,7 +51101,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1873" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51130,7 +51127,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1874" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51156,7 +51153,7 @@
         <v>2</v>
       </c>
       <c r="G1875" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51182,7 +51179,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1876" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51208,7 +51205,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1877" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51234,7 +51231,7 @@
         <v>2</v>
       </c>
       <c r="G1878" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51260,7 +51257,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1879" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51286,7 +51283,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1880" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51312,7 +51309,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1881" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51338,7 +51335,7 @@
         <v>2</v>
       </c>
       <c r="G1882" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51364,7 +51361,7 @@
         <v>2</v>
       </c>
       <c r="G1883" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51390,7 +51387,7 @@
         <v>2</v>
       </c>
       <c r="G1884" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51416,7 +51413,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1885" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51442,7 +51439,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1886" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51468,7 +51465,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1887" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51494,7 +51491,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1888" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51520,7 +51517,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1889" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51546,7 +51543,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1890" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51572,7 +51569,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1891" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51598,7 +51595,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1892" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51624,7 +51621,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1893" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51650,7 +51647,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1894" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51676,7 +51673,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1895" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51702,7 +51699,7 @@
         <v>2</v>
       </c>
       <c r="G1896" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51728,7 +51725,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1897" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51754,7 +51751,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1898" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51780,7 +51777,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1899" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51806,7 +51803,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1900" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51832,7 +51829,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1901" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51858,7 +51855,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1902" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51884,7 +51881,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1903" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51910,7 +51907,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1904" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51936,7 +51933,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1905" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51962,7 +51959,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1906" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51988,7 +51985,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1907" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52014,7 +52011,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1908" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52040,7 +52037,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1909" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52066,7 +52063,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1910" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52092,7 +52089,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1911" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52118,7 +52115,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1912" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52144,7 +52141,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1913" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52170,7 +52167,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1914" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52196,7 +52193,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1915" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52222,7 +52219,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1916" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52248,7 +52245,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1917" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52274,7 +52271,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1918" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52300,7 +52297,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1919" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52326,7 +52323,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1920" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52352,7 +52349,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1921" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52378,7 +52375,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1922" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52404,7 +52401,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1923" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52430,7 +52427,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1924" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52456,7 +52453,7 @@
         <v>2</v>
       </c>
       <c r="G1925" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52482,7 +52479,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1926" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52508,7 +52505,7 @@
         <v>2</v>
       </c>
       <c r="G1927" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52534,7 +52531,7 @@
         <v>2</v>
       </c>
       <c r="G1928" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52560,7 +52557,7 @@
         <v>2</v>
       </c>
       <c r="G1929" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52586,7 +52583,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1930" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52612,7 +52609,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1931" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52638,7 +52635,7 @@
         <v>2</v>
       </c>
       <c r="G1932" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52664,7 +52661,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1933" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52690,7 +52687,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1934" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52716,7 +52713,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1935" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52742,7 +52739,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1936" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52768,7 +52765,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1937" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52794,7 +52791,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1938" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52820,7 +52817,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1939" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52846,7 +52843,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1940" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52872,7 +52869,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1941" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52898,7 +52895,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1942" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52924,7 +52921,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1943" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52950,7 +52947,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1944" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52976,7 +52973,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1945" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53002,7 +52999,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1946" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53028,7 +53025,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1947" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53054,7 +53051,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1948" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53080,7 +53077,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1949" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53106,7 +53103,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1950" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53132,7 +53129,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1951" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53158,7 +53155,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1952" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53184,7 +53181,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1953" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53210,7 +53207,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1954" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53236,7 +53233,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1955" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53262,7 +53259,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1956" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53288,7 +53285,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1957" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53314,7 +53311,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1958" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53340,7 +53337,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1959" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53366,7 +53363,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1960" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53392,7 +53389,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1961" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53418,7 +53415,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1962" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53444,7 +53441,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1963" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53470,7 +53467,7 @@
         <v>2</v>
       </c>
       <c r="G1964" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53496,7 +53493,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1965" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53522,7 +53519,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1966" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53548,7 +53545,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1967" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53574,7 +53571,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1968" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53600,7 +53597,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1969" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53626,7 +53623,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1970" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53652,7 +53649,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1971" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53678,7 +53675,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1972" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53704,7 +53701,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1973" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53730,7 +53727,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1974" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53756,7 +53753,7 @@
         <v>1.75</v>
       </c>
       <c r="G1975" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53782,7 +53779,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1976" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53808,7 +53805,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1977" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53834,7 +53831,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1978" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53860,7 +53857,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1979" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53886,7 +53883,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1980" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53912,7 +53909,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1981" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53938,7 +53935,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G1982" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53964,7 +53961,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1983" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53990,7 +53987,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1984" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54016,7 +54013,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1985" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54042,7 +54039,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G1986" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54068,7 +54065,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G1987" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54094,7 +54091,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1988" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54120,7 +54117,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1989" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54146,7 +54143,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1990" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54172,7 +54169,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1991" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54198,7 +54195,7 @@
         <v>1.75</v>
       </c>
       <c r="G1992" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54224,7 +54221,7 @@
         <v>1.75</v>
       </c>
       <c r="G1993" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54250,7 +54247,7 @@
         <v>1.75</v>
       </c>
       <c r="G1994" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54276,7 +54273,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1995" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54302,7 +54299,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1996" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54328,7 +54325,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1997" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54354,7 +54351,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1998" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54380,7 +54377,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G1999" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54406,7 +54403,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2000" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54432,7 +54429,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54458,7 +54455,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2002" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54484,7 +54481,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2003" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54510,7 +54507,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2004" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54536,7 +54533,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2005" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54562,7 +54559,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2006" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54588,7 +54585,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54614,7 +54611,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2008" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54640,7 +54637,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2009" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54666,7 +54663,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2010" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54692,7 +54689,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2011" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54718,7 +54715,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G2012" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54744,7 +54741,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2013" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54770,7 +54767,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2014" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54796,7 +54793,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2015" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54822,7 +54819,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2016" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54848,7 +54845,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2017" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54874,7 +54871,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2018" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54900,7 +54897,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2019" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54926,7 +54923,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2020" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54952,7 +54949,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2021" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54978,7 +54975,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G2022" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55004,7 +55001,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2023" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55030,7 +55027,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2024" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55056,7 +55053,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2025" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55082,7 +55079,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2026" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55108,7 +55105,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2027" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55134,7 +55131,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2028" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55160,7 +55157,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2029" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55186,7 +55183,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2030" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55212,7 +55209,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2031" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55238,7 +55235,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2032" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55264,7 +55261,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2033" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55290,7 +55287,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2034" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55316,7 +55313,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2035" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55342,7 +55339,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2036" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55368,7 +55365,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2037" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55394,7 +55391,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2038" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55420,7 +55417,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2039" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55446,7 +55443,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55472,7 +55469,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2041" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55498,7 +55495,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2042" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55524,7 +55521,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2043" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55550,7 +55547,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2044" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55576,7 +55573,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2045" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55602,7 +55599,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2046" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55628,7 +55625,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2047" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55654,7 +55651,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2048" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55680,7 +55677,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2049" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55706,7 +55703,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2050" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55732,7 +55729,7 @@
         <v>2</v>
       </c>
       <c r="G2051" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55758,7 +55755,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2052" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55784,7 +55781,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55810,7 +55807,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2054" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55836,7 +55833,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2055" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55862,7 +55859,7 @@
         <v>2</v>
       </c>
       <c r="G2056" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55888,7 +55885,7 @@
         <v>2</v>
       </c>
       <c r="G2057" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55914,7 +55911,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2058" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55940,7 +55937,7 @@
         <v>2</v>
       </c>
       <c r="G2059" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55966,7 +55963,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2060" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55992,7 +55989,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2061" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56018,7 +56015,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2062" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56044,7 +56041,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2063" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56070,7 +56067,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2064" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56096,7 +56093,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2065" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56122,7 +56119,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2066" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56148,7 +56145,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2067" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56174,7 +56171,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2068" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56200,7 +56197,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2069" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56226,7 +56223,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56252,7 +56249,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2071" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56278,7 +56275,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2072" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56304,7 +56301,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2073" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56330,7 +56327,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2074" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56356,7 +56353,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2075" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56382,7 +56379,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2076" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56408,7 +56405,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2077" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56434,7 +56431,7 @@
         <v>2</v>
       </c>
       <c r="G2078" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56460,7 +56457,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2079" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56486,7 +56483,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2080" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56512,7 +56509,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2081" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56538,7 +56535,7 @@
         <v>2</v>
       </c>
       <c r="G2082" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56564,7 +56561,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2083" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56590,7 +56587,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2084" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56616,7 +56613,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2085" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56642,7 +56639,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56668,7 +56665,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56694,7 +56691,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2088" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56720,7 +56717,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2089" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56746,7 +56743,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2090" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56772,7 +56769,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2091" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56798,7 +56795,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2092" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56824,7 +56821,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2093" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56850,7 +56847,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2094" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56876,7 +56873,7 @@
         <v>2</v>
       </c>
       <c r="G2095" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56902,7 +56899,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2096" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56928,7 +56925,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56954,7 +56951,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2098" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56980,7 +56977,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2099" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57006,7 +57003,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2100" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57032,7 +57029,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2101" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57058,7 +57055,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2102" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57084,7 +57081,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G2103" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57110,7 +57107,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2104" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57136,7 +57133,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2105" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57162,7 +57159,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2106" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57188,7 +57185,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2107" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57214,7 +57211,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2108" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57240,7 +57237,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57266,7 +57263,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2110" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57292,7 +57289,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G2111" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57318,7 +57315,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2112" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57344,7 +57341,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2113" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57370,7 +57367,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2114" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57396,7 +57393,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57422,7 +57419,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G2116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57448,7 +57445,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2117" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57474,7 +57471,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2118" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57500,7 +57497,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G2119" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57526,7 +57523,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2120" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57552,7 +57549,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2121" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57578,7 +57575,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2122" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57604,7 +57601,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G2123" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57630,7 +57627,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2124" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57656,7 +57653,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2125" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57682,7 +57679,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2126" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57708,7 +57705,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2127" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57734,7 +57731,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2128" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57760,7 +57757,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2129" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57786,7 +57783,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2130" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57812,7 +57809,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2131" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57838,7 +57835,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2132" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57864,7 +57861,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2133" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57890,7 +57887,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2134" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57916,7 +57913,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2135" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57942,7 +57939,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2136" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57968,7 +57965,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2137" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57994,7 +57991,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58020,7 +58017,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2139" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58046,7 +58043,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2140" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58072,7 +58069,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2141" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58098,7 +58095,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58124,7 +58121,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2143" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58150,7 +58147,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2144" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58176,7 +58173,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2145" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58202,7 +58199,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2146" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58228,7 +58225,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2147" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58254,7 +58251,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2148" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58280,7 +58277,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2149" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58306,7 +58303,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2150" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58332,7 +58329,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2151" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58358,7 +58355,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2152" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58384,7 +58381,7 @@
         <v>2</v>
       </c>
       <c r="G2153" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58392,7 +58389,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6397685185</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>5963</v>
@@ -58410,9 +58407,35 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2154" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.5847453704</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>1543</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>2.00999999046326</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>680</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AC5.MI.xlsx
+++ b/data/AC5.MI.xlsx
@@ -38,43 +38,43 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24246168136597</t>
+    <t xml:space="preserve">1.24246180057526</t>
   </si>
   <si>
     <t xml:space="preserve">AC5.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22008180618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2193101644516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18689811229706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21159327030182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18767011165619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18844151496887</t>
+    <t xml:space="preserve">1.22008192539215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21931028366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18689823150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21159315109253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1876699924469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18844163417816</t>
   </si>
   <si>
     <t xml:space="preserve">1.19615876674652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18149614334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17455065250397</t>
+    <t xml:space="preserve">1.18149626255035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17455077171326</t>
   </si>
   <si>
     <t xml:space="preserve">1.08348834514618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02252268791199</t>
+    <t xml:space="preserve">1.02252280712128</t>
   </si>
   <si>
     <t xml:space="preserve">1.00322985649109</t>
@@ -83,13 +83,13 @@
     <t xml:space="preserve">1.07654285430908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12593269348145</t>
+    <t xml:space="preserve">1.12593257427216</t>
   </si>
   <si>
     <t xml:space="preserve">1.09429240226746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10355305671692</t>
+    <t xml:space="preserve">1.10355281829834</t>
   </si>
   <si>
     <t xml:space="preserve">1.14291036128998</t>
@@ -101,133 +101,133 @@
     <t xml:space="preserve">1.12361741065979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11127018928528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13210654258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11204195022583</t>
+    <t xml:space="preserve">1.11127007007599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13210642337799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11204171180725</t>
   </si>
   <si>
     <t xml:space="preserve">1.10586810112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02638149261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975448250770569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992425918579102</t>
+    <t xml:space="preserve">1.02638137340546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975448131561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992426037788391</t>
   </si>
   <si>
     <t xml:space="preserve">0.999371230602264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01789259910583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06805396080017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05107641220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04181587696075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04258728027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08811855316162</t>
+    <t xml:space="preserve">1.01789247989655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06805408000946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05107629299164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04181563854218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04258739948273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08811867237091</t>
   </si>
   <si>
     <t xml:space="preserve">1.08117318153381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07191276550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07422769069672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06110858917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07345616817474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07036912441254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08040142059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10200953483582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09969425201416</t>
+    <t xml:space="preserve">1.07191264629364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07422780990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06110870838165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07345592975616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07036924362183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08040118217468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10200941562653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09969437122345</t>
   </si>
   <si>
     <t xml:space="preserve">1.08425998687744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10741138458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08966183662415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0904335975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09506416320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08580338954926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06651043891907</t>
+    <t xml:space="preserve">1.10741150379181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08966207504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09043383598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09506404399872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08580350875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06651055812836</t>
   </si>
   <si>
     <t xml:space="preserve">1.09197723865509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11898720264435</t>
+    <t xml:space="preserve">1.11898732185364</t>
   </si>
   <si>
     <t xml:space="preserve">1.10432457923889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.126704454422</t>
+    <t xml:space="preserve">1.12670433521271</t>
   </si>
   <si>
     <t xml:space="preserve">1.19152843952179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19229996204376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17532229423523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1807245016098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2802757024765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26561319828033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2262556552887</t>
+    <t xml:space="preserve">1.19230008125305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17532253265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18072438240051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28027582168579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26561307907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22625577449799</t>
   </si>
   <si>
     <t xml:space="preserve">1.2347446680069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25017869472504</t>
+    <t xml:space="preserve">1.25017881393433</t>
   </si>
   <si>
     <t xml:space="preserve">1.21004962921143</t>
@@ -239,10 +239,10 @@
     <t xml:space="preserve">1.25789606571198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25635266304016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24323344230652</t>
+    <t xml:space="preserve">1.25635278224945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24323332309723</t>
   </si>
   <si>
     <t xml:space="preserve">1.23165762424469</t>
@@ -251,55 +251,55 @@
     <t xml:space="preserve">1.23088598251343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22316873073578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2401465177536</t>
+    <t xml:space="preserve">1.22316884994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24014663696289</t>
   </si>
   <si>
     <t xml:space="preserve">1.27101504802704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26792824268341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27950406074524</t>
+    <t xml:space="preserve">1.2679283618927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27950394153595</t>
   </si>
   <si>
     <t xml:space="preserve">1.29725348949432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31191611289978</t>
+    <t xml:space="preserve">1.31191623210907</t>
   </si>
   <si>
     <t xml:space="preserve">1.31268775463104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3065140247345</t>
+    <t xml:space="preserve">1.30651414394379</t>
   </si>
   <si>
     <t xml:space="preserve">1.32503521442413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32272017002106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29570996761322</t>
+    <t xml:space="preserve">1.32272005081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29571008682251</t>
   </si>
   <si>
     <t xml:space="preserve">1.33853018283844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32901453971863</t>
+    <t xml:space="preserve">1.32901465892792</t>
   </si>
   <si>
     <t xml:space="preserve">1.28857326507568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698742389679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26002657413483</t>
+    <t xml:space="preserve">1.2869873046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26002645492554</t>
   </si>
   <si>
     <t xml:space="preserve">1.2631983757019</t>
@@ -311,13 +311,13 @@
     <t xml:space="preserve">1.26081955432892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2520968914032</t>
+    <t xml:space="preserve">1.25209677219391</t>
   </si>
   <si>
     <t xml:space="preserve">1.24496018886566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2505110502243</t>
+    <t xml:space="preserve">1.25051093101501</t>
   </si>
   <si>
     <t xml:space="preserve">1.23623740673065</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">1.19341719150543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1973819732666</t>
+    <t xml:space="preserve">1.19738209247589</t>
   </si>
   <si>
     <t xml:space="preserve">1.19103825092316</t>
@@ -341,70 +341,70 @@
     <t xml:space="preserve">1.22354984283447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21562027931213</t>
+    <t xml:space="preserve">1.21562016010284</t>
   </si>
   <si>
     <t xml:space="preserve">1.2211709022522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16169846057892</t>
+    <t xml:space="preserve">1.16169834136963</t>
   </si>
   <si>
     <t xml:space="preserve">1.15773355960846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22513568401337</t>
+    <t xml:space="preserve">1.22513580322266</t>
   </si>
   <si>
     <t xml:space="preserve">1.21799898147583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2536826133728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2861944437027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28064370155334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30839741230011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27667891979218</t>
+    <t xml:space="preserve">1.25368285179138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28619432449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28064346313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30839765071869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27667880058289</t>
   </si>
   <si>
     <t xml:space="preserve">1.30443251132965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28222966194153</t>
+    <t xml:space="preserve">1.28222954273224</t>
   </si>
   <si>
     <t xml:space="preserve">1.30522561073303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27271401882172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28460836410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27350687980652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29253828525543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30046784877777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2988817691803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31632697582245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30760455131531</t>
+    <t xml:space="preserve">1.27271389961243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28460848331451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27350676059723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29253816604614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30046772956848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29888200759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31632721424103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3076046705246</t>
   </si>
   <si>
     <t xml:space="preserve">1.31553423404694</t>
@@ -413,22 +413,22 @@
     <t xml:space="preserve">1.32425689697266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33218657970428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33615124225616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32663559913635</t>
+    <t xml:space="preserve">1.332186460495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33615136146545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32663595676422</t>
   </si>
   <si>
     <t xml:space="preserve">1.35994052886963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38928031921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42734277248383</t>
+    <t xml:space="preserve">1.38928020000458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42734265327454</t>
   </si>
   <si>
     <t xml:space="preserve">1.41069042682648</t>
@@ -437,49 +437,49 @@
     <t xml:space="preserve">1.40355372428894</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39958870410919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38531541824341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34804606437683</t>
+    <t xml:space="preserve">1.39958882331848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3853155374527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34804594516754</t>
   </si>
   <si>
     <t xml:space="preserve">1.3639053106308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37976479530334</t>
+    <t xml:space="preserve">1.37976467609406</t>
   </si>
   <si>
     <t xml:space="preserve">1.36469829082489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36707723140717</t>
+    <t xml:space="preserve">1.36707711219788</t>
   </si>
   <si>
     <t xml:space="preserve">1.36787009239197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37500667572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34011626243591</t>
+    <t xml:space="preserve">1.3750067949295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34011650085449</t>
   </si>
   <si>
     <t xml:space="preserve">1.33377254009247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36945617198944</t>
+    <t xml:space="preserve">1.36945605278015</t>
   </si>
   <si>
     <t xml:space="preserve">1.35121774673462</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32504975795746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32108497619629</t>
+    <t xml:space="preserve">1.32504987716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32108509540558</t>
   </si>
   <si>
     <t xml:space="preserve">1.29967486858368</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">1.2965030670166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29333114624023</t>
+    <t xml:space="preserve">1.29333102703094</t>
   </si>
   <si>
     <t xml:space="preserve">1.27588582038879</t>
@@ -497,25 +497,25 @@
     <t xml:space="preserve">1.2972959280014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30681157112122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29174506664276</t>
+    <t xml:space="preserve">1.30681145191193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29174518585205</t>
   </si>
   <si>
     <t xml:space="preserve">1.27905774116516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26240527629852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.252889752388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26637017726898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27509307861328</t>
+    <t xml:space="preserve">1.26240539550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25288987159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26637029647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2750928401947</t>
   </si>
   <si>
     <t xml:space="preserve">1.29491710662842</t>
@@ -524,13 +524,13 @@
     <t xml:space="preserve">1.27826476097107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28381550312042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27192103862762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26874923706055</t>
+    <t xml:space="preserve">1.28381538391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27192080020905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26874899864197</t>
   </si>
   <si>
     <t xml:space="preserve">1.26557719707489</t>
@@ -539,16 +539,16 @@
     <t xml:space="preserve">1.24178814888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23861634731293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20531153678894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22910058498383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21324145793915</t>
+    <t xml:space="preserve">1.23861646652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20531165599823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2291008234024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21324133872986</t>
   </si>
   <si>
     <t xml:space="preserve">1.20610463619232</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">1.21641325950623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20293271541595</t>
+    <t xml:space="preserve">1.20293259620667</t>
   </si>
   <si>
     <t xml:space="preserve">1.20927631855011</t>
@@ -572,10 +572,10 @@
     <t xml:space="preserve">1.23465144634247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22196388244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23940908908844</t>
+    <t xml:space="preserve">1.22196400165558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23940932750702</t>
   </si>
   <si>
     <t xml:space="preserve">1.23703026771545</t>
@@ -584,13 +584,13 @@
     <t xml:space="preserve">1.22989368438721</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23306548595428</t>
+    <t xml:space="preserve">1.233065366745</t>
   </si>
   <si>
     <t xml:space="preserve">1.23782336711884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29412400722504</t>
+    <t xml:space="preserve">1.29412412643433</t>
   </si>
   <si>
     <t xml:space="preserve">1.27985060214996</t>
@@ -599,31 +599,31 @@
     <t xml:space="preserve">1.27033507823944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27747166156769</t>
+    <t xml:space="preserve">1.27747178077698</t>
   </si>
   <si>
     <t xml:space="preserve">1.23385846614838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22830784320831</t>
+    <t xml:space="preserve">1.22830772399902</t>
   </si>
   <si>
     <t xml:space="preserve">1.21720612049103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21958494186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21244835853577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21879208087921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22037816047668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25606167316437</t>
+    <t xml:space="preserve">1.2195850610733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21244847774506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21879196166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2203780412674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25606155395508</t>
   </si>
   <si>
     <t xml:space="preserve">1.24892497062683</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">1.32584285736084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32822167873383</t>
+    <t xml:space="preserve">1.32822179794312</t>
   </si>
   <si>
     <t xml:space="preserve">1.36152648925781</t>
@@ -647,10 +647,10 @@
     <t xml:space="preserve">1.34408104419708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37183499336243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37421405315399</t>
+    <t xml:space="preserve">1.37183511257172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3742139339447</t>
   </si>
   <si>
     <t xml:space="preserve">1.40593254566193</t>
@@ -659,67 +659,67 @@
     <t xml:space="preserve">1.41782712936401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40196776390076</t>
+    <t xml:space="preserve">1.40196764469147</t>
   </si>
   <si>
     <t xml:space="preserve">1.43527245521545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43447935581207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4194130897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4392374753952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3980028629303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4098973274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41148340702057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42496383190155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43685829639435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4749208688736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.451131939888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45906162261963</t>
+    <t xml:space="preserve">1.43447947502136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41941297054291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43923735618591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39800298213959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40989756584167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41148328781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42496395111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43685841560364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47492074966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45113182067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45906150341034</t>
   </si>
   <si>
     <t xml:space="preserve">1.50267469882965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48285067081451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50346767902374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4733350276947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48919427394867</t>
+    <t xml:space="preserve">1.48285055160522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50346755981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47333490848541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48919415473938</t>
   </si>
   <si>
     <t xml:space="preserve">1.52249884605408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50663948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51298344135284</t>
+    <t xml:space="preserve">1.50663959980011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51298320293427</t>
   </si>
   <si>
     <t xml:space="preserve">1.52884268760681</t>
@@ -731,10 +731,10 @@
     <t xml:space="preserve">1.4860223531723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50426054000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5376523733139</t>
+    <t xml:space="preserve">1.50426077842712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53765249252319</t>
   </si>
   <si>
     <t xml:space="preserve">1.57104432582855</t>
@@ -743,19 +743,19 @@
     <t xml:space="preserve">1.62561142444611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66470420360565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69402372837067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71845698356628</t>
+    <t xml:space="preserve">1.66470408439636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69402384757996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71845686435699</t>
   </si>
   <si>
     <t xml:space="preserve">1.73963224887848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64352893829346</t>
+    <t xml:space="preserve">1.64352881908417</t>
   </si>
   <si>
     <t xml:space="preserve">1.63701343536377</t>
@@ -770,34 +770,34 @@
     <t xml:space="preserve">1.61502373218536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59059059619904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59221959114075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56371426582336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56534326076508</t>
+    <t xml:space="preserve">1.59059083461761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59221971035004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56371438503265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56534337997437</t>
   </si>
   <si>
     <t xml:space="preserve">1.55882775783539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5514976978302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55557000637054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52299249172211</t>
+    <t xml:space="preserve">1.55149781703949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55557012557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52299273014069</t>
   </si>
   <si>
     <t xml:space="preserve">1.58000302314758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58081758022308</t>
+    <t xml:space="preserve">1.58081746101379</t>
   </si>
   <si>
     <t xml:space="preserve">1.59466278553009</t>
@@ -806,22 +806,22 @@
     <t xml:space="preserve">1.5743020772934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54742574691772</t>
+    <t xml:space="preserve">1.54742562770844</t>
   </si>
   <si>
     <t xml:space="preserve">1.53683805465698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54905450344086</t>
+    <t xml:space="preserve">1.54905462265015</t>
   </si>
   <si>
     <t xml:space="preserve">1.53928136825562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5449823141098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53520905971527</t>
+    <t xml:space="preserve">1.54498243331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53520929813385</t>
   </si>
   <si>
     <t xml:space="preserve">1.54416799545288</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">1.58896195888519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58814752101898</t>
+    <t xml:space="preserve">1.58814764022827</t>
   </si>
   <si>
     <t xml:space="preserve">1.61583817005157</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">1.61258041858673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64515793323517</t>
+    <t xml:space="preserve">1.64515781402588</t>
   </si>
   <si>
     <t xml:space="preserve">1.63538455963135</t>
@@ -857,13 +857,13 @@
     <t xml:space="preserve">1.62886917591095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60525047779083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62072479724884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63864254951477</t>
+    <t xml:space="preserve">1.60525059700012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62072491645813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63864243030548</t>
   </si>
   <si>
     <t xml:space="preserve">1.63049805164337</t>
@@ -884,10 +884,10 @@
     <t xml:space="preserve">1.62153923511505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63375568389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67773509025574</t>
+    <t xml:space="preserve">1.63375580310822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67773520946503</t>
   </si>
   <si>
     <t xml:space="preserve">1.60606503486633</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">1.65655982494354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64027106761932</t>
+    <t xml:space="preserve">1.64027118682861</t>
   </si>
   <si>
     <t xml:space="preserve">1.68099284172058</t>
@@ -914,22 +914,22 @@
     <t xml:space="preserve">1.69565272331238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68587958812714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76732301712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81618905067444</t>
+    <t xml:space="preserve">1.68587946891785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76732289791107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81618916988373</t>
   </si>
   <si>
     <t xml:space="preserve">1.79501378536224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83247780799866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84876656532288</t>
+    <t xml:space="preserve">1.83247768878937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8487663269043</t>
   </si>
   <si>
     <t xml:space="preserve">1.86342632770538</t>
@@ -944,13 +944,13 @@
     <t xml:space="preserve">1.80641579627991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80804467201233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81781804561615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80967330932617</t>
+    <t xml:space="preserve">1.80804479122162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81781816482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80967342853546</t>
   </si>
   <si>
     <t xml:space="preserve">1.81130266189575</t>
@@ -962,13 +962,13 @@
     <t xml:space="preserve">1.82759118080139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79827165603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77546763420105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78361201286316</t>
+    <t xml:space="preserve">1.79827153682709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77546751499176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78361177444458</t>
   </si>
   <si>
     <t xml:space="preserve">1.88948798179626</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">1.95138514041901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96441602706909</t>
+    <t xml:space="preserve">1.96441626548767</t>
   </si>
   <si>
     <t xml:space="preserve">1.94161212444305</t>
@@ -989,19 +989,19 @@
     <t xml:space="preserve">1.99536490440369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01979804039001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99210703372955</t>
+    <t xml:space="preserve">2.01979756355286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99210727214813</t>
   </si>
   <si>
     <t xml:space="preserve">1.91392135620117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85528218746185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79990065097809</t>
+    <t xml:space="preserve">1.85528206825256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7999005317688</t>
   </si>
   <si>
     <t xml:space="preserve">1.90903460979462</t>
@@ -1010,16 +1010,16 @@
     <t xml:space="preserve">1.92369437217712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98722004890442</t>
+    <t xml:space="preserve">1.98722040653229</t>
   </si>
   <si>
     <t xml:space="preserve">1.95627188682556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97418916225433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87319934368134</t>
+    <t xml:space="preserve">1.97418940067291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87319946289062</t>
   </si>
   <si>
     <t xml:space="preserve">1.88623046875</t>
@@ -1031,37 +1031,37 @@
     <t xml:space="preserve">1.89763271808624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86668395996094</t>
+    <t xml:space="preserve">1.86668384075165</t>
   </si>
   <si>
     <t xml:space="preserve">1.84387993812561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8357355594635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82433354854584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77383852005005</t>
+    <t xml:space="preserve">1.83573544025421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82433342933655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77383840084076</t>
   </si>
   <si>
     <t xml:space="preserve">1.80315804481506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86831307411194</t>
+    <t xml:space="preserve">1.86831295490265</t>
   </si>
   <si>
     <t xml:space="preserve">1.86179769039154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90414810180664</t>
+    <t xml:space="preserve">1.90414822101593</t>
   </si>
   <si>
     <t xml:space="preserve">1.87971496582031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88460147380829</t>
+    <t xml:space="preserve">1.88460159301758</t>
   </si>
   <si>
     <t xml:space="preserve">1.88134384155273</t>
@@ -1070,37 +1070,37 @@
     <t xml:space="preserve">1.85691094398499</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93020963668823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90577685832977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97093200683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97907590866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95464301109314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03608632087708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04423046112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96278762817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94649863243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9220654964447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9383544921875</t>
+    <t xml:space="preserve">1.93020987510681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90577661991119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97093152999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97907626628876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95464324951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03608655929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04423069953918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96278738975525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94649851322174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92206573486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93835437297821</t>
   </si>
   <si>
     <t xml:space="preserve">2.01165342330933</t>
@@ -1118,88 +1118,88 @@
     <t xml:space="preserve">2.00284433364868</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01946544647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96960175037384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96129131317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0610179901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98622310161591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95298075675964</t>
+    <t xml:space="preserve">2.01946520805359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96960186958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9612911939621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06101822853088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9862232208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95298063755035</t>
   </si>
   <si>
     <t xml:space="preserve">1.90311753749847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84494364261627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91142797470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82001209259033</t>
+    <t xml:space="preserve">1.84494352340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91142809391022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82001197338104</t>
   </si>
   <si>
     <t xml:space="preserve">1.83663308620453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8117014169693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89480686187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79508018493652</t>
+    <t xml:space="preserve">1.81170129776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89480674266815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79508030414581</t>
   </si>
   <si>
     <t xml:space="preserve">1.77845931053162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71197462081909</t>
+    <t xml:space="preserve">1.7119745016098</t>
   </si>
   <si>
     <t xml:space="preserve">1.80339097976685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76183795928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70366406440735</t>
+    <t xml:space="preserve">1.76183784008026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70366418361664</t>
   </si>
   <si>
     <t xml:space="preserve">1.64133501052856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65795600414276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61224818229675</t>
+    <t xml:space="preserve">1.65795612335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61224806308746</t>
   </si>
   <si>
     <t xml:space="preserve">1.53329765796661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52914249897003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48758971691132</t>
+    <t xml:space="preserve">1.52914237976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48758959770203</t>
   </si>
   <si>
     <t xml:space="preserve">1.4626579284668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49590027332306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50836622714996</t>
+    <t xml:space="preserve">1.49590003490448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50836610794067</t>
   </si>
   <si>
     <t xml:space="preserve">1.48343431949615</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">1.51667666435242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47096848487854</t>
+    <t xml:space="preserve">1.47096860408783</t>
   </si>
   <si>
     <t xml:space="preserve">1.46681320667267</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">1.38786292076111</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37539708614349</t>
+    <t xml:space="preserve">1.37539720535278</t>
   </si>
   <si>
     <t xml:space="preserve">1.35877597332001</t>
@@ -1232,70 +1232,70 @@
     <t xml:space="preserve">1.35046553611755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36293113231659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40448403358459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39617335796356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40863955020905</t>
+    <t xml:space="preserve">1.36293137073517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40448415279388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39617359638214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40863943099976</t>
   </si>
   <si>
     <t xml:space="preserve">1.40032875537872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42941570281982</t>
+    <t xml:space="preserve">1.42941582202911</t>
   </si>
   <si>
     <t xml:space="preserve">1.4169499874115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44188165664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45019209384918</t>
+    <t xml:space="preserve">1.44188153743744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45019221305847</t>
   </si>
   <si>
     <t xml:space="preserve">1.4460369348526</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42526054382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51252138614655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50005531311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.520831823349</t>
+    <t xml:space="preserve">1.42526042461395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51252126693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50005543231964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52083194255829</t>
   </si>
   <si>
     <t xml:space="preserve">1.4751238822937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47927904129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55407404899597</t>
+    <t xml:space="preserve">1.47927916049957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55407416820526</t>
   </si>
   <si>
     <t xml:space="preserve">1.4917448759079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50421071052551</t>
+    <t xml:space="preserve">1.5042108297348</t>
   </si>
   <si>
     <t xml:space="preserve">1.45850265026093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43772625923157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37955236434937</t>
+    <t xml:space="preserve">1.43772637844086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37955248355865</t>
   </si>
   <si>
     <t xml:space="preserve">1.4335709810257</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">1.50488722324371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47461640834808</t>
+    <t xml:space="preserve">1.47461652755737</t>
   </si>
   <si>
     <t xml:space="preserve">1.44002139568329</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">1.4573187828064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47894084453583</t>
+    <t xml:space="preserve">1.47894096374512</t>
   </si>
   <si>
     <t xml:space="preserve">1.51353597640991</t>
@@ -1328,16 +1328,16 @@
     <t xml:space="preserve">1.53083348274231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51786041259766</t>
+    <t xml:space="preserve">1.51786029338837</t>
   </si>
   <si>
     <t xml:space="preserve">1.52650904655457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53515779972076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59137511253357</t>
+    <t xml:space="preserve">1.53515791893005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59137499332428</t>
   </si>
   <si>
     <t xml:space="preserve">1.62164568901062</t>
@@ -1349,22 +1349,22 @@
     <t xml:space="preserve">1.63894319534302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61732125282288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58705067634583</t>
+    <t xml:space="preserve">1.61732137203217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58705055713654</t>
   </si>
   <si>
     <t xml:space="preserve">1.62597000598907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5654284954071</t>
+    <t xml:space="preserve">1.56542861461639</t>
   </si>
   <si>
     <t xml:space="preserve">1.57407748699188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5567798614502</t>
+    <t xml:space="preserve">1.55677974224091</t>
   </si>
   <si>
     <t xml:space="preserve">1.54380667209625</t>
@@ -1373,16 +1373,16 @@
     <t xml:space="preserve">1.53948223590851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5221848487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50921154022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50056290626526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54813098907471</t>
+    <t xml:space="preserve">1.52218472957611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50921165943146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50056278705597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.548131108284</t>
   </si>
   <si>
     <t xml:space="preserve">1.48326528072357</t>
@@ -1391,13 +1391,13 @@
     <t xml:space="preserve">1.47029209136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46164333820343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60867249965668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60002362728119</t>
+    <t xml:space="preserve">1.46164345741272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60867261886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60002374649048</t>
   </si>
   <si>
     <t xml:space="preserve">1.58272624015808</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">1.64326763153076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6908358335495</t>
+    <t xml:space="preserve">1.69083595275879</t>
   </si>
   <si>
     <t xml:space="preserve">1.72975540161133</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">1.69516026973724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66921401023865</t>
+    <t xml:space="preserve">1.66921389102936</t>
   </si>
   <si>
     <t xml:space="preserve">1.66056513786316</t>
@@ -1433,28 +1433,28 @@
     <t xml:space="preserve">1.72110664844513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68651151657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67786276340485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6648895740509</t>
+    <t xml:space="preserve">1.68651163578033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67786288261414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66488945484161</t>
   </si>
   <si>
     <t xml:space="preserve">1.67353820800781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6821870803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65191650390625</t>
+    <t xml:space="preserve">1.68218719959259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65191638469696</t>
   </si>
   <si>
     <t xml:space="preserve">1.70380914211273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81624317169189</t>
+    <t xml:space="preserve">1.8162430524826</t>
   </si>
   <si>
     <t xml:space="preserve">2.02381372451782</t>
@@ -1463,7 +1463,7 @@
     <t xml:space="preserve">2.04111123085022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11030173301697</t>
+    <t xml:space="preserve">2.11030149459839</t>
   </si>
   <si>
     <t xml:space="preserve">2.33516979217529</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">2.34381866455078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38706254959106</t>
+    <t xml:space="preserve">2.38706231117249</t>
   </si>
   <si>
     <t xml:space="preserve">2.40436005592346</t>
@@ -1484,73 +1484,73 @@
     <t xml:space="preserve">2.41300868988037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3611159324646</t>
+    <t xml:space="preserve">2.36111617088318</t>
   </si>
   <si>
     <t xml:space="preserve">2.42165756225586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29192590713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15354537963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97192120552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98057007789612</t>
+    <t xml:space="preserve">2.29192614555359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15354561805725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97192108631134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98056995868683</t>
   </si>
   <si>
     <t xml:space="preserve">2.07570648193359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01516485214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77299916744232</t>
+    <t xml:space="preserve">2.01516509056091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77299928665161</t>
   </si>
   <si>
     <t xml:space="preserve">1.56975305080414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72543108463287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86813580989838</t>
+    <t xml:space="preserve">1.72543096542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86813592910767</t>
   </si>
   <si>
     <t xml:space="preserve">1.76435041427612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78164803981781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8248918056488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73840427398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7989456653595</t>
+    <t xml:space="preserve">1.78164792060852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82489192485809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73840415477753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79894554615021</t>
   </si>
   <si>
     <t xml:space="preserve">1.79029679298401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89408206939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85948705673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75570166110992</t>
+    <t xml:space="preserve">1.89408218860626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85948717594147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75570178031921</t>
   </si>
   <si>
     <t xml:space="preserve">1.80759429931641</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74705278873444</t>
+    <t xml:space="preserve">1.74705290794373</t>
   </si>
   <si>
     <t xml:space="preserve">1.833540558815</t>
@@ -1559,10 +1559,10 @@
     <t xml:space="preserve">1.90273094177246</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91137969493866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06705760955811</t>
+    <t xml:space="preserve">1.91137981414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06705784797668</t>
   </si>
   <si>
     <t xml:space="preserve">2.11895036697388</t>
@@ -1583,31 +1583,31 @@
     <t xml:space="preserve">2.01166176795959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99378025531769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96695804595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94013595581055</t>
+    <t xml:space="preserve">1.9937801361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96695816516876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94013607501984</t>
   </si>
   <si>
     <t xml:space="preserve">1.90437316894531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94907665252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92225444316864</t>
+    <t xml:space="preserve">1.94907677173615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92225456237793</t>
   </si>
   <si>
     <t xml:space="preserve">1.91331386566162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88649141788483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93119513988495</t>
+    <t xml:space="preserve">1.88649153709412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93119525909424</t>
   </si>
   <si>
     <t xml:space="preserve">1.87755084037781</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">1.89543223381042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85966944694519</t>
+    <t xml:space="preserve">1.8596693277359</t>
   </si>
   <si>
     <t xml:space="preserve">1.84178793430328</t>
@@ -1628,16 +1628,16 @@
     <t xml:space="preserve">1.81496584415436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80602502822876</t>
+    <t xml:space="preserve">1.80602514743805</t>
   </si>
   <si>
     <t xml:space="preserve">1.79708445072174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85072863101959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83284723758698</t>
+    <t xml:space="preserve">1.85072875022888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83284735679626</t>
   </si>
   <si>
     <t xml:space="preserve">1.8686101436615</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">1.77026224136353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76132154464722</t>
+    <t xml:space="preserve">1.76132166385651</t>
   </si>
   <si>
     <t xml:space="preserve">1.76579189300537</t>
@@ -1667,13 +1667,13 @@
     <t xml:space="preserve">2.21729826927185</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12789106369019</t>
+    <t xml:space="preserve">2.12789130210876</t>
   </si>
   <si>
     <t xml:space="preserve">2.10106873512268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02954316139221</t>
+    <t xml:space="preserve">2.02954292297363</t>
   </si>
   <si>
     <t xml:space="preserve">2.03848385810852</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">2.18153548240662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15471315383911</t>
+    <t xml:space="preserve">2.15471339225769</t>
   </si>
   <si>
     <t xml:space="preserve">2.13683176040649</t>
@@ -1703,31 +1703,31 @@
     <t xml:space="preserve">2.1457724571228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23517942428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37823104858398</t>
+    <t xml:space="preserve">2.23517966270447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37823128700256</t>
   </si>
   <si>
     <t xml:space="preserve">2.36034989356995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35140919685364</t>
+    <t xml:space="preserve">2.35140895843506</t>
   </si>
   <si>
     <t xml:space="preserve">2.34246826171875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32458686828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37878966331482</t>
+    <t xml:space="preserve">2.32458662986755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3787899017334</t>
   </si>
   <si>
     <t xml:space="preserve">2.36034965515137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36956977844238</t>
+    <t xml:space="preserve">2.3695695400238</t>
   </si>
   <si>
     <t xml:space="preserve">2.33268928527832</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">2.2128279209137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22204804420471</t>
+    <t xml:space="preserve">2.22204780578613</t>
   </si>
   <si>
     <t xml:space="preserve">2.07452607154846</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">2.13906693458557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24970841407776</t>
+    <t xml:space="preserve">2.24970817565918</t>
   </si>
   <si>
     <t xml:space="preserve">2.28658890724182</t>
@@ -1802,7 +1802,7 @@
     <t xml:space="preserve">2.3234691619873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34190940856934</t>
+    <t xml:space="preserve">2.34190917015076</t>
   </si>
   <si>
     <t xml:space="preserve">2.31424903869629</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">2.05608582496643</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02842569351196</t>
+    <t xml:space="preserve">2.02842545509338</t>
   </si>
   <si>
     <t xml:space="preserve">2.08374619483948</t>
@@ -58438,7 +58438,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6447800926</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>2614</v>
@@ -58459,6 +58459,32 @@
         <v>677</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6426967593</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>2.01999998092651</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>2.00999999046326</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>2.00999999046326</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>2.01999998092651</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>648</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AC5.MI.xlsx
+++ b/data/AC5.MI.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">AC5.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22008180618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21931040287018</t>
+    <t xml:space="preserve">1.22008192539215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21931028366089</t>
   </si>
   <si>
     <t xml:space="preserve">1.18689823150635</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">1.21159315109253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18766987323761</t>
+    <t xml:space="preserve">1.1876699924469</t>
   </si>
   <si>
     <t xml:space="preserve">1.18844163417816</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">1.19615876674652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18149614334106</t>
+    <t xml:space="preserve">1.18149626255035</t>
   </si>
   <si>
     <t xml:space="preserve">1.17455065250397</t>
@@ -74,55 +74,55 @@
     <t xml:space="preserve">1.08348834514618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02252292633057</t>
+    <t xml:space="preserve">1.02252280712128</t>
   </si>
   <si>
     <t xml:space="preserve">1.00322985649109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07654309272766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12593269348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09429216384888</t>
+    <t xml:space="preserve">1.07654285430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12593257427216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09429240226746</t>
   </si>
   <si>
     <t xml:space="preserve">1.10355293750763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14291036128998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11821556091309</t>
+    <t xml:space="preserve">1.14291048049927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11821568012238</t>
   </si>
   <si>
     <t xml:space="preserve">1.12361764907837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11127018928528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13210642337799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11204183101654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10586798191071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02638137340546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975448191165924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992425978183746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999371409416199</t>
+    <t xml:space="preserve">1.11127007007599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13210654258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11204195022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10586810112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02638149261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975448131561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992425918579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999371349811554</t>
   </si>
   <si>
     <t xml:space="preserve">1.01789247989655</t>
@@ -131,10 +131,10 @@
     <t xml:space="preserve">1.06805396080017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05107629299164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04181563854218</t>
+    <t xml:space="preserve">1.05107641220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04181587696075</t>
   </si>
   <si>
     <t xml:space="preserve">1.04258739948273</t>
@@ -143,148 +143,148 @@
     <t xml:space="preserve">1.08811867237091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0811733007431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07191264629364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07422780990601</t>
+    <t xml:space="preserve">1.08117318153381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07191276550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07422769069672</t>
   </si>
   <si>
     <t xml:space="preserve">1.06110858917236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07345604896545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07036924362183</t>
+    <t xml:space="preserve">1.07345616817474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07036900520325</t>
   </si>
   <si>
     <t xml:space="preserve">1.08040142059326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10200941562653</t>
+    <t xml:space="preserve">1.10200953483582</t>
   </si>
   <si>
     <t xml:space="preserve">1.09969425201416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08426010608673</t>
+    <t xml:space="preserve">1.08425998687744</t>
   </si>
   <si>
     <t xml:space="preserve">1.10741150379181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08966195583344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09043371677399</t>
+    <t xml:space="preserve">1.08966207504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09043383598328</t>
   </si>
   <si>
     <t xml:space="preserve">1.09506404399872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08580338954926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06651055812836</t>
+    <t xml:space="preserve">1.08580350875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06651043891907</t>
   </si>
   <si>
     <t xml:space="preserve">1.09197723865509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11898720264435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10432481765747</t>
+    <t xml:space="preserve">1.11898732185364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1043244600296</t>
   </si>
   <si>
     <t xml:space="preserve">1.126704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19152855873108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19230020046234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17532241344452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1807245016098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2802757024765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26561331748962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22625553607941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2347446680069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25017881393433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21004962921143</t>
+    <t xml:space="preserve">1.19152867794037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19230008125305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17532253265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18072462081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28027582168579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26561319828033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22625577449799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23474454879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25017893314362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21004974842072</t>
   </si>
   <si>
     <t xml:space="preserve">1.18921339511871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25789618492126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25635254383087</t>
+    <t xml:space="preserve">1.25789606571198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25635266304016</t>
   </si>
   <si>
     <t xml:space="preserve">1.24323332309723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23165762424469</t>
+    <t xml:space="preserve">1.23165786266327</t>
   </si>
   <si>
     <t xml:space="preserve">1.23088598251343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22316873073578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24014663696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27101516723633</t>
+    <t xml:space="preserve">1.22316884994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24014675617218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27101504802704</t>
   </si>
   <si>
     <t xml:space="preserve">1.26792824268341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27950406074524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29725348949432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31191623210907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31268799304962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3065140247345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32503521442413</t>
+    <t xml:space="preserve">1.27950394153595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29725337028503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31191599369049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31268775463104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30651390552521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32503533363342</t>
   </si>
   <si>
     <t xml:space="preserve">1.32271993160248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29571008682251</t>
+    <t xml:space="preserve">1.29570996761322</t>
   </si>
   <si>
     <t xml:space="preserve">1.33853030204773</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">1.2869873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26002633571625</t>
+    <t xml:space="preserve">1.26002645492554</t>
   </si>
   <si>
     <t xml:space="preserve">1.2631983757019</t>
@@ -308,25 +308,25 @@
     <t xml:space="preserve">1.25923347473145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26081955432892</t>
+    <t xml:space="preserve">1.26081943511963</t>
   </si>
   <si>
     <t xml:space="preserve">1.25209677219391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24496018886566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25051093101501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23623740673065</t>
+    <t xml:space="preserve">1.24496006965637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25051081180573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23623752593994</t>
   </si>
   <si>
     <t xml:space="preserve">1.21165537834167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19341707229614</t>
+    <t xml:space="preserve">1.19341695308685</t>
   </si>
   <si>
     <t xml:space="preserve">1.1973819732666</t>
@@ -335,25 +335,25 @@
     <t xml:space="preserve">1.19103825092316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2409952878952</t>
+    <t xml:space="preserve">1.24099516868591</t>
   </si>
   <si>
     <t xml:space="preserve">1.22354984283447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21562016010284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22117102146149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16169846057892</t>
+    <t xml:space="preserve">1.21562027931213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2211709022522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16169822216034</t>
   </si>
   <si>
     <t xml:space="preserve">1.15773367881775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22513580322266</t>
+    <t xml:space="preserve">1.22513592243195</t>
   </si>
   <si>
     <t xml:space="preserve">1.21799910068512</t>
@@ -362,64 +362,64 @@
     <t xml:space="preserve">1.2536826133728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2861944437027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28064358234406</t>
+    <t xml:space="preserve">1.28619432449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28064370155334</t>
   </si>
   <si>
     <t xml:space="preserve">1.3083975315094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27667891979218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30443263053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28222954273224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30522561073303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27271389961243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28460848331451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27350676059723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29253828525543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30046796798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29888188838959</t>
+    <t xml:space="preserve">1.27667880058289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30443274974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28222966194153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30522572994232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27271413803101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28460836410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27350687980652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29253816604614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30046772956848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29888200759888</t>
   </si>
   <si>
     <t xml:space="preserve">1.31632721424103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30760455131531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31553423404694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32425689697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33218657970428</t>
+    <t xml:space="preserve">1.3076046705246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31553411483765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32425665855408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.332186460495</t>
   </si>
   <si>
     <t xml:space="preserve">1.33615136146545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32663571834564</t>
+    <t xml:space="preserve">1.32663583755493</t>
   </si>
   <si>
     <t xml:space="preserve">1.35994052886963</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">1.42734277248383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41069054603577</t>
+    <t xml:space="preserve">1.41069042682648</t>
   </si>
   <si>
     <t xml:space="preserve">1.40355372428894</t>
@@ -443,25 +443,25 @@
     <t xml:space="preserve">1.38531541824341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34804606437683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36390542984009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37976491451263</t>
+    <t xml:space="preserve">1.34804582595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3639053106308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37976467609406</t>
   </si>
   <si>
     <t xml:space="preserve">1.3646981716156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36707699298859</t>
+    <t xml:space="preserve">1.36707711219788</t>
   </si>
   <si>
     <t xml:space="preserve">1.36787009239197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3750067949295</t>
+    <t xml:space="preserve">1.37500691413879</t>
   </si>
   <si>
     <t xml:space="preserve">1.3401163816452</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">1.33377254009247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36945617198944</t>
+    <t xml:space="preserve">1.36945605278015</t>
   </si>
   <si>
     <t xml:space="preserve">1.35121774673462</t>
@@ -485,61 +485,61 @@
     <t xml:space="preserve">1.29967486858368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2965030670166</t>
+    <t xml:space="preserve">1.29650294780731</t>
   </si>
   <si>
     <t xml:space="preserve">1.29333114624023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27588582038879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2972959280014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30681169033051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29174518585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27905762195587</t>
+    <t xml:space="preserve">1.2758857011795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29729604721069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30681157112122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29174506664276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27905786037445</t>
   </si>
   <si>
     <t xml:space="preserve">1.26240527629852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25288987159729</t>
+    <t xml:space="preserve">1.252889752388</t>
   </si>
   <si>
     <t xml:space="preserve">1.26637029647827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2750928401947</t>
+    <t xml:space="preserve">1.27509295940399</t>
   </si>
   <si>
     <t xml:space="preserve">1.29491698741913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27826488018036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28381550312042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27192091941833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26874923706055</t>
+    <t xml:space="preserve">1.27826476097107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28381538391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27192103862762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26874911785126</t>
   </si>
   <si>
     <t xml:space="preserve">1.26557719707489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24178814888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23861646652222</t>
+    <t xml:space="preserve">1.24178802967072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23861634731293</t>
   </si>
   <si>
     <t xml:space="preserve">1.20531165599823</t>
@@ -551,16 +551,16 @@
     <t xml:space="preserve">1.21324133872986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20610463619232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19817495346069</t>
+    <t xml:space="preserve">1.20610475540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19817507266998</t>
   </si>
   <si>
     <t xml:space="preserve">1.19183111190796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21641337871552</t>
+    <t xml:space="preserve">1.21641325950623</t>
   </si>
   <si>
     <t xml:space="preserve">1.20293259620667</t>
@@ -572,49 +572,49 @@
     <t xml:space="preserve">1.23465156555176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22196400165558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23940932750702</t>
+    <t xml:space="preserve">1.22196388244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23940920829773</t>
   </si>
   <si>
     <t xml:space="preserve">1.23703038692474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22989368438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.233065366745</t>
+    <t xml:space="preserve">1.22989356517792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23306548595428</t>
   </si>
   <si>
     <t xml:space="preserve">1.23782336711884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29412424564362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27985048294067</t>
+    <t xml:space="preserve">1.29412400722504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27985072135925</t>
   </si>
   <si>
     <t xml:space="preserve">1.27033507823944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27747166156769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23385846614838</t>
+    <t xml:space="preserve">1.27747178077698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23385858535767</t>
   </si>
   <si>
     <t xml:space="preserve">1.22830772399902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21720612049103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2195850610733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21244847774506</t>
+    <t xml:space="preserve">1.21720623970032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21958518028259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21244835853577</t>
   </si>
   <si>
     <t xml:space="preserve">1.2187922000885</t>
@@ -623,64 +623,64 @@
     <t xml:space="preserve">1.2203780412674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25606155395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24892485141754</t>
+    <t xml:space="preserve">1.25606143474579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24892497062683</t>
   </si>
   <si>
     <t xml:space="preserve">1.26478433609009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32584285736084</t>
+    <t xml:space="preserve">1.32584297657013</t>
   </si>
   <si>
     <t xml:space="preserve">1.32822167873383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36152637004852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.352010846138</t>
+    <t xml:space="preserve">1.36152648925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35201072692871</t>
   </si>
   <si>
     <t xml:space="preserve">1.34408116340637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37183523178101</t>
+    <t xml:space="preserve">1.37183511257172</t>
   </si>
   <si>
     <t xml:space="preserve">1.3742139339447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40593266487122</t>
+    <t xml:space="preserve">1.40593254566193</t>
   </si>
   <si>
     <t xml:space="preserve">1.41782712936401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40196788311005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43527245521545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43447935581207</t>
+    <t xml:space="preserve">1.40196776390076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43527257442474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43447947502136</t>
   </si>
   <si>
     <t xml:space="preserve">1.4194130897522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4392374753952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39800298213959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40989744663239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41148340702057</t>
+    <t xml:space="preserve">1.43923735618591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3980028629303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4098973274231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41148328781128</t>
   </si>
   <si>
     <t xml:space="preserve">1.42496383190155</t>
@@ -692,43 +692,43 @@
     <t xml:space="preserve">1.4749208688736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.451131939888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45906162261963</t>
+    <t xml:space="preserve">1.45113170146942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45906138420105</t>
   </si>
   <si>
     <t xml:space="preserve">1.50267469882965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48285067081451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50346779823303</t>
+    <t xml:space="preserve">1.48285055160522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50346767902374</t>
   </si>
   <si>
     <t xml:space="preserve">1.47333490848541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48919427394867</t>
+    <t xml:space="preserve">1.48919415473938</t>
   </si>
   <si>
     <t xml:space="preserve">1.52249896526337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50663959980011</t>
+    <t xml:space="preserve">1.50663948059082</t>
   </si>
   <si>
     <t xml:space="preserve">1.51298320293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52884256839752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4971239566803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4860223531723</t>
+    <t xml:space="preserve">1.52884268760681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49712383747101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48602223396301</t>
   </si>
   <si>
     <t xml:space="preserve">1.50426065921783</t>
@@ -737,52 +737,52 @@
     <t xml:space="preserve">1.53765249252319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57104432582855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62561166286469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66470420360565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69402372837067</t>
+    <t xml:space="preserve">1.57104444503784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62561142444611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66470408439636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69402384757996</t>
   </si>
   <si>
     <t xml:space="preserve">1.71845674514771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73963212966919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64352893829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63701355457306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6109516620636</t>
+    <t xml:space="preserve">1.7396320104599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64352881908417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63701343536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61095178127289</t>
   </si>
   <si>
     <t xml:space="preserve">1.60199284553528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61502373218536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59059059619904</t>
+    <t xml:space="preserve">1.61502397060394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59059083461761</t>
   </si>
   <si>
     <t xml:space="preserve">1.59221971035004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56371426582336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56534326076508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55882775783539</t>
+    <t xml:space="preserve">1.56371438503265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56534337997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55882787704468</t>
   </si>
   <si>
     <t xml:space="preserve">1.55149793624878</t>
@@ -791,34 +791,34 @@
     <t xml:space="preserve">1.55557000637054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52299273014069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58000302314758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58081746101379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5946626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57430195808411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54742562770844</t>
+    <t xml:space="preserve">1.5229926109314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58000314235687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58081758022308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59466290473938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5743020772934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54742574691772</t>
   </si>
   <si>
     <t xml:space="preserve">1.53683793544769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54905450344086</t>
+    <t xml:space="preserve">1.54905462265015</t>
   </si>
   <si>
     <t xml:space="preserve">1.53928124904633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5449823141098</t>
+    <t xml:space="preserve">1.54498243331909</t>
   </si>
   <si>
     <t xml:space="preserve">1.53520917892456</t>
@@ -827,46 +827,46 @@
     <t xml:space="preserve">1.54416799545288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56452882289886</t>
+    <t xml:space="preserve">1.56452894210815</t>
   </si>
   <si>
     <t xml:space="preserve">1.60036396980286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61665260791779</t>
+    <t xml:space="preserve">1.61665272712708</t>
   </si>
   <si>
     <t xml:space="preserve">1.58896195888519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58814752101898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61583828926086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61258041858673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64515793323517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63538467884064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62886905670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60525047779083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62072491645813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63864243030548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63049829006195</t>
+    <t xml:space="preserve">1.58814764022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61583817005157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61258053779602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64515781402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63538455963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62886917591095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60525059700012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62072479724884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63864231109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63049805164337</t>
   </si>
   <si>
     <t xml:space="preserve">1.64841544628143</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">1.61828148365021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6239823102951</t>
+    <t xml:space="preserve">1.62398242950439</t>
   </si>
   <si>
     <t xml:space="preserve">1.65330219268799</t>
@@ -896,55 +896,55 @@
     <t xml:space="preserve">1.59303402900696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6028071641922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65981781482697</t>
+    <t xml:space="preserve">1.60280728340149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65981769561768</t>
   </si>
   <si>
     <t xml:space="preserve">1.65655982494354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64027118682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68099296092987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69565284252167</t>
+    <t xml:space="preserve">1.64027106761932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68099284172058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69565272331238</t>
   </si>
   <si>
     <t xml:space="preserve">1.68587958812714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76732313632965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81618905067444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79501390457153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83247792720795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84876644611359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86342644691467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7917560338974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81944704055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80641579627991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80804491043091</t>
+    <t xml:space="preserve">1.76732301712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81618916988373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79501378536224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83247780799866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8487663269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86342632770538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79175591468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81944692134857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80641567707062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80804455280304</t>
   </si>
   <si>
     <t xml:space="preserve">1.81781816482544</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">1.80967354774475</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81130242347717</t>
+    <t xml:space="preserve">1.81130254268646</t>
   </si>
   <si>
     <t xml:space="preserve">1.8292201757431</t>
@@ -962,19 +962,19 @@
     <t xml:space="preserve">1.82759118080139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79827165603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77546751499176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78361201286316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88948822021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95138537883759</t>
+    <t xml:space="preserve">1.79827153682709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77546715736389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78361177444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88948786258698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95138514041901</t>
   </si>
   <si>
     <t xml:space="preserve">1.96441602706909</t>
@@ -986,121 +986,121 @@
     <t xml:space="preserve">1.94975650310516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99536442756653</t>
+    <t xml:space="preserve">1.99536490440369</t>
   </si>
   <si>
     <t xml:space="preserve">2.01979780197144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99210703372955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91392123699188</t>
+    <t xml:space="preserve">1.99210727214813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91392135620117</t>
   </si>
   <si>
     <t xml:space="preserve">1.85528206825256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79990077018738</t>
+    <t xml:space="preserve">1.7999005317688</t>
   </si>
   <si>
     <t xml:space="preserve">1.90903460979462</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92369437217712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98722052574158</t>
+    <t xml:space="preserve">1.9236946105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98722040653229</t>
   </si>
   <si>
     <t xml:space="preserve">1.95627188682556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97418940067291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87319946289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88623034954071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86994183063507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89763247966766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86668395996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84387993812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83573532104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82433366775513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77383852005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80315828323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86831283569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86179757118225</t>
+    <t xml:space="preserve">1.97418963909149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87319922447205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88623023033142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86994159221649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89763259887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86668384075165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84387981891632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83573544025421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82433331012726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77383828163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80315804481506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86831271648407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86179745197296</t>
   </si>
   <si>
     <t xml:space="preserve">1.90414798259735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87971520423889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.884601354599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88134396076202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8569108247757</t>
+    <t xml:space="preserve">1.8797150850296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88460147380829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88134384155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85691070556641</t>
   </si>
   <si>
     <t xml:space="preserve">1.93020987510681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90577673912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97093176841736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97907614707947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95464324951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03608632087708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04423069953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96278715133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94649863243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92206573486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93835425376892</t>
+    <t xml:space="preserve">1.9057765007019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97093152999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97907602787018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95464301109314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03608655929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04423093795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96278738975525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94649875164032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92206525802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93835413455963</t>
   </si>
   <si>
     <t xml:space="preserve">2.01165342330933</t>
@@ -1109,64 +1109,64 @@
     <t xml:space="preserve">2.00350904464722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04439687728882</t>
+    <t xml:space="preserve">2.0443971157074</t>
   </si>
   <si>
     <t xml:space="preserve">2.05270743370056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00284433364868</t>
+    <t xml:space="preserve">2.0028440952301</t>
   </si>
   <si>
     <t xml:space="preserve">2.01946544647217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96960198879242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96129143238068</t>
+    <t xml:space="preserve">1.96960186958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9612911939621</t>
   </si>
   <si>
     <t xml:space="preserve">2.0610179901123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98622310161591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95298075675964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90311741828918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84494376182556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91142797470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82001209259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83663320541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81170153617859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89480698108673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79508030414581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77845931053162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7119745016098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80339086055756</t>
+    <t xml:space="preserve">1.9862232208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95298087596893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90311753749847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84494340419769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91142785549164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82001197338104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83663308620453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81170129776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89480686187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79508006572723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77845919132233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71197462081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80339097976685</t>
   </si>
   <si>
     <t xml:space="preserve">1.76183795928955</t>
@@ -1178,46 +1178,46 @@
     <t xml:space="preserve">1.64133501052856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65795600414276</t>
+    <t xml:space="preserve">1.65795624256134</t>
   </si>
   <si>
     <t xml:space="preserve">1.61224806308746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5332977771759</t>
+    <t xml:space="preserve">1.53329765796661</t>
   </si>
   <si>
     <t xml:space="preserve">1.52914249897003</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48758983612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46265804767609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49590015411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50836610794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48343431949615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51667666435242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47096848487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46681332588196</t>
+    <t xml:space="preserve">1.48758959770203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4626579284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49590027332306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50836598873138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48343420028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51667654514313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47096860408783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46681320667267</t>
   </si>
   <si>
     <t xml:space="preserve">1.45434749126434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41279482841492</t>
+    <t xml:space="preserve">1.41279470920563</t>
   </si>
   <si>
     <t xml:space="preserve">1.38786292076111</t>
@@ -1226,7 +1226,7 @@
     <t xml:space="preserve">1.37539708614349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35877597332001</t>
+    <t xml:space="preserve">1.35877585411072</t>
   </si>
   <si>
     <t xml:space="preserve">1.35046553611755</t>
@@ -1235,49 +1235,49 @@
     <t xml:space="preserve">1.36293137073517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40448403358459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39617335796356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40863943099976</t>
+    <t xml:space="preserve">1.40448427200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39617347717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40863931179047</t>
   </si>
   <si>
     <t xml:space="preserve">1.40032875537872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42941582202911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4169499874115</t>
+    <t xml:space="preserve">1.4294159412384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41694986820221</t>
   </si>
   <si>
     <t xml:space="preserve">1.44188153743744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45019221305847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4460369348526</t>
+    <t xml:space="preserve">1.45019209384918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44603705406189</t>
   </si>
   <si>
     <t xml:space="preserve">1.42526042461395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51252126693726</t>
+    <t xml:space="preserve">1.51252138614655</t>
   </si>
   <si>
     <t xml:space="preserve">1.50005543231964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.520831823349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4751238822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47927904129028</t>
+    <t xml:space="preserve">1.52083194255829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47512376308441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47927916049957</t>
   </si>
   <si>
     <t xml:space="preserve">1.55407416820526</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">1.37955248355865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43357110023499</t>
+    <t xml:space="preserve">1.4335709810257</t>
   </si>
   <si>
     <t xml:space="preserve">1.49191391468048</t>
@@ -1313,25 +1313,25 @@
     <t xml:space="preserve">1.440021276474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46596789360046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45731890201569</t>
+    <t xml:space="preserve">1.46596777439117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4573187828064</t>
   </si>
   <si>
     <t xml:space="preserve">1.47894096374512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51353585720062</t>
+    <t xml:space="preserve">1.51353597640991</t>
   </si>
   <si>
     <t xml:space="preserve">1.53083348274231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51786041259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52650916576385</t>
+    <t xml:space="preserve">1.51786029338837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52650904655457</t>
   </si>
   <si>
     <t xml:space="preserve">1.53515791893005</t>
@@ -1340,19 +1340,19 @@
     <t xml:space="preserve">1.59137499332428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62164556980133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63461887836456</t>
+    <t xml:space="preserve">1.62164568901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63461875915527</t>
   </si>
   <si>
     <t xml:space="preserve">1.63894319534302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61732125282288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58705067634583</t>
+    <t xml:space="preserve">1.61732137203217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58705055713654</t>
   </si>
   <si>
     <t xml:space="preserve">1.62597012519836</t>
@@ -1361,16 +1361,16 @@
     <t xml:space="preserve">1.56542861461639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57407736778259</t>
+    <t xml:space="preserve">1.57407748699188</t>
   </si>
   <si>
     <t xml:space="preserve">1.5567798614502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54380667209625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53948223590851</t>
+    <t xml:space="preserve">1.54380655288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5394823551178</t>
   </si>
   <si>
     <t xml:space="preserve">1.52218472957611</t>
@@ -1385,34 +1385,37 @@
     <t xml:space="preserve">1.548131108284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48326528072357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47029209136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46164333820343</t>
+    <t xml:space="preserve">1.48758971691132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48326516151428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47029221057892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46164345741272</t>
   </si>
   <si>
     <t xml:space="preserve">1.60867261886597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60002362728119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58272612094879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61299693584442</t>
+    <t xml:space="preserve">1.60002374649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58272624015808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61299681663513</t>
   </si>
   <si>
     <t xml:space="preserve">1.64759206771851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64326751232147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6908358335495</t>
+    <t xml:space="preserve">1.64326763153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69083595275879</t>
   </si>
   <si>
     <t xml:space="preserve">1.72975540161133</t>
@@ -1421,10 +1424,10 @@
     <t xml:space="preserve">1.69516038894653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66921401023865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66056501865387</t>
+    <t xml:space="preserve">1.66921389102936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66056513786316</t>
   </si>
   <si>
     <t xml:space="preserve">1.6562408208847</t>
@@ -1445,7 +1448,7 @@
     <t xml:space="preserve">1.67353820800781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6821870803833</t>
+    <t xml:space="preserve">1.68218719959259</t>
   </si>
   <si>
     <t xml:space="preserve">1.65191638469696</t>
@@ -1454,19 +1457,19 @@
     <t xml:space="preserve">1.70380902290344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81624317169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02381372451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04111123085022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11030173301697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33517003059387</t>
+    <t xml:space="preserve">1.8162430524826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02381348609924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04111099243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11030149459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33516979217529</t>
   </si>
   <si>
     <t xml:space="preserve">2.23138451576233</t>
@@ -1481,10 +1484,10 @@
     <t xml:space="preserve">2.40435981750488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41300892829895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3611159324646</t>
+    <t xml:space="preserve">2.41300868988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36111617088318</t>
   </si>
   <si>
     <t xml:space="preserve">2.42165756225586</t>
@@ -1496,10 +1499,10 @@
     <t xml:space="preserve">2.15354561805725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97192120552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98056983947754</t>
+    <t xml:space="preserve">1.97192108631134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98056995868683</t>
   </si>
   <si>
     <t xml:space="preserve">2.07570648193359</t>
@@ -1517,28 +1520,28 @@
     <t xml:space="preserve">1.72543108463287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86813592910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76435029506683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78164803981781</t>
+    <t xml:space="preserve">1.86813569068909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76435041427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78164792060852</t>
   </si>
   <si>
     <t xml:space="preserve">1.8248918056488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73840427398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7989456653595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79029679298401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89408218860626</t>
+    <t xml:space="preserve">1.73840415477753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79894554615021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7902969121933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89408230781555</t>
   </si>
   <si>
     <t xml:space="preserve">1.85948717594147</t>
@@ -1556,13 +1559,13 @@
     <t xml:space="preserve">1.83354067802429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90273094177246</t>
+    <t xml:space="preserve">1.90273082256317</t>
   </si>
   <si>
     <t xml:space="preserve">1.91137981414795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06705760955811</t>
+    <t xml:space="preserve">2.06705784797668</t>
   </si>
   <si>
     <t xml:space="preserve">2.11895036697388</t>
@@ -1571,52 +1574,52 @@
     <t xml:space="preserve">2.08435535430908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11000967025757</t>
+    <t xml:space="preserve">2.11000943183899</t>
   </si>
   <si>
     <t xml:space="preserve">2.07424664497375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06530570983887</t>
+    <t xml:space="preserve">2.06530594825745</t>
   </si>
   <si>
     <t xml:space="preserve">2.01166176795959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99378025531769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96695828437805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94013619422913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9043732881546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94907665252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92225444316864</t>
+    <t xml:space="preserve">1.9937801361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96695816516876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94013607501984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90437316894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94907677173615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92225456237793</t>
   </si>
   <si>
     <t xml:space="preserve">1.91331386566162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88649141788483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93119537830353</t>
+    <t xml:space="preserve">1.88649153709412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93119525909424</t>
   </si>
   <si>
     <t xml:space="preserve">1.87755084037781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89543235301971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85966944694519</t>
+    <t xml:space="preserve">1.89543223381042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8596693277359</t>
   </si>
   <si>
     <t xml:space="preserve">1.84178793430328</t>
@@ -1625,16 +1628,16 @@
     <t xml:space="preserve">1.82390654087067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81496596336365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80602502822876</t>
+    <t xml:space="preserve">1.81496584415436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80602514743805</t>
   </si>
   <si>
     <t xml:space="preserve">1.79708445072174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85072863101959</t>
+    <t xml:space="preserve">1.85072875022888</t>
   </si>
   <si>
     <t xml:space="preserve">1.83284735679626</t>
@@ -1649,7 +1652,7 @@
     <t xml:space="preserve">1.77026224136353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76132154464722</t>
+    <t xml:space="preserve">1.76132166385651</t>
   </si>
   <si>
     <t xml:space="preserve">1.76579189300537</t>
@@ -1667,7 +1670,7 @@
     <t xml:space="preserve">2.21729826927185</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12789106369019</t>
+    <t xml:space="preserve">2.12789130210876</t>
   </si>
   <si>
     <t xml:space="preserve">2.10106873512268</t>
@@ -1685,7 +1688,7 @@
     <t xml:space="preserve">2.0206024646759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08318758010864</t>
+    <t xml:space="preserve">2.08318734169006</t>
   </si>
   <si>
     <t xml:space="preserve">2.09212803840637</t>
@@ -1694,7 +1697,7 @@
     <t xml:space="preserve">2.18153548240662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15471315383911</t>
+    <t xml:space="preserve">2.15471339225769</t>
   </si>
   <si>
     <t xml:space="preserve">2.13683176040649</t>
@@ -1703,10 +1706,10 @@
     <t xml:space="preserve">2.1457724571228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23517942428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37823104858398</t>
+    <t xml:space="preserve">2.23517966270447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37823128700256</t>
   </si>
   <si>
     <t xml:space="preserve">2.36034989356995</t>
@@ -1718,16 +1721,16 @@
     <t xml:space="preserve">2.34246826171875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32458686828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37878966331482</t>
+    <t xml:space="preserve">2.32458662986755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3787899017334</t>
   </si>
   <si>
     <t xml:space="preserve">2.36034965515137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36956977844238</t>
+    <t xml:space="preserve">2.3695695400238</t>
   </si>
   <si>
     <t xml:space="preserve">2.33268928527832</t>
@@ -1754,7 +1757,7 @@
     <t xml:space="preserve">2.2128279209137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22204804420471</t>
+    <t xml:space="preserve">2.22204780578613</t>
   </si>
   <si>
     <t xml:space="preserve">2.07452607154846</t>
@@ -1772,7 +1775,7 @@
     <t xml:space="preserve">2.13906693458557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24970841407776</t>
+    <t xml:space="preserve">2.24970817565918</t>
   </si>
   <si>
     <t xml:space="preserve">2.28658890724182</t>
@@ -1802,7 +1805,7 @@
     <t xml:space="preserve">2.3234691619873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34190940856934</t>
+    <t xml:space="preserve">2.34190917015076</t>
   </si>
   <si>
     <t xml:space="preserve">2.31424903869629</t>
@@ -1817,10 +1820,7 @@
     <t xml:space="preserve">2.05608582496643</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06530594825745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02842569351196</t>
+    <t xml:space="preserve">2.02842545509338</t>
   </si>
   <si>
     <t xml:space="preserve">2.08374619483948</t>
@@ -27077,7 +27077,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G949" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27103,7 +27103,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G950" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27155,7 +27155,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G952" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27181,7 +27181,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G953" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27259,7 +27259,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G956" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27285,7 +27285,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G957" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -27337,7 +27337,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G959" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27363,7 +27363,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G960" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -27415,7 +27415,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G962" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27441,7 +27441,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G963" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -27467,7 +27467,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G964" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27493,7 +27493,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G965" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27519,7 +27519,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G966" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27545,7 +27545,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G967" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27571,7 +27571,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G968" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -27597,7 +27597,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G969" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -27623,7 +27623,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G970" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27649,7 +27649,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G971" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27675,7 +27675,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G972" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27727,7 +27727,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G974" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27779,7 +27779,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G976" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27805,7 +27805,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G977" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27831,7 +27831,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G978" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27883,7 +27883,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G980" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27909,7 +27909,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G981" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27935,7 +27935,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G982" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28039,7 +28039,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G986" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28065,7 +28065,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G987" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28195,7 +28195,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G992" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -28221,7 +28221,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G993" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28273,7 +28273,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G995" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28299,7 +28299,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G996" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28351,7 +28351,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G998" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28377,7 +28377,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G999" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28403,7 +28403,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G1000" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -28429,7 +28429,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1001" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -28481,7 +28481,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1003" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -28559,7 +28559,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1006" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -28585,7 +28585,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1007" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28637,7 +28637,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G1009" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28663,7 +28663,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1010" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28689,7 +28689,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1011" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28715,7 +28715,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1012" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28767,7 +28767,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G1014" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28793,7 +28793,7 @@
         <v>2</v>
       </c>
       <c r="G1015" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28819,7 +28819,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1016" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28845,7 +28845,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1017" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28871,7 +28871,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1018" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28949,7 +28949,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1021" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28975,7 +28975,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G1022" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29001,7 +29001,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1023" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29027,7 +29027,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1024" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29053,7 +29053,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1025" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29079,7 +29079,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1026" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29105,7 +29105,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1027" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29131,7 +29131,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1028" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29157,7 +29157,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1029" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29183,7 +29183,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1030" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29209,7 +29209,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1031" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29235,7 +29235,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1032" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -29261,7 +29261,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1033" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29287,7 +29287,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1034" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29313,7 +29313,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G1035" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29339,7 +29339,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G1036" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -29365,7 +29365,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1037" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -29391,7 +29391,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1038" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -29417,7 +29417,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1039" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29443,7 +29443,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1040" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -29469,7 +29469,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1041" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -29495,7 +29495,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1042" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -29521,7 +29521,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1043" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29547,7 +29547,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1044" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29573,7 +29573,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1045" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -29599,7 +29599,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1046" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29625,7 +29625,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1047" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29651,7 +29651,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1048" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29677,7 +29677,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G1049" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -29703,7 +29703,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1050" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29729,7 +29729,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1051" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29755,7 +29755,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1052" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29781,7 +29781,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1053" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29807,7 +29807,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1054" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29833,7 +29833,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1055" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29859,7 +29859,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1056" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29885,7 +29885,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1057" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29911,7 +29911,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1058" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29937,7 +29937,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1059" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29963,7 +29963,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1060" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29989,7 +29989,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1061" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30015,7 +30015,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1062" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30093,7 +30093,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1065" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30119,7 +30119,7 @@
         <v>2</v>
       </c>
       <c r="G1066" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30145,7 +30145,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1067" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30197,7 +30197,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1069" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -30223,7 +30223,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1070" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -30249,7 +30249,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G1071" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30379,7 +30379,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G1076" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30405,7 +30405,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G1077" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30509,7 +30509,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G1081" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -30535,7 +30535,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1082" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -30561,7 +30561,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1083" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -30587,7 +30587,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1084" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30613,7 +30613,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1085" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30639,7 +30639,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1086" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30665,7 +30665,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1087" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30691,7 +30691,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1088" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30717,7 +30717,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1089" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30743,7 +30743,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1090" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30769,7 +30769,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1091" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30795,7 +30795,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1092" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30821,7 +30821,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1093" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30847,7 +30847,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1094" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30873,7 +30873,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1095" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30899,7 +30899,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1096" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30925,7 +30925,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1097" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30951,7 +30951,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1098" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30977,7 +30977,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1099" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31003,7 +31003,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1100" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31029,7 +31029,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1101" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31055,7 +31055,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1102" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31081,7 +31081,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1103" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31107,7 +31107,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1104" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31133,7 +31133,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1105" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -31159,7 +31159,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1106" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31185,7 +31185,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1107" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -31211,7 +31211,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1108" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31237,7 +31237,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1109" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -31263,7 +31263,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1110" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -31289,7 +31289,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1111" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31315,7 +31315,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1112" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31341,7 +31341,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1113" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31367,7 +31367,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1114" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -31393,7 +31393,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1115" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -31419,7 +31419,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1116" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -31445,7 +31445,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1117" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31471,7 +31471,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1118" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31497,7 +31497,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1119" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31523,7 +31523,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1120" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -31549,7 +31549,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1121" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31575,7 +31575,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1122" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31601,7 +31601,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1123" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31627,7 +31627,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1124" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31653,7 +31653,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1125" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31679,7 +31679,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1126" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31705,7 +31705,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1127" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31731,7 +31731,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1128" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31757,7 +31757,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31783,7 +31783,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1130" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31809,7 +31809,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1131" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31835,7 +31835,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1132" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31861,7 +31861,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1133" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31887,7 +31887,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1134" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31913,7 +31913,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1135" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31939,7 +31939,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1136" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31965,7 +31965,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1137" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31991,7 +31991,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1138" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32017,7 +32017,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1139" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32043,7 +32043,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1140" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32069,7 +32069,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1141" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32095,7 +32095,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1142" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32121,7 +32121,7 @@
         <v>2.25</v>
       </c>
       <c r="G1143" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32147,7 +32147,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1144" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32173,7 +32173,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1145" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32199,7 +32199,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1146" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32225,7 +32225,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1147" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32251,7 +32251,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1148" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32277,7 +32277,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1149" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32303,7 +32303,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1150" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -32329,7 +32329,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1151" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -32355,7 +32355,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1152" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -32381,7 +32381,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1153" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -32407,7 +32407,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1154" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -32433,7 +32433,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1155" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32459,7 +32459,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1156" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -32485,7 +32485,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1157" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32511,7 +32511,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1158" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32537,7 +32537,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1159" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32563,7 +32563,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1160" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -32589,7 +32589,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1161" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32615,7 +32615,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1162" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32641,7 +32641,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1163" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32667,7 +32667,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1164" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32693,7 +32693,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1165" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32719,7 +32719,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1166" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32745,7 +32745,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1167" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32771,7 +32771,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1168" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32797,7 +32797,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1169" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32823,7 +32823,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1170" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32849,7 +32849,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1171" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32875,7 +32875,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1172" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32901,7 +32901,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1173" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32927,7 +32927,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1174" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32953,7 +32953,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1175" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32979,7 +32979,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1176" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33005,7 +33005,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1177" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33031,7 +33031,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1178" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33057,7 +33057,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1179" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33083,7 +33083,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1180" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33109,7 +33109,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1181" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33135,7 +33135,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1182" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33161,7 +33161,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1183" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33187,7 +33187,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1184" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33213,7 +33213,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1185" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33239,7 +33239,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1186" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -33265,7 +33265,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1187" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33291,7 +33291,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1188" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -33317,7 +33317,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1189" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -33343,7 +33343,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1190" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -33369,7 +33369,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1191" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -33395,7 +33395,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1192" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -33421,7 +33421,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1193" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -33447,7 +33447,7 @@
         <v>2</v>
       </c>
       <c r="G1194" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33473,7 +33473,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1195" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33499,7 +33499,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1196" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33525,7 +33525,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1197" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33551,7 +33551,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1198" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33577,7 +33577,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1199" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -33603,7 +33603,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1200" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -33629,7 +33629,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1201" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33655,7 +33655,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1202" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33681,7 +33681,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1203" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33707,7 +33707,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1204" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33733,7 +33733,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1205" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33759,7 +33759,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1206" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33785,7 +33785,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1207" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33811,7 +33811,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1208" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33837,7 +33837,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1209" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33863,7 +33863,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33889,7 +33889,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1211" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33915,7 +33915,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1212" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33941,7 +33941,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1213" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33967,7 +33967,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1214" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -33993,7 +33993,7 @@
         <v>2</v>
       </c>
       <c r="G1215" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34019,7 +34019,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1216" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34045,7 +34045,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1217" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34071,7 +34071,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1218" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34097,7 +34097,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1219" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34123,7 +34123,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1220" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34149,7 +34149,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1221" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34175,7 +34175,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1222" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34201,7 +34201,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1223" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34227,7 +34227,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1224" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34253,7 +34253,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G1225" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34279,7 +34279,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G1226" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -34305,7 +34305,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1227" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -34331,7 +34331,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1228" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -34357,7 +34357,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1229" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -34383,7 +34383,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1230" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -34409,7 +34409,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1231" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -34435,7 +34435,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1232" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34461,7 +34461,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34487,7 +34487,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1234" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34513,7 +34513,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1235" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -34539,7 +34539,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1236" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -34565,7 +34565,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1237" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34591,7 +34591,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1238" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -34617,7 +34617,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1239" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34643,7 +34643,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1240" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34669,7 +34669,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1241" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34695,7 +34695,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1242" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34721,7 +34721,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1243" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34747,7 +34747,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1244" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34773,7 +34773,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1245" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34799,7 +34799,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1246" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34825,7 +34825,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1247" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34851,7 +34851,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1248" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34877,7 +34877,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1249" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34903,7 +34903,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1250" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34929,7 +34929,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1251" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34955,7 +34955,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1252" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34981,7 +34981,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1253" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35007,7 +35007,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1254" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35033,7 +35033,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1255" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35059,7 +35059,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1256" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35085,7 +35085,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1257" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35111,7 +35111,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1258" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35137,7 +35137,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1259" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35163,7 +35163,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1260" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35189,7 +35189,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1261" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35215,7 +35215,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1262" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35241,7 +35241,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35267,7 +35267,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1264" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35293,7 +35293,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1265" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35319,7 +35319,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1266" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -35345,7 +35345,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1267" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -35371,7 +35371,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1268" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -35397,7 +35397,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1269" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -35423,7 +35423,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1270" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -35449,7 +35449,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1271" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35475,7 +35475,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1272" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35501,7 +35501,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1273" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35527,7 +35527,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1274" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35553,7 +35553,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1275" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35579,7 +35579,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1276" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35605,7 +35605,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1277" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35631,7 +35631,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1278" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35657,7 +35657,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1279" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35683,7 +35683,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1280" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35709,7 +35709,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1281" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35735,7 +35735,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1282" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35761,7 +35761,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1283" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35787,7 +35787,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1284" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35813,7 +35813,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1285" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35839,7 +35839,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1286" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35865,7 +35865,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1287" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35891,7 +35891,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1288" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35917,7 +35917,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1289" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35943,7 +35943,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1290" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35969,7 +35969,7 @@
         <v>2.25</v>
       </c>
       <c r="G1291" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35995,7 +35995,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1292" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36021,7 +36021,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1293" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36047,7 +36047,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1294" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36073,7 +36073,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1295" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36099,7 +36099,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1296" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36125,7 +36125,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1297" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36151,7 +36151,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1298" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -36177,7 +36177,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1299" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -36203,7 +36203,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1300" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -36229,7 +36229,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1301" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36255,7 +36255,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1302" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36281,7 +36281,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1303" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36307,7 +36307,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1304" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36333,7 +36333,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1305" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36359,7 +36359,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1306" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36385,7 +36385,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1307" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36411,7 +36411,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1308" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36437,7 +36437,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1309" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36463,7 +36463,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1310" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36489,7 +36489,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1311" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36515,7 +36515,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1312" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36541,7 +36541,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1313" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36567,7 +36567,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1314" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36593,7 +36593,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1315" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -36619,7 +36619,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1316" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36645,7 +36645,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1317" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36671,7 +36671,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36697,7 +36697,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1319" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -36723,7 +36723,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1320" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36749,7 +36749,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1321" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36775,7 +36775,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1322" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36801,7 +36801,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1323" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36827,7 +36827,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1324" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36853,7 +36853,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1325" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36879,7 +36879,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1326" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36905,7 +36905,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1327" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36931,7 +36931,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1328" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36957,7 +36957,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1329" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36983,7 +36983,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1330" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37009,7 +37009,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1331" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37035,7 +37035,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1332" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37061,7 +37061,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1333" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37087,7 +37087,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1334" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37113,7 +37113,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1335" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37139,7 +37139,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1336" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -37165,7 +37165,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1337" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -37191,7 +37191,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1338" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -37217,7 +37217,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1339" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -37243,7 +37243,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1340" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -37269,7 +37269,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1341" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37295,7 +37295,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1342" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37321,7 +37321,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1343" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -37347,7 +37347,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1344" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37373,7 +37373,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1345" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37399,7 +37399,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1346" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37425,7 +37425,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1347" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37451,7 +37451,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1348" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -37477,7 +37477,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1349" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -37503,7 +37503,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1350" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -37529,7 +37529,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1351" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -37555,7 +37555,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1352" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37581,7 +37581,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1353" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37607,7 +37607,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1354" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -37633,7 +37633,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1355" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -37659,7 +37659,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1356" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37685,7 +37685,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1357" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37711,7 +37711,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1358" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -37737,7 +37737,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1359" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37763,7 +37763,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1360" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37789,7 +37789,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1361" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -37815,7 +37815,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1362" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37841,7 +37841,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1363" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37867,7 +37867,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1364" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -37893,7 +37893,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1365" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -37919,7 +37919,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1366" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -37945,7 +37945,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1367" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -37971,7 +37971,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1368" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -37997,7 +37997,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1369" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38023,7 +38023,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1370" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38049,7 +38049,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1371" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -38075,7 +38075,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1372" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -38101,7 +38101,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1373" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -38127,7 +38127,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1374" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -38153,7 +38153,7 @@
         <v>2.5</v>
       </c>
       <c r="G1375" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -38179,7 +38179,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G1376" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -38205,7 +38205,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1377" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -38231,7 +38231,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1378" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -38257,7 +38257,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1379" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -38283,7 +38283,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1380" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38309,7 +38309,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1381" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38335,7 +38335,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1382" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38361,7 +38361,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1383" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38387,7 +38387,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1384" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38413,7 +38413,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1385" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38439,7 +38439,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1386" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38465,7 +38465,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1387" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38491,7 +38491,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1388" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38517,7 +38517,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1389" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38543,7 +38543,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1390" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38569,7 +38569,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1391" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38595,7 +38595,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1392" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38621,7 +38621,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1393" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38647,7 +38647,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1394" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38673,7 +38673,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1395" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38699,7 +38699,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1396" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38725,7 +38725,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1397" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38751,7 +38751,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1398" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38777,7 +38777,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1399" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38803,7 +38803,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1400" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38829,7 +38829,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1401" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38855,7 +38855,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1402" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38881,7 +38881,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1403" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38907,7 +38907,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1404" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38933,7 +38933,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1405" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38959,7 +38959,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1406" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38985,7 +38985,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1407" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39011,7 +39011,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1408" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39037,7 +39037,7 @@
         <v>2.25</v>
       </c>
       <c r="G1409" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39063,7 +39063,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1410" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39089,7 +39089,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1411" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39115,7 +39115,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1412" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39141,7 +39141,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1413" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39167,7 +39167,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1414" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39193,7 +39193,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1415" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39219,7 +39219,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1416" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39245,7 +39245,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1417" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39271,7 +39271,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1418" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39297,7 +39297,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1419" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39323,7 +39323,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1420" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39349,7 +39349,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1421" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39375,7 +39375,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1422" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39401,7 +39401,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1423" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39427,7 +39427,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1424" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39453,7 +39453,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1425" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39479,7 +39479,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1426" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39505,7 +39505,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1427" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39531,7 +39531,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1428" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39557,7 +39557,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1429" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39583,7 +39583,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1430" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39609,7 +39609,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1431" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39635,7 +39635,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39661,7 +39661,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1433" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39687,7 +39687,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1434" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -39713,7 +39713,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1435" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -39739,7 +39739,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1436" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39765,7 +39765,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1437" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39791,7 +39791,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1438" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39817,7 +39817,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1439" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39843,7 +39843,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1440" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39869,7 +39869,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1441" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39895,7 +39895,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1442" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39921,7 +39921,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1443" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39947,7 +39947,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1444" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39973,7 +39973,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1445" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39999,7 +39999,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1446" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40025,7 +40025,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1447" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40051,7 +40051,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1448" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40077,7 +40077,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1449" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40103,7 +40103,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1450" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40129,7 +40129,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1451" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40155,7 +40155,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1452" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40181,7 +40181,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1453" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40207,7 +40207,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1454" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -40233,7 +40233,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1455" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40259,7 +40259,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1456" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40285,7 +40285,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1457" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40311,7 +40311,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1458" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40337,7 +40337,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1459" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40363,7 +40363,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1460" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40389,7 +40389,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1461" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40415,7 +40415,7 @@
         <v>2.5</v>
       </c>
       <c r="G1462" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40441,7 +40441,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1463" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40467,7 +40467,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1464" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40493,7 +40493,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1465" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40519,7 +40519,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1466" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40545,7 +40545,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1467" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40571,7 +40571,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1468" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40597,7 +40597,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1469" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40623,7 +40623,7 @@
         <v>2.5</v>
       </c>
       <c r="G1470" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40649,7 +40649,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1471" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -40675,7 +40675,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1472" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -40701,7 +40701,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1473" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -40727,7 +40727,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1474" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -40753,7 +40753,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1475" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40779,7 +40779,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1476" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40805,7 +40805,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1477" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40831,7 +40831,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1478" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40857,7 +40857,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1479" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40883,7 +40883,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1480" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40909,7 +40909,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1481" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40935,7 +40935,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1482" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40961,7 +40961,7 @@
         <v>2.5</v>
       </c>
       <c r="G1483" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40987,7 +40987,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1484" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41013,7 +41013,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1485" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41039,7 +41039,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1486" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41065,7 +41065,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1487" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41091,7 +41091,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1488" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41117,7 +41117,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1489" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -41143,7 +41143,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1490" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -41169,7 +41169,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1491" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41195,7 +41195,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1492" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41221,7 +41221,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1493" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41247,7 +41247,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1494" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41273,7 +41273,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1495" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41299,7 +41299,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1496" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41325,7 +41325,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1497" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41351,7 +41351,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1498" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41377,7 +41377,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1499" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41403,7 +41403,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1500" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41429,7 +41429,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1501" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41455,7 +41455,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1502" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41481,7 +41481,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1503" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41507,7 +41507,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1504" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41533,7 +41533,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1505" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -41559,7 +41559,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1506" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -41585,7 +41585,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1507" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41611,7 +41611,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1508" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -41637,7 +41637,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1509" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -41663,7 +41663,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1510" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -41689,7 +41689,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1511" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -41715,7 +41715,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1512" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -41741,7 +41741,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1513" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41767,7 +41767,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1514" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -41793,7 +41793,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1515" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41819,7 +41819,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1516" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41845,7 +41845,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1517" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41871,7 +41871,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1518" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41897,7 +41897,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1519" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41923,7 +41923,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1520" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41949,7 +41949,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1521" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41975,7 +41975,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1522" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42001,7 +42001,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1523" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42027,7 +42027,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1524" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42053,7 +42053,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1525" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42079,7 +42079,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1526" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42105,7 +42105,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1527" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42131,7 +42131,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1528" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42157,7 +42157,7 @@
         <v>2.5</v>
       </c>
       <c r="G1529" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42183,7 +42183,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1530" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42209,7 +42209,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1531" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42235,7 +42235,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1532" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42261,7 +42261,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1533" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42287,7 +42287,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1534" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42313,7 +42313,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1535" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42339,7 +42339,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1536" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42365,7 +42365,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1537" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42391,7 +42391,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1538" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42417,7 +42417,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1539" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42443,7 +42443,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1540" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42469,7 +42469,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1541" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42495,7 +42495,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1542" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42521,7 +42521,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1543" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42547,7 +42547,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1544" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42573,7 +42573,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1545" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42599,7 +42599,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1546" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -42625,7 +42625,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1547" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42651,7 +42651,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1548" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42677,7 +42677,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1549" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42703,7 +42703,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1550" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42729,7 +42729,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1551" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42755,7 +42755,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1552" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42781,7 +42781,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1553" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42807,7 +42807,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1554" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42833,7 +42833,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1555" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42859,7 +42859,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1556" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42885,7 +42885,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1557" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42911,7 +42911,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1558" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42937,7 +42937,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1559" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42963,7 +42963,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1560" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42989,7 +42989,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1561" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43015,7 +43015,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1562" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43041,7 +43041,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1563" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43067,7 +43067,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1564" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43093,7 +43093,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1565" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43119,7 +43119,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1566" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43145,7 +43145,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1567" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43171,7 +43171,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1568" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -43197,7 +43197,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1569" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43223,7 +43223,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1570" t="s">
-        <v>601</v>
+        <v>522</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43353,7 +43353,7 @@
         <v>2.25</v>
       </c>
       <c r="G1575" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43379,7 +43379,7 @@
         <v>2.25</v>
       </c>
       <c r="G1576" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43405,7 +43405,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1577" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43431,7 +43431,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1578" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43457,7 +43457,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1579" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43483,7 +43483,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1580" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43509,7 +43509,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1581" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43535,7 +43535,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1582" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43561,7 +43561,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1583" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43587,7 +43587,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1584" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43613,7 +43613,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1585" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43639,7 +43639,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1586" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43665,7 +43665,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1587" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43691,7 +43691,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1588" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -43717,7 +43717,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1589" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -43743,7 +43743,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1590" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43769,7 +43769,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1591" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43795,7 +43795,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1592" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43821,7 +43821,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1593" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43847,7 +43847,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1594" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43873,7 +43873,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1595" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43899,7 +43899,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1596" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43925,7 +43925,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1597" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43951,7 +43951,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1598" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43977,7 +43977,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1599" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44003,7 +44003,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1600" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44029,7 +44029,7 @@
         <v>2.25</v>
       </c>
       <c r="G1601" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44055,7 +44055,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1602" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44081,7 +44081,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1603" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44107,7 +44107,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1604" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44133,7 +44133,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1605" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44289,7 +44289,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1611" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44315,7 +44315,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1612" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44341,7 +44341,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1613" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44367,7 +44367,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1614" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44419,7 +44419,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1616" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44445,7 +44445,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1617" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44471,7 +44471,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1618" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44497,7 +44497,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1619" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44523,7 +44523,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1620" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44549,7 +44549,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1621" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44575,7 +44575,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1622" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44601,7 +44601,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1623" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44627,7 +44627,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1624" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44653,7 +44653,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1625" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44679,7 +44679,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1626" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -44705,7 +44705,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1627" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -44731,7 +44731,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1628" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44757,7 +44757,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1629" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44783,7 +44783,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1630" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44809,7 +44809,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1631" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44835,7 +44835,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1632" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44861,7 +44861,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1633" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44887,7 +44887,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1634" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44913,7 +44913,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1635" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44939,7 +44939,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44965,7 +44965,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1637" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44991,7 +44991,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1638" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45017,7 +45017,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1639" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45043,7 +45043,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1640" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45069,7 +45069,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1641" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45095,7 +45095,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1642" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45121,7 +45121,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1643" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45147,7 +45147,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1644" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -58519,7 +58519,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.6051157407</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>3473</v>
@@ -58540,6 +58540,32 @@
         <v>649</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.6496064815</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>25414</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>2.14000010490417</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>2.08999991416931</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>683</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AC5.MI.xlsx
+++ b/data/AC5.MI.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">1.21931028366089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18689823150635</t>
+    <t xml:space="preserve">1.18689811229706</t>
   </si>
   <si>
     <t xml:space="preserve">1.21159315109253</t>
@@ -59,16 +59,16 @@
     <t xml:space="preserve">1.1876699924469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18844163417816</t>
+    <t xml:space="preserve">1.18844151496887</t>
   </si>
   <si>
     <t xml:space="preserve">1.19615876674652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18149626255035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17455065250397</t>
+    <t xml:space="preserve">1.18149614334106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17455077171326</t>
   </si>
   <si>
     <t xml:space="preserve">1.08348834514618</t>
@@ -77,64 +77,64 @@
     <t xml:space="preserve">1.02252280712128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00322985649109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07654285430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12593257427216</t>
+    <t xml:space="preserve">1.00322997570038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07654297351837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12593269348145</t>
   </si>
   <si>
     <t xml:space="preserve">1.09429240226746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10355293750763</t>
+    <t xml:space="preserve">1.10355281829834</t>
   </si>
   <si>
     <t xml:space="preserve">1.14291048049927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11821568012238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12361764907837</t>
+    <t xml:space="preserve">1.11821556091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12361752986908</t>
   </si>
   <si>
     <t xml:space="preserve">1.11127007007599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13210654258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11204195022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10586810112</t>
+    <t xml:space="preserve">1.13210642337799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11204171180725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10586822032928</t>
   </si>
   <si>
     <t xml:space="preserve">1.02638149261475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975448131561279</t>
+    <t xml:space="preserve">0.975448191165924</t>
   </si>
   <si>
     <t xml:space="preserve">0.992425918579102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999371349811554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01789247989655</t>
+    <t xml:space="preserve">0.999371290206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01789259910583</t>
   </si>
   <si>
     <t xml:space="preserve">1.06805396080017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05107641220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04181587696075</t>
+    <t xml:space="preserve">1.05107617378235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04181575775146</t>
   </si>
   <si>
     <t xml:space="preserve">1.04258739948273</t>
@@ -146,31 +146,31 @@
     <t xml:space="preserve">1.08117318153381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07191276550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07422769069672</t>
+    <t xml:space="preserve">1.07191264629364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07422780990601</t>
   </si>
   <si>
     <t xml:space="preserve">1.06110858917236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07345616817474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07036900520325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08040142059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10200953483582</t>
+    <t xml:space="preserve">1.07345604896545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07036912441254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08040153980255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10200941562653</t>
   </si>
   <si>
     <t xml:space="preserve">1.09969425201416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08425998687744</t>
+    <t xml:space="preserve">1.08426010608673</t>
   </si>
   <si>
     <t xml:space="preserve">1.10741150379181</t>
@@ -179,82 +179,82 @@
     <t xml:space="preserve">1.08966207504272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09043383598328</t>
+    <t xml:space="preserve">1.09043371677399</t>
   </si>
   <si>
     <t xml:space="preserve">1.09506404399872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08580350875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06651043891907</t>
+    <t xml:space="preserve">1.08580338954926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06651055812836</t>
   </si>
   <si>
     <t xml:space="preserve">1.09197723865509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11898732185364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1043244600296</t>
+    <t xml:space="preserve">1.11898720264435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10432457923889</t>
   </si>
   <si>
     <t xml:space="preserve">1.126704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19152867794037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19230008125305</t>
+    <t xml:space="preserve">1.19152843952179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19230020046234</t>
   </si>
   <si>
     <t xml:space="preserve">1.17532253265381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18072462081909</t>
+    <t xml:space="preserve">1.18072438240051</t>
   </si>
   <si>
     <t xml:space="preserve">1.28027582168579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26561319828033</t>
+    <t xml:space="preserve">1.26561307907104</t>
   </si>
   <si>
     <t xml:space="preserve">1.22625577449799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23474454879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25017893314362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21004974842072</t>
+    <t xml:space="preserve">1.23474442958832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25017881393433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21004962921143</t>
   </si>
   <si>
     <t xml:space="preserve">1.18921339511871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25789606571198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25635266304016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24323332309723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23165786266327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23088598251343</t>
+    <t xml:space="preserve">1.2578958272934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25635278224945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24323344230652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23165762424469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23088586330414</t>
   </si>
   <si>
     <t xml:space="preserve">1.22316884994507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24014675617218</t>
+    <t xml:space="preserve">1.2401465177536</t>
   </si>
   <si>
     <t xml:space="preserve">1.27101504802704</t>
@@ -269,22 +269,22 @@
     <t xml:space="preserve">1.29725337028503</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31191599369049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31268775463104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30651390552521</t>
+    <t xml:space="preserve">1.31191611289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31268763542175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30651414394379</t>
   </si>
   <si>
     <t xml:space="preserve">1.32503533363342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32271993160248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29570996761322</t>
+    <t xml:space="preserve">1.32272005081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29571008682251</t>
   </si>
   <si>
     <t xml:space="preserve">1.33853030204773</t>
@@ -296,10 +296,10 @@
     <t xml:space="preserve">1.28857326507568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2869873046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26002645492554</t>
+    <t xml:space="preserve">1.28698742389679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26002657413483</t>
   </si>
   <si>
     <t xml:space="preserve">1.2631983757019</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">1.26081943511963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25209677219391</t>
+    <t xml:space="preserve">1.25209665298462</t>
   </si>
   <si>
     <t xml:space="preserve">1.24496006965637</t>
@@ -323,49 +323,49 @@
     <t xml:space="preserve">1.23623752593994</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21165537834167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19341695308685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1973819732666</t>
+    <t xml:space="preserve">1.21165549755096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19341707229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19738185405731</t>
   </si>
   <si>
     <t xml:space="preserve">1.19103825092316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24099516868591</t>
+    <t xml:space="preserve">1.2409952878952</t>
   </si>
   <si>
     <t xml:space="preserve">1.22354984283447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21562027931213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2211709022522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16169822216034</t>
+    <t xml:space="preserve">1.21562039852142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22117102146149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16169834136963</t>
   </si>
   <si>
     <t xml:space="preserve">1.15773367881775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22513592243195</t>
+    <t xml:space="preserve">1.22513568401337</t>
   </si>
   <si>
     <t xml:space="preserve">1.21799910068512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2536826133728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28619432449341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28064370155334</t>
+    <t xml:space="preserve">1.25368273258209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2861944437027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28064358234406</t>
   </si>
   <si>
     <t xml:space="preserve">1.3083975315094</t>
@@ -374,64 +374,64 @@
     <t xml:space="preserve">1.27667880058289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30443274974823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28222966194153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30522572994232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27271413803101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28460836410522</t>
+    <t xml:space="preserve">1.30443263053894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28222954273224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30522561073303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27271389961243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2846086025238</t>
   </si>
   <si>
     <t xml:space="preserve">1.27350687980652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29253816604614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30046772956848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29888200759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31632721424103</t>
+    <t xml:space="preserve">1.29253804683685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30046784877777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29888188838959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31632709503174</t>
   </si>
   <si>
     <t xml:space="preserve">1.3076046705246</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31553411483765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32425665855408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.332186460495</t>
+    <t xml:space="preserve">1.31553423404694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32425689697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33218657970428</t>
   </si>
   <si>
     <t xml:space="preserve">1.33615136146545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32663583755493</t>
+    <t xml:space="preserve">1.32663571834564</t>
   </si>
   <si>
     <t xml:space="preserve">1.35994052886963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38928020000458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42734277248383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41069042682648</t>
+    <t xml:space="preserve">1.38928031921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42734265327454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41069054603577</t>
   </si>
   <si>
     <t xml:space="preserve">1.40355372428894</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">1.39958894252777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38531541824341</t>
+    <t xml:space="preserve">1.38531529903412</t>
   </si>
   <si>
     <t xml:space="preserve">1.34804582595825</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">1.3639053106308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37976467609406</t>
+    <t xml:space="preserve">1.37976455688477</t>
   </si>
   <si>
     <t xml:space="preserve">1.3646981716156</t>
@@ -461,22 +461,22 @@
     <t xml:space="preserve">1.36787009239197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37500691413879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3401163816452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33377254009247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36945605278015</t>
+    <t xml:space="preserve">1.3750067949295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34011626243591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33377242088318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36945617198944</t>
   </si>
   <si>
     <t xml:space="preserve">1.35121774673462</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32504999637604</t>
+    <t xml:space="preserve">1.32504987716675</t>
   </si>
   <si>
     <t xml:space="preserve">1.32108497619629</t>
@@ -488,10 +488,10 @@
     <t xml:space="preserve">1.29650294780731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29333114624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2758857011795</t>
+    <t xml:space="preserve">1.29333102703094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27588582038879</t>
   </si>
   <si>
     <t xml:space="preserve">1.29729604721069</t>
@@ -500,10 +500,10 @@
     <t xml:space="preserve">1.30681157112122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29174506664276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27905786037445</t>
+    <t xml:space="preserve">1.29174518585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27905774116516</t>
   </si>
   <si>
     <t xml:space="preserve">1.26240527629852</t>
@@ -512,22 +512,22 @@
     <t xml:space="preserve">1.252889752388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26637029647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27509295940399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29491698741913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27826476097107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28381538391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27192103862762</t>
+    <t xml:space="preserve">1.26637017726898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27509272098541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29491722583771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27826464176178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28381550312042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27192091941833</t>
   </si>
   <si>
     <t xml:space="preserve">1.26874911785126</t>
@@ -536,13 +536,13 @@
     <t xml:space="preserve">1.26557719707489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24178802967072</t>
+    <t xml:space="preserve">1.24178814888</t>
   </si>
   <si>
     <t xml:space="preserve">1.23861634731293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20531165599823</t>
+    <t xml:space="preserve">1.20531153678894</t>
   </si>
   <si>
     <t xml:space="preserve">1.22910070419312</t>
@@ -551,22 +551,22 @@
     <t xml:space="preserve">1.21324133872986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20610475540161</t>
+    <t xml:space="preserve">1.20610463619232</t>
   </si>
   <si>
     <t xml:space="preserve">1.19817507266998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19183111190796</t>
+    <t xml:space="preserve">1.19183123111725</t>
   </si>
   <si>
     <t xml:space="preserve">1.21641325950623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20293259620667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20927631855011</t>
+    <t xml:space="preserve">1.20293271541595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20927655696869</t>
   </si>
   <si>
     <t xml:space="preserve">1.23465156555176</t>
@@ -575,28 +575,28 @@
     <t xml:space="preserve">1.22196388244629</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23940920829773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23703038692474</t>
+    <t xml:space="preserve">1.23940932750702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23703026771545</t>
   </si>
   <si>
     <t xml:space="preserve">1.22989356517792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23306548595428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23782336711884</t>
+    <t xml:space="preserve">1.23306560516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23782324790955</t>
   </si>
   <si>
     <t xml:space="preserve">1.29412400722504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27985072135925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27033507823944</t>
+    <t xml:space="preserve">1.27985060214996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27033519744873</t>
   </si>
   <si>
     <t xml:space="preserve">1.27747178077698</t>
@@ -608,10 +608,10 @@
     <t xml:space="preserve">1.22830772399902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21720623970032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21958518028259</t>
+    <t xml:space="preserve">1.21720612049103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21958494186401</t>
   </si>
   <si>
     <t xml:space="preserve">1.21244835853577</t>
@@ -623,34 +623,34 @@
     <t xml:space="preserve">1.2203780412674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25606143474579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24892497062683</t>
+    <t xml:space="preserve">1.25606167316437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24892485141754</t>
   </si>
   <si>
     <t xml:space="preserve">1.26478433609009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32584297657013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32822167873383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36152648925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35201072692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34408116340637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37183511257172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3742139339447</t>
+    <t xml:space="preserve">1.32584285736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32822155952454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36152637004852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35201096534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34408104419708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37183499336243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37421381473541</t>
   </si>
   <si>
     <t xml:space="preserve">1.40593254566193</t>
@@ -659,25 +659,25 @@
     <t xml:space="preserve">1.41782712936401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40196776390076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43527257442474</t>
+    <t xml:space="preserve">1.40196764469147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43527245521545</t>
   </si>
   <si>
     <t xml:space="preserve">1.43447947502136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4194130897522</t>
+    <t xml:space="preserve">1.41941297054291</t>
   </si>
   <si>
     <t xml:space="preserve">1.43923735618591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3980028629303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4098973274231</t>
+    <t xml:space="preserve">1.39800298213959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40989756584167</t>
   </si>
   <si>
     <t xml:space="preserve">1.41148328781128</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">1.4749208688736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45113170146942</t>
+    <t xml:space="preserve">1.451131939888</t>
   </si>
   <si>
     <t xml:space="preserve">1.45906138420105</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">1.50267469882965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48285055160522</t>
+    <t xml:space="preserve">1.48285031318665</t>
   </si>
   <si>
     <t xml:space="preserve">1.50346767902374</t>
@@ -710,34 +710,34 @@
     <t xml:space="preserve">1.47333490848541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48919415473938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52249896526337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50663948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51298320293427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52884268760681</t>
+    <t xml:space="preserve">1.48919439315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52249884605408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50663959980011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51298332214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52884256839752</t>
   </si>
   <si>
     <t xml:space="preserve">1.49712383747101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48602223396301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50426065921783</t>
+    <t xml:space="preserve">1.48602247238159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50426054000854</t>
   </si>
   <si>
     <t xml:space="preserve">1.53765249252319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57104444503784</t>
+    <t xml:space="preserve">1.57104432582855</t>
   </si>
   <si>
     <t xml:space="preserve">1.62561142444611</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">1.71845674514771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7396320104599</t>
+    <t xml:space="preserve">1.73963212966919</t>
   </si>
   <si>
     <t xml:space="preserve">1.64352881908417</t>
@@ -761,16 +761,16 @@
     <t xml:space="preserve">1.63701343536377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61095178127289</t>
+    <t xml:space="preserve">1.6109516620636</t>
   </si>
   <si>
     <t xml:space="preserve">1.60199284553528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61502397060394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59059083461761</t>
+    <t xml:space="preserve">1.61502385139465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59059071540833</t>
   </si>
   <si>
     <t xml:space="preserve">1.59221971035004</t>
@@ -782,25 +782,25 @@
     <t xml:space="preserve">1.56534337997437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55882787704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55149793624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55557000637054</t>
+    <t xml:space="preserve">1.5588276386261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55149781703949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55557012557983</t>
   </si>
   <si>
     <t xml:space="preserve">1.5229926109314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58000314235687</t>
+    <t xml:space="preserve">1.58000302314758</t>
   </si>
   <si>
     <t xml:space="preserve">1.58081758022308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59466290473938</t>
+    <t xml:space="preserve">1.59466278553009</t>
   </si>
   <si>
     <t xml:space="preserve">1.5743020772934</t>
@@ -809,13 +809,13 @@
     <t xml:space="preserve">1.54742574691772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53683793544769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54905462265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53928124904633</t>
+    <t xml:space="preserve">1.53683817386627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54905438423157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53928136825562</t>
   </si>
   <si>
     <t xml:space="preserve">1.54498243331909</t>
@@ -830,22 +830,22 @@
     <t xml:space="preserve">1.56452894210815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60036396980286</t>
+    <t xml:space="preserve">1.60036408901215</t>
   </si>
   <si>
     <t xml:space="preserve">1.61665272712708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58896195888519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58814764022827</t>
+    <t xml:space="preserve">1.5889618396759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58814752101898</t>
   </si>
   <si>
     <t xml:space="preserve">1.61583817005157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61258053779602</t>
+    <t xml:space="preserve">1.61258041858673</t>
   </si>
   <si>
     <t xml:space="preserve">1.64515781402588</t>
@@ -863,19 +863,19 @@
     <t xml:space="preserve">1.62072479724884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63864231109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63049805164337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64841544628143</t>
+    <t xml:space="preserve">1.63864254951477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63049817085266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64841556549072</t>
   </si>
   <si>
     <t xml:space="preserve">1.61828148365021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62398242950439</t>
+    <t xml:space="preserve">1.62398254871368</t>
   </si>
   <si>
     <t xml:space="preserve">1.65330219268799</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">1.67773509025574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60606515407562</t>
+    <t xml:space="preserve">1.60606503486633</t>
   </si>
   <si>
     <t xml:space="preserve">1.59303402900696</t>
@@ -902,7 +902,7 @@
     <t xml:space="preserve">1.65981769561768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65655982494354</t>
+    <t xml:space="preserve">1.65655994415283</t>
   </si>
   <si>
     <t xml:space="preserve">1.64027106761932</t>
@@ -914,76 +914,76 @@
     <t xml:space="preserve">1.69565272331238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68587958812714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76732301712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81618916988373</t>
+    <t xml:space="preserve">1.68587934970856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76732313632965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81618905067444</t>
   </si>
   <si>
     <t xml:space="preserve">1.79501378536224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83247780799866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8487663269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86342632770538</t>
+    <t xml:space="preserve">1.83247768878937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84876644611359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8634260892868</t>
   </si>
   <si>
     <t xml:space="preserve">1.79175591468811</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81944692134857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80641567707062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80804455280304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81781816482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80967354774475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81130254268646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8292201757431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82759118080139</t>
+    <t xml:space="preserve">1.81944680213928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80641555786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8080450296402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81781804561615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80967342853546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81130242347717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82922029495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82759082317352</t>
   </si>
   <si>
     <t xml:space="preserve">1.79827153682709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77546715736389</t>
+    <t xml:space="preserve">1.77546739578247</t>
   </si>
   <si>
     <t xml:space="preserve">1.78361177444458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88948786258698</t>
+    <t xml:space="preserve">1.88948810100555</t>
   </si>
   <si>
     <t xml:space="preserve">1.95138514041901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96441602706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94161212444305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94975650310516</t>
+    <t xml:space="preserve">1.96441614627838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94161224365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94975662231445</t>
   </si>
   <si>
     <t xml:space="preserve">1.99536490440369</t>
@@ -992,22 +992,22 @@
     <t xml:space="preserve">2.01979780197144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99210727214813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91392135620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85528206825256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7999005317688</t>
+    <t xml:space="preserve">1.99210715293884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91392123699188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85528194904327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79990017414093</t>
   </si>
   <si>
     <t xml:space="preserve">1.90903460979462</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9236946105957</t>
+    <t xml:space="preserve">1.92369425296783</t>
   </si>
   <si>
     <t xml:space="preserve">1.98722040653229</t>
@@ -1016,49 +1016,49 @@
     <t xml:space="preserve">1.95627188682556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97418963909149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87319922447205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88623023033142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86994159221649</t>
+    <t xml:space="preserve">1.97418940067291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87319934368134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88623058795929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86994171142578</t>
   </si>
   <si>
     <t xml:space="preserve">1.89763259887695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86668384075165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84387981891632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83573544025421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82433331012726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77383828163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80315804481506</t>
+    <t xml:space="preserve">1.86668395996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84387993812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83573567867279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82433342933655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77383852005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80315816402435</t>
   </si>
   <si>
     <t xml:space="preserve">1.86831271648407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86179745197296</t>
+    <t xml:space="preserve">1.86179733276367</t>
   </si>
   <si>
     <t xml:space="preserve">1.90414798259735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8797150850296</t>
+    <t xml:space="preserve">1.87971496582031</t>
   </si>
   <si>
     <t xml:space="preserve">1.88460147380829</t>
@@ -1067,52 +1067,52 @@
     <t xml:space="preserve">1.88134384155273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85691070556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93020987510681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9057765007019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97093152999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97907602787018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95464301109314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03608655929565</t>
+    <t xml:space="preserve">1.85691094398499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93020975589752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90577697753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97093188762665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97907614707947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95464289188385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03608632087708</t>
   </si>
   <si>
     <t xml:space="preserve">2.04423093795776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96278738975525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94649875164032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92206525802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93835413455963</t>
+    <t xml:space="preserve">1.96278762817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94649863243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92206573486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9383544921875</t>
   </si>
   <si>
     <t xml:space="preserve">2.01165342330933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00350904464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0443971157074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05270743370056</t>
+    <t xml:space="preserve">2.00350880622864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04439687728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05270767211914</t>
   </si>
   <si>
     <t xml:space="preserve">2.0028440952301</t>
@@ -1121,52 +1121,52 @@
     <t xml:space="preserve">2.01946544647217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96960186958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9612911939621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0610179901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9862232208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95298087596893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90311753749847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84494340419769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91142785549164</t>
+    <t xml:space="preserve">1.96960175037384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96129131317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06101822853088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98622298240662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95298099517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90311765670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84494376182556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91142797470093</t>
   </si>
   <si>
     <t xml:space="preserve">1.82001197338104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83663308620453</t>
+    <t xml:space="preserve">1.83663284778595</t>
   </si>
   <si>
     <t xml:space="preserve">1.81170129776001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89480686187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79508006572723</t>
+    <t xml:space="preserve">1.89480721950531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7950804233551</t>
   </si>
   <si>
     <t xml:space="preserve">1.77845919132233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71197462081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80339097976685</t>
+    <t xml:space="preserve">1.71197474002838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80339086055756</t>
   </si>
   <si>
     <t xml:space="preserve">1.76183795928955</t>
@@ -1175,16 +1175,16 @@
     <t xml:space="preserve">1.70366406440735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64133501052856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65795624256134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61224806308746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53329765796661</t>
+    <t xml:space="preserve">1.64133489131927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65795612335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61224794387817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5332977771759</t>
   </si>
   <si>
     <t xml:space="preserve">1.52914249897003</t>
@@ -1199,19 +1199,19 @@
     <t xml:space="preserve">1.49590027332306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50836598873138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48343420028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51667654514313</t>
+    <t xml:space="preserve">1.50836610794067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48343431949615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51667666435242</t>
   </si>
   <si>
     <t xml:space="preserve">1.47096860408783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46681320667267</t>
+    <t xml:space="preserve">1.46681332588196</t>
   </si>
   <si>
     <t xml:space="preserve">1.45434749126434</t>
@@ -1220,73 +1220,73 @@
     <t xml:space="preserve">1.41279470920563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38786292076111</t>
+    <t xml:space="preserve">1.3878630399704</t>
   </si>
   <si>
     <t xml:space="preserve">1.37539708614349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35877585411072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35046553611755</t>
+    <t xml:space="preserve">1.35877597332001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35046541690826</t>
   </si>
   <si>
     <t xml:space="preserve">1.36293137073517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40448427200317</t>
+    <t xml:space="preserve">1.40448403358459</t>
   </si>
   <si>
     <t xml:space="preserve">1.39617347717285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40863931179047</t>
+    <t xml:space="preserve">1.40863943099976</t>
   </si>
   <si>
     <t xml:space="preserve">1.40032875537872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4294159412384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41694986820221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44188153743744</t>
+    <t xml:space="preserve">1.42941582202911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4169499874115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44188177585602</t>
   </si>
   <si>
     <t xml:space="preserve">1.45019209384918</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44603705406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42526042461395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51252138614655</t>
+    <t xml:space="preserve">1.44603681564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42526054382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51252126693726</t>
   </si>
   <si>
     <t xml:space="preserve">1.50005543231964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52083194255829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47512376308441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47927916049957</t>
+    <t xml:space="preserve">1.52083206176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4751238822937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47927904129028</t>
   </si>
   <si>
     <t xml:space="preserve">1.55407416820526</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49174475669861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5042108297348</t>
+    <t xml:space="preserve">1.49174499511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50421071052551</t>
   </si>
   <si>
     <t xml:space="preserve">1.45850265026093</t>
@@ -1295,121 +1295,121 @@
     <t xml:space="preserve">1.43772637844086</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37955248355865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4335709810257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49191391468048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.504887342453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47461640834808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.440021276474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46596777439117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4573187828064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47894096374512</t>
+    <t xml:space="preserve">1.37955224514008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43357086181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49191403388977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50488722324371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47461652755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44002139568329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46596765518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45731890201569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47894084453583</t>
   </si>
   <si>
     <t xml:space="preserve">1.51353597640991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53083348274231</t>
+    <t xml:space="preserve">1.5308336019516</t>
   </si>
   <si>
     <t xml:space="preserve">1.51786029338837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52650904655457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53515791893005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59137499332428</t>
+    <t xml:space="preserve">1.52650916576385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53515779972076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59137487411499</t>
   </si>
   <si>
     <t xml:space="preserve">1.62164568901062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63461875915527</t>
+    <t xml:space="preserve">1.63461887836456</t>
   </si>
   <si>
     <t xml:space="preserve">1.63894319534302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61732137203217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58705055713654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62597012519836</t>
+    <t xml:space="preserve">1.61732125282288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58705067634583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62597000598907</t>
   </si>
   <si>
     <t xml:space="preserve">1.56542861461639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57407748699188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5567798614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54380655288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5394823551178</t>
+    <t xml:space="preserve">1.57407736778259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55677974224091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54380679130554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53948223590851</t>
   </si>
   <si>
     <t xml:space="preserve">1.52218472957611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50921154022217</t>
+    <t xml:space="preserve">1.50921165943146</t>
   </si>
   <si>
     <t xml:space="preserve">1.50056278705597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.548131108284</t>
+    <t xml:space="preserve">1.54813098907471</t>
   </si>
   <si>
     <t xml:space="preserve">1.48758971691132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48326516151428</t>
+    <t xml:space="preserve">1.48326528072357</t>
   </si>
   <si>
     <t xml:space="preserve">1.47029221057892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46164345741272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60867261886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60002374649048</t>
+    <t xml:space="preserve">1.46164333820343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60867249965668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60002386569977</t>
   </si>
   <si>
     <t xml:space="preserve">1.58272624015808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61299681663513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64759206771851</t>
+    <t xml:space="preserve">1.61299693584442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64759194850922</t>
   </si>
   <si>
     <t xml:space="preserve">1.64326763153076</t>
@@ -1418,16 +1418,16 @@
     <t xml:space="preserve">1.69083595275879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72975540161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69516038894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66921389102936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66056513786316</t>
+    <t xml:space="preserve">1.72975528240204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69516026973724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66921401023865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66056501865387</t>
   </si>
   <si>
     <t xml:space="preserve">1.6562408208847</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">1.68651163578033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67786288261414</t>
+    <t xml:space="preserve">1.67786276340485</t>
   </si>
   <si>
     <t xml:space="preserve">1.6648895740509</t>
@@ -1448,22 +1448,22 @@
     <t xml:space="preserve">1.67353820800781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68218719959259</t>
+    <t xml:space="preserve">1.6821870803833</t>
   </si>
   <si>
     <t xml:space="preserve">1.65191638469696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70380902290344</t>
+    <t xml:space="preserve">1.70380914211273</t>
   </si>
   <si>
     <t xml:space="preserve">1.8162430524826</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02381348609924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04111099243164</t>
+    <t xml:space="preserve">2.02381372451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04111123085022</t>
   </si>
   <si>
     <t xml:space="preserve">2.11030149459839</t>
@@ -1481,28 +1481,28 @@
     <t xml:space="preserve">2.38706231117249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40435981750488</t>
+    <t xml:space="preserve">2.40436005592346</t>
   </si>
   <si>
     <t xml:space="preserve">2.41300868988037</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36111617088318</t>
+    <t xml:space="preserve">2.3611159324646</t>
   </si>
   <si>
     <t xml:space="preserve">2.42165756225586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29192614555359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15354561805725</t>
+    <t xml:space="preserve">2.29192590713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15354537963867</t>
   </si>
   <si>
     <t xml:space="preserve">1.97192108631134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98056995868683</t>
+    <t xml:space="preserve">1.98057007789612</t>
   </si>
   <si>
     <t xml:space="preserve">2.07570648193359</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">2.01516509056091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77299916744232</t>
+    <t xml:space="preserve">1.77299928665161</t>
   </si>
   <si>
     <t xml:space="preserve">1.56975305080414</t>
@@ -1520,28 +1520,28 @@
     <t xml:space="preserve">1.72543108463287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86813569068909</t>
+    <t xml:space="preserve">1.86813592910767</t>
   </si>
   <si>
     <t xml:space="preserve">1.76435041427612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78164792060852</t>
+    <t xml:space="preserve">1.78164803981781</t>
   </si>
   <si>
     <t xml:space="preserve">1.8248918056488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73840415477753</t>
+    <t xml:space="preserve">1.73840427398682</t>
   </si>
   <si>
     <t xml:space="preserve">1.79894554615021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7902969121933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89408230781555</t>
+    <t xml:space="preserve">1.79029679298401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89408206939697</t>
   </si>
   <si>
     <t xml:space="preserve">1.85948717594147</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">1.75570178031921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80759418010712</t>
+    <t xml:space="preserve">1.8075944185257</t>
   </si>
   <si>
     <t xml:space="preserve">1.74705290794373</t>
@@ -1559,10 +1559,10 @@
     <t xml:space="preserve">1.83354067802429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90273082256317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91137981414795</t>
+    <t xml:space="preserve">1.90273094177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91137969493866</t>
   </si>
   <si>
     <t xml:space="preserve">2.06705784797668</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">2.11000943183899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07424664497375</t>
+    <t xml:space="preserve">2.07424688339233</t>
   </si>
   <si>
     <t xml:space="preserve">2.06530594825745</t>
@@ -1586,28 +1586,28 @@
     <t xml:space="preserve">2.01166176795959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9937801361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96695816516876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94013607501984</t>
+    <t xml:space="preserve">1.99378025531769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96695804595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94013595581055</t>
   </si>
   <si>
     <t xml:space="preserve">1.90437316894531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94907677173615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92225456237793</t>
+    <t xml:space="preserve">1.94907665252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92225468158722</t>
   </si>
   <si>
     <t xml:space="preserve">1.91331386566162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88649153709412</t>
+    <t xml:space="preserve">1.88649141788483</t>
   </si>
   <si>
     <t xml:space="preserve">1.93119525909424</t>
@@ -1622,10 +1622,10 @@
     <t xml:space="preserve">1.8596693277359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84178793430328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82390654087067</t>
+    <t xml:space="preserve">1.84178805351257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82390642166138</t>
   </si>
   <si>
     <t xml:space="preserve">1.81496584415436</t>
@@ -1634,22 +1634,22 @@
     <t xml:space="preserve">1.80602514743805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79708445072174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85072875022888</t>
+    <t xml:space="preserve">1.79708456993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85072863101959</t>
   </si>
   <si>
     <t xml:space="preserve">1.83284735679626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8686101436615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78814375400543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77026224136353</t>
+    <t xml:space="preserve">1.86861026287079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78814363479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77026236057281</t>
   </si>
   <si>
     <t xml:space="preserve">1.76132166385651</t>
@@ -1661,16 +1661,16 @@
     <t xml:space="preserve">1.7434401512146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05636525154114</t>
+    <t xml:space="preserve">2.05636501312256</t>
   </si>
   <si>
     <t xml:space="preserve">2.1189501285553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21729826927185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12789130210876</t>
+    <t xml:space="preserve">2.21729850769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12789106369019</t>
   </si>
   <si>
     <t xml:space="preserve">2.10106873512268</t>
@@ -1694,16 +1694,16 @@
     <t xml:space="preserve">2.09212803840637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18153548240662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15471339225769</t>
+    <t xml:space="preserve">2.18153524398804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15471315383911</t>
   </si>
   <si>
     <t xml:space="preserve">2.13683176040649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1457724571228</t>
+    <t xml:space="preserve">2.14577269554138</t>
   </si>
   <si>
     <t xml:space="preserve">2.23517966270447</t>
@@ -1712,13 +1712,13 @@
     <t xml:space="preserve">2.37823128700256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36034989356995</t>
+    <t xml:space="preserve">2.36035013198853</t>
   </si>
   <si>
     <t xml:space="preserve">2.35140895843506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34246826171875</t>
+    <t xml:space="preserve">2.34246802330017</t>
   </si>
   <si>
     <t xml:space="preserve">2.32458662986755</t>
@@ -58545,7 +58545,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.6496064815</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>25414</v>
@@ -58566,6 +58566,32 @@
         <v>683</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.6493865741</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>9193</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>2.0699999332428</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>676</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AC5.MI.xlsx
+++ b/data/AC5.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="686">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -56,13 +56,13 @@
     <t xml:space="preserve">1.21159315109253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18766987323761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18844151496887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19615876674652</t>
+    <t xml:space="preserve">1.1876699924469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18844163417816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19615864753723</t>
   </si>
   <si>
     <t xml:space="preserve">1.18149614334106</t>
@@ -71,16 +71,16 @@
     <t xml:space="preserve">1.17455077171326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08348834514618</t>
+    <t xml:space="preserve">1.08348822593689</t>
   </si>
   <si>
     <t xml:space="preserve">1.02252292633057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00322985649109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07654297351837</t>
+    <t xml:space="preserve">1.0032297372818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07654285430908</t>
   </si>
   <si>
     <t xml:space="preserve">1.12593257427216</t>
@@ -95,28 +95,28 @@
     <t xml:space="preserve">1.14291036128998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11821556091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12361741065979</t>
+    <t xml:space="preserve">1.1182154417038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12361776828766</t>
   </si>
   <si>
     <t xml:space="preserve">1.11127018928528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13210642337799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11204195022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10586810112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02638149261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975448131561279</t>
+    <t xml:space="preserve">1.1321063041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11204183101654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10586798191071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02638137340546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975448250770569</t>
   </si>
   <si>
     <t xml:space="preserve">0.992425858974457</t>
@@ -128,97 +128,97 @@
     <t xml:space="preserve">1.01789247989655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06805408000946</t>
+    <t xml:space="preserve">1.06805384159088</t>
   </si>
   <si>
     <t xml:space="preserve">1.05107629299164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04181575775146</t>
+    <t xml:space="preserve">1.04181551933289</t>
   </si>
   <si>
     <t xml:space="preserve">1.04258739948273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08811855316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08117318153381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07191252708435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0742279291153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06110870838165</t>
+    <t xml:space="preserve">1.08811867237091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08117341995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07191264629364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07422769069672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06110846996307</t>
   </si>
   <si>
     <t xml:space="preserve">1.07345616817474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07036912441254</t>
+    <t xml:space="preserve">1.07036924362183</t>
   </si>
   <si>
     <t xml:space="preserve">1.08040153980255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10200929641724</t>
+    <t xml:space="preserve">1.10200953483582</t>
   </si>
   <si>
     <t xml:space="preserve">1.09969425201416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08425986766815</t>
+    <t xml:space="preserve">1.08425998687744</t>
   </si>
   <si>
     <t xml:space="preserve">1.10741150379181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08966207504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09043383598328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09506404399872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08580338954926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06651055812836</t>
+    <t xml:space="preserve">1.08966195583344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09043371677399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09506416320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08580350875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06651067733765</t>
   </si>
   <si>
     <t xml:space="preserve">1.09197723865509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11898720264435</t>
+    <t xml:space="preserve">1.11898732185364</t>
   </si>
   <si>
     <t xml:space="preserve">1.10432457923889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12670433521271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19152855873108</t>
+    <t xml:space="preserve">1.12670457363129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19152867794037</t>
   </si>
   <si>
     <t xml:space="preserve">1.19230020046234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17532241344452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18072438240051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2802757024765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26561319828033</t>
+    <t xml:space="preserve">1.17532253265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1807245016098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28027582168579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26561331748962</t>
   </si>
   <si>
     <t xml:space="preserve">1.22625553607941</t>
@@ -227,31 +227,31 @@
     <t xml:space="preserve">1.23474454879761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25017881393433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21004951000214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18921339511871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2578958272934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25635278224945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24323344230652</t>
+    <t xml:space="preserve">1.25017893314362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21004962921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18921327590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25789606571198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25635266304016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24323332309723</t>
   </si>
   <si>
     <t xml:space="preserve">1.23165762424469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23088586330414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22316873073578</t>
+    <t xml:space="preserve">1.23088598251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22316884994507</t>
   </si>
   <si>
     <t xml:space="preserve">1.2401465177536</t>
@@ -260,28 +260,28 @@
     <t xml:space="preserve">1.27101504802704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2679283618927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27950394153595</t>
+    <t xml:space="preserve">1.26792812347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27950406074524</t>
   </si>
   <si>
     <t xml:space="preserve">1.29725348949432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31191611289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31268775463104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30651390552521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32503521442413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32271993160248</t>
+    <t xml:space="preserve">1.31191623210907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31268787384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3065140247345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32503509521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32272028923035</t>
   </si>
   <si>
     <t xml:space="preserve">1.29571008682251</t>
@@ -290,25 +290,25 @@
     <t xml:space="preserve">1.33853030204773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32901465892792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28857338428497</t>
+    <t xml:space="preserve">1.32901477813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28857326507568</t>
   </si>
   <si>
     <t xml:space="preserve">1.2869873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26002645492554</t>
+    <t xml:space="preserve">1.26002633571625</t>
   </si>
   <si>
     <t xml:space="preserve">1.26319849491119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25923335552216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26081955432892</t>
+    <t xml:space="preserve">1.25923359394073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26081931591034</t>
   </si>
   <si>
     <t xml:space="preserve">1.2520968914032</t>
@@ -317,19 +317,19 @@
     <t xml:space="preserve">1.24496018886566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25051081180573</t>
+    <t xml:space="preserve">1.25051093101501</t>
   </si>
   <si>
     <t xml:space="preserve">1.23623752593994</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21165549755096</t>
+    <t xml:space="preserve">1.21165537834167</t>
   </si>
   <si>
     <t xml:space="preserve">1.19341707229614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1973819732666</t>
+    <t xml:space="preserve">1.19738209247589</t>
   </si>
   <si>
     <t xml:space="preserve">1.19103825092316</t>
@@ -338,64 +338,64 @@
     <t xml:space="preserve">1.2409952878952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22354972362518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21562027931213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22117102146149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16169857978821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15773355960846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22513592243195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21799910068512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25368273258209</t>
+    <t xml:space="preserve">1.22354984283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21562016010284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2211709022522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16169846057892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15773367881775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22513580322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2179993391037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2536826133728</t>
   </si>
   <si>
     <t xml:space="preserve">1.28619432449341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28064370155334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3083975315094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27667880058289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30443263053894</t>
+    <t xml:space="preserve">1.28064358234406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30839741230011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2766786813736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30443274974823</t>
   </si>
   <si>
     <t xml:space="preserve">1.28222966194153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30522561073303</t>
+    <t xml:space="preserve">1.30522572994232</t>
   </si>
   <si>
     <t xml:space="preserve">1.27271401882172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28460848331451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27350687980652</t>
+    <t xml:space="preserve">1.2846086025238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27350699901581</t>
   </si>
   <si>
     <t xml:space="preserve">1.29253816604614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30046784877777</t>
+    <t xml:space="preserve">1.30046796798706</t>
   </si>
   <si>
     <t xml:space="preserve">1.29888188838959</t>
@@ -404,34 +404,34 @@
     <t xml:space="preserve">1.31632721424103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30760455131531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31553411483765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32425689697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33218634128571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33615148067474</t>
+    <t xml:space="preserve">1.30760443210602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31553435325623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32425677776337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33218657970428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33615124225616</t>
   </si>
   <si>
     <t xml:space="preserve">1.32663571834564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35994052886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38928031921387</t>
+    <t xml:space="preserve">1.35994064807892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38928020000458</t>
   </si>
   <si>
     <t xml:space="preserve">1.42734277248383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41069054603577</t>
+    <t xml:space="preserve">1.41069042682648</t>
   </si>
   <si>
     <t xml:space="preserve">1.40355372428894</t>
@@ -440,16 +440,16 @@
     <t xml:space="preserve">1.39958882331848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38531529903412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34804594516754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36390542984009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37976479530334</t>
+    <t xml:space="preserve">1.38531517982483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34804618358612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3639053106308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37976467609406</t>
   </si>
   <si>
     <t xml:space="preserve">1.3646981716156</t>
@@ -458,10 +458,10 @@
     <t xml:space="preserve">1.36707723140717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36786997318268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3750067949295</t>
+    <t xml:space="preserve">1.36787021160126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37500691413879</t>
   </si>
   <si>
     <t xml:space="preserve">1.34011626243591</t>
@@ -473,40 +473,40 @@
     <t xml:space="preserve">1.36945605278015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35121762752533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32504987716675</t>
+    <t xml:space="preserve">1.35121774673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32504975795746</t>
   </si>
   <si>
     <t xml:space="preserve">1.32108509540558</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29967498779297</t>
+    <t xml:space="preserve">1.29967486858368</t>
   </si>
   <si>
     <t xml:space="preserve">1.29650294780731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29333102703094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27588582038879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29729616641998</t>
+    <t xml:space="preserve">1.29333114624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27588558197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2972959280014</t>
   </si>
   <si>
     <t xml:space="preserve">1.30681157112122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29174518585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27905774116516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26240527629852</t>
+    <t xml:space="preserve">1.29174506664276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27905762195587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2624055147171</t>
   </si>
   <si>
     <t xml:space="preserve">1.252889752388</t>
@@ -515,22 +515,22 @@
     <t xml:space="preserve">1.26637017726898</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27509295940399</t>
+    <t xml:space="preserve">1.2750928401947</t>
   </si>
   <si>
     <t xml:space="preserve">1.29491710662842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27826464176178</t>
+    <t xml:space="preserve">1.27826476097107</t>
   </si>
   <si>
     <t xml:space="preserve">1.28381550312042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27192091941833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26874899864197</t>
+    <t xml:space="preserve">1.27192103862762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26874911785126</t>
   </si>
   <si>
     <t xml:space="preserve">1.26557719707489</t>
@@ -539,19 +539,19 @@
     <t xml:space="preserve">1.24178814888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23861646652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20531165599823</t>
+    <t xml:space="preserve">1.23861634731293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20531177520752</t>
   </si>
   <si>
     <t xml:space="preserve">1.22910070419312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21324121952057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20610475540161</t>
+    <t xml:space="preserve">1.21324133872986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20610463619232</t>
   </si>
   <si>
     <t xml:space="preserve">1.19817495346069</t>
@@ -572,25 +572,25 @@
     <t xml:space="preserve">1.23465156555176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22196412086487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23940920829773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23703026771545</t>
+    <t xml:space="preserve">1.22196388244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23940932750702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23703038692474</t>
   </si>
   <si>
     <t xml:space="preserve">1.22989368438721</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23306548595428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23782336711884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29412400722504</t>
+    <t xml:space="preserve">1.233065366745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23782324790955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29412412643433</t>
   </si>
   <si>
     <t xml:space="preserve">1.27985060214996</t>
@@ -602,28 +602,28 @@
     <t xml:space="preserve">1.27747166156769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23385846614838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22830784320831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21720623970032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2195850610733</t>
+    <t xml:space="preserve">1.23385858535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22830772399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21720612049103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21958518028259</t>
   </si>
   <si>
     <t xml:space="preserve">1.21244835853577</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21879208087921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22037792205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25606155395508</t>
+    <t xml:space="preserve">1.2187922000885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2203780412674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25606167316437</t>
   </si>
   <si>
     <t xml:space="preserve">1.24892485141754</t>
@@ -635,28 +635,28 @@
     <t xml:space="preserve">1.32584285736084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32822179794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36152637004852</t>
+    <t xml:space="preserve">1.32822167873383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36152625083923</t>
   </si>
   <si>
     <t xml:space="preserve">1.35201072692871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34408128261566</t>
+    <t xml:space="preserve">1.34408116340637</t>
   </si>
   <si>
     <t xml:space="preserve">1.37183499336243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3742139339447</t>
+    <t xml:space="preserve">1.37421381473541</t>
   </si>
   <si>
     <t xml:space="preserve">1.40593254566193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41782712936401</t>
+    <t xml:space="preserve">1.41782701015472</t>
   </si>
   <si>
     <t xml:space="preserve">1.40196776390076</t>
@@ -665,13 +665,13 @@
     <t xml:space="preserve">1.43527245521545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43447935581207</t>
+    <t xml:space="preserve">1.43447947502136</t>
   </si>
   <si>
     <t xml:space="preserve">1.4194130897522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43923735618591</t>
+    <t xml:space="preserve">1.43923711776733</t>
   </si>
   <si>
     <t xml:space="preserve">1.3980028629303</t>
@@ -680,13 +680,13 @@
     <t xml:space="preserve">1.40989744663239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41148328781128</t>
+    <t xml:space="preserve">1.41148340702057</t>
   </si>
   <si>
     <t xml:space="preserve">1.42496395111084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43685829639435</t>
+    <t xml:space="preserve">1.43685841560364</t>
   </si>
   <si>
     <t xml:space="preserve">1.4749208688736</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">1.45113170146942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45906150341034</t>
+    <t xml:space="preserve">1.45906138420105</t>
   </si>
   <si>
     <t xml:space="preserve">1.50267469882965</t>
@@ -704,22 +704,22 @@
     <t xml:space="preserve">1.48285043239594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50346755981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47333490848541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48919403553009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52249884605408</t>
+    <t xml:space="preserve">1.50346767902374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4733350276947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48919439315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52249896526337</t>
   </si>
   <si>
     <t xml:space="preserve">1.50663948059082</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51298308372498</t>
+    <t xml:space="preserve">1.51298332214355</t>
   </si>
   <si>
     <t xml:space="preserve">1.52884256839752</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">1.53765249252319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57104444503784</t>
+    <t xml:space="preserve">1.57104432582855</t>
   </si>
   <si>
     <t xml:space="preserve">1.6256115436554</t>
@@ -746,16 +746,16 @@
     <t xml:space="preserve">1.66470420360565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69402396678925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71845674514771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7396320104599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64352905750275</t>
+    <t xml:space="preserve">1.69402384757996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71845686435699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73963224887848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64352881908417</t>
   </si>
   <si>
     <t xml:space="preserve">1.63701355457306</t>
@@ -764,46 +764,46 @@
     <t xml:space="preserve">1.6109516620636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60199284553528</t>
+    <t xml:space="preserve">1.60199296474457</t>
   </si>
   <si>
     <t xml:space="preserve">1.61502385139465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59059059619904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59221959114075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56371426582336</t>
+    <t xml:space="preserve">1.59059083461761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59221982955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56371438503265</t>
   </si>
   <si>
     <t xml:space="preserve">1.56534337997437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55882787704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55149781703949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55557000637054</t>
+    <t xml:space="preserve">1.55882775783539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55149793624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55556988716125</t>
   </si>
   <si>
     <t xml:space="preserve">1.5229926109314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58000326156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58081746101379</t>
+    <t xml:space="preserve">1.58000314235687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58081769943237</t>
   </si>
   <si>
     <t xml:space="preserve">1.59466278553009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57430195808411</t>
+    <t xml:space="preserve">1.5743020772934</t>
   </si>
   <si>
     <t xml:space="preserve">1.54742562770844</t>
@@ -812,46 +812,46 @@
     <t xml:space="preserve">1.53683805465698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54905462265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53928136825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5449823141098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53520905971527</t>
+    <t xml:space="preserve">1.54905450344086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53928112983704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54498243331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53520917892456</t>
   </si>
   <si>
     <t xml:space="preserve">1.54416799545288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56452870368958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60036408901215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61665272712708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58896195888519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58814752101898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61583817005157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61258053779602</t>
+    <t xml:space="preserve">1.56452894210815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60036396980286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61665260791779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5889618396759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58814740180969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61583805084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61258041858673</t>
   </si>
   <si>
     <t xml:space="preserve">1.64515781402588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63538455963135</t>
+    <t xml:space="preserve">1.63538444042206</t>
   </si>
   <si>
     <t xml:space="preserve">1.62886917591095</t>
@@ -860,10 +860,10 @@
     <t xml:space="preserve">1.60525059700012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62072491645813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63864243030548</t>
+    <t xml:space="preserve">1.62072479724884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63864231109619</t>
   </si>
   <si>
     <t xml:space="preserve">1.63049817085266</t>
@@ -875,25 +875,25 @@
     <t xml:space="preserve">1.61828148365021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62398242950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65330219268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62153923511505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6337559223175</t>
+    <t xml:space="preserve">1.62398254871368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65330231189728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62153947353363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63375580310822</t>
   </si>
   <si>
     <t xml:space="preserve">1.67773520946503</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60606503486633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59303390979767</t>
+    <t xml:space="preserve">1.60606491565704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59303402900696</t>
   </si>
   <si>
     <t xml:space="preserve">1.60280728340149</t>
@@ -902,115 +902,115 @@
     <t xml:space="preserve">1.65981781482697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65655994415283</t>
+    <t xml:space="preserve">1.65655982494354</t>
   </si>
   <si>
     <t xml:space="preserve">1.64027118682861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68099296092987</t>
+    <t xml:space="preserve">1.68099284172058</t>
   </si>
   <si>
     <t xml:space="preserve">1.69565272331238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68587946891785</t>
+    <t xml:space="preserve">1.68587958812714</t>
   </si>
   <si>
     <t xml:space="preserve">1.76732313632965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81618905067444</t>
+    <t xml:space="preserve">1.81618893146515</t>
   </si>
   <si>
     <t xml:space="preserve">1.79501366615295</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83247768878937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84876656532288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86342644691467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7917560338974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81944680213928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8064159154892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80804491043091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81781828403473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80967342853546</t>
+    <t xml:space="preserve">1.83247780799866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84876644611359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86342620849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79175627231598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81944668292999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80641567707062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80804479122162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81781792640686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80967354774475</t>
   </si>
   <si>
     <t xml:space="preserve">1.81130242347717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8292201757431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82759130001068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79827165603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77546727657318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78361177444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88948822021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9513852596283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96441602706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94161224365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94975650310516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99536466598511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01979756355286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99210703372955</t>
+    <t xml:space="preserve">1.82922005653381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8275910615921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79827153682709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77546739578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78361165523529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88948845863342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95138537883759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9644159078598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94161188602448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94975638389587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99536490440369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01979780197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99210715293884</t>
   </si>
   <si>
     <t xml:space="preserve">1.91392135620117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85528230667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79990041255951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90903496742249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92369413375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98722076416016</t>
+    <t xml:space="preserve">1.85528206825256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7999005317688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90903472900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92369449138641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98722064495087</t>
   </si>
   <si>
     <t xml:space="preserve">1.95627188682556</t>
@@ -1022,13 +1022,13 @@
     <t xml:space="preserve">1.87319946289062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88623046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86994159221649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89763247966766</t>
+    <t xml:space="preserve">1.88623023033142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86994183063507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89763259887695</t>
   </si>
   <si>
     <t xml:space="preserve">1.86668407917023</t>
@@ -1037,28 +1037,28 @@
     <t xml:space="preserve">1.84387969970703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83573520183563</t>
+    <t xml:space="preserve">1.8357355594635</t>
   </si>
   <si>
     <t xml:space="preserve">1.82433342933655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77383863925934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80315816402435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86831295490265</t>
+    <t xml:space="preserve">1.77383840084076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80315804481506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86831283569336</t>
   </si>
   <si>
     <t xml:space="preserve">1.86179757118225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90414798259735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87971520423889</t>
+    <t xml:space="preserve">1.90414810180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87971496582031</t>
   </si>
   <si>
     <t xml:space="preserve">1.88460147380829</t>
@@ -1073,70 +1073,70 @@
     <t xml:space="preserve">1.9302099943161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90577673912048</t>
+    <t xml:space="preserve">1.90577685832977</t>
   </si>
   <si>
     <t xml:space="preserve">1.97093188762665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97907590866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95464289188385</t>
+    <t xml:space="preserve">1.97907614707947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95464313030243</t>
   </si>
   <si>
     <t xml:space="preserve">2.03608632087708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04423117637634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96278750896454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94649863243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9220654964447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93835425376892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01165318489075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0035092830658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0443971157074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05270719528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00284433364868</t>
+    <t xml:space="preserve">2.04423069953918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96278738975525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94649887084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92206573486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9383544921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01165366172791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00350904464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04439687728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05270767211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0028440952301</t>
   </si>
   <si>
     <t xml:space="preserve">2.01946520805359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96960198879242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96129131317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0610179901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98622310161591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95298099517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90311741828918</t>
+    <t xml:space="preserve">1.96960175037384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96129155158997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06101822853088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9862232208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95298051834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90311765670776</t>
   </si>
   <si>
     <t xml:space="preserve">1.84494376182556</t>
@@ -1148,31 +1148,31 @@
     <t xml:space="preserve">1.82001197338104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83663308620453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81170129776001</t>
+    <t xml:space="preserve">1.83663320541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81170153617859</t>
   </si>
   <si>
     <t xml:space="preserve">1.89480698108673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79508030414581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77845931053162</t>
+    <t xml:space="preserve">1.7950804233551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77845919132233</t>
   </si>
   <si>
     <t xml:space="preserve">1.71197462081909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80339097976685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76183795928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70366406440735</t>
+    <t xml:space="preserve">1.80339086055756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76183807849884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70366418361664</t>
   </si>
   <si>
     <t xml:space="preserve">1.64133501052856</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">1.65795600414276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61224818229675</t>
+    <t xml:space="preserve">1.61224806308746</t>
   </si>
   <si>
     <t xml:space="preserve">1.5332977771759</t>
@@ -1190,208 +1190,208 @@
     <t xml:space="preserve">1.52914249897003</t>
   </si>
   <si>
+    <t xml:space="preserve">1.48758959770203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46265804767609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49590015411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50836622714996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48343431949615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51667666435242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47096860408783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46681320667267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45434737205505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41279482841492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38786292076111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37539720535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35877597332001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35046553611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36293125152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40448403358459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39617347717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40863943099976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40032875537872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42941582202911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41694986820221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44188165664673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45019221305847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44603681564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42526066303253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51252126693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50005555152893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.520831823349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4751238822937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47927904129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55407404899597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4917448759079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50421071052551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45850276947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43772625923157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37955248355865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4335709810257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49191403388977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50488710403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47461652755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.440021276474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46596789360046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45731890201569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47894096374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51353585720062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53083348274231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51786029338837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52650904655457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53515791893005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59137499332428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62164580821991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63461887836456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63894331455231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61732125282288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58705067634583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62597012519836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56542861461639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57407736778259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5567798614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54380667209625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53948223590851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52218472957611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50921154022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50056278705597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54813098907471</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.48758971691132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4626579284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49590027332306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50836610794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48343431949615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51667666435242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47096848487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46681332588196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45434737205505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41279458999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38786292076111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3753969669342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35877597332001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35046553611755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36293137073517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40448403358459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39617335796356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40863955020905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40032887458801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4294159412384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41694986820221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44188153743744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45019209384918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4460369348526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42526042461395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51252126693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50005531311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.520831823349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4751238822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47927892208099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55407404899597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4917448759079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5042108297348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45850276947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43772637844086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37955248355865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4335709810257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49191391468048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.504887342453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47461640834808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.440021276474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46596789360046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45731890201569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47894096374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51353585720062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53083348274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51786041259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52650916576385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53515791893005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59137499332428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62164556980133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63461887836456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63894319534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61732125282288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58705067634583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62597012519836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56542861461639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57407736778259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5567798614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54380667209625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53948223590851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52218472957611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50921154022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50056278705597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.548131108284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48758983612061</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.48326528072357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47029209136963</t>
+    <t xml:space="preserve">1.47029221057892</t>
   </si>
   <si>
     <t xml:space="preserve">1.46164333820343</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">1.60867261886597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60002362728119</t>
+    <t xml:space="preserve">1.60002374649048</t>
   </si>
   <si>
     <t xml:space="preserve">1.58272612094879</t>
@@ -1409,22 +1409,22 @@
     <t xml:space="preserve">1.61299693584442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64759206771851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64326751232147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6908358335495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72975540161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69516038894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66921401023865</t>
+    <t xml:space="preserve">1.64759194850922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64326763153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69083595275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72975528240204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69516026973724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66921377182007</t>
   </si>
   <si>
     <t xml:space="preserve">1.66056501865387</t>
@@ -1436,13 +1436,13 @@
     <t xml:space="preserve">1.72110664844513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68651163578033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67786288261414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6648895740509</t>
+    <t xml:space="preserve">1.68651151657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67786276340485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66488945484161</t>
   </si>
   <si>
     <t xml:space="preserve">1.67353820800781</t>
@@ -1451,31 +1451,31 @@
     <t xml:space="preserve">1.6821870803833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65191638469696</t>
+    <t xml:space="preserve">1.65191626548767</t>
   </si>
   <si>
     <t xml:space="preserve">1.70380902290344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81624317169189</t>
+    <t xml:space="preserve">1.8162430524826</t>
   </si>
   <si>
     <t xml:space="preserve">2.02381372451782</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04111123085022</t>
+    <t xml:space="preserve">2.0411114692688</t>
   </si>
   <si>
     <t xml:space="preserve">2.11030173301697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33517003059387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23138451576233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34381866455078</t>
+    <t xml:space="preserve">2.33516979217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23138427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3438184261322</t>
   </si>
   <si>
     <t xml:space="preserve">2.38706231117249</t>
@@ -1484,22 +1484,22 @@
     <t xml:space="preserve">2.40435981750488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41300892829895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3611159324646</t>
+    <t xml:space="preserve">2.41300845146179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36111617088318</t>
   </si>
   <si>
     <t xml:space="preserve">2.42165756225586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29192614555359</t>
+    <t xml:space="preserve">2.29192590713501</t>
   </si>
   <si>
     <t xml:space="preserve">2.15354561805725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97192120552063</t>
+    <t xml:space="preserve">1.97192108631134</t>
   </si>
   <si>
     <t xml:space="preserve">1.98056983947754</t>
@@ -1511,19 +1511,19 @@
     <t xml:space="preserve">2.01516509056091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77299916744232</t>
+    <t xml:space="preserve">1.77299928665161</t>
   </si>
   <si>
     <t xml:space="preserve">1.56975305080414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72543108463287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86813592910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76435029506683</t>
+    <t xml:space="preserve">1.72543096542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86813604831696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76435053348541</t>
   </si>
   <si>
     <t xml:space="preserve">1.78164803981781</t>
@@ -1532,25 +1532,25 @@
     <t xml:space="preserve">1.8248918056488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73840427398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7989456653595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79029679298401</t>
+    <t xml:space="preserve">1.73840415477753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79894554615021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7902969121933</t>
   </si>
   <si>
     <t xml:space="preserve">1.89408218860626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85948717594147</t>
+    <t xml:space="preserve">1.85948705673218</t>
   </si>
   <si>
     <t xml:space="preserve">1.75570178031921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80759418010712</t>
+    <t xml:space="preserve">1.80759429931641</t>
   </si>
   <si>
     <t xml:space="preserve">1.74705290794373</t>
@@ -1559,10 +1559,10 @@
     <t xml:space="preserve">1.83354067802429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90273094177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91137981414795</t>
+    <t xml:space="preserve">1.90273118019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91137993335724</t>
   </si>
   <si>
     <t xml:space="preserve">2.06705760955811</t>
@@ -1574,13 +1574,13 @@
     <t xml:space="preserve">2.08435535430908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11000967025757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07424664497375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06530570983887</t>
+    <t xml:space="preserve">2.11000943183899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07424688339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06530594825745</t>
   </si>
   <si>
     <t xml:space="preserve">2.01166176795959</t>
@@ -1592,16 +1592,16 @@
     <t xml:space="preserve">1.96695828437805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94013619422913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9043732881546</t>
+    <t xml:space="preserve">1.94013607501984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90437316894531</t>
   </si>
   <si>
     <t xml:space="preserve">1.94907665252686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92225444316864</t>
+    <t xml:space="preserve">1.92225456237793</t>
   </si>
   <si>
     <t xml:space="preserve">1.91331386566162</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">1.89543235301971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85966944694519</t>
+    <t xml:space="preserve">1.8596693277359</t>
   </si>
   <si>
     <t xml:space="preserve">1.84178793430328</t>
@@ -1628,16 +1628,16 @@
     <t xml:space="preserve">1.82390654087067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81496596336365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80602502822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79708445072174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85072863101959</t>
+    <t xml:space="preserve">1.81496584415436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80602514743805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79708456993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85072875022888</t>
   </si>
   <si>
     <t xml:space="preserve">1.83284735679626</t>
@@ -1646,28 +1646,28 @@
     <t xml:space="preserve">1.8686101436615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78814375400543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77026224136353</t>
+    <t xml:space="preserve">1.78814363479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77026236057281</t>
   </si>
   <si>
     <t xml:space="preserve">1.76132154464722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76579189300537</t>
+    <t xml:space="preserve">1.76579201221466</t>
   </si>
   <si>
     <t xml:space="preserve">1.7434401512146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05636525154114</t>
+    <t xml:space="preserve">2.05636501312256</t>
   </si>
   <si>
     <t xml:space="preserve">2.1189501285553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21729826927185</t>
+    <t xml:space="preserve">2.21729850769043</t>
   </si>
   <si>
     <t xml:space="preserve">2.12789106369019</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">2.0206024646759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08318758010864</t>
+    <t xml:space="preserve">2.08318734169006</t>
   </si>
   <si>
     <t xml:space="preserve">2.09212803840637</t>
@@ -1697,19 +1697,19 @@
     <t xml:space="preserve">2.18153548240662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15471315383911</t>
+    <t xml:space="preserve">2.15471339225769</t>
   </si>
   <si>
     <t xml:space="preserve">2.13683176040649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1457724571228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23517942428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37823104858398</t>
+    <t xml:space="preserve">2.14577269554138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23517966270447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37823128700256</t>
   </si>
   <si>
     <t xml:space="preserve">2.36034989356995</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">2.35140895843506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34246826171875</t>
+    <t xml:space="preserve">2.34246802330017</t>
   </si>
   <si>
     <t xml:space="preserve">2.32458686828613</t>
@@ -1818,9 +1818,6 @@
   </si>
   <si>
     <t xml:space="preserve">2.05608582496643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06530594825745</t>
   </si>
   <si>
     <t xml:space="preserve">2.02842569351196</t>
@@ -43226,7 +43223,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1570" t="s">
-        <v>602</v>
+        <v>522</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43252,7 +43249,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1571" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43278,7 +43275,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1572" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43304,7 +43301,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1573" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43330,7 +43327,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1574" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44162,7 +44159,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1606" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44188,7 +44185,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1607" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44214,7 +44211,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1608" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44240,7 +44237,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1609" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44266,7 +44263,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1610" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44396,7 +44393,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1615" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45176,7 +45173,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1645" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45202,7 +45199,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1646" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45228,7 +45225,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1647" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45254,7 +45251,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1648" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45280,7 +45277,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1649" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45306,7 +45303,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1650" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45332,7 +45329,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1651" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45358,7 +45355,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1652" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45384,7 +45381,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1653" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45410,7 +45407,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1654" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45436,7 +45433,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1655" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45462,7 +45459,7 @@
         <v>2.25</v>
       </c>
       <c r="G1656" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45488,7 +45485,7 @@
         <v>2.25</v>
       </c>
       <c r="G1657" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45514,7 +45511,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1658" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45540,7 +45537,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1659" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45566,7 +45563,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1660" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45592,7 +45589,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1661" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45618,7 +45615,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1662" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45644,7 +45641,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1663" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45670,7 +45667,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1664" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45696,7 +45693,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1665" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -45722,7 +45719,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1666" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45748,7 +45745,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1667" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45774,7 +45771,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1668" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45800,7 +45797,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1669" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45826,7 +45823,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1670" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45852,7 +45849,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1671" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45878,7 +45875,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1672" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45904,7 +45901,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1673" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45930,7 +45927,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1674" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45956,7 +45953,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1675" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45982,7 +45979,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1676" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46008,7 +46005,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1677" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46034,7 +46031,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1678" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46060,7 +46057,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1679" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46086,7 +46083,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1680" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46112,7 +46109,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1681" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46138,7 +46135,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1682" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46164,7 +46161,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1683" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46190,7 +46187,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1684" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46216,7 +46213,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1685" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46242,7 +46239,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1686" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46268,7 +46265,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1687" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46294,7 +46291,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1688" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46320,7 +46317,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1689" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46346,7 +46343,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1690" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46372,7 +46369,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1691" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46398,7 +46395,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1692" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46424,7 +46421,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1693" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46450,7 +46447,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1694" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46476,7 +46473,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1695" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46502,7 +46499,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1696" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46528,7 +46525,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1697" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46554,7 +46551,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1698" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46580,7 +46577,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1699" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46606,7 +46603,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1700" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46632,7 +46629,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1701" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46658,7 +46655,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1702" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46684,7 +46681,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1703" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -46710,7 +46707,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1704" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -46736,7 +46733,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1705" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46762,7 +46759,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1706" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46788,7 +46785,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1707" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46814,7 +46811,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1708" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46840,7 +46837,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1709" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46866,7 +46863,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1710" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46892,7 +46889,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1711" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46918,7 +46915,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1712" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46944,7 +46941,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1713" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46970,7 +46967,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1714" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46996,7 +46993,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1715" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47022,7 +47019,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1716" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47048,7 +47045,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1717" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47074,7 +47071,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1718" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47100,7 +47097,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1719" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47126,7 +47123,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1720" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47152,7 +47149,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1721" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47178,7 +47175,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1722" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47204,7 +47201,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1723" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47230,7 +47227,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1724" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47256,7 +47253,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1725" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47282,7 +47279,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1726" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47308,7 +47305,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47334,7 +47331,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1728" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47360,7 +47357,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1729" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47386,7 +47383,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1730" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47412,7 +47409,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1731" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47438,7 +47435,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1732" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47464,7 +47461,7 @@
         <v>2</v>
       </c>
       <c r="G1733" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47490,7 +47487,7 @@
         <v>2</v>
       </c>
       <c r="G1734" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47516,7 +47513,7 @@
         <v>2</v>
       </c>
       <c r="G1735" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47542,7 +47539,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1736" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47568,7 +47565,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1737" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47594,7 +47591,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1738" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47620,7 +47617,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1739" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47646,7 +47643,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1740" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47672,7 +47669,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1741" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47698,7 +47695,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1742" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47724,7 +47721,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1743" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47750,7 +47747,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1744" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47776,7 +47773,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47802,7 +47799,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1746" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47828,7 +47825,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1747" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47854,7 +47851,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1748" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47880,7 +47877,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1749" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47906,7 +47903,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1750" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47932,7 +47929,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1751" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47958,7 +47955,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1752" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47984,7 +47981,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1753" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48010,7 +48007,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1754" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48036,7 +48033,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1755" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48062,7 +48059,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1756" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48088,7 +48085,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1757" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48114,7 +48111,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1758" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48140,7 +48137,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1759" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48166,7 +48163,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1760" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48192,7 +48189,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48218,7 +48215,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1762" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48244,7 +48241,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1763" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48270,7 +48267,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1764" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48296,7 +48293,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1765" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48322,7 +48319,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1766" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48348,7 +48345,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1767" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48374,7 +48371,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1768" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48400,7 +48397,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1769" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48426,7 +48423,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1770" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48452,7 +48449,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1771" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48478,7 +48475,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1772" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48504,7 +48501,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1773" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48530,7 +48527,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1774" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48556,7 +48553,7 @@
         <v>2</v>
       </c>
       <c r="G1775" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48582,7 +48579,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1776" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48608,7 +48605,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1777" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48634,7 +48631,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1778" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48660,7 +48657,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1779" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48686,7 +48683,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1780" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48712,7 +48709,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1781" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48738,7 +48735,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1782" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48764,7 +48761,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1783" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48790,7 +48787,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1784" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48816,7 +48813,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1785" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48842,7 +48839,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1786" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48868,7 +48865,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1787" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48894,7 +48891,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1788" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48920,7 +48917,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1789" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48946,7 +48943,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1790" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48972,7 +48969,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1791" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48998,7 +48995,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1792" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49024,7 +49021,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1793" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49050,7 +49047,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49076,7 +49073,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1795" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49102,7 +49099,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49128,7 +49125,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1797" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49154,7 +49151,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1798" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49180,7 +49177,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1799" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49206,7 +49203,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1800" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49232,7 +49229,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1801" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49258,7 +49255,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1802" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49284,7 +49281,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1803" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49310,7 +49307,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1804" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49336,7 +49333,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1805" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49362,7 +49359,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1806" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49388,7 +49385,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49414,7 +49411,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1808" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49440,7 +49437,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1809" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49466,7 +49463,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1810" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49492,7 +49489,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1811" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49518,7 +49515,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1812" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49544,7 +49541,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1813" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49570,7 +49567,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1814" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49596,7 +49593,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1815" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49622,7 +49619,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1816" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49648,7 +49645,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1817" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49674,7 +49671,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1818" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49700,7 +49697,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1819" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49726,7 +49723,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1820" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49752,7 +49749,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1821" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49778,7 +49775,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1822" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49804,7 +49801,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1823" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49830,7 +49827,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1824" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49856,7 +49853,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1825" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49882,7 +49879,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1826" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49908,7 +49905,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1827" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49934,7 +49931,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1828" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49960,7 +49957,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1829" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49986,7 +49983,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1830" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50012,7 +50009,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1831" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50038,7 +50035,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1832" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50064,7 +50061,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1833" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50090,7 +50087,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1834" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50116,7 +50113,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1835" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50142,7 +50139,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1836" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50168,7 +50165,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1837" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50194,7 +50191,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1838" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50220,7 +50217,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1839" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50246,7 +50243,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1840" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50272,7 +50269,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1841" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50298,7 +50295,7 @@
         <v>2</v>
       </c>
       <c r="G1842" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50324,7 +50321,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1843" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50350,7 +50347,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1844" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50376,7 +50373,7 @@
         <v>2</v>
       </c>
       <c r="G1845" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50402,7 +50399,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1846" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50428,7 +50425,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1847" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50454,7 +50451,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1848" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50480,7 +50477,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1849" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50506,7 +50503,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1850" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50532,7 +50529,7 @@
         <v>2</v>
       </c>
       <c r="G1851" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50558,7 +50555,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1852" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50584,7 +50581,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1853" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50610,7 +50607,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1854" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50636,7 +50633,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1855" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50662,7 +50659,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1856" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50688,7 +50685,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1857" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50714,7 +50711,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1858" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -50740,7 +50737,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1859" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50766,7 +50763,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1860" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50792,7 +50789,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1861" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50818,7 +50815,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1862" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50844,7 +50841,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1863" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50870,7 +50867,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1864" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50896,7 +50893,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1865" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50922,7 +50919,7 @@
         <v>2</v>
       </c>
       <c r="G1866" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50948,7 +50945,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1867" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50974,7 +50971,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1868" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51000,7 +50997,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1869" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51026,7 +51023,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1870" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51052,7 +51049,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1871" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51078,7 +51075,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1872" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51104,7 +51101,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1873" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51130,7 +51127,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1874" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51156,7 +51153,7 @@
         <v>2</v>
       </c>
       <c r="G1875" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51182,7 +51179,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1876" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51208,7 +51205,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1877" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51234,7 +51231,7 @@
         <v>2</v>
       </c>
       <c r="G1878" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51260,7 +51257,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1879" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51286,7 +51283,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1880" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51312,7 +51309,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1881" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51338,7 +51335,7 @@
         <v>2</v>
       </c>
       <c r="G1882" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51364,7 +51361,7 @@
         <v>2</v>
       </c>
       <c r="G1883" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51390,7 +51387,7 @@
         <v>2</v>
       </c>
       <c r="G1884" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51416,7 +51413,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1885" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51442,7 +51439,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1886" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51468,7 +51465,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1887" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51494,7 +51491,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1888" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51520,7 +51517,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1889" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51546,7 +51543,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1890" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51572,7 +51569,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1891" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51598,7 +51595,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1892" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51624,7 +51621,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1893" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51650,7 +51647,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1894" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51676,7 +51673,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1895" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51702,7 +51699,7 @@
         <v>2</v>
       </c>
       <c r="G1896" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51728,7 +51725,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1897" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51754,7 +51751,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1898" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51780,7 +51777,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1899" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51806,7 +51803,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1900" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51832,7 +51829,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1901" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51858,7 +51855,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1902" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51884,7 +51881,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1903" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51910,7 +51907,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1904" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51936,7 +51933,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1905" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51962,7 +51959,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1906" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51988,7 +51985,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1907" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52014,7 +52011,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1908" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52040,7 +52037,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1909" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52066,7 +52063,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1910" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52092,7 +52089,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1911" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52118,7 +52115,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1912" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52144,7 +52141,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1913" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52170,7 +52167,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1914" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52196,7 +52193,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1915" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52222,7 +52219,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1916" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52248,7 +52245,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1917" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52274,7 +52271,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1918" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52300,7 +52297,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1919" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52326,7 +52323,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1920" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52352,7 +52349,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1921" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52378,7 +52375,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1922" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52404,7 +52401,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1923" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52430,7 +52427,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1924" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52456,7 +52453,7 @@
         <v>2</v>
       </c>
       <c r="G1925" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52482,7 +52479,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1926" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52508,7 +52505,7 @@
         <v>2</v>
       </c>
       <c r="G1927" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52534,7 +52531,7 @@
         <v>2</v>
       </c>
       <c r="G1928" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52560,7 +52557,7 @@
         <v>2</v>
       </c>
       <c r="G1929" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52586,7 +52583,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1930" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52612,7 +52609,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1931" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52638,7 +52635,7 @@
         <v>2</v>
       </c>
       <c r="G1932" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52664,7 +52661,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1933" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52690,7 +52687,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1934" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52716,7 +52713,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1935" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52742,7 +52739,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1936" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52768,7 +52765,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1937" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52794,7 +52791,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1938" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52820,7 +52817,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1939" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52846,7 +52843,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1940" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52872,7 +52869,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1941" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52898,7 +52895,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1942" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52924,7 +52921,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1943" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52950,7 +52947,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1944" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52976,7 +52973,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1945" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53002,7 +52999,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1946" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53028,7 +53025,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1947" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53054,7 +53051,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1948" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53080,7 +53077,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1949" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53106,7 +53103,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1950" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53132,7 +53129,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1951" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53158,7 +53155,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1952" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53184,7 +53181,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1953" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53210,7 +53207,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1954" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53236,7 +53233,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1955" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53262,7 +53259,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1956" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53288,7 +53285,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1957" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53314,7 +53311,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1958" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53340,7 +53337,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1959" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53366,7 +53363,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1960" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53392,7 +53389,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1961" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53418,7 +53415,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1962" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53444,7 +53441,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1963" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53470,7 +53467,7 @@
         <v>2</v>
       </c>
       <c r="G1964" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53496,7 +53493,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1965" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53522,7 +53519,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1966" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53548,7 +53545,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1967" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53574,7 +53571,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1968" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53600,7 +53597,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1969" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53626,7 +53623,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1970" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53652,7 +53649,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1971" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53678,7 +53675,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1972" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53704,7 +53701,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1973" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53730,7 +53727,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1974" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53756,7 +53753,7 @@
         <v>1.75</v>
       </c>
       <c r="G1975" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53782,7 +53779,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1976" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53808,7 +53805,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1977" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53834,7 +53831,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1978" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53860,7 +53857,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1979" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53886,7 +53883,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1980" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53912,7 +53909,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1981" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53938,7 +53935,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G1982" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53964,7 +53961,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1983" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53990,7 +53987,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1984" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54016,7 +54013,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1985" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54042,7 +54039,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G1986" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54068,7 +54065,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G1987" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54094,7 +54091,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1988" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54120,7 +54117,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1989" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54146,7 +54143,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1990" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54172,7 +54169,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1991" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54198,7 +54195,7 @@
         <v>1.75</v>
       </c>
       <c r="G1992" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54224,7 +54221,7 @@
         <v>1.75</v>
       </c>
       <c r="G1993" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54250,7 +54247,7 @@
         <v>1.75</v>
       </c>
       <c r="G1994" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54276,7 +54273,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1995" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54302,7 +54299,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1996" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54328,7 +54325,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1997" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54354,7 +54351,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1998" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54380,7 +54377,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G1999" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54406,7 +54403,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2000" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54432,7 +54429,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54458,7 +54455,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2002" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54484,7 +54481,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2003" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54510,7 +54507,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2004" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54536,7 +54533,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2005" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54562,7 +54559,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2006" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54588,7 +54585,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54614,7 +54611,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2008" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54640,7 +54637,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2009" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54666,7 +54663,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2010" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54692,7 +54689,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2011" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54718,7 +54715,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G2012" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54744,7 +54741,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2013" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54770,7 +54767,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2014" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54796,7 +54793,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2015" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54822,7 +54819,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2016" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54848,7 +54845,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2017" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54874,7 +54871,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2018" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54900,7 +54897,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2019" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54926,7 +54923,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2020" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54952,7 +54949,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2021" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54978,7 +54975,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G2022" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55004,7 +55001,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2023" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55030,7 +55027,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2024" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55056,7 +55053,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2025" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55082,7 +55079,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2026" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55108,7 +55105,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2027" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55134,7 +55131,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2028" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55160,7 +55157,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2029" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55186,7 +55183,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2030" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55212,7 +55209,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2031" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55238,7 +55235,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2032" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55264,7 +55261,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2033" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55290,7 +55287,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2034" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55316,7 +55313,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2035" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55342,7 +55339,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2036" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55368,7 +55365,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2037" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55394,7 +55391,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2038" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55420,7 +55417,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2039" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55446,7 +55443,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55472,7 +55469,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2041" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55498,7 +55495,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2042" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55524,7 +55521,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2043" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55550,7 +55547,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2044" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55576,7 +55573,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2045" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55602,7 +55599,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2046" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55628,7 +55625,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2047" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55654,7 +55651,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2048" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55680,7 +55677,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2049" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55706,7 +55703,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2050" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55732,7 +55729,7 @@
         <v>2</v>
       </c>
       <c r="G2051" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55758,7 +55755,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2052" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55784,7 +55781,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55810,7 +55807,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2054" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55836,7 +55833,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2055" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55862,7 +55859,7 @@
         <v>2</v>
       </c>
       <c r="G2056" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55888,7 +55885,7 @@
         <v>2</v>
       </c>
       <c r="G2057" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55914,7 +55911,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2058" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55940,7 +55937,7 @@
         <v>2</v>
       </c>
       <c r="G2059" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55966,7 +55963,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2060" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55992,7 +55989,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2061" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56018,7 +56015,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2062" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56044,7 +56041,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2063" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56070,7 +56067,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2064" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56096,7 +56093,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2065" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56122,7 +56119,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2066" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56148,7 +56145,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2067" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56174,7 +56171,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2068" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56200,7 +56197,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2069" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56226,7 +56223,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56252,7 +56249,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2071" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56278,7 +56275,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2072" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56304,7 +56301,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2073" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56330,7 +56327,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2074" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56356,7 +56353,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2075" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56382,7 +56379,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2076" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56408,7 +56405,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2077" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56434,7 +56431,7 @@
         <v>2</v>
       </c>
       <c r="G2078" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56460,7 +56457,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2079" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56486,7 +56483,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2080" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56512,7 +56509,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2081" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56538,7 +56535,7 @@
         <v>2</v>
       </c>
       <c r="G2082" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56564,7 +56561,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2083" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56590,7 +56587,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2084" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56616,7 +56613,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2085" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56642,7 +56639,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56668,7 +56665,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56694,7 +56691,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2088" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56720,7 +56717,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2089" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56746,7 +56743,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2090" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56772,7 +56769,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2091" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56798,7 +56795,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2092" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56824,7 +56821,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2093" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56850,7 +56847,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2094" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56876,7 +56873,7 @@
         <v>2</v>
       </c>
       <c r="G2095" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56902,7 +56899,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2096" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56928,7 +56925,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56954,7 +56951,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2098" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56980,7 +56977,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2099" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57006,7 +57003,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2100" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57032,7 +57029,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2101" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57058,7 +57055,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2102" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57084,7 +57081,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G2103" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57110,7 +57107,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2104" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57136,7 +57133,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2105" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57162,7 +57159,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2106" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57188,7 +57185,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2107" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57214,7 +57211,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2108" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57240,7 +57237,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57266,7 +57263,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2110" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57292,7 +57289,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G2111" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57318,7 +57315,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2112" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57344,7 +57341,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2113" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57370,7 +57367,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2114" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57396,7 +57393,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57422,7 +57419,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G2116" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57448,7 +57445,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2117" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57474,7 +57471,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2118" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57500,7 +57497,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G2119" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57526,7 +57523,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2120" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57552,7 +57549,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2121" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57578,7 +57575,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2122" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57604,7 +57601,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G2123" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57630,7 +57627,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2124" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57656,7 +57653,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2125" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57682,7 +57679,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2126" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57708,7 +57705,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2127" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57734,7 +57731,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2128" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57760,7 +57757,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2129" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57786,7 +57783,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2130" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57812,7 +57809,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2131" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57838,7 +57835,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2132" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57864,7 +57861,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2133" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57890,7 +57887,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2134" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57916,7 +57913,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2135" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57942,7 +57939,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2136" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57968,7 +57965,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2137" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57994,7 +57991,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58020,7 +58017,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2139" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58046,7 +58043,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2140" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58072,7 +58069,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2141" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58098,7 +58095,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58124,7 +58121,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2143" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58150,7 +58147,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2144" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58176,7 +58173,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2145" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58202,7 +58199,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2146" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58228,7 +58225,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2147" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58254,7 +58251,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2148" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58280,7 +58277,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2149" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58306,7 +58303,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2150" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58332,7 +58329,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2151" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58358,7 +58355,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2152" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58384,7 +58381,7 @@
         <v>2</v>
       </c>
       <c r="G2153" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58410,7 +58407,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2154" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58436,7 +58433,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G2155" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58462,7 +58459,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G2156" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58488,7 +58485,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2157" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58514,7 +58511,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2158" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58540,7 +58537,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2159" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58566,7 +58563,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2160" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58592,7 +58589,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2161" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58618,7 +58615,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2162" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58644,7 +58641,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2163" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -58652,7 +58649,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.5373726852</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>12537</v>
@@ -58670,9 +58667,35 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2164" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.6443981481</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>7869</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>2.04999995231628</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>2.0699999332428</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>2.07999992370605</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>648</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AC5.MI.xlsx
+++ b/data/AC5.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="687">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24246168136597</t>
+    <t xml:space="preserve">1.24246180057526</t>
   </si>
   <si>
     <t xml:space="preserve">AC5.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">1.22008192539215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21931028366089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18689823150635</t>
+    <t xml:space="preserve">1.2193101644516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18689811229706</t>
   </si>
   <si>
     <t xml:space="preserve">1.21159315109253</t>
@@ -62,34 +62,34 @@
     <t xml:space="preserve">1.18844163417816</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19615864753723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18149614334106</t>
+    <t xml:space="preserve">1.19615876674652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18149626255035</t>
   </si>
   <si>
     <t xml:space="preserve">1.17455077171326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08348822593689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02252292633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0032297372818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07654285430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12593257427216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09429240226746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10355281829834</t>
+    <t xml:space="preserve">1.08348834514618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02252280712128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00322997570038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07654273509979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12593269348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09429228305817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10355293750763</t>
   </si>
   <si>
     <t xml:space="preserve">1.14291036128998</t>
@@ -98,43 +98,43 @@
     <t xml:space="preserve">1.1182154417038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12361776828766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11127018928528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1321063041687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11204183101654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10586798191071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02638137340546</t>
+    <t xml:space="preserve">1.12361752986908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11127030849457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13210654258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11204195022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10586810112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02638149261475</t>
   </si>
   <si>
     <t xml:space="preserve">0.975448250770569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992425858974457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999371230602264</t>
+    <t xml:space="preserve">0.992425918579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999371349811554</t>
   </si>
   <si>
     <t xml:space="preserve">1.01789247989655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06805384159088</t>
+    <t xml:space="preserve">1.06805408000946</t>
   </si>
   <si>
     <t xml:space="preserve">1.05107629299164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04181551933289</t>
+    <t xml:space="preserve">1.04181563854218</t>
   </si>
   <si>
     <t xml:space="preserve">1.04258739948273</t>
@@ -143,25 +143,25 @@
     <t xml:space="preserve">1.08811867237091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08117341995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07191264629364</t>
+    <t xml:space="preserve">1.08117318153381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07191288471222</t>
   </si>
   <si>
     <t xml:space="preserve">1.07422769069672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06110846996307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07345616817474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07036924362183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08040153980255</t>
+    <t xml:space="preserve">1.06110870838165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07345604896545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07036912441254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08040142059326</t>
   </si>
   <si>
     <t xml:space="preserve">1.10200953483582</t>
@@ -173,70 +173,70 @@
     <t xml:space="preserve">1.08425998687744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10741150379181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08966195583344</t>
+    <t xml:space="preserve">1.10741138458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08966207504272</t>
   </si>
   <si>
     <t xml:space="preserve">1.09043371677399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09506416320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08580350875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06651067733765</t>
+    <t xml:space="preserve">1.09506404399872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08580327033997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06651055812836</t>
   </si>
   <si>
     <t xml:space="preserve">1.09197723865509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11898732185364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10432457923889</t>
+    <t xml:space="preserve">1.11898708343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10432481765747</t>
   </si>
   <si>
     <t xml:space="preserve">1.12670457363129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19152867794037</t>
+    <t xml:space="preserve">1.19152855873108</t>
   </si>
   <si>
     <t xml:space="preserve">1.19230020046234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17532253265381</t>
+    <t xml:space="preserve">1.17532241344452</t>
   </si>
   <si>
     <t xml:space="preserve">1.1807245016098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28027582168579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26561331748962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22625553607941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23474454879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25017893314362</t>
+    <t xml:space="preserve">1.28027594089508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26561319828033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2262556552887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23474442958832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25017881393433</t>
   </si>
   <si>
     <t xml:space="preserve">1.21004962921143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18921327590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25789606571198</t>
+    <t xml:space="preserve">1.18921339511871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25789618492126</t>
   </si>
   <si>
     <t xml:space="preserve">1.25635266304016</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">1.24323332309723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23165762424469</t>
+    <t xml:space="preserve">1.23165774345398</t>
   </si>
   <si>
     <t xml:space="preserve">1.23088598251343</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">1.27101504802704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26792812347412</t>
+    <t xml:space="preserve">1.26792824268341</t>
   </si>
   <si>
     <t xml:space="preserve">1.27950406074524</t>
@@ -269,19 +269,19 @@
     <t xml:space="preserve">1.29725348949432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31191623210907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31268787384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3065140247345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32503509521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32272028923035</t>
+    <t xml:space="preserve">1.31191599369049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31268775463104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30651414394379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32503533363342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32272017002106</t>
   </si>
   <si>
     <t xml:space="preserve">1.29571008682251</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">1.33853030204773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32901477813721</t>
+    <t xml:space="preserve">1.32901465892792</t>
   </si>
   <si>
     <t xml:space="preserve">1.28857326507568</t>
@@ -299,52 +299,52 @@
     <t xml:space="preserve">1.2869873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26002633571625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26319849491119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25923359394073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26081931591034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2520968914032</t>
+    <t xml:space="preserve">1.26002657413483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2631983757019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25923347473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26081943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25209665298462</t>
   </si>
   <si>
     <t xml:space="preserve">1.24496018886566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25051093101501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23623752593994</t>
+    <t xml:space="preserve">1.25051069259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23623740673065</t>
   </si>
   <si>
     <t xml:space="preserve">1.21165537834167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19341707229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19738209247589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19103825092316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2409952878952</t>
+    <t xml:space="preserve">1.19341719150543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1973819732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19103813171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24099516868591</t>
   </si>
   <si>
     <t xml:space="preserve">1.22354984283447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21562016010284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2211709022522</t>
+    <t xml:space="preserve">1.21562004089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22117102146149</t>
   </si>
   <si>
     <t xml:space="preserve">1.16169846057892</t>
@@ -356,10 +356,10 @@
     <t xml:space="preserve">1.22513580322266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2179993391037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2536826133728</t>
+    <t xml:space="preserve">1.21799910068512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25368249416351</t>
   </si>
   <si>
     <t xml:space="preserve">1.28619432449341</t>
@@ -368,16 +368,16 @@
     <t xml:space="preserve">1.28064358234406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30839741230011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2766786813736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30443274974823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28222966194153</t>
+    <t xml:space="preserve">1.3083975315094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27667880058289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30443263053894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28222954273224</t>
   </si>
   <si>
     <t xml:space="preserve">1.30522572994232</t>
@@ -386,16 +386,16 @@
     <t xml:space="preserve">1.27271401882172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2846086025238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27350699901581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29253816604614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30046796798706</t>
+    <t xml:space="preserve">1.28460836410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27350687980652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29253804683685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30046772956848</t>
   </si>
   <si>
     <t xml:space="preserve">1.29888188838959</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">1.31632721424103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30760443210602</t>
+    <t xml:space="preserve">1.3076046705246</t>
   </si>
   <si>
     <t xml:space="preserve">1.31553435325623</t>
@@ -413,22 +413,22 @@
     <t xml:space="preserve">1.32425677776337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33218657970428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33615124225616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32663571834564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35994064807892</t>
+    <t xml:space="preserve">1.332186460495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33615136146545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32663583755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35994052886963</t>
   </si>
   <si>
     <t xml:space="preserve">1.38928020000458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42734277248383</t>
+    <t xml:space="preserve">1.42734265327454</t>
   </si>
   <si>
     <t xml:space="preserve">1.41069042682648</t>
@@ -440,31 +440,31 @@
     <t xml:space="preserve">1.39958882331848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38531517982483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34804618358612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3639053106308</t>
+    <t xml:space="preserve">1.3853155374527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34804594516754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36390542984009</t>
   </si>
   <si>
     <t xml:space="preserve">1.37976467609406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3646981716156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36707723140717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36787021160126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37500691413879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34011626243591</t>
+    <t xml:space="preserve">1.36469829082489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36707711219788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36787033081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3750067949295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34011614322662</t>
   </si>
   <si>
     <t xml:space="preserve">1.33377265930176</t>
@@ -473,28 +473,28 @@
     <t xml:space="preserve">1.36945605278015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35121774673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32504975795746</t>
+    <t xml:space="preserve">1.35121786594391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32504987716675</t>
   </si>
   <si>
     <t xml:space="preserve">1.32108509540558</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29967486858368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29650294780731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29333114624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27588558197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2972959280014</t>
+    <t xml:space="preserve">1.29967498779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2965030670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29333102703094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27588582038879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29729604721069</t>
   </si>
   <si>
     <t xml:space="preserve">1.30681157112122</t>
@@ -503,19 +503,19 @@
     <t xml:space="preserve">1.29174506664276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27905762195587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2624055147171</t>
+    <t xml:space="preserve">1.27905786037445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26240539550781</t>
   </si>
   <si>
     <t xml:space="preserve">1.252889752388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26637017726898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2750928401947</t>
+    <t xml:space="preserve">1.26637029647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27509295940399</t>
   </si>
   <si>
     <t xml:space="preserve">1.29491710662842</t>
@@ -527,22 +527,22 @@
     <t xml:space="preserve">1.28381550312042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27192103862762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26874911785126</t>
+    <t xml:space="preserve">1.27192080020905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26874923706055</t>
   </si>
   <si>
     <t xml:space="preserve">1.26557719707489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24178814888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23861634731293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20531177520752</t>
+    <t xml:space="preserve">1.24178802967072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23861622810364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20531165599823</t>
   </si>
   <si>
     <t xml:space="preserve">1.22910070419312</t>
@@ -551,46 +551,46 @@
     <t xml:space="preserve">1.21324133872986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20610463619232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19817495346069</t>
+    <t xml:space="preserve">1.20610475540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1981748342514</t>
   </si>
   <si>
     <t xml:space="preserve">1.19183123111725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21641325950623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20293271541595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2092764377594</t>
+    <t xml:space="preserve">1.21641314029694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20293259620667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20927631855011</t>
   </si>
   <si>
     <t xml:space="preserve">1.23465156555176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22196388244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23940932750702</t>
+    <t xml:space="preserve">1.22196400165558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23940908908844</t>
   </si>
   <si>
     <t xml:space="preserve">1.23703038692474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22989368438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.233065366745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23782324790955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29412412643433</t>
+    <t xml:space="preserve">1.2298938035965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23306548595428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23782336711884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29412424564362</t>
   </si>
   <si>
     <t xml:space="preserve">1.27985060214996</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">1.21720612049103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21958518028259</t>
+    <t xml:space="preserve">1.2195850610733</t>
   </si>
   <si>
     <t xml:space="preserve">1.21244835853577</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">1.25606167316437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24892485141754</t>
+    <t xml:space="preserve">1.24892497062683</t>
   </si>
   <si>
     <t xml:space="preserve">1.2647842168808</t>
@@ -638,10 +638,10 @@
     <t xml:space="preserve">1.32822167873383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36152625083923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35201072692871</t>
+    <t xml:space="preserve">1.36152648925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.352010846138</t>
   </si>
   <si>
     <t xml:space="preserve">1.34408116340637</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">1.40593254566193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41782701015472</t>
+    <t xml:space="preserve">1.41782712936401</t>
   </si>
   <si>
     <t xml:space="preserve">1.40196776390076</t>
@@ -668,13 +668,13 @@
     <t xml:space="preserve">1.43447947502136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4194130897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43923711776733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3980028629303</t>
+    <t xml:space="preserve">1.41941297054291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43923735618591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39800298213959</t>
   </si>
   <si>
     <t xml:space="preserve">1.40989744663239</t>
@@ -686,19 +686,19 @@
     <t xml:space="preserve">1.42496395111084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43685841560364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4749208688736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45113170146942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45906138420105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50267469882965</t>
+    <t xml:space="preserve">1.43685829639435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47492074966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.451131939888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45906162261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50267481803894</t>
   </si>
   <si>
     <t xml:space="preserve">1.48285043239594</t>
@@ -710,19 +710,19 @@
     <t xml:space="preserve">1.4733350276947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48919439315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52249896526337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50663948059082</t>
+    <t xml:space="preserve">1.48919451236725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52249884605408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50663959980011</t>
   </si>
   <si>
     <t xml:space="preserve">1.51298332214355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52884256839752</t>
+    <t xml:space="preserve">1.52884268760681</t>
   </si>
   <si>
     <t xml:space="preserve">1.4971239566803</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">1.4860223531723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50426065921783</t>
+    <t xml:space="preserve">1.50426077842712</t>
   </si>
   <si>
     <t xml:space="preserve">1.53765249252319</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">1.57104432582855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6256115436554</t>
+    <t xml:space="preserve">1.62561142444611</t>
   </si>
   <si>
     <t xml:space="preserve">1.66470420360565</t>
@@ -749,10 +749,10 @@
     <t xml:space="preserve">1.69402384757996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71845686435699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73963224887848</t>
+    <t xml:space="preserve">1.71845674514771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73963236808777</t>
   </si>
   <si>
     <t xml:space="preserve">1.64352881908417</t>
@@ -764,16 +764,16 @@
     <t xml:space="preserve">1.6109516620636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60199296474457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61502385139465</t>
+    <t xml:space="preserve">1.60199284553528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61502373218536</t>
   </si>
   <si>
     <t xml:space="preserve">1.59059083461761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59221982955933</t>
+    <t xml:space="preserve">1.59221971035004</t>
   </si>
   <si>
     <t xml:space="preserve">1.56371438503265</t>
@@ -785,10 +785,10 @@
     <t xml:space="preserve">1.55882775783539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55149793624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55556988716125</t>
+    <t xml:space="preserve">1.55149781703949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55557000637054</t>
   </si>
   <si>
     <t xml:space="preserve">1.5229926109314</t>
@@ -797,25 +797,25 @@
     <t xml:space="preserve">1.58000314235687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58081769943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59466278553009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5743020772934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54742562770844</t>
+    <t xml:space="preserve">1.58081746101379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59466290473938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57430195808411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54742574691772</t>
   </si>
   <si>
     <t xml:space="preserve">1.53683805465698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54905450344086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53928112983704</t>
+    <t xml:space="preserve">1.54905462265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53928136825562</t>
   </si>
   <si>
     <t xml:space="preserve">1.54498243331909</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">1.60036396980286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61665260791779</t>
+    <t xml:space="preserve">1.61665272712708</t>
   </si>
   <si>
     <t xml:space="preserve">1.5889618396759</t>
@@ -845,13 +845,13 @@
     <t xml:space="preserve">1.61583805084229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61258041858673</t>
+    <t xml:space="preserve">1.61258053779602</t>
   </si>
   <si>
     <t xml:space="preserve">1.64515781402588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63538444042206</t>
+    <t xml:space="preserve">1.63538455963135</t>
   </si>
   <si>
     <t xml:space="preserve">1.62886917591095</t>
@@ -872,76 +872,76 @@
     <t xml:space="preserve">1.64841556549072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61828148365021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62398254871368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65330231189728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62153947353363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63375580310822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67773520946503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60606491565704</t>
+    <t xml:space="preserve">1.6182816028595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62398242950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65330219268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62153935432434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6337559223175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67773509025574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60606503486633</t>
   </si>
   <si>
     <t xml:space="preserve">1.59303402900696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60280728340149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65981781482697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65655982494354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64027118682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68099284172058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69565272331238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68587958812714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76732313632965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81618893146515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79501366615295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83247780799866</t>
+    <t xml:space="preserve">1.6028071641922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65981769561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65655994415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64027106761932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68099272251129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69565296173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68587946891785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76732301712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81618916988373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79501378536224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83247792720795</t>
   </si>
   <si>
     <t xml:space="preserve">1.84876644611359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86342620849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79175627231598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81944668292999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80641567707062</t>
+    <t xml:space="preserve">1.86342644691467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7917560338974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81944692134857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80641579627991</t>
   </si>
   <si>
     <t xml:space="preserve">1.80804479122162</t>
@@ -953,52 +953,52 @@
     <t xml:space="preserve">1.80967354774475</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81130242347717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82922005653381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8275910615921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79827153682709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77546739578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78361165523529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88948845863342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95138537883759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9644159078598</t>
+    <t xml:space="preserve">1.81130254268646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82921993732452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82759094238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7982714176178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77546751499176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78361177444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88948810100555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95138514041901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96441602706909</t>
   </si>
   <si>
     <t xml:space="preserve">1.94161188602448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94975638389587</t>
+    <t xml:space="preserve">1.94975602626801</t>
   </si>
   <si>
     <t xml:space="preserve">1.99536490440369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01979780197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99210715293884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91392135620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85528206825256</t>
+    <t xml:space="preserve">2.01979756355286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99210703372955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91392123699188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85528242588043</t>
   </si>
   <si>
     <t xml:space="preserve">1.7999005317688</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">1.90903472900391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92369449138641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98722064495087</t>
+    <t xml:space="preserve">1.92369437217712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98722040653229</t>
   </si>
   <si>
     <t xml:space="preserve">1.95627188682556</t>
@@ -1019,49 +1019,49 @@
     <t xml:space="preserve">1.97418940067291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87319946289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88623023033142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86994183063507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89763259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86668407917023</t>
+    <t xml:space="preserve">1.8731997013092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88623058795929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86994171142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89763247966766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86668395996094</t>
   </si>
   <si>
     <t xml:space="preserve">1.84387969970703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8357355594635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82433342933655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77383840084076</t>
+    <t xml:space="preserve">1.83573544025421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82433354854584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77383852005005</t>
   </si>
   <si>
     <t xml:space="preserve">1.80315804481506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86831283569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86179757118225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90414810180664</t>
+    <t xml:space="preserve">1.86831259727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86179733276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90414798259735</t>
   </si>
   <si>
     <t xml:space="preserve">1.87971496582031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88460147380829</t>
+    <t xml:space="preserve">1.88460171222687</t>
   </si>
   <si>
     <t xml:space="preserve">1.88134384155273</t>
@@ -1070,19 +1070,19 @@
     <t xml:space="preserve">1.8569108247757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9302099943161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90577685832977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97093188762665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97907614707947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95464313030243</t>
+    <t xml:space="preserve">1.93020987510681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90577673912048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97093152999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97907626628876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95464336872101</t>
   </si>
   <si>
     <t xml:space="preserve">2.03608632087708</t>
@@ -1091,19 +1091,19 @@
     <t xml:space="preserve">2.04423069953918</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96278738975525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94649887084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92206573486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9383544921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01165366172791</t>
+    <t xml:space="preserve">1.96278762817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94649851322174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9220654964447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93835437297821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01165318489075</t>
   </si>
   <si>
     <t xml:space="preserve">2.00350904464722</t>
@@ -1112,19 +1112,22 @@
     <t xml:space="preserve">2.04439687728882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05270767211914</t>
+    <t xml:space="preserve">2.03608655929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05270743370056</t>
   </si>
   <si>
     <t xml:space="preserve">2.0028440952301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01946520805359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96960175037384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96129155158997</t>
+    <t xml:space="preserve">2.01946544647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96960186958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96129143238068</t>
   </si>
   <si>
     <t xml:space="preserve">2.06101822853088</t>
@@ -1133,73 +1136,73 @@
     <t xml:space="preserve">1.9862232208252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95298051834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90311765670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84494376182556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91142797470093</t>
+    <t xml:space="preserve">1.95298087596893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90311753749847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84494352340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91142809391022</t>
   </si>
   <si>
     <t xml:space="preserve">1.82001197338104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83663320541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81170153617859</t>
+    <t xml:space="preserve">1.83663296699524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8117014169693</t>
   </si>
   <si>
     <t xml:space="preserve">1.89480698108673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7950804233551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77845919132233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71197462081909</t>
+    <t xml:space="preserve">1.79508030414581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77845931053162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7119745016098</t>
   </si>
   <si>
     <t xml:space="preserve">1.80339086055756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76183807849884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70366418361664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64133501052856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65795600414276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61224806308746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5332977771759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52914249897003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48758959770203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46265804767609</t>
+    <t xml:space="preserve">1.76183784008026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70366406440735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64133489131927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65795612335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61224794387817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53329765796661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52914261817932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48758971691132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4626579284668</t>
   </si>
   <si>
     <t xml:space="preserve">1.49590015411377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50836622714996</t>
+    <t xml:space="preserve">1.50836610794067</t>
   </si>
   <si>
     <t xml:space="preserve">1.48343431949615</t>
@@ -1211,13 +1214,13 @@
     <t xml:space="preserve">1.47096860408783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46681320667267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45434737205505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41279482841492</t>
+    <t xml:space="preserve">1.46681332588196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45434761047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41279470920563</t>
   </si>
   <si>
     <t xml:space="preserve">1.38786292076111</t>
@@ -1226,19 +1229,19 @@
     <t xml:space="preserve">1.37539720535278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35877597332001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35046553611755</t>
+    <t xml:space="preserve">1.3587760925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35046541690826</t>
   </si>
   <si>
     <t xml:space="preserve">1.36293125152588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40448403358459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39617347717285</t>
+    <t xml:space="preserve">1.40448415279388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39617359638214</t>
   </si>
   <si>
     <t xml:space="preserve">1.40863943099976</t>
@@ -1247,49 +1250,49 @@
     <t xml:space="preserve">1.40032875537872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42941582202911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41694986820221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44188165664673</t>
+    <t xml:space="preserve">1.4294159412384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4169499874115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44188153743744</t>
   </si>
   <si>
     <t xml:space="preserve">1.45019221305847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44603681564331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42526066303253</t>
+    <t xml:space="preserve">1.4460369348526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42526054382324</t>
   </si>
   <si>
     <t xml:space="preserve">1.51252126693726</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50005555152893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.520831823349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4751238822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47927904129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55407404899597</t>
+    <t xml:space="preserve">1.50005543231964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52083194255829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47512376308441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47927916049957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55407416820526</t>
   </si>
   <si>
     <t xml:space="preserve">1.4917448759079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50421071052551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45850276947021</t>
+    <t xml:space="preserve">1.5042108297348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45850265026093</t>
   </si>
   <si>
     <t xml:space="preserve">1.43772625923157</t>
@@ -1298,31 +1301,31 @@
     <t xml:space="preserve">1.37955248355865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4335709810257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49191403388977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50488710403442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47461652755737</t>
+    <t xml:space="preserve">1.43357110023499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49191391468048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.504887342453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47461640834808</t>
   </si>
   <si>
     <t xml:space="preserve">1.440021276474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46596789360046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45731890201569</t>
+    <t xml:space="preserve">1.46596777439117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4573187828064</t>
   </si>
   <si>
     <t xml:space="preserve">1.47894096374512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51353585720062</t>
+    <t xml:space="preserve">1.51353597640991</t>
   </si>
   <si>
     <t xml:space="preserve">1.53083348274231</t>
@@ -1340,19 +1343,19 @@
     <t xml:space="preserve">1.59137499332428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62164580821991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63461887836456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63894331455231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61732125282288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58705067634583</t>
+    <t xml:space="preserve">1.62164568901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63461875915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63894319534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61732137203217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58705055713654</t>
   </si>
   <si>
     <t xml:space="preserve">1.62597012519836</t>
@@ -1361,16 +1364,16 @@
     <t xml:space="preserve">1.56542861461639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57407736778259</t>
+    <t xml:space="preserve">1.57407748699188</t>
   </si>
   <si>
     <t xml:space="preserve">1.5567798614502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54380667209625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53948223590851</t>
+    <t xml:space="preserve">1.54380655288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5394823551178</t>
   </si>
   <si>
     <t xml:space="preserve">1.52218472957611</t>
@@ -1382,19 +1385,16 @@
     <t xml:space="preserve">1.50056278705597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54813098907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48758971691132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48326528072357</t>
+    <t xml:space="preserve">1.548131108284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48326516151428</t>
   </si>
   <si>
     <t xml:space="preserve">1.47029221057892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46164333820343</t>
+    <t xml:space="preserve">1.46164345741272</t>
   </si>
   <si>
     <t xml:space="preserve">1.60867261886597</t>
@@ -1403,13 +1403,13 @@
     <t xml:space="preserve">1.60002374649048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58272612094879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61299693584442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64759194850922</t>
+    <t xml:space="preserve">1.58272624015808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61299681663513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64759206771851</t>
   </si>
   <si>
     <t xml:space="preserve">1.64326763153076</t>
@@ -1418,16 +1418,16 @@
     <t xml:space="preserve">1.69083595275879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72975528240204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69516026973724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66921377182007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66056501865387</t>
+    <t xml:space="preserve">1.72975540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69516038894653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66921389102936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66056513786316</t>
   </si>
   <si>
     <t xml:space="preserve">1.6562408208847</t>
@@ -1436,22 +1436,22 @@
     <t xml:space="preserve">1.72110664844513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68651151657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67786276340485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66488945484161</t>
+    <t xml:space="preserve">1.68651163578033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67786288261414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6648895740509</t>
   </si>
   <si>
     <t xml:space="preserve">1.67353820800781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6821870803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65191626548767</t>
+    <t xml:space="preserve">1.68218719959259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65191638469696</t>
   </si>
   <si>
     <t xml:space="preserve">1.70380902290344</t>
@@ -1460,22 +1460,22 @@
     <t xml:space="preserve">1.8162430524826</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02381372451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0411114692688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11030173301697</t>
+    <t xml:space="preserve">2.02381348609924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04111099243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11030149459839</t>
   </si>
   <si>
     <t xml:space="preserve">2.33516979217529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23138427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3438184261322</t>
+    <t xml:space="preserve">2.23138451576233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34381866455078</t>
   </si>
   <si>
     <t xml:space="preserve">2.38706231117249</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">2.40435981750488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41300845146179</t>
+    <t xml:space="preserve">2.41300868988037</t>
   </si>
   <si>
     <t xml:space="preserve">2.36111617088318</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">2.42165756225586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29192590713501</t>
+    <t xml:space="preserve">2.29192614555359</t>
   </si>
   <si>
     <t xml:space="preserve">2.15354561805725</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">1.97192108631134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98056983947754</t>
+    <t xml:space="preserve">1.98056995868683</t>
   </si>
   <si>
     <t xml:space="preserve">2.07570648193359</t>
@@ -1511,22 +1511,22 @@
     <t xml:space="preserve">2.01516509056091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77299928665161</t>
+    <t xml:space="preserve">1.77299916744232</t>
   </si>
   <si>
     <t xml:space="preserve">1.56975305080414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72543096542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86813604831696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76435053348541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78164803981781</t>
+    <t xml:space="preserve">1.72543108463287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86813569068909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76435041427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78164792060852</t>
   </si>
   <si>
     <t xml:space="preserve">1.8248918056488</t>
@@ -1541,16 +1541,16 @@
     <t xml:space="preserve">1.7902969121933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89408218860626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85948705673218</t>
+    <t xml:space="preserve">1.89408230781555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85948717594147</t>
   </si>
   <si>
     <t xml:space="preserve">1.75570178031921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80759429931641</t>
+    <t xml:space="preserve">1.80759418010712</t>
   </si>
   <si>
     <t xml:space="preserve">1.74705290794373</t>
@@ -1559,13 +1559,13 @@
     <t xml:space="preserve">1.83354067802429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90273118019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91137993335724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06705760955811</t>
+    <t xml:space="preserve">1.90273082256317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91137981414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06705784797668</t>
   </si>
   <si>
     <t xml:space="preserve">2.11895036697388</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">2.11000943183899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07424688339233</t>
+    <t xml:space="preserve">2.07424664497375</t>
   </si>
   <si>
     <t xml:space="preserve">2.06530594825745</t>
@@ -1586,10 +1586,10 @@
     <t xml:space="preserve">2.01166176795959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99378025531769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96695828437805</t>
+    <t xml:space="preserve">1.9937801361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96695816516876</t>
   </si>
   <si>
     <t xml:space="preserve">1.94013607501984</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">1.90437316894531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94907665252686</t>
+    <t xml:space="preserve">1.94907677173615</t>
   </si>
   <si>
     <t xml:space="preserve">1.92225456237793</t>
@@ -1607,16 +1607,16 @@
     <t xml:space="preserve">1.91331386566162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88649141788483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93119537830353</t>
+    <t xml:space="preserve">1.88649153709412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93119525909424</t>
   </si>
   <si>
     <t xml:space="preserve">1.87755084037781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89543235301971</t>
+    <t xml:space="preserve">1.89543223381042</t>
   </si>
   <si>
     <t xml:space="preserve">1.8596693277359</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">1.80602514743805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79708456993103</t>
+    <t xml:space="preserve">1.79708445072174</t>
   </si>
   <si>
     <t xml:space="preserve">1.85072875022888</t>
@@ -1646,31 +1646,31 @@
     <t xml:space="preserve">1.8686101436615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78814363479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77026236057281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76132154464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76579201221466</t>
+    <t xml:space="preserve">1.78814375400543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77026224136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76132166385651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76579189300537</t>
   </si>
   <si>
     <t xml:space="preserve">1.7434401512146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05636501312256</t>
+    <t xml:space="preserve">2.05636525154114</t>
   </si>
   <si>
     <t xml:space="preserve">2.1189501285553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21729850769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12789106369019</t>
+    <t xml:space="preserve">2.21729826927185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12789130210876</t>
   </si>
   <si>
     <t xml:space="preserve">2.10106873512268</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">2.13683176040649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14577269554138</t>
+    <t xml:space="preserve">2.1457724571228</t>
   </si>
   <si>
     <t xml:space="preserve">2.23517966270447</t>
@@ -1718,19 +1718,19 @@
     <t xml:space="preserve">2.35140895843506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34246802330017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32458686828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37878966331482</t>
+    <t xml:space="preserve">2.34246826171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32458662986755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3787899017334</t>
   </si>
   <si>
     <t xml:space="preserve">2.36034965515137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36956977844238</t>
+    <t xml:space="preserve">2.3695695400238</t>
   </si>
   <si>
     <t xml:space="preserve">2.33268928527832</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">2.2128279209137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22204804420471</t>
+    <t xml:space="preserve">2.22204780578613</t>
   </si>
   <si>
     <t xml:space="preserve">2.07452607154846</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">2.13906693458557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24970841407776</t>
+    <t xml:space="preserve">2.24970817565918</t>
   </si>
   <si>
     <t xml:space="preserve">2.28658890724182</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">2.3234691619873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34190940856934</t>
+    <t xml:space="preserve">2.34190917015076</t>
   </si>
   <si>
     <t xml:space="preserve">2.31424903869629</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">2.05608582496643</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02842569351196</t>
+    <t xml:space="preserve">2.02842545509338</t>
   </si>
   <si>
     <t xml:space="preserve">2.08374619483948</t>
@@ -2070,6 +2070,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.98500001430511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16000008583069</t>
   </si>
 </sst>
 </file>
@@ -18887,7 +18890,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G634" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18913,7 +18916,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G635" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18939,7 +18942,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G636" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18965,7 +18968,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G637" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18991,7 +18994,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G638" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19095,7 +19098,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G642" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -19121,7 +19124,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G643" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -19173,7 +19176,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G645" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -19199,7 +19202,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G646" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -19225,7 +19228,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G647" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -19251,7 +19254,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G648" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -19277,7 +19280,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G649" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -19303,7 +19306,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G650" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19329,7 +19332,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G651" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19381,7 +19384,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G653" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19407,7 +19410,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G654" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19563,7 +19566,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G660" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19589,7 +19592,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G661" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19615,7 +19618,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G662" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19667,7 +19670,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G664" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19693,7 +19696,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G665" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19797,7 +19800,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G669" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19849,7 +19852,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G671" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20031,7 +20034,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G678" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20161,7 +20164,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G683" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -20187,7 +20190,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G684" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -20213,7 +20216,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G685" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -20239,7 +20242,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G686" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -20265,7 +20268,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G687" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -20473,7 +20476,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G695" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20499,7 +20502,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G696" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20707,7 +20710,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G704" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20811,7 +20814,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G708" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20837,7 +20840,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G709" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20993,7 +20996,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G715" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21019,7 +21022,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G716" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21045,7 +21048,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G717" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -21071,7 +21074,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G718" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -21097,7 +21100,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G719" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -21123,7 +21126,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G720" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -21149,7 +21152,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G721" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -21175,7 +21178,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G722" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -21201,7 +21204,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G723" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -21227,7 +21230,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G724" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -21253,7 +21256,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G725" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -21279,7 +21282,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G726" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -21305,7 +21308,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G727" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21331,7 +21334,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G728" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21357,7 +21360,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G729" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21383,7 +21386,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G730" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21409,7 +21412,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G731" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21435,7 +21438,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G732" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21461,7 +21464,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G733" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21487,7 +21490,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G734" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21513,7 +21516,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G735" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21539,7 +21542,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G736" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21565,7 +21568,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G737" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21591,7 +21594,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G738" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21617,7 +21620,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G739" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21643,7 +21646,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G740" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21669,7 +21672,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G741" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21695,7 +21698,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G742" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21721,7 +21724,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G743" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21747,7 +21750,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G744" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21773,7 +21776,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G745" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21799,7 +21802,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G746" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21825,7 +21828,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G747" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21851,7 +21854,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G748" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21877,7 +21880,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G749" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21903,7 +21906,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G750" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21929,7 +21932,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G751" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21955,7 +21958,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G752" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21981,7 +21984,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G753" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22007,7 +22010,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G754" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22033,7 +22036,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G755" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -22059,7 +22062,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G756" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -22085,7 +22088,7 @@
         <v>1.75</v>
       </c>
       <c r="G757" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -22111,7 +22114,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G758" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -22137,7 +22140,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G759" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -22163,7 +22166,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G760" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -22189,7 +22192,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G761" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -22215,7 +22218,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="G762" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -22241,7 +22244,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G763" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -22267,7 +22270,7 @@
         <v>1.63499999046326</v>
       </c>
       <c r="G764" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -22293,7 +22296,7 @@
         <v>1.625</v>
       </c>
       <c r="G765" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22319,7 +22322,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G766" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22345,7 +22348,7 @@
         <v>1.63999998569489</v>
       </c>
       <c r="G767" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22371,7 +22374,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G768" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22397,7 +22400,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G769" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22423,7 +22426,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G770" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22449,7 +22452,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G771" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22475,7 +22478,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G772" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22501,7 +22504,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G773" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22527,7 +22530,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G774" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22553,7 +22556,7 @@
         <v>1.65499997138977</v>
       </c>
       <c r="G775" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22579,7 +22582,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G776" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22605,7 +22608,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G777" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22631,7 +22634,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G778" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22657,7 +22660,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G779" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22683,7 +22686,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G780" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22709,7 +22712,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G781" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22735,7 +22738,7 @@
         <v>1.68499994277954</v>
       </c>
       <c r="G782" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22761,7 +22764,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G783" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22787,7 +22790,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G784" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22813,7 +22816,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G785" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22839,7 +22842,7 @@
         <v>1.75</v>
       </c>
       <c r="G786" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22865,7 +22868,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G787" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22891,7 +22894,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G788" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22917,7 +22920,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G789" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22943,7 +22946,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G790" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22969,7 +22972,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G791" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22995,7 +22998,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G792" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23021,7 +23024,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G793" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23047,7 +23050,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G794" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -23073,7 +23076,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G795" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -23099,7 +23102,7 @@
         <v>1.75</v>
       </c>
       <c r="G796" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -23125,7 +23128,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G797" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -23151,7 +23154,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G798" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -23177,7 +23180,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G799" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -23203,7 +23206,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G800" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -23229,7 +23232,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G801" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -23255,7 +23258,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G802" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -23281,7 +23284,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G803" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -23307,7 +23310,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G804" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23333,7 +23336,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G805" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23359,7 +23362,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G806" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23385,7 +23388,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G807" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23411,7 +23414,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G808" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23437,7 +23440,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G809" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23463,7 +23466,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G810" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23489,7 +23492,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G811" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23515,7 +23518,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G812" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23541,7 +23544,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G813" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23567,7 +23570,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G814" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23593,7 +23596,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G815" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23619,7 +23622,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G816" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23645,7 +23648,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G817" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23671,7 +23674,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G818" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23697,7 +23700,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G819" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23723,7 +23726,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G820" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23749,7 +23752,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G821" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23775,7 +23778,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G822" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23801,7 +23804,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G823" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23827,7 +23830,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G824" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23853,7 +23856,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G825" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23879,7 +23882,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G826" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23905,7 +23908,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G827" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23931,7 +23934,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G828" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23957,7 +23960,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G829" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23983,7 +23986,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G830" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24009,7 +24012,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G831" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24035,7 +24038,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G832" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -24061,7 +24064,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G833" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -24087,7 +24090,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G834" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -24113,7 +24116,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G835" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -24139,7 +24142,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G836" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -24165,7 +24168,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G837" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -24191,7 +24194,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G838" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -24217,7 +24220,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G839" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -24243,7 +24246,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G840" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -24269,7 +24272,7 @@
         <v>1.75</v>
       </c>
       <c r="G841" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -24295,7 +24298,7 @@
         <v>1.75</v>
       </c>
       <c r="G842" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24321,7 +24324,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G843" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24347,7 +24350,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G844" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24373,7 +24376,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G845" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24399,7 +24402,7 @@
         <v>1.75</v>
       </c>
       <c r="G846" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24425,7 +24428,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G847" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24451,7 +24454,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G848" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24477,7 +24480,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G849" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24503,7 +24506,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G850" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24529,7 +24532,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G851" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24555,7 +24558,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G852" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24581,7 +24584,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G853" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24607,7 +24610,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G854" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24633,7 +24636,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G855" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24659,7 +24662,7 @@
         <v>1.6599999666214</v>
       </c>
       <c r="G856" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24685,7 +24688,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G857" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24711,7 +24714,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G858" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24737,7 +24740,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G859" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24763,7 +24766,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G860" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24789,7 +24792,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G861" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24815,7 +24818,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G862" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24841,7 +24844,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G863" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24867,7 +24870,7 @@
         <v>1.73000001907349</v>
       </c>
       <c r="G864" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24893,7 +24896,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G865" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24919,7 +24922,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G866" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24945,7 +24948,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G867" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24971,7 +24974,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G868" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24997,7 +25000,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G869" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25023,7 +25026,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G870" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25049,7 +25052,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G871" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -25075,7 +25078,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G872" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -25101,7 +25104,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G873" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -25127,7 +25130,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G874" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25153,7 +25156,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G875" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25179,7 +25182,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G876" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25205,7 +25208,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G877" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25231,7 +25234,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G878" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25257,7 +25260,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G879" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25283,7 +25286,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G880" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -25309,7 +25312,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G881" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25335,7 +25338,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G882" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25361,7 +25364,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G883" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25387,7 +25390,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G884" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25413,7 +25416,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G885" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25439,7 +25442,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G886" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25465,7 +25468,7 @@
         <v>1.66499996185303</v>
       </c>
       <c r="G887" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25491,7 +25494,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G888" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25517,7 +25520,7 @@
         <v>1.68499994277954</v>
       </c>
       <c r="G889" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25543,7 +25546,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G890" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25569,7 +25572,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G891" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25595,7 +25598,7 @@
         <v>1.75</v>
       </c>
       <c r="G892" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25621,7 +25624,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G893" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25647,7 +25650,7 @@
         <v>1.75</v>
       </c>
       <c r="G894" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25673,7 +25676,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G895" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25699,7 +25702,7 @@
         <v>1.75</v>
       </c>
       <c r="G896" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25725,7 +25728,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G897" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25751,7 +25754,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G898" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25777,7 +25780,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G899" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25803,7 +25806,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G900" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25829,7 +25832,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G901" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25855,7 +25858,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G902" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25881,7 +25884,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G903" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25907,7 +25910,7 @@
         <v>1.875</v>
       </c>
       <c r="G904" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25933,7 +25936,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G905" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25959,7 +25962,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G906" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25985,7 +25988,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G907" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26011,7 +26014,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G908" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26037,7 +26040,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G909" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26063,7 +26066,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G910" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26089,7 +26092,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26115,7 +26118,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G912" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26141,7 +26144,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G913" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26167,7 +26170,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G914" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26193,7 +26196,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G915" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26219,7 +26222,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G916" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26245,7 +26248,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G917" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26271,7 +26274,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G918" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26297,7 +26300,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G919" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26323,7 +26326,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G920" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26349,7 +26352,7 @@
         <v>1.75</v>
       </c>
       <c r="G921" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26375,7 +26378,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G922" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26401,7 +26404,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G923" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26427,7 +26430,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G924" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26453,7 +26456,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G925" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26479,7 +26482,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G926" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26505,7 +26508,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G927" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26531,7 +26534,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G928" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26557,7 +26560,7 @@
         <v>1.77499997615814</v>
       </c>
       <c r="G929" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26583,7 +26586,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G930" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26609,7 +26612,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G931" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26635,7 +26638,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G932" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26661,7 +26664,7 @@
         <v>1.76499998569489</v>
       </c>
       <c r="G933" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26687,7 +26690,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G934" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26713,7 +26716,7 @@
         <v>1.76999998092651</v>
       </c>
       <c r="G935" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26739,7 +26742,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G936" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26765,7 +26768,7 @@
         <v>1.75</v>
       </c>
       <c r="G937" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26791,7 +26794,7 @@
         <v>1.75</v>
       </c>
       <c r="G938" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26817,7 +26820,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G939" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26843,7 +26846,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G940" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26869,7 +26872,7 @@
         <v>1.75</v>
       </c>
       <c r="G941" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26895,7 +26898,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G942" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26921,7 +26924,7 @@
         <v>1.75</v>
       </c>
       <c r="G943" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26947,7 +26950,7 @@
         <v>1.75</v>
       </c>
       <c r="G944" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26973,7 +26976,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26999,7 +27002,7 @@
         <v>1.75</v>
       </c>
       <c r="G946" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27025,7 +27028,7 @@
         <v>1.75</v>
       </c>
       <c r="G947" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27051,7 +27054,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G948" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27077,7 +27080,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G949" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27129,7 +27132,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G951" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27181,7 +27184,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G953" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27207,7 +27210,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G954" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27233,7 +27236,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G955" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27311,7 +27314,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G958" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -27337,7 +27340,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G959" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27363,7 +27366,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G960" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -27389,7 +27392,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G961" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27467,7 +27470,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G964" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27493,7 +27496,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G965" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27519,7 +27522,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G966" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27545,7 +27548,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G967" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27623,7 +27626,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G970" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27649,7 +27652,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G971" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27675,7 +27678,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G972" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27701,7 +27704,7 @@
         <v>1.69500005245209</v>
       </c>
       <c r="G973" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27753,7 +27756,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G975" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27779,7 +27782,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G976" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27805,7 +27808,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G977" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27831,7 +27834,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G978" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27857,7 +27860,7 @@
         <v>1.70500004291534</v>
       </c>
       <c r="G979" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27935,7 +27938,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G982" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27961,7 +27964,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G983" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27987,7 +27990,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G984" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28013,7 +28016,7 @@
         <v>1.72500002384186</v>
       </c>
       <c r="G985" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28091,7 +28094,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G988" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28117,7 +28120,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G989" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28143,7 +28146,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G990" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28169,7 +28172,7 @@
         <v>1.71000003814697</v>
       </c>
       <c r="G991" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28247,7 +28250,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G994" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28325,7 +28328,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G997" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28455,7 +28458,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1002" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -28507,7 +28510,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1004" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -28533,7 +28536,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1005" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -28611,7 +28614,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1008" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28741,7 +28744,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G1013" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28897,7 +28900,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1019" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28923,7 +28926,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1020" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -30041,7 +30044,7 @@
         <v>1.75</v>
       </c>
       <c r="G1063" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30067,7 +30070,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1064" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30171,7 +30174,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G1068" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30275,7 +30278,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1072" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -30301,7 +30304,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G1073" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30327,7 +30330,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G1074" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -30353,7 +30356,7 @@
         <v>1.74500000476837</v>
       </c>
       <c r="G1075" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -30431,7 +30434,7 @@
         <v>1.75</v>
       </c>
       <c r="G1078" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -30457,7 +30460,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1079" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -30483,7 +30486,7 @@
         <v>1.7849999666214</v>
       </c>
       <c r="G1080" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -58675,7 +58678,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.6443981481</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>7869</v>
@@ -58696,6 +58699,32 @@
         <v>648</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.6495717593</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>25177</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>2.1800000667572</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>2.0699999332428</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>2.07999992370605</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>686</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AC5.MI.xlsx
+++ b/data/AC5.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="691">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1933411359787</t>
+    <t xml:space="preserve">1.19334125518799</t>
   </si>
   <si>
     <t xml:space="preserve">AC5.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">1.17184615135193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1711049079895</t>
+    <t xml:space="preserve">1.17110478878021</t>
   </si>
   <si>
     <t xml:space="preserve">1.13997435569763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16369295120239</t>
+    <t xml:space="preserve">1.1636928319931</t>
   </si>
   <si>
     <t xml:space="preserve">1.14071547985077</t>
@@ -62,22 +62,22 @@
     <t xml:space="preserve">1.14145660400391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14886856079102</t>
+    <t xml:space="preserve">1.14886879920959</t>
   </si>
   <si>
     <t xml:space="preserve">1.13478589057922</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12811493873596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04065275192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982097744941711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.963567316532135</t>
+    <t xml:space="preserve">1.12811505794525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04065263271332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982097446918488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96356725692749</t>
   </si>
   <si>
     <t xml:space="preserve">1.03398191928864</t>
@@ -89,10 +89,10 @@
     <t xml:space="preserve">1.05102968215942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0599240064621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09772574901581</t>
+    <t xml:space="preserve">1.05992412567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09772551059723</t>
   </si>
   <si>
     <t xml:space="preserve">1.07400703430176</t>
@@ -101,34 +101,34 @@
     <t xml:space="preserve">1.07919538021088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0673360824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08734881877899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06807744503021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06214785575867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985803425312042</t>
+    <t xml:space="preserve">1.06733620166779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0873486995697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06807732582092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06214773654938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985803663730621</t>
   </si>
   <si>
     <t xml:space="preserve">0.936883985996246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953190565109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959861218929291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977650284767151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02582848072052</t>
+    <t xml:space="preserve">0.953190624713898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95986133813858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97765040397644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02582859992981</t>
   </si>
   <si>
     <t xml:space="preserve">1.00952208042145</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">1.00136888027191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04509997367859</t>
+    <t xml:space="preserve">1.04510009288788</t>
   </si>
   <si>
     <t xml:space="preserve">1.03842914104462</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02953469753265</t>
+    <t xml:space="preserve">1.02953457832336</t>
   </si>
   <si>
     <t xml:space="preserve">1.03175818920135</t>
@@ -161,34 +161,34 @@
     <t xml:space="preserve">1.0280522108078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03768789768219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05844175815582</t>
+    <t xml:space="preserve">1.03768801689148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05844163894653</t>
   </si>
   <si>
     <t xml:space="preserve">1.05621802806854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04139399528503</t>
+    <t xml:space="preserve">1.04139387607574</t>
   </si>
   <si>
     <t xml:space="preserve">1.06363010406494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04658234119415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04732370376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05177104473114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04287624359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02434611320496</t>
+    <t xml:space="preserve">1.04658246040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04732358455658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05177092552185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0428763628006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02434623241425</t>
   </si>
   <si>
     <t xml:space="preserve">1.04880595207214</t>
@@ -197,19 +197,19 @@
     <t xml:space="preserve">1.0747481584549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06066524982452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08216059207916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1444216966629</t>
+    <t xml:space="preserve">1.06066536903381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08216023445129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14442157745361</t>
   </si>
   <si>
     <t xml:space="preserve">1.14516282081604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12885618209839</t>
+    <t xml:space="preserve">1.12885630130768</t>
   </si>
   <si>
     <t xml:space="preserve">1.1340446472168</t>
@@ -221,46 +221,46 @@
     <t xml:space="preserve">1.2155773639679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17777585983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1859290599823</t>
+    <t xml:space="preserve">1.17777562141418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18592917919159</t>
   </si>
   <si>
     <t xml:space="preserve">1.20075309276581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16221058368683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14219784736633</t>
+    <t xml:space="preserve">1.16221046447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14219796657562</t>
   </si>
   <si>
     <t xml:space="preserve">1.20816516876221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20668292045593</t>
+    <t xml:space="preserve">1.20668280124664</t>
   </si>
   <si>
     <t xml:space="preserve">1.19408214092255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18296420574188</t>
+    <t xml:space="preserve">1.18296432495117</t>
   </si>
   <si>
     <t xml:space="preserve">1.18222320079803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17481112480164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19111764431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22076570987701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2178008556366</t>
+    <t xml:space="preserve">1.17481100559235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19111752510071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2207658290863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21780097484589</t>
   </si>
   <si>
     <t xml:space="preserve">1.22891902923584</t>
@@ -269,34 +269,34 @@
     <t xml:space="preserve">1.24596679210663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26004981994629</t>
+    <t xml:space="preserve">1.260049700737</t>
   </si>
   <si>
     <t xml:space="preserve">1.26079094409943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25486123561859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27265012264252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27042651176453</t>
+    <t xml:space="preserve">1.2548611164093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27265000343323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27042663097382</t>
   </si>
   <si>
     <t xml:space="preserve">1.24448442459106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28561162948608</t>
+    <t xml:space="preserve">1.28561174869537</t>
   </si>
   <si>
     <t xml:space="preserve">1.27647221088409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2376297712326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23610651493073</t>
+    <t xml:space="preserve">1.23762965202332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23610639572144</t>
   </si>
   <si>
     <t xml:space="preserve">1.21021139621735</t>
@@ -305,16 +305,16 @@
     <t xml:space="preserve">1.21325790882111</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20944976806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21097302436829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20259535312653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19574081897736</t>
+    <t xml:space="preserve">1.20945000648499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21097338199615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20259523391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19574069976807</t>
   </si>
   <si>
     <t xml:space="preserve">1.20107197761536</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">1.14623558521271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15004360675812</t>
+    <t xml:space="preserve">1.15004372596741</t>
   </si>
   <si>
     <t xml:space="preserve">1.1439505815506</t>
@@ -338,31 +338,31 @@
     <t xml:space="preserve">1.19193255901337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17517709732056</t>
+    <t xml:space="preserve">1.17517697811127</t>
   </si>
   <si>
     <t xml:space="preserve">1.16756081581116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17289221286774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11577093601227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11196279525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17670047283173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16984581947327</t>
+    <t xml:space="preserve">1.17289209365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11577081680298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11196267604828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17670023441315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16984570026398</t>
   </si>
   <si>
     <t xml:space="preserve">1.20411849021912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23534488677979</t>
+    <t xml:space="preserve">1.2353447675705</t>
   </si>
   <si>
     <t xml:space="preserve">1.2300136089325</t>
@@ -371,16 +371,16 @@
     <t xml:space="preserve">1.25667011737823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2262054681778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25286209583282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23153674602509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25362384319305</t>
+    <t xml:space="preserve">1.22620558738708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25286197662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2315366268158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25362360477448</t>
   </si>
   <si>
     <t xml:space="preserve">1.2223973274231</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">1.22315907478333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2414379119873</t>
+    <t xml:space="preserve">1.24143779277802</t>
   </si>
   <si>
     <t xml:space="preserve">1.24905407428741</t>
@@ -401,40 +401,40 @@
     <t xml:space="preserve">1.24753081798553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26428639888763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25590872764587</t>
+    <t xml:space="preserve">1.26428627967834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25590860843658</t>
   </si>
   <si>
     <t xml:space="preserve">1.26352488994598</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27190244197845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27951884269714</t>
+    <t xml:space="preserve">1.27190256118774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27951872348785</t>
   </si>
   <si>
     <t xml:space="preserve">1.28332686424255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27418732643127</t>
+    <t xml:space="preserve">1.27418756484985</t>
   </si>
   <si>
     <t xml:space="preserve">1.30617523193359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3343551158905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37091279029846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35491907596588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34806442260742</t>
+    <t xml:space="preserve">1.33435523509979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37091290950775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35491895675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34806430339813</t>
   </si>
   <si>
     <t xml:space="preserve">1.34425628185272</t>
@@ -446,82 +446,82 @@
     <t xml:space="preserve">1.29475116729736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30998349189758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32521569728851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31074512004852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31303000450134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31379163265228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32064604759216</t>
+    <t xml:space="preserve">1.30998361110687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3252158164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31074488162994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31302988529205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31379151344299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32064616680145</t>
   </si>
   <si>
     <t xml:space="preserve">1.28713500499725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28104197978973</t>
+    <t xml:space="preserve">1.28104186058044</t>
   </si>
   <si>
     <t xml:space="preserve">1.31531476974487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29779756069183</t>
+    <t xml:space="preserve">1.29779767990112</t>
   </si>
   <si>
     <t xml:space="preserve">1.27266418933868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26885604858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24829244613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24524581432343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24219954013824</t>
+    <t xml:space="preserve">1.26885592937469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24829256534576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.245246052742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24219942092896</t>
   </si>
   <si>
     <t xml:space="preserve">1.22544384002686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24600756168365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25514698028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24067604541779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22849023342133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21249639987946</t>
+    <t xml:space="preserve">1.24600768089294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25514686107635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24067616462708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22849035263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21249651908875</t>
   </si>
   <si>
     <t xml:space="preserve">1.20335686206818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21630454063416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22468209266663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24372267723083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22772860527039</t>
+    <t xml:space="preserve">1.21630442142487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22468221187592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24372279644012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22772872447968</t>
   </si>
   <si>
     <t xml:space="preserve">1.23305988311768</t>
@@ -530,16 +530,16 @@
     <t xml:space="preserve">1.22163569927216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2185891866684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21554267406464</t>
+    <t xml:space="preserve">1.21858930587769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21554291248322</t>
   </si>
   <si>
     <t xml:space="preserve">1.1926943063736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18964779376984</t>
+    <t xml:space="preserve">1.18964767456055</t>
   </si>
   <si>
     <t xml:space="preserve">1.15765988826752</t>
@@ -548,46 +548,46 @@
     <t xml:space="preserve">1.18050837516785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16527605056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15842151641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15080511569977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14471220970154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1683224439621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1553750038147</t>
+    <t xml:space="preserve">1.16527593135834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15842139720917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15080535411835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14471244812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16832256317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15537488460541</t>
   </si>
   <si>
     <t xml:space="preserve">1.16146779060364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18583965301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17365396022797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19040942192078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18812453746796</t>
+    <t xml:space="preserve">1.18583977222443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17365384101868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19040930271149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18812465667725</t>
   </si>
   <si>
     <t xml:space="preserve">1.18127000331879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18431639671326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1888861656189</t>
+    <t xml:space="preserve">1.18431627750397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18888604640961</t>
   </si>
   <si>
     <t xml:space="preserve">1.2429610490799</t>
@@ -602,55 +602,55 @@
     <t xml:space="preserve">1.22696685791016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18507790565491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17974662780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16908419132233</t>
+    <t xml:space="preserve">1.1850780248642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1797468662262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16908407211304</t>
   </si>
   <si>
     <t xml:space="preserve">1.17136895656586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16451466083527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17060732841492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1721305847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20640337467194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19954895973206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21478116512299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27342593669891</t>
+    <t xml:space="preserve">1.1645143032074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17060720920563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17213046550751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20640361309052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19954907894135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21478128433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27342569828033</t>
   </si>
   <si>
     <t xml:space="preserve">1.27571058273315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30769860744476</t>
+    <t xml:space="preserve">1.30769848823547</t>
   </si>
   <si>
     <t xml:space="preserve">1.29855918884277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29094326496124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3175995349884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31988441944122</t>
+    <t xml:space="preserve">1.29094290733337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31759965419769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3198846578598</t>
   </si>
   <si>
     <t xml:space="preserve">1.35034918785095</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">1.36177361011505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34654116630554</t>
+    <t xml:space="preserve">1.34654128551483</t>
   </si>
   <si>
     <t xml:space="preserve">1.37852907180786</t>
@@ -668,70 +668,70 @@
     <t xml:space="preserve">1.37776756286621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36329674720764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38233733177185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34273326396942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35415732860565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35568058490753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36862802505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38005256652832</t>
+    <t xml:space="preserve">1.36329686641693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38233721256256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34273302555084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35415720939636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35568046569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36862814426422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38005244731903</t>
   </si>
   <si>
     <t xml:space="preserve">1.41660988330841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39376163482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40137767791748</t>
+    <t xml:space="preserve">1.39376151561737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40137779712677</t>
   </si>
   <si>
     <t xml:space="preserve">1.44326674938202</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42422616481781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44402837753296</t>
+    <t xml:space="preserve">1.4242262840271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44402849674225</t>
   </si>
   <si>
     <t xml:space="preserve">1.41508686542511</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43031907081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46230709552765</t>
+    <t xml:space="preserve">1.43031919002533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46230721473694</t>
   </si>
   <si>
     <t xml:space="preserve">1.44707477092743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45316779613495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46840012073517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43793523311615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42727267742157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44478988647461</t>
+    <t xml:space="preserve">1.45316767692566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46840000152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43793547153473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42727255821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44478976726532</t>
   </si>
   <si>
     <t xml:space="preserve">1.47686159610748</t>
@@ -740,34 +740,34 @@
     <t xml:space="preserve">1.50893330574036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56134307384491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59889042377472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62705099582672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65051782131195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67085599899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57855212688446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57229447364807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5472629070282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53865838050842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55117392539978</t>
+    <t xml:space="preserve">1.56134295463562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59889030456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62705087661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65051794052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67085611820221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57855200767517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57229435443878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54726278781891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53865826129913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55117404460907</t>
   </si>
   <si>
     <t xml:space="preserve">1.52770698070526</t>
@@ -788,10 +788,10 @@
     <t xml:space="preserve">1.49015963077545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49407076835632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46278131008148</t>
+    <t xml:space="preserve">1.49407088756561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46278142929077</t>
   </si>
   <si>
     <t xml:space="preserve">1.51753795146942</t>
@@ -809,31 +809,31 @@
     <t xml:space="preserve">1.48624837398529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47607934474945</t>
+    <t xml:space="preserve">1.47607922554016</t>
   </si>
   <si>
     <t xml:space="preserve">1.48781299591064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47842609882355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48390173912048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47451484203339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48311972618103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5026752948761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53709399700165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55273854732513</t>
+    <t xml:space="preserve">1.47842597961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48390161991119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4745147228241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48311948776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50267541408539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53709375858307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55273866653442</t>
   </si>
   <si>
     <t xml:space="preserve">1.5261424779892</t>
@@ -842,43 +842,43 @@
     <t xml:space="preserve">1.52536022663116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55195617675781</t>
+    <t xml:space="preserve">1.5519562959671</t>
   </si>
   <si>
     <t xml:space="preserve">1.54882729053497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58011674880981</t>
+    <t xml:space="preserve">1.58011662960052</t>
   </si>
   <si>
     <t xml:space="preserve">1.57072985172272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56447219848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54178714752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55664956569672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57385885715485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5660365819931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58324563503265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5543030500412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55977845191956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58793914318085</t>
+    <t xml:space="preserve">1.56447196006775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54178702831268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55664968490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57385897636414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56603646278381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58324575424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55430293083191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55977857112885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58793926239014</t>
   </si>
   <si>
     <t xml:space="preserve">1.55743193626404</t>
@@ -887,16 +887,16 @@
     <t xml:space="preserve">1.56916546821594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61140620708466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54256916046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53005373477936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53944051265717</t>
+    <t xml:space="preserve">1.61140608787537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54256939888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53005349636078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53944039344788</t>
   </si>
   <si>
     <t xml:space="preserve">1.59419703483582</t>
@@ -908,13 +908,13 @@
     <t xml:space="preserve">1.57542324066162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6145350933075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62861549854279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6192284822464</t>
+    <t xml:space="preserve">1.61453521251678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6286153793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61922860145569</t>
   </si>
   <si>
     <t xml:space="preserve">1.69745230674744</t>
@@ -923,31 +923,31 @@
     <t xml:space="preserve">1.74438631534576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72404801845551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76003086566925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77567577362061</t>
+    <t xml:space="preserve">1.72404825687408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76003110408783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7756758928299</t>
   </si>
   <si>
     <t xml:space="preserve">1.78975582122803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72091937065125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74751532077789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73499941825867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73656380176544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74595093727112</t>
+    <t xml:space="preserve">1.72091925144196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74751543998718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73499953746796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73656415939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74595105648041</t>
   </si>
   <si>
     <t xml:space="preserve">1.7381284236908</t>
@@ -956,52 +956,52 @@
     <t xml:space="preserve">1.73969292640686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75690197944641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75533759593964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72717702388763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70527446269989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7130970954895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81478762626648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87423717975616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88675308227539</t>
+    <t xml:space="preserve">1.7569020986557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75533747673035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72717678546906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70527458190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71309685707092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81478750705719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87423741817474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88675343990326</t>
   </si>
   <si>
     <t xml:space="preserve">1.86485052108765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87267315387726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91647839546204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93994545936584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9133495092392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.838254570961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78193390369415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72874164581299</t>
+    <t xml:space="preserve">1.87267291545868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91647827625275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93994522094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91334927082062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83825480937958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78193378448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7287415266037</t>
   </si>
   <si>
     <t xml:space="preserve">1.83356130123138</t>
@@ -1010,76 +1010,76 @@
     <t xml:space="preserve">1.84764170646667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90865588188171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87893104553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89614033699036</t>
+    <t xml:space="preserve">1.908656001091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87893080711365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89614009857178</t>
   </si>
   <si>
     <t xml:space="preserve">1.79914283752441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81165874004364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79601383209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82260978221893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79288494586945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77098226547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76315987110138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7522087097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70371007919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73187065124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79444944858551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78819143772125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82886779308319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80540084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81009411811829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80696523189545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78349804878235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85389924049377</t>
+    <t xml:space="preserve">1.81165862083435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.796013712883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82260990142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79288482666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7709823846817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76316010951996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75220847129822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70370995998383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73187053203583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79444932937622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78819167613983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82886791229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80540072917938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81009423732758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80696511268616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78349816799164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85389947891235</t>
   </si>
   <si>
     <t xml:space="preserve">1.83043217658997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89301121234894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90083348751068</t>
+    <t xml:space="preserve">1.89301109313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90083360671997</t>
   </si>
   <si>
     <t xml:space="preserve">1.87736654281616</t>
@@ -1091,121 +1091,121 @@
     <t xml:space="preserve">1.96341252326965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88518881797791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86954414844513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84607708454132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86172199249268</t>
+    <t xml:space="preserve">1.88518893718719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86954402923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84607684612274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86172187328339</t>
   </si>
   <si>
     <t xml:space="preserve">1.93212294578552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92430055141449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96357190608978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95559012889862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97155404090881</t>
+    <t xml:space="preserve">1.92430090904236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96357226371765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95559000968933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97155392169952</t>
   </si>
   <si>
     <t xml:space="preserve">1.92366206645966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93962597846985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8917338848114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88375210762024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97953617572784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90769803524017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87576997280121</t>
+    <t xml:space="preserve">1.93962609767914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89173412322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88375186920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97953593730927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90769791603088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87577021121979</t>
   </si>
   <si>
     <t xml:space="preserve">1.82787787914276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77200388908386</t>
+    <t xml:space="preserve">1.77200412750244</t>
   </si>
   <si>
     <t xml:space="preserve">1.83586001396179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74805819988251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7640221118927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74007594585419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81989598274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7241119146347</t>
+    <t xml:space="preserve">1.74805808067322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76402199268341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74007606506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8198961019516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72411203384399</t>
   </si>
   <si>
     <t xml:space="preserve">1.7081481218338</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64429199695587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73209416866302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69218373298645</t>
+    <t xml:space="preserve">1.64429187774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73209404945374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69218397140503</t>
   </si>
   <si>
     <t xml:space="preserve">1.63630998134613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57644498348236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59240889549255</t>
+    <t xml:space="preserve">1.57644510269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59240901470184</t>
   </si>
   <si>
     <t xml:space="preserve">1.54850804805756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47267913818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46868801116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42877793312073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40483200550079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43675982952118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44873297214508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42478704452515</t>
+    <t xml:space="preserve">1.47267889976501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46868813037872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42877805233002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40483212471008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43675994873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44873309135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42478692531586</t>
   </si>
   <si>
     <t xml:space="preserve">1.45671498775482</t>
@@ -1223,16 +1223,16 @@
     <t xml:space="preserve">1.35694003105164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33299386501312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3210209608078</t>
+    <t xml:space="preserve">1.33299398422241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32102108001709</t>
   </si>
   <si>
     <t xml:space="preserve">1.30505692958832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29707503318787</t>
+    <t xml:space="preserve">1.29707491397858</t>
   </si>
   <si>
     <t xml:space="preserve">1.30904805660248</t>
@@ -1241,19 +1241,19 @@
     <t xml:space="preserve">1.34895801544189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34097599983215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35294914245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34496688842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37290406227112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3609311580658</t>
+    <t xml:space="preserve">1.34097611904144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35294902324677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34496700763702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37290418148041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36093091964722</t>
   </si>
   <si>
     <t xml:space="preserve">1.38487696647644</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">1.38886797428131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36891305446625</t>
+    <t xml:space="preserve">1.36891293525696</t>
   </si>
   <si>
     <t xml:space="preserve">1.45272397994995</t>
@@ -1274,37 +1274,37 @@
     <t xml:space="preserve">1.44075095653534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46070623397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41680502891541</t>
+    <t xml:space="preserve">1.46070611476898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41680490970612</t>
   </si>
   <si>
     <t xml:space="preserve">1.42079591751099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49263393878937</t>
+    <t xml:space="preserve">1.49263405799866</t>
   </si>
   <si>
     <t xml:space="preserve">1.4327689409256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44474196434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40084099769592</t>
+    <t xml:space="preserve">1.44474184513092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40084087848663</t>
   </si>
   <si>
     <t xml:space="preserve">1.38088595867157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32501220703125</t>
+    <t xml:space="preserve">1.32501184940338</t>
   </si>
   <si>
     <t xml:space="preserve">1.37689507007599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43293154239655</t>
+    <t xml:space="preserve">1.43293142318726</t>
   </si>
   <si>
     <t xml:space="preserve">1.44539177417755</t>
@@ -1313,10 +1313,10 @@
     <t xml:space="preserve">1.41631770133972</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38309025764465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40801084041595</t>
+    <t xml:space="preserve">1.38309037685394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40801095962524</t>
   </si>
   <si>
     <t xml:space="preserve">1.39970397949219</t>
@@ -1328,37 +1328,37 @@
     <t xml:space="preserve">1.45369851589203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47031223773956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45785200595856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46615874767303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47446572780609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52846014499664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55753421783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56999444961548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57414793968201</t>
+    <t xml:space="preserve">1.47031211853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45785188674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46615886688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4744656085968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52846026420593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55753409862518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56999433040619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57414782047272</t>
   </si>
   <si>
     <t xml:space="preserve">1.55338072776794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5243067741394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56168758869171</t>
+    <t xml:space="preserve">1.52430689334869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56168746948242</t>
   </si>
   <si>
     <t xml:space="preserve">1.50353956222534</t>
@@ -1367,31 +1367,31 @@
     <t xml:space="preserve">1.5118465423584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49523270130157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48277246952057</t>
+    <t xml:space="preserve">1.49523258209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48277235031128</t>
   </si>
   <si>
     <t xml:space="preserve">1.47861897945404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46200549602509</t>
+    <t xml:space="preserve">1.4620053768158</t>
   </si>
   <si>
     <t xml:space="preserve">1.44954514503479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44123828411102</t>
+    <t xml:space="preserve">1.44123816490173</t>
   </si>
   <si>
     <t xml:space="preserve">1.48692584037781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42462456226349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41216433048248</t>
+    <t xml:space="preserve">1.42462468147278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41216444969177</t>
   </si>
   <si>
     <t xml:space="preserve">1.40385746955872</t>
@@ -1400,10 +1400,10 @@
     <t xml:space="preserve">1.54507386684418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5367671251297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52015340328217</t>
+    <t xml:space="preserve">1.53676700592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52015328407288</t>
   </si>
   <si>
     <t xml:space="preserve">1.54922735691071</t>
@@ -1415,25 +1415,25 @@
     <t xml:space="preserve">1.57830119132996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62398898601532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66136980056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62814223766327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60322177410126</t>
+    <t xml:space="preserve">1.62398886680603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66136968135834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62814235687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60322165489197</t>
   </si>
   <si>
     <t xml:space="preserve">1.59491491317749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59076142311096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65306282043457</t>
+    <t xml:space="preserve">1.59076154232025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65306293964386</t>
   </si>
   <si>
     <t xml:space="preserve">1.61983549594879</t>
@@ -1445,34 +1445,34 @@
     <t xml:space="preserve">1.59906828403473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6073751449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61568212509155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58660817146301</t>
+    <t xml:space="preserve">1.60737526416779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61568200588226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58660805225372</t>
   </si>
   <si>
     <t xml:space="preserve">1.63644921779633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74443817138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94380259513855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96041643619537</t>
+    <t xml:space="preserve">1.74443805217743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94380235671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96041619777679</t>
   </si>
   <si>
     <t xml:space="preserve">2.02687120437622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24284911155701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14316654205322</t>
+    <t xml:space="preserve">2.24284934997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1431667804718</t>
   </si>
   <si>
     <t xml:space="preserve">2.25115609169006</t>
@@ -1484,13 +1484,13 @@
     <t xml:space="preserve">2.30930399894714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3176109790802</t>
+    <t xml:space="preserve">2.31761074066162</t>
   </si>
   <si>
     <t xml:space="preserve">2.26776957511902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3259174823761</t>
+    <t xml:space="preserve">2.32591772079468</t>
   </si>
   <si>
     <t xml:space="preserve">2.20131492614746</t>
@@ -1499,55 +1499,55 @@
     <t xml:space="preserve">2.06840515136719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89396142959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.902268409729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99364364147186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93549561500549</t>
+    <t xml:space="preserve">1.89396154880524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90226852893829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99364387989044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93549573421478</t>
   </si>
   <si>
     <t xml:space="preserve">1.70290398597717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50769305229187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65721619129181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79427945613861</t>
+    <t xml:space="preserve">1.50769317150116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65721642971039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7942795753479</t>
   </si>
   <si>
     <t xml:space="preserve">1.69459712505341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71121084690094</t>
+    <t xml:space="preserve">1.71121072769165</t>
   </si>
   <si>
     <t xml:space="preserve">1.7527449131012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66967666149139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72782456874847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71951758861542</t>
+    <t xml:space="preserve">1.66967678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72782444953918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71951770782471</t>
   </si>
   <si>
     <t xml:space="preserve">1.81919980049133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78597259521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68629026412964</t>
+    <t xml:space="preserve">1.78597247600555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68629038333893</t>
   </si>
   <si>
     <t xml:space="preserve">1.73613131046295</t>
@@ -1556,49 +1556,49 @@
     <t xml:space="preserve">1.67798340320587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76105177402496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82750678062439</t>
+    <t xml:space="preserve">1.76105189323425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82750689983368</t>
   </si>
   <si>
     <t xml:space="preserve">1.83581352233887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98533713817596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03517818450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00195074081421</t>
+    <t xml:space="preserve">1.98533701896667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0351779460907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00195097923279</t>
   </si>
   <si>
     <t xml:space="preserve">2.02659058570862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99224150180817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98365426063538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93213081359863</t>
+    <t xml:space="preserve">1.99224162101746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98365414142609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93213093280792</t>
   </si>
   <si>
     <t xml:space="preserve">1.91495645046234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88919472694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8634330034256</t>
+    <t xml:space="preserve">1.88919484615326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86343312263489</t>
   </si>
   <si>
     <t xml:space="preserve">1.82908403873444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87202024459839</t>
+    <t xml:space="preserve">1.8720201253891</t>
   </si>
   <si>
     <t xml:space="preserve">1.84625852108002</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">1.83767127990723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81190931797028</t>
+    <t xml:space="preserve">1.81190919876099</t>
   </si>
   <si>
     <t xml:space="preserve">1.8548458814621</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">1.80332207679749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82049643993378</t>
+    <t xml:space="preserve">1.82049667835236</t>
   </si>
   <si>
     <t xml:space="preserve">1.7861475944519</t>
@@ -1628,25 +1628,25 @@
     <t xml:space="preserve">1.75179862976074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74321150779724</t>
+    <t xml:space="preserve">1.74321138858795</t>
   </si>
   <si>
     <t xml:space="preserve">1.73462414741516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72603690624237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77756035327911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76038587093353</t>
+    <t xml:space="preserve">1.72603702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7775604724884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76038599014282</t>
   </si>
   <si>
     <t xml:space="preserve">1.79473483562469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71744978427887</t>
+    <t xml:space="preserve">1.71744966506958</t>
   </si>
   <si>
     <t xml:space="preserve">1.700275182724</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">1.97506701946259</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0351779460907</t>
+    <t xml:space="preserve">2.03517770767212</t>
   </si>
   <si>
     <t xml:space="preserve">2.12963771820068</t>
@@ -1676,28 +1676,28 @@
     <t xml:space="preserve">2.01800346374512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9493054151535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95789241790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96647977828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94071817398071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00082850456238</t>
+    <t xml:space="preserve">1.94930529594421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95789277553558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96648001670837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94071829319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00082874298096</t>
   </si>
   <si>
     <t xml:space="preserve">2.00941610336304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09528851509094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06952714920044</t>
+    <t xml:space="preserve">2.0952889919281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06952691078186</t>
   </si>
   <si>
     <t xml:space="preserve">2.05235242843628</t>
@@ -1712,25 +1712,28 @@
     <t xml:space="preserve">2.28420829772949</t>
   </si>
   <si>
+    <t xml:space="preserve">2.26703381538391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25844645500183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24985909461975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23268461227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28474450111389</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.26703357696533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25844669342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24985909461975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23268437385559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28474473953247</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2758891582489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24046659469604</t>
+    <t xml:space="preserve">2.24046683311462</t>
   </si>
   <si>
     <t xml:space="preserve">2.20504426956177</t>
@@ -1739,7 +1742,7 @@
     <t xml:space="preserve">2.16962218284607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17847776412964</t>
+    <t xml:space="preserve">2.17847752571106</t>
   </si>
   <si>
     <t xml:space="preserve">2.15191054344177</t>
@@ -1748,7 +1751,7 @@
     <t xml:space="preserve">2.11648845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10763263702393</t>
+    <t xml:space="preserve">2.1076328754425</t>
   </si>
   <si>
     <t xml:space="preserve">2.12534403800964</t>
@@ -1757,25 +1760,25 @@
     <t xml:space="preserve">2.13419961929321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99250984191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01022124290466</t>
+    <t xml:space="preserve">1.99250996112823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01022100448608</t>
   </si>
   <si>
     <t xml:space="preserve">2.03678774833679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06335496902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05449891090393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16076612472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1961886882782</t>
+    <t xml:space="preserve">2.0633544921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05449914932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1607666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19618892669678</t>
   </si>
   <si>
     <t xml:space="preserve">2.14305520057678</t>
@@ -1793,7 +1796,7 @@
     <t xml:space="preserve">2.09877705574036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18733334541321</t>
+    <t xml:space="preserve">2.18733310699463</t>
   </si>
   <si>
     <t xml:space="preserve">2.21389985084534</t>
@@ -1802,10 +1805,10 @@
     <t xml:space="preserve">2.23161101341248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24932217597961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22275567054749</t>
+    <t xml:space="preserve">2.24932241439819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22275543212891</t>
   </si>
   <si>
     <t xml:space="preserve">2.04564332962036</t>
@@ -1814,28 +1817,31 @@
     <t xml:space="preserve">2.01907682418823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97479891777039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94823205471039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00136542320251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02793216705322</t>
+    <t xml:space="preserve">1.9747987985611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98365437984467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94823217391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00136566162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0279324054718</t>
   </si>
   <si>
     <t xml:space="preserve">2.15651845932007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16573429107666</t>
+    <t xml:space="preserve">2.16573452949524</t>
   </si>
   <si>
     <t xml:space="preserve">2.13808679580688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12887096405029</t>
+    <t xml:space="preserve">2.12887072563171</t>
   </si>
   <si>
     <t xml:space="preserve">2.08279156684875</t>
@@ -1853,28 +1859,28 @@
     <t xml:space="preserve">2.0551438331604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07357549667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03671216964722</t>
+    <t xml:space="preserve">2.07357573509216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03671193122864</t>
   </si>
   <si>
     <t xml:space="preserve">2.02749609947205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94455301761627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99984860420227</t>
+    <t xml:space="preserve">1.94455289840698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99984848499298</t>
   </si>
   <si>
     <t xml:space="preserve">1.99063265323639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95376884937286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00906443595886</t>
+    <t xml:space="preserve">1.95376896858215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00906419754028</t>
   </si>
   <si>
     <t xml:space="preserve">1.96298503875732</t>
@@ -1883,13 +1889,13 @@
     <t xml:space="preserve">2.04592800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98141670227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97220098972321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89847350120544</t>
+    <t xml:space="preserve">1.9814168214798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97220087051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89847362041473</t>
   </si>
   <si>
     <t xml:space="preserve">1.86161005496979</t>
@@ -1910,7 +1916,7 @@
     <t xml:space="preserve">1.84317827224731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88925778865814</t>
+    <t xml:space="preserve">1.88925766944885</t>
   </si>
   <si>
     <t xml:space="preserve">1.81553065776825</t>
@@ -1940,10 +1946,10 @@
     <t xml:space="preserve">1.82474660873413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78788304328918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77866697311401</t>
+    <t xml:space="preserve">1.7878829240799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7786670923233</t>
   </si>
   <si>
     <t xml:space="preserve">1.79709887504578</t>
@@ -2076,6 +2082,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.00999999046326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95000004768372</t>
   </si>
 </sst>
 </file>
@@ -38549,7 +38558,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1390" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38575,7 +38584,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1391" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38601,7 +38610,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1392" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38653,7 +38662,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1394" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38679,7 +38688,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1395" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38705,7 +38714,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1396" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38731,7 +38740,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1397" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38757,7 +38766,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1398" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38783,7 +38792,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1399" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38809,7 +38818,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1400" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38835,7 +38844,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1401" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38861,7 +38870,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1402" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38887,7 +38896,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1403" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38913,7 +38922,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1404" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38939,7 +38948,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1405" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38965,7 +38974,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1406" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38991,7 +39000,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1407" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39017,7 +39026,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1408" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39043,7 +39052,7 @@
         <v>2.25</v>
       </c>
       <c r="G1409" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39069,7 +39078,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1410" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39095,7 +39104,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1411" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39121,7 +39130,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1412" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39147,7 +39156,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1413" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39173,7 +39182,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1414" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39199,7 +39208,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1415" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39225,7 +39234,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1416" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39251,7 +39260,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1417" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39277,7 +39286,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1418" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39303,7 +39312,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1419" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39329,7 +39338,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1420" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39355,7 +39364,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1421" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39381,7 +39390,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1422" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39407,7 +39416,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1423" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39433,7 +39442,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1424" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39459,7 +39468,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1425" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39485,7 +39494,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1426" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39511,7 +39520,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1427" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39537,7 +39546,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1428" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39563,7 +39572,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1429" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39589,7 +39598,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1430" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39615,7 +39624,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1431" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39641,7 +39650,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39667,7 +39676,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1433" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39693,7 +39702,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1434" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -39719,7 +39728,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1435" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -39745,7 +39754,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1436" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39771,7 +39780,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1437" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39797,7 +39806,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1438" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39823,7 +39832,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1439" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39849,7 +39858,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1440" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39875,7 +39884,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1441" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39901,7 +39910,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1442" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39927,7 +39936,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1443" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39953,7 +39962,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1444" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39979,7 +39988,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1445" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40005,7 +40014,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1446" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40031,7 +40040,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1447" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40057,7 +40066,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1448" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40083,7 +40092,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1449" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40109,7 +40118,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1450" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40135,7 +40144,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1451" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40161,7 +40170,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1452" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40187,7 +40196,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1453" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40213,7 +40222,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1454" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -40239,7 +40248,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1455" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40265,7 +40274,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1456" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40291,7 +40300,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1457" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40317,7 +40326,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1458" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40343,7 +40352,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1459" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40369,7 +40378,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1460" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40395,7 +40404,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1461" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40421,7 +40430,7 @@
         <v>2.5</v>
       </c>
       <c r="G1462" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40447,7 +40456,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1463" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40473,7 +40482,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1464" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40499,7 +40508,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1465" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40525,7 +40534,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1466" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40551,7 +40560,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1467" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40577,7 +40586,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1468" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40603,7 +40612,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1469" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40629,7 +40638,7 @@
         <v>2.5</v>
       </c>
       <c r="G1470" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40655,7 +40664,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1471" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -40681,7 +40690,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1472" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -40707,7 +40716,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1473" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -40733,7 +40742,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1474" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -40759,7 +40768,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1475" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40785,7 +40794,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1476" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40811,7 +40820,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1477" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40837,7 +40846,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1478" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40863,7 +40872,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1479" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40889,7 +40898,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1480" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40915,7 +40924,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1481" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40941,7 +40950,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1482" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40967,7 +40976,7 @@
         <v>2.5</v>
       </c>
       <c r="G1483" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40993,7 +41002,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1484" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41019,7 +41028,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1485" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41045,7 +41054,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1486" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41071,7 +41080,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1487" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41097,7 +41106,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1488" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41123,7 +41132,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1489" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -41149,7 +41158,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1490" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -41175,7 +41184,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1491" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41201,7 +41210,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1492" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41227,7 +41236,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1493" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41253,7 +41262,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1494" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41279,7 +41288,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1495" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41305,7 +41314,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1496" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41331,7 +41340,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1497" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41357,7 +41366,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1498" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41383,7 +41392,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1499" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41409,7 +41418,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1500" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41435,7 +41444,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1501" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41461,7 +41470,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1502" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41487,7 +41496,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1503" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41513,7 +41522,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1504" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41539,7 +41548,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1505" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -41565,7 +41574,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1506" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -41591,7 +41600,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1507" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41617,7 +41626,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1508" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -41643,7 +41652,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1509" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -41669,7 +41678,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1510" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -41695,7 +41704,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1511" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -41721,7 +41730,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1512" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -41747,7 +41756,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1513" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41773,7 +41782,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1514" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -41799,7 +41808,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1515" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41825,7 +41834,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1516" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41851,7 +41860,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1517" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41877,7 +41886,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1518" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41903,7 +41912,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1519" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41929,7 +41938,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1520" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41955,7 +41964,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1521" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41981,7 +41990,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1522" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42007,7 +42016,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1523" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42033,7 +42042,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1524" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42059,7 +42068,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1525" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42085,7 +42094,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1526" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42111,7 +42120,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1527" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42137,7 +42146,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1528" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42163,7 +42172,7 @@
         <v>2.5</v>
       </c>
       <c r="G1529" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42189,7 +42198,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1530" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42215,7 +42224,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1531" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42241,7 +42250,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1532" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42267,7 +42276,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1533" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42293,7 +42302,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1534" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42319,7 +42328,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1535" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42345,7 +42354,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1536" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42371,7 +42380,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1537" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42397,7 +42406,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1538" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42423,7 +42432,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1539" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42449,7 +42458,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1540" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42475,7 +42484,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1541" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42501,7 +42510,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1542" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42527,7 +42536,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1543" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42553,7 +42562,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1544" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42579,7 +42588,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1545" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42605,7 +42614,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1546" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -42631,7 +42640,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1547" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42657,7 +42666,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1548" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42683,7 +42692,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1549" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42709,7 +42718,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1550" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42735,7 +42744,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1551" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42761,7 +42770,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1552" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42787,7 +42796,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1553" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42813,7 +42822,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1554" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42839,7 +42848,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1555" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42865,7 +42874,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1556" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42891,7 +42900,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1557" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42917,7 +42926,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1558" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42943,7 +42952,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1559" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42969,7 +42978,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1560" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42995,7 +43004,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1561" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43021,7 +43030,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1562" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43047,7 +43056,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1563" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43073,7 +43082,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1564" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43099,7 +43108,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1565" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43125,7 +43134,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1566" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43151,7 +43160,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1567" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43177,7 +43186,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1568" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -43203,7 +43212,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1569" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43229,7 +43238,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1570" t="s">
-        <v>522</v>
+        <v>602</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43255,7 +43264,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1571" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43281,7 +43290,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1572" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43307,7 +43316,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1573" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43333,7 +43342,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1574" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43359,7 +43368,7 @@
         <v>2.25</v>
       </c>
       <c r="G1575" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43385,7 +43394,7 @@
         <v>2.25</v>
       </c>
       <c r="G1576" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43411,7 +43420,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1577" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43437,7 +43446,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1578" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43463,7 +43472,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1579" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43489,7 +43498,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1580" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43515,7 +43524,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1581" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43541,7 +43550,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1582" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43567,7 +43576,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1583" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43593,7 +43602,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1584" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43619,7 +43628,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1585" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43645,7 +43654,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1586" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43671,7 +43680,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1587" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43697,7 +43706,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1588" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -43723,7 +43732,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1589" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -43749,7 +43758,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1590" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43775,7 +43784,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1591" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43801,7 +43810,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1592" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43827,7 +43836,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1593" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43853,7 +43862,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1594" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43879,7 +43888,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1595" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43905,7 +43914,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1596" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43931,7 +43940,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1597" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43957,7 +43966,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1598" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43983,7 +43992,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1599" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44009,7 +44018,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1600" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44035,7 +44044,7 @@
         <v>2.25</v>
       </c>
       <c r="G1601" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44061,7 +44070,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1602" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44087,7 +44096,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1603" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44113,7 +44122,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1604" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44139,7 +44148,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1605" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44165,7 +44174,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1606" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44191,7 +44200,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1607" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44217,7 +44226,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1608" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44243,7 +44252,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1609" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44269,7 +44278,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1610" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44295,7 +44304,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1611" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44321,7 +44330,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1612" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44347,7 +44356,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1613" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44373,7 +44382,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1614" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44399,7 +44408,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1615" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44425,7 +44434,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1616" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44451,7 +44460,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1617" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44477,7 +44486,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1618" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44503,7 +44512,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1619" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44529,7 +44538,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1620" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44555,7 +44564,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1621" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44581,7 +44590,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1622" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44607,7 +44616,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1623" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44633,7 +44642,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1624" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44659,7 +44668,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1625" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44685,7 +44694,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1626" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -44711,7 +44720,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1627" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -44737,7 +44746,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1628" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44763,7 +44772,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1629" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44789,7 +44798,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1630" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44815,7 +44824,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1631" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44841,7 +44850,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1632" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44867,7 +44876,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1633" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44893,7 +44902,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1634" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44919,7 +44928,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1635" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44945,7 +44954,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44971,7 +44980,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1637" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44997,7 +45006,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1638" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45023,7 +45032,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1639" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45049,7 +45058,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1640" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45075,7 +45084,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1641" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45101,7 +45110,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1642" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45127,7 +45136,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1643" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45153,7 +45162,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1644" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45179,7 +45188,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1645" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45205,7 +45214,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1646" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45231,7 +45240,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1647" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45257,7 +45266,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1648" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45283,7 +45292,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1649" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45309,7 +45318,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1650" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45335,7 +45344,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1651" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45361,7 +45370,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1652" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45387,7 +45396,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1653" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45413,7 +45422,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1654" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45439,7 +45448,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1655" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45465,7 +45474,7 @@
         <v>2.25</v>
       </c>
       <c r="G1656" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45491,7 +45500,7 @@
         <v>2.25</v>
       </c>
       <c r="G1657" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45517,7 +45526,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1658" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45543,7 +45552,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1659" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45569,7 +45578,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1660" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45595,7 +45604,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1661" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45621,7 +45630,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1662" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45647,7 +45656,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1663" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45673,7 +45682,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1664" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45699,7 +45708,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1665" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -45725,7 +45734,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1666" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45751,7 +45760,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1667" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45777,7 +45786,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1668" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45803,7 +45812,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1669" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45829,7 +45838,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1670" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45855,7 +45864,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1671" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45881,7 +45890,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1672" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45907,7 +45916,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1673" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45933,7 +45942,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1674" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45959,7 +45968,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1675" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45985,7 +45994,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1676" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46011,7 +46020,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1677" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46037,7 +46046,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1678" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46063,7 +46072,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1679" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46089,7 +46098,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1680" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46115,7 +46124,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1681" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46141,7 +46150,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1682" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46167,7 +46176,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1683" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46193,7 +46202,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1684" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46219,7 +46228,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1685" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46245,7 +46254,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1686" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46271,7 +46280,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1687" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46297,7 +46306,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1688" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46323,7 +46332,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1689" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46349,7 +46358,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1690" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46375,7 +46384,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1691" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46401,7 +46410,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1692" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46427,7 +46436,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1693" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46453,7 +46462,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1694" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46479,7 +46488,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1695" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46505,7 +46514,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1696" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46531,7 +46540,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1697" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46557,7 +46566,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1698" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46583,7 +46592,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1699" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46609,7 +46618,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1700" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46635,7 +46644,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1701" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46661,7 +46670,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1702" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46687,7 +46696,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1703" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -46713,7 +46722,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1704" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -46739,7 +46748,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1705" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46765,7 +46774,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1706" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46791,7 +46800,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1707" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46817,7 +46826,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1708" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46843,7 +46852,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1709" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46869,7 +46878,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1710" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46895,7 +46904,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1711" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46921,7 +46930,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1712" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46947,7 +46956,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1713" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46973,7 +46982,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1714" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46999,7 +47008,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1715" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47025,7 +47034,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1716" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47051,7 +47060,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1717" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47077,7 +47086,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1718" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47103,7 +47112,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1719" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47129,7 +47138,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1720" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47155,7 +47164,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1721" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47181,7 +47190,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1722" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47207,7 +47216,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1723" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47233,7 +47242,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1724" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47259,7 +47268,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1725" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47285,7 +47294,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1726" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47311,7 +47320,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47337,7 +47346,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1728" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47363,7 +47372,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1729" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47389,7 +47398,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1730" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47415,7 +47424,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1731" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47441,7 +47450,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1732" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47467,7 +47476,7 @@
         <v>2</v>
       </c>
       <c r="G1733" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47493,7 +47502,7 @@
         <v>2</v>
       </c>
       <c r="G1734" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47519,7 +47528,7 @@
         <v>2</v>
       </c>
       <c r="G1735" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47545,7 +47554,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1736" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47571,7 +47580,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1737" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47597,7 +47606,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1738" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47623,7 +47632,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1739" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47649,7 +47658,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1740" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47675,7 +47684,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1741" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47701,7 +47710,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1742" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47727,7 +47736,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1743" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47753,7 +47762,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1744" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47779,7 +47788,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47805,7 +47814,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1746" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47831,7 +47840,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1747" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47857,7 +47866,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1748" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47883,7 +47892,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1749" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47909,7 +47918,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1750" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47935,7 +47944,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1751" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47961,7 +47970,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1752" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47987,7 +47996,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1753" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48013,7 +48022,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1754" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48039,7 +48048,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1755" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48065,7 +48074,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1756" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48091,7 +48100,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1757" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48117,7 +48126,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1758" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48143,7 +48152,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1759" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48169,7 +48178,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1760" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48195,7 +48204,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48221,7 +48230,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1762" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48247,7 +48256,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1763" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48273,7 +48282,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1764" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48299,7 +48308,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1765" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48325,7 +48334,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1766" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48351,7 +48360,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1767" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48377,7 +48386,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1768" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48403,7 +48412,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1769" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48429,7 +48438,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1770" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48455,7 +48464,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1771" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48481,7 +48490,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1772" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48507,7 +48516,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1773" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48533,7 +48542,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1774" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48559,7 +48568,7 @@
         <v>2</v>
       </c>
       <c r="G1775" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48585,7 +48594,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1776" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48611,7 +48620,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1777" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48637,7 +48646,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1778" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48663,7 +48672,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1779" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48689,7 +48698,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1780" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48715,7 +48724,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1781" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48741,7 +48750,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1782" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48767,7 +48776,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1783" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48793,7 +48802,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1784" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48819,7 +48828,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1785" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48845,7 +48854,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1786" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48871,7 +48880,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1787" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48897,7 +48906,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1788" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48923,7 +48932,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1789" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48949,7 +48958,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1790" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48975,7 +48984,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1791" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49001,7 +49010,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1792" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49027,7 +49036,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1793" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49053,7 +49062,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1794" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49079,7 +49088,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1795" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49105,7 +49114,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49131,7 +49140,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1797" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49157,7 +49166,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1798" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49183,7 +49192,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1799" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49209,7 +49218,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1800" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49235,7 +49244,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1801" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49261,7 +49270,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1802" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49287,7 +49296,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1803" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49313,7 +49322,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1804" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49339,7 +49348,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1805" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49365,7 +49374,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1806" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49391,7 +49400,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49417,7 +49426,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1808" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49443,7 +49452,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1809" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49469,7 +49478,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1810" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49495,7 +49504,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1811" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49521,7 +49530,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1812" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49547,7 +49556,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1813" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49573,7 +49582,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1814" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49599,7 +49608,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1815" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49625,7 +49634,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1816" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49651,7 +49660,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1817" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49677,7 +49686,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1818" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49703,7 +49712,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1819" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49729,7 +49738,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1820" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49755,7 +49764,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1821" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49781,7 +49790,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1822" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49807,7 +49816,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1823" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49833,7 +49842,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1824" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49859,7 +49868,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1825" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49885,7 +49894,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1826" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49911,7 +49920,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1827" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49937,7 +49946,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1828" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49963,7 +49972,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1829" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49989,7 +49998,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1830" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50015,7 +50024,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1831" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50041,7 +50050,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1832" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50067,7 +50076,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1833" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50093,7 +50102,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1834" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50119,7 +50128,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1835" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50145,7 +50154,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1836" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50171,7 +50180,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1837" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50197,7 +50206,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1838" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50223,7 +50232,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1839" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50249,7 +50258,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1840" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50275,7 +50284,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1841" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50301,7 +50310,7 @@
         <v>2</v>
       </c>
       <c r="G1842" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50327,7 +50336,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1843" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50353,7 +50362,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1844" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50379,7 +50388,7 @@
         <v>2</v>
       </c>
       <c r="G1845" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50405,7 +50414,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1846" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50431,7 +50440,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1847" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50457,7 +50466,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1848" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50483,7 +50492,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1849" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50509,7 +50518,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1850" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50535,7 +50544,7 @@
         <v>2</v>
       </c>
       <c r="G1851" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50561,7 +50570,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1852" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50587,7 +50596,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1853" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50613,7 +50622,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1854" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50639,7 +50648,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1855" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50665,7 +50674,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1856" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50691,7 +50700,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1857" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50717,7 +50726,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1858" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -50743,7 +50752,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1859" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50769,7 +50778,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1860" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50795,7 +50804,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1861" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50821,7 +50830,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1862" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50847,7 +50856,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1863" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50873,7 +50882,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1864" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50899,7 +50908,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1865" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50925,7 +50934,7 @@
         <v>2</v>
       </c>
       <c r="G1866" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50951,7 +50960,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1867" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50977,7 +50986,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1868" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51003,7 +51012,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1869" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51029,7 +51038,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1870" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51055,7 +51064,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1871" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51081,7 +51090,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1872" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51107,7 +51116,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1873" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51133,7 +51142,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1874" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51159,7 +51168,7 @@
         <v>2</v>
       </c>
       <c r="G1875" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51185,7 +51194,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1876" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51211,7 +51220,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1877" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51237,7 +51246,7 @@
         <v>2</v>
       </c>
       <c r="G1878" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51263,7 +51272,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1879" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51289,7 +51298,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1880" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51315,7 +51324,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1881" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51341,7 +51350,7 @@
         <v>2</v>
       </c>
       <c r="G1882" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51367,7 +51376,7 @@
         <v>2</v>
       </c>
       <c r="G1883" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51393,7 +51402,7 @@
         <v>2</v>
       </c>
       <c r="G1884" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51419,7 +51428,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1885" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51445,7 +51454,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1886" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51471,7 +51480,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1887" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51497,7 +51506,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1888" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51523,7 +51532,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1889" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51549,7 +51558,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1890" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51575,7 +51584,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1891" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51601,7 +51610,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1892" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51627,7 +51636,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1893" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51653,7 +51662,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1894" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51679,7 +51688,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1895" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51705,7 +51714,7 @@
         <v>2</v>
       </c>
       <c r="G1896" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51731,7 +51740,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1897" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51757,7 +51766,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1898" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51783,7 +51792,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1899" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51809,7 +51818,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1900" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51835,7 +51844,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1901" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51861,7 +51870,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1902" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51887,7 +51896,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1903" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51913,7 +51922,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1904" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51939,7 +51948,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1905" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51965,7 +51974,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1906" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51991,7 +52000,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1907" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52017,7 +52026,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1908" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52043,7 +52052,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1909" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52069,7 +52078,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1910" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52095,7 +52104,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1911" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52121,7 +52130,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1912" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52147,7 +52156,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1913" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52173,7 +52182,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1914" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52199,7 +52208,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1915" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52225,7 +52234,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1916" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52251,7 +52260,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1917" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52277,7 +52286,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1918" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52303,7 +52312,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1919" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52329,7 +52338,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1920" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52355,7 +52364,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1921" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52381,7 +52390,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1922" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52407,7 +52416,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1923" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52433,7 +52442,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1924" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52459,7 +52468,7 @@
         <v>2</v>
       </c>
       <c r="G1925" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52485,7 +52494,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1926" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52511,7 +52520,7 @@
         <v>2</v>
       </c>
       <c r="G1927" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52537,7 +52546,7 @@
         <v>2</v>
       </c>
       <c r="G1928" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52563,7 +52572,7 @@
         <v>2</v>
       </c>
       <c r="G1929" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52589,7 +52598,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1930" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52615,7 +52624,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1931" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52641,7 +52650,7 @@
         <v>2</v>
       </c>
       <c r="G1932" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52667,7 +52676,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1933" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52693,7 +52702,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1934" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52719,7 +52728,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1935" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52745,7 +52754,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1936" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52771,7 +52780,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1937" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52797,7 +52806,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1938" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52823,7 +52832,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1939" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52849,7 +52858,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1940" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52875,7 +52884,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1941" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52901,7 +52910,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1942" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52927,7 +52936,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1943" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52953,7 +52962,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1944" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52979,7 +52988,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1945" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53005,7 +53014,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1946" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53031,7 +53040,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1947" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53057,7 +53066,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1948" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53083,7 +53092,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1949" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53109,7 +53118,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1950" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53135,7 +53144,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1951" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53161,7 +53170,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1952" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53187,7 +53196,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1953" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53213,7 +53222,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1954" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53239,7 +53248,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1955" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53265,7 +53274,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1956" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53291,7 +53300,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1957" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53317,7 +53326,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1958" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53343,7 +53352,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1959" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53369,7 +53378,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1960" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53395,7 +53404,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1961" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53421,7 +53430,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1962" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53447,7 +53456,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1963" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53473,7 +53482,7 @@
         <v>2</v>
       </c>
       <c r="G1964" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53499,7 +53508,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1965" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53525,7 +53534,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1966" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53551,7 +53560,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1967" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53577,7 +53586,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1968" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53603,7 +53612,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1969" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53629,7 +53638,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1970" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53655,7 +53664,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1971" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53681,7 +53690,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1972" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53707,7 +53716,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1973" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53733,7 +53742,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1974" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53759,7 +53768,7 @@
         <v>1.75</v>
       </c>
       <c r="G1975" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53785,7 +53794,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1976" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53811,7 +53820,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1977" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53837,7 +53846,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1978" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53863,7 +53872,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1979" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53889,7 +53898,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1980" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53915,7 +53924,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1981" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53941,7 +53950,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G1982" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53967,7 +53976,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1983" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53993,7 +54002,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1984" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54019,7 +54028,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G1985" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54045,7 +54054,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G1986" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54071,7 +54080,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G1987" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54097,7 +54106,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1988" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54123,7 +54132,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1989" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54149,7 +54158,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G1990" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54175,7 +54184,7 @@
         <v>1.75999999046326</v>
       </c>
       <c r="G1991" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54201,7 +54210,7 @@
         <v>1.75</v>
       </c>
       <c r="G1992" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54227,7 +54236,7 @@
         <v>1.75</v>
       </c>
       <c r="G1993" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54253,7 +54262,7 @@
         <v>1.75</v>
       </c>
       <c r="G1994" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54279,7 +54288,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G1995" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54305,7 +54314,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G1996" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54331,7 +54340,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G1997" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54357,7 +54366,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1998" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54383,7 +54392,7 @@
         <v>1.80999994277954</v>
       </c>
       <c r="G1999" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54409,7 +54418,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2000" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54435,7 +54444,7 @@
         <v>1.78999996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54461,7 +54470,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2002" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54487,7 +54496,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2003" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54513,7 +54522,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2004" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54539,7 +54548,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2005" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54565,7 +54574,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2006" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54591,7 +54600,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2007" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54617,7 +54626,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2008" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54643,7 +54652,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2009" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54669,7 +54678,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2010" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54695,7 +54704,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2011" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54721,7 +54730,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G2012" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54747,7 +54756,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2013" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54773,7 +54782,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2014" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54799,7 +54808,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2015" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54825,7 +54834,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2016" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54851,7 +54860,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2017" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54877,7 +54886,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2018" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54903,7 +54912,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2019" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54929,7 +54938,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2020" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54955,7 +54964,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2021" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54981,7 +54990,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G2022" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55007,7 +55016,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2023" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55033,7 +55042,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2024" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55059,7 +55068,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2025" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55085,7 +55094,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2026" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55111,7 +55120,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2027" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55137,7 +55146,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2028" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55163,7 +55172,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2029" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55189,7 +55198,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2030" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55215,7 +55224,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2031" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55241,7 +55250,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2032" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55267,7 +55276,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2033" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55293,7 +55302,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2034" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55319,7 +55328,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2035" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55345,7 +55354,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2036" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55371,7 +55380,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2037" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55397,7 +55406,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2038" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55423,7 +55432,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2039" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55449,7 +55458,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55475,7 +55484,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2041" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55501,7 +55510,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2042" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55527,7 +55536,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2043" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55553,7 +55562,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2044" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55579,7 +55588,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2045" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55605,7 +55614,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2046" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55631,7 +55640,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2047" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55657,7 +55666,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2048" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55683,7 +55692,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2049" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55709,7 +55718,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2050" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55735,7 +55744,7 @@
         <v>2</v>
       </c>
       <c r="G2051" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55761,7 +55770,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2052" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55787,7 +55796,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55813,7 +55822,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2054" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55839,7 +55848,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2055" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55865,7 +55874,7 @@
         <v>2</v>
       </c>
       <c r="G2056" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55891,7 +55900,7 @@
         <v>2</v>
       </c>
       <c r="G2057" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55917,7 +55926,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2058" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55943,7 +55952,7 @@
         <v>2</v>
       </c>
       <c r="G2059" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55969,7 +55978,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2060" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55995,7 +56004,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2061" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56021,7 +56030,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2062" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56047,7 +56056,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2063" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56073,7 +56082,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2064" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56099,7 +56108,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2065" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56125,7 +56134,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2066" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56151,7 +56160,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2067" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56177,7 +56186,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2068" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56203,7 +56212,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2069" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56229,7 +56238,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56255,7 +56264,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2071" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56281,7 +56290,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2072" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56307,7 +56316,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2073" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56333,7 +56342,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2074" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56359,7 +56368,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2075" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56385,7 +56394,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2076" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56411,7 +56420,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2077" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56437,7 +56446,7 @@
         <v>2</v>
       </c>
       <c r="G2078" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56463,7 +56472,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2079" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56489,7 +56498,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2080" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56515,7 +56524,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2081" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56541,7 +56550,7 @@
         <v>2</v>
       </c>
       <c r="G2082" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56567,7 +56576,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2083" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56593,7 +56602,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2084" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56619,7 +56628,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2085" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56645,7 +56654,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56671,7 +56680,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2087" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56697,7 +56706,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2088" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56723,7 +56732,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2089" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56749,7 +56758,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2090" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56775,7 +56784,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2091" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56801,7 +56810,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2092" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56827,7 +56836,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2093" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56853,7 +56862,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2094" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56879,7 +56888,7 @@
         <v>2</v>
       </c>
       <c r="G2095" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56905,7 +56914,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2096" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56931,7 +56940,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2097" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56957,7 +56966,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2098" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56983,7 +56992,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2099" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57009,7 +57018,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2100" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57035,7 +57044,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2101" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57061,7 +57070,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2102" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57087,7 +57096,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G2103" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57113,7 +57122,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2104" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57139,7 +57148,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2105" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57165,7 +57174,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2106" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57191,7 +57200,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2107" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57217,7 +57226,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2108" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57243,7 +57252,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57269,7 +57278,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2110" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57295,7 +57304,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G2111" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57321,7 +57330,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2112" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57347,7 +57356,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2113" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57373,7 +57382,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2114" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57399,7 +57408,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57425,7 +57434,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G2116" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57451,7 +57460,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2117" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57477,7 +57486,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2118" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57503,7 +57512,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G2119" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57529,7 +57538,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2120" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57555,7 +57564,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2121" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57581,7 +57590,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2122" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57607,7 +57616,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G2123" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57633,7 +57642,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2124" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57659,7 +57668,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2125" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57685,7 +57694,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2126" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57711,7 +57720,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2127" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57737,7 +57746,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2128" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57763,7 +57772,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2129" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57789,7 +57798,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2130" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57815,7 +57824,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2131" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57841,7 +57850,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2132" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57867,7 +57876,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2133" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57893,7 +57902,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2134" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57919,7 +57928,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2135" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57945,7 +57954,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2136" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57971,7 +57980,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2137" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57997,7 +58006,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2138" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58023,7 +58032,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2139" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58049,7 +58058,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2140" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58075,7 +58084,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2141" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58101,7 +58110,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2142" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58127,7 +58136,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2143" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58153,7 +58162,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2144" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58179,7 +58188,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2145" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58205,7 +58214,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2146" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58231,7 +58240,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2147" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58257,7 +58266,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2148" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58283,7 +58292,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2149" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58309,7 +58318,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2150" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58335,7 +58344,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2151" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58361,7 +58370,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2152" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58387,7 +58396,7 @@
         <v>2</v>
       </c>
       <c r="G2153" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58413,7 +58422,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2154" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58439,7 +58448,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G2155" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58465,7 +58474,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G2156" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58491,7 +58500,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2157" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58517,7 +58526,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2158" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58543,7 +58552,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G2159" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58569,7 +58578,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2160" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58595,7 +58604,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2161" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58621,7 +58630,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2162" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58647,7 +58656,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2163" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -58673,7 +58682,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2164" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -58699,7 +58708,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2165" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -58725,7 +58734,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2166" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -58751,7 +58760,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2167" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -58759,10 +58768,10 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.6195949074</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
-        <v>112341</v>
+        <v>112519</v>
       </c>
       <c r="C2168" t="n">
         <v>2.07999992370605</v>
@@ -58777,9 +58786,35 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G2168" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.6437962963</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>40143</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>2.00999999046326</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>1.95000004768372</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>1.99000000953674</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>1.95000004768372</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>690</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AC5.MI.xlsx
+++ b/data/AC5.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="692">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,52 +38,52 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19334125518799</t>
+    <t xml:space="preserve">1.1933411359787</t>
   </si>
   <si>
     <t xml:space="preserve">AC5.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17184615135193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17110478878021</t>
+    <t xml:space="preserve">1.17184627056122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17110502719879</t>
   </si>
   <si>
     <t xml:space="preserve">1.13997435569763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1636928319931</t>
+    <t xml:space="preserve">1.16369318962097</t>
   </si>
   <si>
     <t xml:space="preserve">1.14071547985077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14145660400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14886879920959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13478589057922</t>
+    <t xml:space="preserve">1.1414567232132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14886856079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13478577136993</t>
   </si>
   <si>
     <t xml:space="preserve">1.12811505794525</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04065263271332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982097446918488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96356725692749</t>
+    <t xml:space="preserve">1.04065275192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982097625732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.963567495346069</t>
   </si>
   <si>
     <t xml:space="preserve">1.03398191928864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08141911029816</t>
+    <t xml:space="preserve">1.08141899108887</t>
   </si>
   <si>
     <t xml:space="preserve">1.05102968215942</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">1.05992412567139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09772551059723</t>
+    <t xml:space="preserve">1.09772562980652</t>
   </si>
   <si>
     <t xml:space="preserve">1.07400703430176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07919538021088</t>
+    <t xml:space="preserve">1.07919526100159</t>
   </si>
   <si>
     <t xml:space="preserve">1.06733620166779</t>
@@ -107,49 +107,49 @@
     <t xml:space="preserve">1.0873486995697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06807732582092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06214773654938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985803663730621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936883985996246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953190624713898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95986133813858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97765040397644</t>
+    <t xml:space="preserve">1.06807744503021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06214761734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985803484916687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936884105205536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953190565109253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959861218929291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977650225162506</t>
   </si>
   <si>
     <t xml:space="preserve">1.02582859992981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00952208042145</t>
+    <t xml:space="preserve">1.00952219963074</t>
   </si>
   <si>
     <t xml:space="preserve">1.00062775611877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00136888027191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04510009288788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03842914104462</t>
+    <t xml:space="preserve">1.00136876106262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04509997367859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03842902183533</t>
   </si>
   <si>
     <t xml:space="preserve">1.02953457832336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03175818920135</t>
+    <t xml:space="preserve">1.03175830841064</t>
   </si>
   <si>
     <t xml:space="preserve">1.01915788650513</t>
@@ -158,10 +158,10 @@
     <t xml:space="preserve">1.03101706504822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0280522108078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03768801689148</t>
+    <t xml:space="preserve">1.02805233001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03768789768219</t>
   </si>
   <si>
     <t xml:space="preserve">1.05844163894653</t>
@@ -170,46 +170,46 @@
     <t xml:space="preserve">1.05621802806854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04139387607574</t>
+    <t xml:space="preserve">1.04139399528503</t>
   </si>
   <si>
     <t xml:space="preserve">1.06363010406494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04658246040344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04732358455658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05177092552185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0428763628006</t>
+    <t xml:space="preserve">1.04658234119415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04732370376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05177080631256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04287624359131</t>
   </si>
   <si>
     <t xml:space="preserve">1.02434623241425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04880595207214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0747481584549</t>
+    <t xml:space="preserve">1.04880607128143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07474827766418</t>
   </si>
   <si>
     <t xml:space="preserve">1.06066536903381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08216023445129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14442157745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14516282081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12885630130768</t>
+    <t xml:space="preserve">1.08216035366058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1444216966629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14516258239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12885642051697</t>
   </si>
   <si>
     <t xml:space="preserve">1.1340446472168</t>
@@ -221,52 +221,52 @@
     <t xml:space="preserve">1.2155773639679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17777562141418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18592917919159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20075309276581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16221046447754</t>
+    <t xml:space="preserve">1.17777574062347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18592929840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20075333118439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16221034526825</t>
   </si>
   <si>
     <t xml:space="preserve">1.14219796657562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20816516876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20668280124664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19408214092255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18296432495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18222320079803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17481100559235</t>
+    <t xml:space="preserve">1.2081652879715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20668292045593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19408237934113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18296420574188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18222308158875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17481088638306</t>
   </si>
   <si>
     <t xml:space="preserve">1.19111752510071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2207658290863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21780097484589</t>
+    <t xml:space="preserve">1.22076570987701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2178008556366</t>
   </si>
   <si>
     <t xml:space="preserve">1.22891902923584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24596679210663</t>
+    <t xml:space="preserve">1.24596667289734</t>
   </si>
   <si>
     <t xml:space="preserve">1.260049700737</t>
@@ -275,13 +275,13 @@
     <t xml:space="preserve">1.26079094409943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2548611164093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27265000343323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27042663097382</t>
+    <t xml:space="preserve">1.25486123561859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27265024185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27042651176453</t>
   </si>
   <si>
     <t xml:space="preserve">1.24448442459106</t>
@@ -290,55 +290,55 @@
     <t xml:space="preserve">1.28561174869537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27647221088409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23762965202332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23610639572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21021139621735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21325790882111</t>
+    <t xml:space="preserve">1.27647233009338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2376297712326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23610651493073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21021151542664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2132580280304</t>
   </si>
   <si>
     <t xml:space="preserve">1.20945000648499</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21097338199615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20259523391724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19574069976807</t>
+    <t xml:space="preserve">1.21097314357758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20259535312653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19574081897736</t>
   </si>
   <si>
     <t xml:space="preserve">1.20107197761536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18736290931702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16375279426575</t>
+    <t xml:space="preserve">1.18736302852631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16375267505646</t>
   </si>
   <si>
     <t xml:space="preserve">1.14623558521271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15004372596741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1439505815506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19193255901337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17517697811127</t>
+    <t xml:space="preserve">1.15004360675812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14395070075989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19193267822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17517685890198</t>
   </si>
   <si>
     <t xml:space="preserve">1.16756081581116</t>
@@ -350,91 +350,91 @@
     <t xml:space="preserve">1.11577081680298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11196267604828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17670023441315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16984570026398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20411849021912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2353447675705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2300136089325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25667011737823</t>
+    <t xml:space="preserve">1.11196279525757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17670011520386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16984581947327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20411860942841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23534488677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23001348972321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25667023658752</t>
   </si>
   <si>
     <t xml:space="preserve">1.22620558738708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25286197662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2315366268158</t>
+    <t xml:space="preserve">1.25286209583282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23153698444366</t>
   </si>
   <si>
     <t xml:space="preserve">1.25362360477448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2223973274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23382151126862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22315907478333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24143779277802</t>
+    <t xml:space="preserve">1.22239744663239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23382174968719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22315883636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2414379119873</t>
   </si>
   <si>
     <t xml:space="preserve">1.24905407428741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24753081798553</t>
+    <t xml:space="preserve">1.24753069877625</t>
   </si>
   <si>
     <t xml:space="preserve">1.26428627967834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25590860843658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26352488994598</t>
+    <t xml:space="preserve">1.25590872764587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26352500915527</t>
   </si>
   <si>
     <t xml:space="preserve">1.27190256118774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27951872348785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28332686424255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27418756484985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30617523193359</t>
+    <t xml:space="preserve">1.27951860427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28332674503326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27418744564056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30617547035217</t>
   </si>
   <si>
     <t xml:space="preserve">1.33435523509979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37091290950775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35491895675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34806430339813</t>
+    <t xml:space="preserve">1.37091279029846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35491907596588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34806418418884</t>
   </si>
   <si>
     <t xml:space="preserve">1.34425628185272</t>
@@ -452,34 +452,34 @@
     <t xml:space="preserve">1.3252158164978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31074488162994</t>
+    <t xml:space="preserve">1.31074500083923</t>
   </si>
   <si>
     <t xml:space="preserve">1.31302988529205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31379151344299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32064616680145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28713500499725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28104186058044</t>
+    <t xml:space="preserve">1.31379163265228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32064604759216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28713488578796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28104197978973</t>
   </si>
   <si>
     <t xml:space="preserve">1.31531476974487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29779767990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27266418933868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26885592937469</t>
+    <t xml:space="preserve">1.29779756069183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27266430854797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26885616779327</t>
   </si>
   <si>
     <t xml:space="preserve">1.24829256534576</t>
@@ -488,73 +488,73 @@
     <t xml:space="preserve">1.245246052742</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24219942092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22544384002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24600768089294</t>
+    <t xml:space="preserve">1.24219954013824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22544372081757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24600744247437</t>
   </si>
   <si>
     <t xml:space="preserve">1.25514686107635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24067616462708</t>
+    <t xml:space="preserve">1.24067628383636</t>
   </si>
   <si>
     <t xml:space="preserve">1.22849035263062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21249651908875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20335686206818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21630442142487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22468221187592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24372279644012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22772872447968</t>
+    <t xml:space="preserve">1.21249628067017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20335698127747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21630430221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22468233108521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24372255802155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22772896289825</t>
   </si>
   <si>
     <t xml:space="preserve">1.23305988311768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22163569927216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21858930587769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21554291248322</t>
+    <t xml:space="preserve">1.22163546085358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21858942508698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21554279327393</t>
   </si>
   <si>
     <t xml:space="preserve">1.1926943063736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18964767456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15765988826752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18050837516785</t>
+    <t xml:space="preserve">1.18964779376984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15765976905823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18050825595856</t>
   </si>
   <si>
     <t xml:space="preserve">1.16527593135834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15842139720917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15080535411835</t>
+    <t xml:space="preserve">1.15842151641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15080523490906</t>
   </si>
   <si>
     <t xml:space="preserve">1.14471244812012</t>
@@ -563,22 +563,22 @@
     <t xml:space="preserve">1.16832256317139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15537488460541</t>
+    <t xml:space="preserve">1.15537512302399</t>
   </si>
   <si>
     <t xml:space="preserve">1.16146779060364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18583977222443</t>
+    <t xml:space="preserve">1.18583965301514</t>
   </si>
   <si>
     <t xml:space="preserve">1.17365384101868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19040930271149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18812465667725</t>
+    <t xml:space="preserve">1.19040942192078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18812453746796</t>
   </si>
   <si>
     <t xml:space="preserve">1.18127000331879</t>
@@ -590,19 +590,19 @@
     <t xml:space="preserve">1.18888604640961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2429610490799</t>
+    <t xml:space="preserve">1.24296116828918</t>
   </si>
   <si>
     <t xml:space="preserve">1.22925186157227</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22011244297028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22696685791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1850780248642</t>
+    <t xml:space="preserve">1.22011256217957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22696721553802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18507814407349</t>
   </si>
   <si>
     <t xml:space="preserve">1.1797468662262</t>
@@ -611,64 +611,64 @@
     <t xml:space="preserve">1.16908407211304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17136895656586</t>
+    <t xml:space="preserve">1.17136883735657</t>
   </si>
   <si>
     <t xml:space="preserve">1.1645143032074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17060720920563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17213046550751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20640361309052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19954907894135</t>
+    <t xml:space="preserve">1.17060732841492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1721305847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20640337467194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19954884052277</t>
   </si>
   <si>
     <t xml:space="preserve">1.21478128433228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27342569828033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27571058273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30769848823547</t>
+    <t xml:space="preserve">1.27342581748962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27571046352386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30769860744476</t>
   </si>
   <si>
     <t xml:space="preserve">1.29855918884277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29094290733337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31759965419769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3198846578598</t>
+    <t xml:space="preserve">1.29094302654266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31759977340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31988453865051</t>
   </si>
   <si>
     <t xml:space="preserve">1.35034918785095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36177361011505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34654128551483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37852907180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37776756286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36329686641693</t>
+    <t xml:space="preserve">1.36177337169647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34654116630554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37852895259857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37776744365692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36329674720764</t>
   </si>
   <si>
     <t xml:space="preserve">1.38233721256256</t>
@@ -677,43 +677,43 @@
     <t xml:space="preserve">1.34273302555084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35415720939636</t>
+    <t xml:space="preserve">1.35415744781494</t>
   </si>
   <si>
     <t xml:space="preserve">1.35568046569824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36862814426422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38005244731903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41660988330841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39376151561737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40137779712677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44326674938202</t>
+    <t xml:space="preserve">1.36862802505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38005232810974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41661012172699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39376127719879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40137755870819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44326663017273</t>
   </si>
   <si>
     <t xml:space="preserve">1.4242262840271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44402849674225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41508686542511</t>
+    <t xml:space="preserve">1.44402825832367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41508674621582</t>
   </si>
   <si>
     <t xml:space="preserve">1.43031919002533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46230721473694</t>
+    <t xml:space="preserve">1.46230709552765</t>
   </si>
   <si>
     <t xml:space="preserve">1.44707477092743</t>
@@ -725,13 +725,13 @@
     <t xml:space="preserve">1.46840000152588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43793547153473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42727255821228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44478976726532</t>
+    <t xml:space="preserve">1.43793535232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42727267742157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44478988647461</t>
   </si>
   <si>
     <t xml:space="preserve">1.47686159610748</t>
@@ -740,22 +740,22 @@
     <t xml:space="preserve">1.50893330574036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56134295463562</t>
+    <t xml:space="preserve">1.5613431930542</t>
   </si>
   <si>
     <t xml:space="preserve">1.59889030456543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62705087661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65051794052124</t>
+    <t xml:space="preserve">1.62705099582672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65051782131195</t>
   </si>
   <si>
     <t xml:space="preserve">1.67085611820221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57855200767517</t>
+    <t xml:space="preserve">1.57855212688446</t>
   </si>
   <si>
     <t xml:space="preserve">1.57229435443878</t>
@@ -776,31 +776,31 @@
     <t xml:space="preserve">1.52927148342133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50189316272736</t>
+    <t xml:space="preserve">1.50189328193665</t>
   </si>
   <si>
     <t xml:space="preserve">1.50345766544342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49719977378845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49015963077545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49407088756561</t>
+    <t xml:space="preserve">1.49719965457916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49015951156616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49407076835632</t>
   </si>
   <si>
     <t xml:space="preserve">1.46278142929077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51753795146942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51832020282745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53161799907684</t>
+    <t xml:space="preserve">1.51753783226013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51832008361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53161811828613</t>
   </si>
   <si>
     <t xml:space="preserve">1.5120621919632</t>
@@ -809,46 +809,46 @@
     <t xml:space="preserve">1.48624837398529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47607922554016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48781299591064</t>
+    <t xml:space="preserve">1.47607934474945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48781287670135</t>
   </si>
   <si>
     <t xml:space="preserve">1.47842597961426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48390161991119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4745147228241</t>
+    <t xml:space="preserve">1.48390185832977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47451496124268</t>
   </si>
   <si>
     <t xml:space="preserve">1.48311948776245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50267541408539</t>
+    <t xml:space="preserve">1.50267553329468</t>
   </si>
   <si>
     <t xml:space="preserve">1.53709375858307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55273866653442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5261424779892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52536022663116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5519562959671</t>
+    <t xml:space="preserve">1.55273842811584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52614235877991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52536010742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55195617675781</t>
   </si>
   <si>
     <t xml:space="preserve">1.54882729053497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58011662960052</t>
+    <t xml:space="preserve">1.58011674880981</t>
   </si>
   <si>
     <t xml:space="preserve">1.57072985172272</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">1.56447196006775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54178702831268</t>
+    <t xml:space="preserve">1.54178714752197</t>
   </si>
   <si>
     <t xml:space="preserve">1.55664968490601</t>
@@ -866,19 +866,19 @@
     <t xml:space="preserve">1.57385897636414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56603646278381</t>
+    <t xml:space="preserve">1.5660365819931</t>
   </si>
   <si>
     <t xml:space="preserve">1.58324575424194</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55430293083191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55977857112885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58793926239014</t>
+    <t xml:space="preserve">1.5543030500412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55977869033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58793914318085</t>
   </si>
   <si>
     <t xml:space="preserve">1.55743193626404</t>
@@ -887,85 +887,85 @@
     <t xml:space="preserve">1.56916546821594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61140608787537</t>
+    <t xml:space="preserve">1.61140620708466</t>
   </si>
   <si>
     <t xml:space="preserve">1.54256939888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53005349636078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53944039344788</t>
+    <t xml:space="preserve">1.53005373477936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53944063186646</t>
   </si>
   <si>
     <t xml:space="preserve">1.59419703483582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5910679101944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57542324066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61453521251678</t>
+    <t xml:space="preserve">1.59106802940369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57542312145233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6145350933075</t>
   </si>
   <si>
     <t xml:space="preserve">1.6286153793335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61922860145569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69745230674744</t>
+    <t xml:space="preserve">1.6192284822464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69745218753815</t>
   </si>
   <si>
     <t xml:space="preserve">1.74438631534576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72404825687408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76003110408783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7756758928299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78975582122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72091925144196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74751543998718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73499953746796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73656415939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74595105648041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7381284236908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73969292640686</t>
+    <t xml:space="preserve">1.72404813766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76003122329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77567577362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78975594043732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72091913223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74751532077789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73499929904938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73656404018402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74595081806183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73812830448151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73969304561615</t>
   </si>
   <si>
     <t xml:space="preserve">1.7569020986557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75533747673035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72717678546906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70527458190918</t>
+    <t xml:space="preserve">1.75533735752106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72717690467834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7052743434906</t>
   </si>
   <si>
     <t xml:space="preserve">1.71309685707092</t>
@@ -974,28 +974,28 @@
     <t xml:space="preserve">1.81478750705719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87423741817474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88675343990326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86485052108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87267291545868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91647827625275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93994522094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91334927082062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83825480937958</t>
+    <t xml:space="preserve">1.87423729896545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88675332069397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86485087871552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87267303466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91647839546204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93994569778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91334939002991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.838254570961</t>
   </si>
   <si>
     <t xml:space="preserve">1.78193378448486</t>
@@ -1004,31 +1004,31 @@
     <t xml:space="preserve">1.7287415266037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83356130123138</t>
+    <t xml:space="preserve">1.83356118202209</t>
   </si>
   <si>
     <t xml:space="preserve">1.84764170646667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.908656001091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87893080711365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89614009857178</t>
+    <t xml:space="preserve">1.90865576267242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87893092632294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89614021778107</t>
   </si>
   <si>
     <t xml:space="preserve">1.79914283752441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81165862083435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.796013712883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82260990142822</t>
+    <t xml:space="preserve">1.81165885925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79601383209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82260978221893</t>
   </si>
   <si>
     <t xml:space="preserve">1.79288482666016</t>
@@ -1037,19 +1037,19 @@
     <t xml:space="preserve">1.7709823846817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76316010951996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75220847129822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70370995998383</t>
+    <t xml:space="preserve">1.76315987110138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7522087097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70371007919312</t>
   </si>
   <si>
     <t xml:space="preserve">1.73187053203583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79444932937622</t>
+    <t xml:space="preserve">1.79444944858551</t>
   </si>
   <si>
     <t xml:space="preserve">1.78819167613983</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">1.80540072917938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81009423732758</t>
+    <t xml:space="preserve">1.81009387969971</t>
   </si>
   <si>
     <t xml:space="preserve">1.80696511268616</t>
@@ -1070,91 +1070,91 @@
     <t xml:space="preserve">1.78349816799164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85389947891235</t>
+    <t xml:space="preserve">1.85389924049377</t>
   </si>
   <si>
     <t xml:space="preserve">1.83043217658997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89301109313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90083360671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87736654281616</t>
+    <t xml:space="preserve">1.89301145076752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90083348751068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87736642360687</t>
   </si>
   <si>
     <t xml:space="preserve">1.95558977127075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96341252326965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88518893718719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86954402923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84607684612274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86172187328339</t>
+    <t xml:space="preserve">1.96341240406036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88518881797791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86954414844513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84607696533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8617217540741</t>
   </si>
   <si>
     <t xml:space="preserve">1.93212294578552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92430090904236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96357226371765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95559000968933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97155392169952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92366206645966</t>
+    <t xml:space="preserve">1.92430055141449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96357202529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95559024810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97155404090881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92366182804108</t>
   </si>
   <si>
     <t xml:space="preserve">1.93962609767914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89173412322998</t>
+    <t xml:space="preserve">1.89173376560211</t>
   </si>
   <si>
     <t xml:space="preserve">1.88375186920166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97953593730927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90769791603088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87577021121979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82787787914276</t>
+    <t xml:space="preserve">1.97953629493713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90769815444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87576985359192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82787799835205</t>
   </si>
   <si>
     <t xml:space="preserve">1.77200412750244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83586001396179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74805808067322</t>
+    <t xml:space="preserve">1.8358598947525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74805796146393</t>
   </si>
   <si>
     <t xml:space="preserve">1.76402199268341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74007606506348</t>
+    <t xml:space="preserve">1.74007594585419</t>
   </si>
   <si>
     <t xml:space="preserve">1.8198961019516</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">1.7081481218338</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64429187774658</t>
+    <t xml:space="preserve">1.64429199695587</t>
   </si>
   <si>
     <t xml:space="preserve">1.73209404945374</t>
@@ -1175,226 +1175,229 @@
     <t xml:space="preserve">1.69218397140503</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63630998134613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57644510269165</t>
+    <t xml:space="preserve">1.63630986213684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57644498348236</t>
   </si>
   <si>
     <t xml:space="preserve">1.59240901470184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54850804805756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47267889976501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46868813037872</t>
+    <t xml:space="preserve">1.54850792884827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47267913818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46868789196014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42877793312073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4048318862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43676006793976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44873321056366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42478692531586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45671510696411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41281402111053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40882301330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39684998989105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35694015026093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33299398422241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32102108001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30505704879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29707503318787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30904805660248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3489578962326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34097576141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35294890403748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34496676921844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37290418148041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3609311580658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38487696647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39285886287689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38886797428131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36891317367554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45272409915924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44075095653534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46070599555969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41680502891541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42079591751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49263405799866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43276906013489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44474196434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40084099769592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38088595867157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32501196861267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3768949508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43293142318726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44539165496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41631782054901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38309037685394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40801084041595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3997038602829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42047119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45369851589203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47031223773956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45785200595856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46615874767303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4744656085968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52846014499664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55753421783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56999433040619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57414782047272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55338072776794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52430665493011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56168758869171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50353956222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5118465423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49523282051086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48277246952057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47861909866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46200525760651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4495450258255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44123828411102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48692584037781</t>
   </si>
   <si>
     <t xml:space="preserve">1.42877805233002</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40483212471008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43675994873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44873309135437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42478692531586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45671498775482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41281402111053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40882301330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39685010910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35694003105164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33299398422241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32102108001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30505692958832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29707491397858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30904805660248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34895801544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34097611904144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35294902324677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34496700763702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37290418148041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36093091964722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38487696647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39285898208618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38886797428131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36891293525696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45272397994995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44075095653534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46070611476898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41680490970612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42079591751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49263405799866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4327689409256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44474184513092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40084087848663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38088595867157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32501184940338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37689507007599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43293142318726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44539177417755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41631770133972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38309037685394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40801095962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39970397949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42047107219696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45369851589203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47031211853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45785188674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46615886688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4744656085968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52846026420593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55753409862518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56999433040619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57414782047272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55338072776794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52430689334869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56168746948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50353956222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5118465423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49523258209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48277235031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47861897945404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4620053768158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44954514503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44123816490173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48692584037781</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.42462468147278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41216444969177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40385746955872</t>
+    <t xml:space="preserve">1.41216433048248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40385735034943</t>
   </si>
   <si>
     <t xml:space="preserve">1.54507386684418</t>
@@ -1403,13 +1406,13 @@
     <t xml:space="preserve">1.53676700592041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52015328407288</t>
+    <t xml:space="preserve">1.52015340328217</t>
   </si>
   <si>
     <t xml:space="preserve">1.54922735691071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58245456218719</t>
+    <t xml:space="preserve">1.58245468139648</t>
   </si>
   <si>
     <t xml:space="preserve">1.57830119132996</t>
@@ -1421,13 +1424,13 @@
     <t xml:space="preserve">1.66136968135834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62814235687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60322165489197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59491491317749</t>
+    <t xml:space="preserve">1.62814247608185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60322189331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59491503238678</t>
   </si>
   <si>
     <t xml:space="preserve">1.59076154232025</t>
@@ -1445,10 +1448,10 @@
     <t xml:space="preserve">1.59906828403473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60737526416779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61568200588226</t>
+    <t xml:space="preserve">1.6073751449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61568212509155</t>
   </si>
   <si>
     <t xml:space="preserve">1.58660805225372</t>
@@ -1460,25 +1463,25 @@
     <t xml:space="preserve">1.74443805217743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94380235671997</t>
+    <t xml:space="preserve">1.94380247592926</t>
   </si>
   <si>
     <t xml:space="preserve">1.96041619777679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02687120437622</t>
+    <t xml:space="preserve">2.02687096595764</t>
   </si>
   <si>
     <t xml:space="preserve">2.24284934997559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1431667804718</t>
+    <t xml:space="preserve">2.14316701889038</t>
   </si>
   <si>
     <t xml:space="preserve">2.25115609169006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29269027709961</t>
+    <t xml:space="preserve">2.29269003868103</t>
   </si>
   <si>
     <t xml:space="preserve">2.30930399894714</t>
@@ -1490,67 +1493,67 @@
     <t xml:space="preserve">2.26776957511902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32591772079468</t>
+    <t xml:space="preserve">2.3259174823761</t>
   </si>
   <si>
     <t xml:space="preserve">2.20131492614746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06840515136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89396154880524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90226852893829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99364387989044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93549573421478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70290398597717</t>
+    <t xml:space="preserve">2.06840538978577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89396166801453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90226829051971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99364364147186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93549561500549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70290386676788</t>
   </si>
   <si>
     <t xml:space="preserve">1.50769317150116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65721642971039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7942795753479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69459712505341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71121072769165</t>
+    <t xml:space="preserve">1.6572163105011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79427933692932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69459700584412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71121084690094</t>
   </si>
   <si>
     <t xml:space="preserve">1.7527449131012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66967678070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72782444953918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71951770782471</t>
+    <t xml:space="preserve">1.6696765422821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72782456874847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71951758861542</t>
   </si>
   <si>
     <t xml:space="preserve">1.81919980049133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78597247600555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68629038333893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73613131046295</t>
+    <t xml:space="preserve">1.78597259521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68629026412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73613142967224</t>
   </si>
   <si>
     <t xml:space="preserve">1.67798340320587</t>
@@ -1559,7 +1562,7 @@
     <t xml:space="preserve">1.76105189323425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82750689983368</t>
+    <t xml:space="preserve">1.82750654220581</t>
   </si>
   <si>
     <t xml:space="preserve">1.83581352233887</t>
@@ -1568,10 +1571,10 @@
     <t xml:space="preserve">1.98533701896667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0351779460907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00195097923279</t>
+    <t xml:space="preserve">2.03517818450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00195050239563</t>
   </si>
   <si>
     <t xml:space="preserve">2.02659058570862</t>
@@ -1580,25 +1583,25 @@
     <t xml:space="preserve">1.99224162101746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98365414142609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93213093280792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91495645046234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88919484615326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86343312263489</t>
+    <t xml:space="preserve">1.98365426063538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9321311712265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91495633125305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88919460773468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8634330034256</t>
   </si>
   <si>
     <t xml:space="preserve">1.82908403873444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8720201253891</t>
+    <t xml:space="preserve">1.87202000617981</t>
   </si>
   <si>
     <t xml:space="preserve">1.84625852108002</t>
@@ -1607,19 +1610,19 @@
     <t xml:space="preserve">1.83767127990723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81190919876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8548458814621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80332207679749</t>
+    <t xml:space="preserve">1.81190931797028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85484576225281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8033219575882</t>
   </si>
   <si>
     <t xml:space="preserve">1.82049667835236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7861475944519</t>
+    <t xml:space="preserve">1.78614771366119</t>
   </si>
   <si>
     <t xml:space="preserve">1.76897311210632</t>
@@ -1628,22 +1631,22 @@
     <t xml:space="preserve">1.75179862976074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74321138858795</t>
+    <t xml:space="preserve">1.74321150779724</t>
   </si>
   <si>
     <t xml:space="preserve">1.73462414741516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72603702545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7775604724884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76038599014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79473483562469</t>
+    <t xml:space="preserve">1.72603690624237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77756035327911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76038587093353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79473495483398</t>
   </si>
   <si>
     <t xml:space="preserve">1.71744966506958</t>
@@ -1667,7 +1670,7 @@
     <t xml:space="preserve">2.03517770767212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12963771820068</t>
+    <t xml:space="preserve">2.12963795661926</t>
   </si>
   <si>
     <t xml:space="preserve">2.04376530647278</t>
@@ -1676,16 +1679,16 @@
     <t xml:space="preserve">2.01800346374512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94930529594421</t>
+    <t xml:space="preserve">1.9493054151535</t>
   </si>
   <si>
     <t xml:space="preserve">1.95789277553558</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96648001670837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94071829319</t>
+    <t xml:space="preserve">1.96647977828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94071817398071</t>
   </si>
   <si>
     <t xml:space="preserve">2.00082874298096</t>
@@ -1694,16 +1697,16 @@
     <t xml:space="preserve">2.00941610336304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0952889919281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06952691078186</t>
+    <t xml:space="preserve">2.09528851509094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06952667236328</t>
   </si>
   <si>
     <t xml:space="preserve">2.05235242843628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06093978881836</t>
+    <t xml:space="preserve">2.06093955039978</t>
   </si>
   <si>
     <t xml:space="preserve">2.14681196212769</t>
@@ -1718,64 +1721,64 @@
     <t xml:space="preserve">2.25844645500183</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24985909461975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23268461227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28474450111389</t>
+    <t xml:space="preserve">2.24985885620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23268437385559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28474473953247</t>
   </si>
   <si>
     <t xml:space="preserve">2.26703357696533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2758891582489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24046683311462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20504426956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16962218284607</t>
+    <t xml:space="preserve">2.27588891983032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24046659469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20504450798035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16962194442749</t>
   </si>
   <si>
     <t xml:space="preserve">2.17847752571106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15191054344177</t>
+    <t xml:space="preserve">2.15191078186035</t>
   </si>
   <si>
     <t xml:space="preserve">2.11648845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1076328754425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12534403800964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13419961929321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99250996112823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01022100448608</t>
+    <t xml:space="preserve">2.10763311386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12534379959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13419938087463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99251008033752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01022124290466</t>
   </si>
   <si>
     <t xml:space="preserve">2.03678774833679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0633544921875</t>
+    <t xml:space="preserve">2.06335473060608</t>
   </si>
   <si>
     <t xml:space="preserve">2.05449914932251</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1607666015625</t>
+    <t xml:space="preserve">2.16076636314392</t>
   </si>
   <si>
     <t xml:space="preserve">2.19618892669678</t>
@@ -1787,7 +1790,7 @@
     <t xml:space="preserve">2.08106589317322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07221031188965</t>
+    <t xml:space="preserve">2.07221007347107</t>
   </si>
   <si>
     <t xml:space="preserve">2.08992147445679</t>
@@ -1805,7 +1808,7 @@
     <t xml:space="preserve">2.23161101341248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24932241439819</t>
+    <t xml:space="preserve">2.24932217597961</t>
   </si>
   <si>
     <t xml:space="preserve">2.22275543212891</t>
@@ -1814,22 +1817,19 @@
     <t xml:space="preserve">2.04564332962036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01907682418823</t>
+    <t xml:space="preserve">2.01907658576965</t>
   </si>
   <si>
     <t xml:space="preserve">1.9747987985611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98365437984467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94823217391968</t>
+    <t xml:space="preserve">1.9482319355011</t>
   </si>
   <si>
     <t xml:space="preserve">2.00136566162109</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0279324054718</t>
+    <t xml:space="preserve">2.02793216705322</t>
   </si>
   <si>
     <t xml:space="preserve">2.15651845932007</t>
@@ -2085,6 +2085,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.95000004768372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96000003814697</t>
   </si>
 </sst>
 </file>
@@ -27092,7 +27095,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G949" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27118,7 +27121,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G950" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27170,7 +27173,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G952" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27196,7 +27199,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G953" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27274,7 +27277,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G956" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27300,7 +27303,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G957" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -27352,7 +27355,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G959" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27378,7 +27381,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G960" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -27430,7 +27433,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G962" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27456,7 +27459,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G963" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -27482,7 +27485,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G964" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27508,7 +27511,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G965" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27534,7 +27537,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G966" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27560,7 +27563,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G967" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27586,7 +27589,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G968" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -27612,7 +27615,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G969" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -27638,7 +27641,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G970" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27664,7 +27667,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G971" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27690,7 +27693,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G972" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27742,7 +27745,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G974" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27794,7 +27797,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G976" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27820,7 +27823,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G977" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27846,7 +27849,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G978" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27898,7 +27901,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G980" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27924,7 +27927,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G981" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27950,7 +27953,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G982" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28054,7 +28057,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G986" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28080,7 +28083,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G987" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28210,7 +28213,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G992" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -28236,7 +28239,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G993" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28288,7 +28291,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G995" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28314,7 +28317,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G996" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28366,7 +28369,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G998" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28392,7 +28395,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G999" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28418,7 +28421,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G1000" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -28444,7 +28447,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1001" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -28496,7 +28499,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1003" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -28574,7 +28577,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1006" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -28600,7 +28603,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1007" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28652,7 +28655,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G1009" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28678,7 +28681,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1010" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28704,7 +28707,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1011" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28730,7 +28733,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1012" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28782,7 +28785,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G1014" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28808,7 +28811,7 @@
         <v>2</v>
       </c>
       <c r="G1015" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28834,7 +28837,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1016" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28860,7 +28863,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1017" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28886,7 +28889,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1018" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28964,7 +28967,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1021" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28990,7 +28993,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G1022" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29016,7 +29019,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1023" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29042,7 +29045,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1024" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29068,7 +29071,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1025" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29094,7 +29097,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1026" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29120,7 +29123,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1027" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29146,7 +29149,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1028" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29172,7 +29175,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1029" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29198,7 +29201,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1030" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29224,7 +29227,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1031" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29250,7 +29253,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1032" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -29276,7 +29279,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1033" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29302,7 +29305,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1034" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29328,7 +29331,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G1035" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29354,7 +29357,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G1036" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -29380,7 +29383,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1037" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -29406,7 +29409,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1038" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -29432,7 +29435,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1039" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29458,7 +29461,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1040" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -29484,7 +29487,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1041" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -29510,7 +29513,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1042" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -29536,7 +29539,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1043" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29562,7 +29565,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1044" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29588,7 +29591,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1045" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -29614,7 +29617,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1046" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29640,7 +29643,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1047" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29666,7 +29669,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1048" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29692,7 +29695,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G1049" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -29718,7 +29721,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1050" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29744,7 +29747,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1051" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29770,7 +29773,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1052" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29796,7 +29799,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1053" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29822,7 +29825,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1054" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29848,7 +29851,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1055" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29874,7 +29877,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1056" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29900,7 +29903,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1057" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29926,7 +29929,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1058" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29952,7 +29955,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1059" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29978,7 +29981,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1060" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30004,7 +30007,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1061" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30030,7 +30033,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1062" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30108,7 +30111,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1065" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30134,7 +30137,7 @@
         <v>2</v>
       </c>
       <c r="G1066" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30160,7 +30163,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1067" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30212,7 +30215,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1069" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -30238,7 +30241,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1070" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -30264,7 +30267,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G1071" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30394,7 +30397,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G1076" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30420,7 +30423,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G1077" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30524,7 +30527,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G1081" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -30550,7 +30553,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1082" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -30576,7 +30579,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1083" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -30602,7 +30605,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1084" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30628,7 +30631,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1085" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30654,7 +30657,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1086" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30680,7 +30683,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1087" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30706,7 +30709,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1088" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30732,7 +30735,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1089" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30758,7 +30761,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1090" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30784,7 +30787,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1091" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30810,7 +30813,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1092" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30836,7 +30839,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1093" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30862,7 +30865,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1094" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30888,7 +30891,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1095" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30914,7 +30917,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1096" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30940,7 +30943,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1097" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30966,7 +30969,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1098" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30992,7 +30995,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1099" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31018,7 +31021,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1100" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31044,7 +31047,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1101" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31070,7 +31073,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1102" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31096,7 +31099,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1103" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31122,7 +31125,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1104" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31148,7 +31151,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1105" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -31174,7 +31177,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1106" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31200,7 +31203,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1107" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -31226,7 +31229,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1108" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31252,7 +31255,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1109" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -31278,7 +31281,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1110" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -31304,7 +31307,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1111" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31330,7 +31333,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1112" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31356,7 +31359,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1113" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31382,7 +31385,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1114" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -31408,7 +31411,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1115" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -31434,7 +31437,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1116" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -31460,7 +31463,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1117" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31486,7 +31489,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1118" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31512,7 +31515,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1119" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31538,7 +31541,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1120" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -31564,7 +31567,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1121" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31590,7 +31593,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1122" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31616,7 +31619,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1123" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31642,7 +31645,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1124" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31668,7 +31671,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1125" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31694,7 +31697,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1126" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31720,7 +31723,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1127" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31746,7 +31749,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1128" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31772,7 +31775,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31798,7 +31801,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1130" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31824,7 +31827,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1131" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31850,7 +31853,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1132" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31876,7 +31879,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1133" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31902,7 +31905,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1134" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31928,7 +31931,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1135" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31954,7 +31957,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1136" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31980,7 +31983,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1137" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32006,7 +32009,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1138" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32032,7 +32035,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1139" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32058,7 +32061,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1140" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32084,7 +32087,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1141" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32110,7 +32113,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1142" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32136,7 +32139,7 @@
         <v>2.25</v>
       </c>
       <c r="G1143" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32162,7 +32165,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1144" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32188,7 +32191,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1145" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32214,7 +32217,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1146" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32240,7 +32243,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1147" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32266,7 +32269,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1148" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32292,7 +32295,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1149" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32318,7 +32321,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1150" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -32344,7 +32347,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1151" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -32370,7 +32373,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1152" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -32396,7 +32399,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1153" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -32422,7 +32425,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1154" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -32448,7 +32451,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1155" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32474,7 +32477,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1156" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -32500,7 +32503,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1157" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32526,7 +32529,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1158" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32552,7 +32555,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1159" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32578,7 +32581,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1160" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -32604,7 +32607,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1161" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32630,7 +32633,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1162" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32656,7 +32659,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1163" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32682,7 +32685,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1164" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32708,7 +32711,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1165" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32734,7 +32737,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1166" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32760,7 +32763,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1167" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32786,7 +32789,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1168" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32812,7 +32815,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1169" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32838,7 +32841,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1170" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32864,7 +32867,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1171" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32890,7 +32893,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1172" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32916,7 +32919,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1173" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32942,7 +32945,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1174" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32968,7 +32971,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1175" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32994,7 +32997,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1176" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33020,7 +33023,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1177" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33046,7 +33049,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1178" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33072,7 +33075,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1179" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33098,7 +33101,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1180" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33124,7 +33127,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1181" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33150,7 +33153,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1182" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33176,7 +33179,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1183" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33202,7 +33205,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1184" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33228,7 +33231,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1185" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33254,7 +33257,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1186" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -33280,7 +33283,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1187" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33306,7 +33309,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1188" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -33332,7 +33335,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1189" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -33358,7 +33361,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1190" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -33384,7 +33387,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1191" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -33410,7 +33413,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1192" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -33436,7 +33439,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1193" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -33462,7 +33465,7 @@
         <v>2</v>
       </c>
       <c r="G1194" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33488,7 +33491,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1195" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33514,7 +33517,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1196" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33540,7 +33543,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1197" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33566,7 +33569,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1198" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33592,7 +33595,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1199" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -33618,7 +33621,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1200" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -33644,7 +33647,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1201" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33670,7 +33673,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1202" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33696,7 +33699,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1203" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33722,7 +33725,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1204" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33748,7 +33751,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1205" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33774,7 +33777,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1206" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33800,7 +33803,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1207" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33826,7 +33829,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1208" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33852,7 +33855,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1209" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33878,7 +33881,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33904,7 +33907,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1211" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33930,7 +33933,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1212" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33956,7 +33959,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1213" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33982,7 +33985,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1214" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34008,7 +34011,7 @@
         <v>2</v>
       </c>
       <c r="G1215" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34034,7 +34037,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1216" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34060,7 +34063,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1217" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34086,7 +34089,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1218" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34112,7 +34115,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1219" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34138,7 +34141,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1220" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34164,7 +34167,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1221" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34190,7 +34193,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1222" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34216,7 +34219,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1223" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34242,7 +34245,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1224" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34268,7 +34271,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G1225" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34294,7 +34297,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G1226" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -34320,7 +34323,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1227" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -34346,7 +34349,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1228" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -34372,7 +34375,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1229" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -34398,7 +34401,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1230" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -34424,7 +34427,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1231" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -34450,7 +34453,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1232" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34476,7 +34479,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34502,7 +34505,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1234" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34528,7 +34531,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1235" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -34554,7 +34557,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1236" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -34580,7 +34583,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1237" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34606,7 +34609,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1238" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -34632,7 +34635,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1239" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34658,7 +34661,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1240" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34684,7 +34687,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1241" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34710,7 +34713,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1242" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34736,7 +34739,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1243" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34762,7 +34765,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1244" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34788,7 +34791,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1245" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34814,7 +34817,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1246" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34840,7 +34843,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1247" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34866,7 +34869,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1248" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34892,7 +34895,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1249" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34918,7 +34921,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1250" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34944,7 +34947,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1251" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34970,7 +34973,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1252" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34996,7 +34999,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1253" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35022,7 +35025,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1254" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35048,7 +35051,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1255" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35074,7 +35077,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1256" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35100,7 +35103,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1257" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35126,7 +35129,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1258" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35152,7 +35155,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1259" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35178,7 +35181,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1260" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35204,7 +35207,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1261" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35230,7 +35233,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1262" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35256,7 +35259,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35282,7 +35285,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1264" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35308,7 +35311,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1265" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35334,7 +35337,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1266" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -35360,7 +35363,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1267" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -35386,7 +35389,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1268" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -35412,7 +35415,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1269" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -35438,7 +35441,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1270" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -35464,7 +35467,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1271" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35490,7 +35493,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1272" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35516,7 +35519,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1273" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35542,7 +35545,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1274" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35568,7 +35571,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1275" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35594,7 +35597,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1276" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35620,7 +35623,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1277" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35646,7 +35649,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1278" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35672,7 +35675,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1279" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35698,7 +35701,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1280" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35724,7 +35727,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1281" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35750,7 +35753,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1282" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35776,7 +35779,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1283" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35802,7 +35805,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1284" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35828,7 +35831,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1285" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35854,7 +35857,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1286" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35880,7 +35883,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1287" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35906,7 +35909,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1288" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35932,7 +35935,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1289" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35958,7 +35961,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1290" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35984,7 +35987,7 @@
         <v>2.25</v>
       </c>
       <c r="G1291" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36010,7 +36013,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1292" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36036,7 +36039,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1293" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36062,7 +36065,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1294" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36088,7 +36091,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1295" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36114,7 +36117,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1296" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36140,7 +36143,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1297" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36166,7 +36169,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1298" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -36192,7 +36195,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1299" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -36218,7 +36221,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1300" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -36244,7 +36247,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1301" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36270,7 +36273,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1302" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36296,7 +36299,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1303" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36322,7 +36325,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1304" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36348,7 +36351,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1305" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36374,7 +36377,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1306" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36400,7 +36403,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1307" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36426,7 +36429,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1308" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36452,7 +36455,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1309" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36478,7 +36481,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1310" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36504,7 +36507,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1311" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36530,7 +36533,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1312" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36556,7 +36559,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1313" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36582,7 +36585,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1314" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36608,7 +36611,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1315" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -36634,7 +36637,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1316" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36660,7 +36663,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1317" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36686,7 +36689,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36712,7 +36715,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1319" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -36738,7 +36741,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1320" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36764,7 +36767,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1321" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36790,7 +36793,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1322" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36816,7 +36819,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1323" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36842,7 +36845,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1324" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36868,7 +36871,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1325" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36894,7 +36897,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1326" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36920,7 +36923,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1327" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36946,7 +36949,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1328" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36972,7 +36975,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1329" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36998,7 +37001,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1330" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37024,7 +37027,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1331" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37050,7 +37053,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1332" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37076,7 +37079,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1333" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37102,7 +37105,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1334" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37128,7 +37131,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1335" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37154,7 +37157,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1336" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -37180,7 +37183,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1337" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -37206,7 +37209,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1338" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -37232,7 +37235,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1339" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -37258,7 +37261,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1340" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -37284,7 +37287,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1341" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37310,7 +37313,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1342" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37336,7 +37339,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1343" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -37362,7 +37365,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1344" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37388,7 +37391,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1345" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37414,7 +37417,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1346" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37440,7 +37443,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1347" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37466,7 +37469,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1348" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -37492,7 +37495,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1349" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -37518,7 +37521,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1350" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -37544,7 +37547,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1351" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -37570,7 +37573,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1352" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37596,7 +37599,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1353" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37622,7 +37625,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1354" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -37648,7 +37651,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1355" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -37674,7 +37677,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1356" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37700,7 +37703,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1357" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37726,7 +37729,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1358" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -37752,7 +37755,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1359" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37778,7 +37781,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1360" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37804,7 +37807,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1361" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -37830,7 +37833,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1362" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37856,7 +37859,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1363" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37882,7 +37885,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1364" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -37908,7 +37911,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1365" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -37934,7 +37937,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1366" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -37960,7 +37963,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1367" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -37986,7 +37989,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1368" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38012,7 +38015,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1369" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38038,7 +38041,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1370" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38064,7 +38067,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1371" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -38090,7 +38093,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1372" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -38116,7 +38119,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1373" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -38142,7 +38145,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1374" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -38168,7 +38171,7 @@
         <v>2.5</v>
       </c>
       <c r="G1375" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -38194,7 +38197,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G1376" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -38220,7 +38223,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1377" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -38246,7 +38249,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1378" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -38272,7 +38275,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1379" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -38298,7 +38301,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1380" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38324,7 +38327,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1381" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38350,7 +38353,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1382" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38376,7 +38379,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1383" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38402,7 +38405,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1384" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38428,7 +38431,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1385" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38454,7 +38457,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1386" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38480,7 +38483,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1387" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38506,7 +38509,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1388" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38532,7 +38535,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1389" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38558,7 +38561,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1390" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38584,7 +38587,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1391" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38610,7 +38613,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1392" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38636,7 +38639,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1393" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38662,7 +38665,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1394" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38688,7 +38691,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1395" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38714,7 +38717,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1396" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38740,7 +38743,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1397" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38766,7 +38769,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1398" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38792,7 +38795,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1399" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38818,7 +38821,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1400" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38844,7 +38847,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1401" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38870,7 +38873,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1402" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38896,7 +38899,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1403" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38922,7 +38925,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1404" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38948,7 +38951,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1405" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38974,7 +38977,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1406" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39000,7 +39003,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1407" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39026,7 +39029,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1408" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39052,7 +39055,7 @@
         <v>2.25</v>
       </c>
       <c r="G1409" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39078,7 +39081,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1410" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39104,7 +39107,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1411" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39130,7 +39133,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1412" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39156,7 +39159,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1413" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39182,7 +39185,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1414" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39208,7 +39211,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1415" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39234,7 +39237,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1416" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39260,7 +39263,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1417" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39286,7 +39289,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1418" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39312,7 +39315,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1419" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39338,7 +39341,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1420" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39364,7 +39367,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1421" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39390,7 +39393,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1422" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39416,7 +39419,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1423" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39442,7 +39445,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1424" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39468,7 +39471,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1425" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39494,7 +39497,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1426" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39520,7 +39523,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1427" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39546,7 +39549,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1428" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39572,7 +39575,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1429" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39598,7 +39601,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1430" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39624,7 +39627,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1431" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39650,7 +39653,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39676,7 +39679,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1433" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39702,7 +39705,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1434" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -39728,7 +39731,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1435" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -39754,7 +39757,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1436" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39780,7 +39783,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1437" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39806,7 +39809,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1438" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39832,7 +39835,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1439" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39858,7 +39861,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1440" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39884,7 +39887,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1441" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39910,7 +39913,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1442" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39936,7 +39939,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1443" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39962,7 +39965,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1444" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39988,7 +39991,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1445" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40014,7 +40017,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1446" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40040,7 +40043,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1447" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40066,7 +40069,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1448" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40092,7 +40095,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1449" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40118,7 +40121,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1450" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40144,7 +40147,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1451" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40170,7 +40173,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1452" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40196,7 +40199,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1453" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40222,7 +40225,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1454" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -40248,7 +40251,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1455" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40274,7 +40277,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1456" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40300,7 +40303,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1457" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40326,7 +40329,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1458" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40352,7 +40355,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1459" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40378,7 +40381,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1460" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40404,7 +40407,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1461" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40430,7 +40433,7 @@
         <v>2.5</v>
       </c>
       <c r="G1462" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40456,7 +40459,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1463" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40482,7 +40485,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1464" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40508,7 +40511,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1465" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40534,7 +40537,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1466" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40560,7 +40563,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1467" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40586,7 +40589,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1468" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40612,7 +40615,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1469" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40638,7 +40641,7 @@
         <v>2.5</v>
       </c>
       <c r="G1470" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40664,7 +40667,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1471" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -40690,7 +40693,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1472" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -40716,7 +40719,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1473" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -40742,7 +40745,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1474" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -40768,7 +40771,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1475" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40794,7 +40797,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1476" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40820,7 +40823,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1477" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40846,7 +40849,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1478" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40872,7 +40875,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1479" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40898,7 +40901,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1480" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40924,7 +40927,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1481" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40950,7 +40953,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1482" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40976,7 +40979,7 @@
         <v>2.5</v>
       </c>
       <c r="G1483" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41002,7 +41005,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1484" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41028,7 +41031,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1485" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41054,7 +41057,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1486" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41080,7 +41083,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1487" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41106,7 +41109,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1488" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41132,7 +41135,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1489" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -41158,7 +41161,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1490" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -41184,7 +41187,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1491" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41210,7 +41213,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1492" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41236,7 +41239,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1493" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41262,7 +41265,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1494" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41288,7 +41291,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1495" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41314,7 +41317,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1496" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41340,7 +41343,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1497" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41366,7 +41369,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1498" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41392,7 +41395,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1499" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41418,7 +41421,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1500" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41444,7 +41447,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1501" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41470,7 +41473,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1502" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41496,7 +41499,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1503" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41522,7 +41525,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1504" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41548,7 +41551,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1505" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -41574,7 +41577,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1506" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -41600,7 +41603,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1507" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41626,7 +41629,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1508" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -41652,7 +41655,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1509" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -41678,7 +41681,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1510" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -41704,7 +41707,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1511" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -41730,7 +41733,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1512" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -41756,7 +41759,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1513" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41782,7 +41785,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1514" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -41808,7 +41811,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1515" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41834,7 +41837,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1516" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41860,7 +41863,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1517" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41886,7 +41889,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1518" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41912,7 +41915,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1519" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41938,7 +41941,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1520" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41964,7 +41967,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1521" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41990,7 +41993,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1522" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42016,7 +42019,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1523" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42042,7 +42045,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1524" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42068,7 +42071,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1525" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42094,7 +42097,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1526" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42120,7 +42123,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1527" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42146,7 +42149,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1528" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42172,7 +42175,7 @@
         <v>2.5</v>
       </c>
       <c r="G1529" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42198,7 +42201,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1530" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42224,7 +42227,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1531" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42250,7 +42253,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1532" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42276,7 +42279,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1533" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42302,7 +42305,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1534" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42328,7 +42331,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1535" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42354,7 +42357,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1536" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42380,7 +42383,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1537" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42406,7 +42409,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1538" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42432,7 +42435,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1539" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42458,7 +42461,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1540" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42484,7 +42487,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1541" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42510,7 +42513,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1542" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42536,7 +42539,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1543" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42562,7 +42565,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1544" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42588,7 +42591,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1545" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42614,7 +42617,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1546" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -42640,7 +42643,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1547" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42666,7 +42669,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1548" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42692,7 +42695,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1549" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42718,7 +42721,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1550" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42744,7 +42747,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1551" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42770,7 +42773,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1552" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42796,7 +42799,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1553" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42822,7 +42825,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1554" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42848,7 +42851,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1555" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42874,7 +42877,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1556" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42900,7 +42903,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1557" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42926,7 +42929,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1558" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42952,7 +42955,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1559" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42978,7 +42981,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1560" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43004,7 +43007,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1561" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43030,7 +43033,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1562" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43056,7 +43059,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1563" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43082,7 +43085,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1564" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43108,7 +43111,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1565" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43134,7 +43137,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1566" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43160,7 +43163,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1567" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43186,7 +43189,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1568" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -43212,7 +43215,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1569" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43238,7 +43241,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1570" t="s">
-        <v>602</v>
+        <v>523</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43368,7 +43371,7 @@
         <v>2.25</v>
       </c>
       <c r="G1575" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43394,7 +43397,7 @@
         <v>2.25</v>
       </c>
       <c r="G1576" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43420,7 +43423,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1577" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43446,7 +43449,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1578" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43472,7 +43475,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1579" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43498,7 +43501,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1580" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43524,7 +43527,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1581" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43550,7 +43553,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1582" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43576,7 +43579,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1583" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43602,7 +43605,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1584" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43628,7 +43631,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1585" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43654,7 +43657,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1586" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43680,7 +43683,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1587" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43706,7 +43709,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1588" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -43732,7 +43735,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1589" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -43758,7 +43761,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1590" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43784,7 +43787,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1591" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43810,7 +43813,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1592" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43836,7 +43839,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1593" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43862,7 +43865,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1594" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43888,7 +43891,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1595" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43914,7 +43917,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1596" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43940,7 +43943,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1597" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43966,7 +43969,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1598" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43992,7 +43995,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1599" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44018,7 +44021,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1600" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44044,7 +44047,7 @@
         <v>2.25</v>
       </c>
       <c r="G1601" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44070,7 +44073,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1602" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44096,7 +44099,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1603" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44122,7 +44125,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1604" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44148,7 +44151,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1605" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44304,7 +44307,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1611" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44330,7 +44333,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1612" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44356,7 +44359,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1613" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44382,7 +44385,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1614" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44434,7 +44437,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1616" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44460,7 +44463,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1617" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44486,7 +44489,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1618" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44512,7 +44515,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1619" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44538,7 +44541,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1620" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44564,7 +44567,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1621" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44590,7 +44593,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1622" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44616,7 +44619,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1623" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44642,7 +44645,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1624" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44668,7 +44671,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1625" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44694,7 +44697,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1626" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -44720,7 +44723,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1627" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -44746,7 +44749,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1628" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44772,7 +44775,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1629" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44798,7 +44801,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1630" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44824,7 +44827,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1631" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44850,7 +44853,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1632" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44876,7 +44879,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1633" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44902,7 +44905,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1634" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44928,7 +44931,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1635" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44954,7 +44957,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44980,7 +44983,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1637" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45006,7 +45009,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1638" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45032,7 +45035,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1639" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45058,7 +45061,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1640" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45084,7 +45087,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1641" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45110,7 +45113,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1642" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45136,7 +45139,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1643" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45162,7 +45165,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1644" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -58794,7 +58797,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6437962963</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>40143</v>
@@ -58815,6 +58818,32 @@
         <v>690</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6493518519</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>11415</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>1.97500002384186</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>1.91499996185303</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>1.92499995231628</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>1.96000003814697</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>691</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AC5.MI.xlsx
+++ b/data/AC5.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="692">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1933411359787</t>
+    <t xml:space="preserve">1.19334125518799</t>
   </si>
   <si>
     <t xml:space="preserve">AC5.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17184627056122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1711049079895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13997435569763</t>
+    <t xml:space="preserve">1.17184603214264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17110502719879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13997423648834</t>
   </si>
   <si>
     <t xml:space="preserve">1.16369307041168</t>
@@ -59,52 +59,52 @@
     <t xml:space="preserve">1.14071547985077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1414567232132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14886879920959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13478577136993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12811517715454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04065263271332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982097685337067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96356725692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03398180007935</t>
+    <t xml:space="preserve">1.14145660400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14886868000031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13478600978851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12811481952667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0406528711319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982097506523132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.963567435741425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03398191928864</t>
   </si>
   <si>
     <t xml:space="preserve">1.08141899108887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05102980136871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05992412567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09772562980652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07400703430176</t>
+    <t xml:space="preserve">1.05102956295013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05992424488068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09772551059723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07400691509247</t>
   </si>
   <si>
     <t xml:space="preserve">1.07919549942017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06733620166779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08734846115112</t>
+    <t xml:space="preserve">1.06733644008636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0873486995697</t>
   </si>
   <si>
     <t xml:space="preserve">1.06807744503021</t>
@@ -113,22 +113,22 @@
     <t xml:space="preserve">1.06214761734009</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985803484916687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936884105205536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953190624713898</t>
+    <t xml:space="preserve">0.985803663730621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936884045600891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953190505504608</t>
   </si>
   <si>
     <t xml:space="preserve">0.959861278533936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977650105953217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02582883834839</t>
+    <t xml:space="preserve">0.977650463581085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02582859992981</t>
   </si>
   <si>
     <t xml:space="preserve">1.00952208042145</t>
@@ -140,25 +140,25 @@
     <t xml:space="preserve">1.00136876106262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04509997367859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03842914104462</t>
+    <t xml:space="preserve">1.04510009288788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03842926025391</t>
   </si>
   <si>
     <t xml:space="preserve">1.02953469753265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03175830841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01915776729584</t>
+    <t xml:space="preserve">1.03175818920135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01915788650513</t>
   </si>
   <si>
     <t xml:space="preserve">1.03101718425751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02805233001709</t>
+    <t xml:space="preserve">1.0280522108078</t>
   </si>
   <si>
     <t xml:space="preserve">1.03768789768219</t>
@@ -167,10 +167,10 @@
     <t xml:space="preserve">1.05844163894653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05621802806854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04139399528503</t>
+    <t xml:space="preserve">1.05621814727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04139387607574</t>
   </si>
   <si>
     <t xml:space="preserve">1.06362998485565</t>
@@ -182,19 +182,19 @@
     <t xml:space="preserve">1.04732358455658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05177092552185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0428763628006</t>
+    <t xml:space="preserve">1.05177080631256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04287624359131</t>
   </si>
   <si>
     <t xml:space="preserve">1.02434635162354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04880619049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07474839687347</t>
+    <t xml:space="preserve">1.04880607128143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0747481584549</t>
   </si>
   <si>
     <t xml:space="preserve">1.06066524982452</t>
@@ -203,16 +203,16 @@
     <t xml:space="preserve">1.08216035366058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1444216966629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14516270160675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12885630130768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13404452800751</t>
+    <t xml:space="preserve">1.14442157745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14516282081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12885618209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1340446472168</t>
   </si>
   <si>
     <t xml:space="preserve">1.22966027259827</t>
@@ -221,40 +221,40 @@
     <t xml:space="preserve">1.2155773639679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17777585983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18592929840088</t>
+    <t xml:space="preserve">1.17777562141418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1859290599823</t>
   </si>
   <si>
     <t xml:space="preserve">1.20075333118439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16221034526825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14219796657562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2081652879715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20668292045593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19408226013184</t>
+    <t xml:space="preserve">1.16221058368683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14219784736633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20816516876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20668268203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19408237934113</t>
   </si>
   <si>
     <t xml:space="preserve">1.18296432495117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18222308158875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17481100559235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19111740589142</t>
+    <t xml:space="preserve">1.18222296237946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17481088638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19111752510071</t>
   </si>
   <si>
     <t xml:space="preserve">1.22076570987701</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">1.22891902923584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24596679210663</t>
+    <t xml:space="preserve">1.24596691131592</t>
   </si>
   <si>
     <t xml:space="preserve">1.260049700737</t>
@@ -275,10 +275,10 @@
     <t xml:space="preserve">1.26079094409943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2548611164093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27265000343323</t>
+    <t xml:space="preserve">1.25486099720001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27265012264252</t>
   </si>
   <si>
     <t xml:space="preserve">1.27042651176453</t>
@@ -296,10 +296,10 @@
     <t xml:space="preserve">1.2376297712326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23610651493073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21021139621735</t>
+    <t xml:space="preserve">1.23610627651215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21021151542664</t>
   </si>
   <si>
     <t xml:space="preserve">1.2132580280304</t>
@@ -311,13 +311,13 @@
     <t xml:space="preserve">1.21097302436829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20259547233582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19574069976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20107197761536</t>
+    <t xml:space="preserve">1.20259523391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19574081897736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20107221603394</t>
   </si>
   <si>
     <t xml:space="preserve">1.18736302852631</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">1.16375279426575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14623558521271</t>
+    <t xml:space="preserve">1.14623546600342</t>
   </si>
   <si>
     <t xml:space="preserve">1.15004372596741</t>
@@ -335,16 +335,16 @@
     <t xml:space="preserve">1.14395070075989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19193267822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17517709732056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16756093502045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17289209365845</t>
+    <t xml:space="preserve">1.19193255901337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17517685890198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16756069660187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17289197444916</t>
   </si>
   <si>
     <t xml:space="preserve">1.11577081680298</t>
@@ -353,73 +353,73 @@
     <t xml:space="preserve">1.11196267604828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17670011520386</t>
+    <t xml:space="preserve">1.17670035362244</t>
   </si>
   <si>
     <t xml:space="preserve">1.16984570026398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20411849021912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23534488677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2300136089325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25667011737823</t>
+    <t xml:space="preserve">1.20411860942841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2353447675705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23001348972321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25667023658752</t>
   </si>
   <si>
     <t xml:space="preserve">1.22620558738708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25286197662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23153698444366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25362372398376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2223973274231</t>
+    <t xml:space="preserve">1.25286209583282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23153686523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25362384319305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22239744663239</t>
   </si>
   <si>
     <t xml:space="preserve">1.23382163047791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22315895557404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24143767356873</t>
+    <t xml:space="preserve">1.22315907478333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24143779277802</t>
   </si>
   <si>
     <t xml:space="preserve">1.2490541934967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24753081798553</t>
+    <t xml:space="preserve">1.24753069877625</t>
   </si>
   <si>
     <t xml:space="preserve">1.26428639888763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25590884685516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26352488994598</t>
+    <t xml:space="preserve">1.25590860843658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2635246515274</t>
   </si>
   <si>
     <t xml:space="preserve">1.27190256118774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27951884269714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28332686424255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27418744564056</t>
+    <t xml:space="preserve">1.27951860427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28332662582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27418732643127</t>
   </si>
   <si>
     <t xml:space="preserve">1.30617547035217</t>
@@ -428,31 +428,31 @@
     <t xml:space="preserve">1.33435523509979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37091279029846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35491907596588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34806442260742</t>
+    <t xml:space="preserve">1.37091290950775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35491895675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34806430339813</t>
   </si>
   <si>
     <t xml:space="preserve">1.34425640106201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33054733276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29475116729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30998361110687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32521593570709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31074500083923</t>
+    <t xml:space="preserve">1.33054721355438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29475128650665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30998337268829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3252158164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31074512004852</t>
   </si>
   <si>
     <t xml:space="preserve">1.31302976608276</t>
@@ -461,25 +461,25 @@
     <t xml:space="preserve">1.31379163265228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32064616680145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28713488578796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28104186058044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31531488895416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29779756069183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27266430854797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26885616779327</t>
+    <t xml:space="preserve">1.32064592838287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28713512420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28104209899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31531465053558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29779767990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27266407012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26885604858398</t>
   </si>
   <si>
     <t xml:space="preserve">1.24829244613647</t>
@@ -488,34 +488,34 @@
     <t xml:space="preserve">1.24524593353271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24219965934753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22544384002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24600744247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25514686107635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24067628383636</t>
+    <t xml:space="preserve">1.24219942092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22544372081757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24600756168365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25514698028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24067604541779</t>
   </si>
   <si>
     <t xml:space="preserve">1.22849035263062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21249628067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20335686206818</t>
+    <t xml:space="preserve">1.21249651908875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20335698127747</t>
   </si>
   <si>
     <t xml:space="preserve">1.21630442142487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22468233108521</t>
+    <t xml:space="preserve">1.22468221187592</t>
   </si>
   <si>
     <t xml:space="preserve">1.24372255802155</t>
@@ -530,13 +530,13 @@
     <t xml:space="preserve">1.22163569927216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21858942508698</t>
+    <t xml:space="preserve">1.21858930587769</t>
   </si>
   <si>
     <t xml:space="preserve">1.21554279327393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1926943063736</t>
+    <t xml:space="preserve">1.19269442558289</t>
   </si>
   <si>
     <t xml:space="preserve">1.18964779376984</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">1.15765976905823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18050849437714</t>
+    <t xml:space="preserve">1.18050837516785</t>
   </si>
   <si>
     <t xml:space="preserve">1.16527605056763</t>
@@ -560,19 +560,19 @@
     <t xml:space="preserve">1.14471232891083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16832256317139</t>
+    <t xml:space="preserve">1.16832268238068</t>
   </si>
   <si>
     <t xml:space="preserve">1.1553750038147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16146779060364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18583977222443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17365372180939</t>
+    <t xml:space="preserve">1.16146790981293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18583989143372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17365384101868</t>
   </si>
   <si>
     <t xml:space="preserve">1.19040930271149</t>
@@ -581,40 +581,40 @@
     <t xml:space="preserve">1.18812441825867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18127000331879</t>
+    <t xml:space="preserve">1.1812698841095</t>
   </si>
   <si>
     <t xml:space="preserve">1.18431639671326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1888861656189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24296116828918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22925186157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22011256217957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22696709632874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1850780248642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17974674701691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16908395290375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17136883735657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1645143032074</t>
+    <t xml:space="preserve">1.18888604640961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2429610490799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22925198078156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22011268138885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22696697711945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18507814407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1797468662262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16908407211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17136907577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16451442241669</t>
   </si>
   <si>
     <t xml:space="preserve">1.17060732841492</t>
@@ -623,16 +623,16 @@
     <t xml:space="preserve">1.1721305847168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20640325546265</t>
+    <t xml:space="preserve">1.20640349388123</t>
   </si>
   <si>
     <t xml:space="preserve">1.19954872131348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21478128433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27342581748962</t>
+    <t xml:space="preserve">1.21478116512299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27342593669891</t>
   </si>
   <si>
     <t xml:space="preserve">1.27571058273315</t>
@@ -641,55 +641,55 @@
     <t xml:space="preserve">1.30769860744476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29855930805206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29094314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31759977340698</t>
+    <t xml:space="preserve">1.29855918884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29094302654266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31759965419769</t>
   </si>
   <si>
     <t xml:space="preserve">1.31988453865051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35034918785095</t>
+    <t xml:space="preserve">1.35034930706024</t>
   </si>
   <si>
     <t xml:space="preserve">1.36177349090576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34654116630554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37852919101715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37776744365692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36329674720764</t>
+    <t xml:space="preserve">1.34654104709625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37852907180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37776756286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36329662799835</t>
   </si>
   <si>
     <t xml:space="preserve">1.38233721256256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34273302555084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35415744781494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35568046569824</t>
+    <t xml:space="preserve">1.34273290634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35415732860565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35568058490753</t>
   </si>
   <si>
     <t xml:space="preserve">1.36862814426422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38005244731903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4166100025177</t>
+    <t xml:space="preserve">1.38005256652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41661012172699</t>
   </si>
   <si>
     <t xml:space="preserve">1.39376139640808</t>
@@ -698,43 +698,43 @@
     <t xml:space="preserve">1.40137755870819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44326686859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42422616481781</t>
+    <t xml:space="preserve">1.44326663017273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42422652244568</t>
   </si>
   <si>
     <t xml:space="preserve">1.44402825832367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41508662700653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43031919002533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46230697631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44707477092743</t>
+    <t xml:space="preserve">1.41508674621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43031907081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46230709552765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44707465171814</t>
   </si>
   <si>
     <t xml:space="preserve">1.45316767692566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46840000152588</t>
+    <t xml:space="preserve">1.46840012073517</t>
   </si>
   <si>
     <t xml:space="preserve">1.43793535232544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42727267742157</t>
+    <t xml:space="preserve">1.42727279663086</t>
   </si>
   <si>
     <t xml:space="preserve">1.44478988647461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47686171531677</t>
+    <t xml:space="preserve">1.47686159610748</t>
   </si>
   <si>
     <t xml:space="preserve">1.50893330574036</t>
@@ -746,73 +746,73 @@
     <t xml:space="preserve">1.59889018535614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62705099582672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65051782131195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67085611820221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57855212688446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57229447364807</t>
+    <t xml:space="preserve">1.62705087661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65051794052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67085599899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57855224609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57229435443878</t>
   </si>
   <si>
     <t xml:space="preserve">1.5472629070282</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53865814208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55117404460907</t>
+    <t xml:space="preserve">1.53865826129913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55117392539978</t>
   </si>
   <si>
     <t xml:space="preserve">1.52770686149597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52927160263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50189328193665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50345766544342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49719953536987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49015939235687</t>
+    <t xml:space="preserve">1.52927136421204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50189316272736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50345778465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49719965457916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49015963077545</t>
   </si>
   <si>
     <t xml:space="preserve">1.49407088756561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46278131008148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51753771305084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51832008361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53161811828613</t>
+    <t xml:space="preserve">1.46278142929077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51753807067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51832020282745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53161799907684</t>
   </si>
   <si>
     <t xml:space="preserve">1.5120621919632</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48624837398529</t>
+    <t xml:space="preserve">1.48624849319458</t>
   </si>
   <si>
     <t xml:space="preserve">1.47607934474945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48781287670135</t>
+    <t xml:space="preserve">1.48781299591064</t>
   </si>
   <si>
     <t xml:space="preserve">1.47842609882355</t>
@@ -821,73 +821,73 @@
     <t xml:space="preserve">1.48390173912048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47451496124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48311948776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50267541408539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53709387779236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55273842811584</t>
+    <t xml:space="preserve">1.47451484203339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48311936855316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50267553329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53709375858307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55273854732513</t>
   </si>
   <si>
     <t xml:space="preserve">1.5261424779892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52536022663116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55195605754852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54882729053497</t>
+    <t xml:space="preserve">1.52536046504974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55195617675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54882740974426</t>
   </si>
   <si>
     <t xml:space="preserve">1.58011674880981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57072997093201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56447207927704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54178702831268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5566498041153</t>
+    <t xml:space="preserve">1.57072985172272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56447196006775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54178714752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55664968490601</t>
   </si>
   <si>
     <t xml:space="preserve">1.57385897636414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5660365819931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58324575424194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5543030500412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55977869033813</t>
+    <t xml:space="preserve">1.56603670120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58324551582336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55430293083191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55977857112885</t>
   </si>
   <si>
     <t xml:space="preserve">1.58793914318085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55743193626404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56916534900665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61140620708466</t>
+    <t xml:space="preserve">1.55743205547333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56916558742523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61140608787537</t>
   </si>
   <si>
     <t xml:space="preserve">1.54256951808929</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">1.59106802940369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57542312145233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6145350933075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62861526012421</t>
+    <t xml:space="preserve">1.57542335987091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61453521251678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62861549854279</t>
   </si>
   <si>
     <t xml:space="preserve">1.6192284822464</t>
@@ -920,52 +920,52 @@
     <t xml:space="preserve">1.69745230674744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74438643455505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72404825687408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76003110408783</t>
+    <t xml:space="preserve">1.74438631534576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72404837608337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76003098487854</t>
   </si>
   <si>
     <t xml:space="preserve">1.77567565441132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78975582122803</t>
+    <t xml:space="preserve">1.78975605964661</t>
   </si>
   <si>
     <t xml:space="preserve">1.72091925144196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74751532077789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73499917984009</t>
+    <t xml:space="preserve">1.74751543998718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73499953746796</t>
   </si>
   <si>
     <t xml:space="preserve">1.73656404018402</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74595081806183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7381284236908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73969280719757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75690221786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75533747673035</t>
+    <t xml:space="preserve">1.74595093727112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73812818527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73969292640686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75690197944641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75533771514893</t>
   </si>
   <si>
     <t xml:space="preserve">1.72717702388763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70527446269989</t>
+    <t xml:space="preserve">1.70527470111847</t>
   </si>
   <si>
     <t xml:space="preserve">1.71309697628021</t>
@@ -974,88 +974,88 @@
     <t xml:space="preserve">1.81478750705719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87423729896545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88675332069397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86485087871552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87267315387726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91647815704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93994569778442</t>
+    <t xml:space="preserve">1.87423753738403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88675343990326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86485064029694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87267327308655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91647827625275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93994534015656</t>
   </si>
   <si>
     <t xml:space="preserve">1.91334939002991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83825469017029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78193378448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72874140739441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83356142044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84764122962952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90865588188171</t>
+    <t xml:space="preserve">1.83825445175171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78193366527557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72874164581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83356153964996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8476414680481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90865576267242</t>
   </si>
   <si>
     <t xml:space="preserve">1.87893104553223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89614009857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79914271831512</t>
+    <t xml:space="preserve">1.89614021778107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7991429567337</t>
   </si>
   <si>
     <t xml:space="preserve">1.81165862083435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79601383209229</t>
+    <t xml:space="preserve">1.796013712883</t>
   </si>
   <si>
     <t xml:space="preserve">1.82260990142822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79288494586945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77098250389099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76316010951996</t>
+    <t xml:space="preserve">1.79288518428802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77098226547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76315987110138</t>
   </si>
   <si>
     <t xml:space="preserve">1.7522087097168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70371007919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73187041282654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79444944858551</t>
+    <t xml:space="preserve">1.70370995998383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73187053203583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79444921016693</t>
   </si>
   <si>
     <t xml:space="preserve">1.78819155693054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82886791229248</t>
+    <t xml:space="preserve">1.82886779308319</t>
   </si>
   <si>
     <t xml:space="preserve">1.80540084838867</t>
@@ -1067,97 +1067,97 @@
     <t xml:space="preserve">1.80696499347687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78349816799164</t>
+    <t xml:space="preserve">1.78349804878235</t>
   </si>
   <si>
     <t xml:space="preserve">1.85389912128448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83043229579926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89301145076752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90083348751068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87736654281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95559000968933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96341264247894</t>
+    <t xml:space="preserve">1.83043217658997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89301121234894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90083360671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87736630439758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95558989048004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96341228485107</t>
   </si>
   <si>
     <t xml:space="preserve">1.88518893718719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86954379081726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84607684612274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8617217540741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93212306499481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92430031299591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96357178688049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97155404090881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92366206645966</t>
+    <t xml:space="preserve">1.86954426765442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84607672691345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86172187328339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93212294578552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92430055141449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96357214450836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97155392169952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92366218566895</t>
   </si>
   <si>
     <t xml:space="preserve">1.93962609767914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8917338848114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88375198841095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97953629493713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90769803524017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87576997280121</t>
+    <t xml:space="preserve">1.89173364639282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88375186920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97953617572784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90769815444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87576985359192</t>
   </si>
   <si>
     <t xml:space="preserve">1.82787799835205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77200412750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8358598947525</t>
+    <t xml:space="preserve">1.77200400829315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83586013317108</t>
   </si>
   <si>
     <t xml:space="preserve">1.74805808067322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76402187347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74007594585419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81989622116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72411215305328</t>
+    <t xml:space="preserve">1.76402199268341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74007618427277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81989598274231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72411203384399</t>
   </si>
   <si>
     <t xml:space="preserve">1.70814800262451</t>
@@ -1169,235 +1169,235 @@
     <t xml:space="preserve">1.73209404945374</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69218397140503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63630998134613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57644486427307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59240901470184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54850792884827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47267913818359</t>
+    <t xml:space="preserve">1.69218385219574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63631010055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57644498348236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59240889549255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54850816726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47267889976501</t>
   </si>
   <si>
     <t xml:space="preserve">1.46868801116943</t>
   </si>
   <si>
+    <t xml:space="preserve">1.42877805233002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4048318862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43675994873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44873309135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42478692531586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4567152261734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41281390190125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40882289409637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39685010910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35694003105164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33299398422241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3210209608078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30505681037903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29707503318787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30904793739319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34895813465118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34097599983215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35294902324677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34496688842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37290394306183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36093103885651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38487696647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39285910129547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3888680934906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36891305446625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45272409915924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44075095653534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46070599555969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41680502891541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42079591751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49263405799866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4327689409256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44474196434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40084099769592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38088607788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32501196861267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37689507007599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43293142318726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44539165496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41631770133972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38309037685394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40801095962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3997038602829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42047119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45369851589203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47031223773956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45785188674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46615874767303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4744656085968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52846014499664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55753409862518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56999444961548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57414782047272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55338072776794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5243067741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56168746948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50353956222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5118465423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49523270130157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48277246952057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47861897945404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4620053768158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44954514503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44123828411102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4869259595871</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.42877793312073</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40483200550079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43676006793976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44873297214508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42478680610657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45671510696411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41281402111053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40882313251495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39685010910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35693991184235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33299398422241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3210209608078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30505704879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29707491397858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30904805660248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34895801544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34097599983215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35294890403748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34496700763702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37290406227112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36093103885651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38487708568573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39285886287689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38886797428131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36891317367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45272409915924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44075095653534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46070611476898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41680502891541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42079591751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49263405799866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43276917934418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44474184513092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40084099769592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38088595867157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32501196861267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3768949508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43293130397797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44539165496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41631782054901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38309037685394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40801084041595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39970397949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42047119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45369851589203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47031223773956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45785200595856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46615886688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4744656085968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52846014499664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55753409862518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56999433040619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57414782047272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55338072776794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52430665493011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56168758869171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50353956222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5118465423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49523282051086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48277235031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47861897945404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4620053768158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44954514503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44123828411102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48692584037781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42877805233002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42462468147278</t>
+    <t xml:space="preserve">1.42462456226349</t>
   </si>
   <si>
     <t xml:space="preserve">1.41216433048248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40385746955872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54507386684418</t>
+    <t xml:space="preserve">1.40385758876801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54507398605347</t>
   </si>
   <si>
     <t xml:space="preserve">1.53676700592041</t>
@@ -1412,16 +1412,16 @@
     <t xml:space="preserve">1.58245468139648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57830119132996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62398886680603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66136968135834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62814247608185</t>
+    <t xml:space="preserve">1.57830131053925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62398898601532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66136980056763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62814235687256</t>
   </si>
   <si>
     <t xml:space="preserve">1.60322177410126</t>
@@ -1430,16 +1430,16 @@
     <t xml:space="preserve">1.59491491317749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59076154232025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65306282043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61983549594879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61152863502502</t>
+    <t xml:space="preserve">1.59076142311096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65306293964386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61983561515808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61152875423431</t>
   </si>
   <si>
     <t xml:space="preserve">1.59906828403473</t>
@@ -1451,16 +1451,16 @@
     <t xml:space="preserve">1.61568212509155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58660817146301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63644933700562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74443805217743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94380223751068</t>
+    <t xml:space="preserve">1.58660805225372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63644921779633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74443817138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94380247592926</t>
   </si>
   <si>
     <t xml:space="preserve">1.96041619777679</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">2.02687096595764</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24284934997559</t>
+    <t xml:space="preserve">2.24284911155701</t>
   </si>
   <si>
     <t xml:space="preserve">2.14316701889038</t>
@@ -1478,49 +1478,49 @@
     <t xml:space="preserve">2.25115609169006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29269027709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30930376052856</t>
+    <t xml:space="preserve">2.29269003868103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30930399894714</t>
   </si>
   <si>
     <t xml:space="preserve">2.31761074066162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26776957511902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3259174823761</t>
+    <t xml:space="preserve">2.2677698135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32591772079468</t>
   </si>
   <si>
     <t xml:space="preserve">2.20131516456604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06840562820435</t>
+    <t xml:space="preserve">2.06840538978577</t>
   </si>
   <si>
     <t xml:space="preserve">1.89396142959595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90226829051971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99364364147186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93549561500549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70290386676788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50769317150116</t>
+    <t xml:space="preserve">1.902268409729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99364376068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93549585342407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70290398597717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50769305229187</t>
   </si>
   <si>
     <t xml:space="preserve">1.6572163105011</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79427933692932</t>
+    <t xml:space="preserve">1.79427945613861</t>
   </si>
   <si>
     <t xml:space="preserve">1.69459700584412</t>
@@ -1529,13 +1529,13 @@
     <t xml:space="preserve">1.71121072769165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7527449131012</t>
+    <t xml:space="preserve">1.75274503231049</t>
   </si>
   <si>
     <t xml:space="preserve">1.6696765422821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72782456874847</t>
+    <t xml:space="preserve">1.72782444953918</t>
   </si>
   <si>
     <t xml:space="preserve">1.71951758861542</t>
@@ -1550,28 +1550,28 @@
     <t xml:space="preserve">1.68629038333893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73613142967224</t>
+    <t xml:space="preserve">1.73613131046295</t>
   </si>
   <si>
     <t xml:space="preserve">1.67798340320587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76105189323425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8275066614151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83581340312958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9853367805481</t>
+    <t xml:space="preserve">1.76105177402496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82750678062439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83581364154816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98533701896667</t>
   </si>
   <si>
     <t xml:space="preserve">2.0351779460907</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00195050239563</t>
+    <t xml:space="preserve">2.00195074081421</t>
   </si>
   <si>
     <t xml:space="preserve">2.02659058570862</t>
@@ -1580,16 +1580,16 @@
     <t xml:space="preserve">1.99224162101746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98365426063538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9321311712265</t>
+    <t xml:space="preserve">1.98365437984467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93213093280792</t>
   </si>
   <si>
     <t xml:space="preserve">1.91495633125305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88919460773468</t>
+    <t xml:space="preserve">1.88919472694397</t>
   </si>
   <si>
     <t xml:space="preserve">1.8634330034256</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">1.82908403873444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87202000617981</t>
+    <t xml:space="preserve">1.87202024459839</t>
   </si>
   <si>
     <t xml:space="preserve">1.84625852108002</t>
@@ -1613,13 +1613,13 @@
     <t xml:space="preserve">1.85484576225281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8033219575882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82049667835236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78614771366119</t>
+    <t xml:space="preserve">1.80332207679749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82049655914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7861475944519</t>
   </si>
   <si>
     <t xml:space="preserve">1.76897311210632</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">1.75179862976074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74321150779724</t>
+    <t xml:space="preserve">1.74321138858795</t>
   </si>
   <si>
     <t xml:space="preserve">1.73462414741516</t>
@@ -1637,52 +1637,52 @@
     <t xml:space="preserve">1.72603690624237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77756035327911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76038587093353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79473495483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71744966506958</t>
+    <t xml:space="preserve">1.7775604724884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76038599014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79473483562469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71744978427887</t>
   </si>
   <si>
     <t xml:space="preserve">1.700275182724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69168794155121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69598162174225</t>
+    <t xml:space="preserve">1.6916880607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69598150253296</t>
   </si>
   <si>
     <t xml:space="preserve">1.67451345920563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97506701946259</t>
+    <t xml:space="preserve">1.97506713867188</t>
   </si>
   <si>
     <t xml:space="preserve">2.03517770767212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12963795661926</t>
+    <t xml:space="preserve">2.12963771820068</t>
   </si>
   <si>
     <t xml:space="preserve">2.04376530647278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01800346374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9493054151535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95789277553558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96647977828979</t>
+    <t xml:space="preserve">2.01800322532654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94930517673492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95789265632629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96647989749908</t>
   </si>
   <si>
     <t xml:space="preserve">1.94071817398071</t>
@@ -1694,10 +1694,10 @@
     <t xml:space="preserve">2.00941610336304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09528851509094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06952667236328</t>
+    <t xml:space="preserve">2.09528875350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06952714920044</t>
   </si>
   <si>
     <t xml:space="preserve">2.05235242843628</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">2.06093955039978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14681196212769</t>
+    <t xml:space="preserve">2.14681220054626</t>
   </si>
   <si>
     <t xml:space="preserve">2.28420829772949</t>
@@ -1715,10 +1715,10 @@
     <t xml:space="preserve">2.26703381538391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25844645500183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24985885620117</t>
+    <t xml:space="preserve">2.25844621658325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24985909461975</t>
   </si>
   <si>
     <t xml:space="preserve">2.23268437385559</t>
@@ -1733,43 +1733,43 @@
     <t xml:space="preserve">2.27588891983032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24046659469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20504450798035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16962194442749</t>
+    <t xml:space="preserve">2.24046683311462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20504426956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16962218284607</t>
   </si>
   <si>
     <t xml:space="preserve">2.17847752571106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15191078186035</t>
+    <t xml:space="preserve">2.15191054344177</t>
   </si>
   <si>
     <t xml:space="preserve">2.11648845672607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10763311386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12534379959106</t>
+    <t xml:space="preserve">2.1076328754425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12534403800964</t>
   </si>
   <si>
     <t xml:space="preserve">2.13419938087463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99251008033752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01022124290466</t>
+    <t xml:space="preserve">1.99250996112823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01022100448608</t>
   </si>
   <si>
     <t xml:space="preserve">2.03678774833679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06335473060608</t>
+    <t xml:space="preserve">2.0633544921875</t>
   </si>
   <si>
     <t xml:space="preserve">2.05449914932251</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">2.08106589317322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07221007347107</t>
+    <t xml:space="preserve">2.07221031188965</t>
   </si>
   <si>
     <t xml:space="preserve">2.08992147445679</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">2.04564332962036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01907658576965</t>
+    <t xml:space="preserve">2.01907682418823</t>
   </si>
   <si>
     <t xml:space="preserve">1.9747987985611</t>
@@ -1826,7 +1826,7 @@
     <t xml:space="preserve">2.00136566162109</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02793216705322</t>
+    <t xml:space="preserve">2.0279324054718</t>
   </si>
   <si>
     <t xml:space="preserve">2.15651845932007</t>
@@ -2085,6 +2085,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.96000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
 </sst>
 </file>
@@ -58846,7 +58849,7 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n">
-        <v>45484.6499652778</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B2171" t="n">
         <v>4908</v>
@@ -58867,6 +58870,32 @@
         <v>689</v>
       </c>
       <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.6496296296</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>11326</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>1.98500001430511</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>1.97500002384186</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>1.97500002384186</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>691</v>
+      </c>
+      <c r="H2172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AC5.MI.xlsx
+++ b/data/AC5.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="693">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19334125518799</t>
+    <t xml:space="preserve">1.1933411359787</t>
   </si>
   <si>
     <t xml:space="preserve">AC5.MI</t>
@@ -47,52 +47,52 @@
     <t xml:space="preserve">1.17184603214264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17110502719879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13997423648834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16369307041168</t>
+    <t xml:space="preserve">1.1711049079895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13997435569763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16369295120239</t>
   </si>
   <si>
     <t xml:space="preserve">1.14071547985077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14145660400391</t>
+    <t xml:space="preserve">1.1414567232132</t>
   </si>
   <si>
     <t xml:space="preserve">1.14886868000031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13478600978851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12811481952667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0406528711319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982097506523132</t>
+    <t xml:space="preserve">1.13478577136993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12811505794525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04065275192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982097625732422</t>
   </si>
   <si>
     <t xml:space="preserve">0.963567435741425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03398191928864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08141899108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05102956295013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05992424488068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09772551059723</t>
+    <t xml:space="preserve">1.03398203849792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08141911029816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05102968215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05992412567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09772562980652</t>
   </si>
   <si>
     <t xml:space="preserve">1.07400691509247</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">1.07919549942017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06733644008636</t>
+    <t xml:space="preserve">1.06733632087708</t>
   </si>
   <si>
     <t xml:space="preserve">1.0873486995697</t>
@@ -119,76 +119,76 @@
     <t xml:space="preserve">0.936884045600891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953190505504608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959861278533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977650463581085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02582859992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00952208042145</t>
+    <t xml:space="preserve">0.953190386295319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959861218929291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977650344371796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02582848072052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00952196121216</t>
   </si>
   <si>
     <t xml:space="preserve">1.00062775611877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00136876106262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04510009288788</t>
+    <t xml:space="preserve">1.00136888027191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04509997367859</t>
   </si>
   <si>
     <t xml:space="preserve">1.03842926025391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02953469753265</t>
+    <t xml:space="preserve">1.02953457832336</t>
   </si>
   <si>
     <t xml:space="preserve">1.03175818920135</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01915788650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03101718425751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0280522108078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03768789768219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05844163894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05621814727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04139387607574</t>
+    <t xml:space="preserve">1.01915764808655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03101706504822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02805233001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03768801689148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05844175815582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05621802806854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04139399528503</t>
   </si>
   <si>
     <t xml:space="preserve">1.06362998485565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04658234119415</t>
+    <t xml:space="preserve">1.04658222198486</t>
   </si>
   <si>
     <t xml:space="preserve">1.04732358455658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05177080631256</t>
+    <t xml:space="preserve">1.05177068710327</t>
   </si>
   <si>
     <t xml:space="preserve">1.04287624359131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02434635162354</t>
+    <t xml:space="preserve">1.02434611320496</t>
   </si>
   <si>
     <t xml:space="preserve">1.04880607128143</t>
@@ -197,19 +197,19 @@
     <t xml:space="preserve">1.0747481584549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06066524982452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08216035366058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14442157745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14516282081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12885618209839</t>
+    <t xml:space="preserve">1.06066536903381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08216023445129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14442145824432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14516270160675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12885630130768</t>
   </si>
   <si>
     <t xml:space="preserve">1.1340446472168</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">1.2155773639679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17777562141418</t>
+    <t xml:space="preserve">1.17777585983276</t>
   </si>
   <si>
     <t xml:space="preserve">1.1859290599823</t>
@@ -230,58 +230,58 @@
     <t xml:space="preserve">1.20075333118439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16221058368683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14219784736633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20816516876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20668268203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19408237934113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18296432495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18222296237946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17481088638306</t>
+    <t xml:space="preserve">1.16221034526825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14219796657562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20816504955292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20668292045593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19408214092255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18296420574188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18222308158875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17481100559235</t>
   </si>
   <si>
     <t xml:space="preserve">1.19111752510071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22076570987701</t>
+    <t xml:space="preserve">1.22076559066772</t>
   </si>
   <si>
     <t xml:space="preserve">1.21780097484589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22891902923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24596691131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.260049700737</t>
+    <t xml:space="preserve">1.22891914844513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24596667289734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26004981994629</t>
   </si>
   <si>
     <t xml:space="preserve">1.26079094409943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25486099720001</t>
+    <t xml:space="preserve">1.2548611164093</t>
   </si>
   <si>
     <t xml:space="preserve">1.27265012264252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27042651176453</t>
+    <t xml:space="preserve">1.27042663097382</t>
   </si>
   <si>
     <t xml:space="preserve">1.24448430538177</t>
@@ -293,22 +293,22 @@
     <t xml:space="preserve">1.27647233009338</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2376297712326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23610627651215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21021151542664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2132580280304</t>
+    <t xml:space="preserve">1.23762965202332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23610639572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21021163463593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21325790882111</t>
   </si>
   <si>
     <t xml:space="preserve">1.2094498872757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21097302436829</t>
+    <t xml:space="preserve">1.21097314357758</t>
   </si>
   <si>
     <t xml:space="preserve">1.20259523391724</t>
@@ -317,10 +317,10 @@
     <t xml:space="preserve">1.19574081897736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20107221603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18736302852631</t>
+    <t xml:space="preserve">1.20107209682465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18736290931702</t>
   </si>
   <si>
     <t xml:space="preserve">1.16375279426575</t>
@@ -329,22 +329,22 @@
     <t xml:space="preserve">1.14623546600342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15004372596741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14395070075989</t>
+    <t xml:space="preserve">1.15004360675812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1439505815506</t>
   </si>
   <si>
     <t xml:space="preserve">1.19193255901337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17517685890198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16756069660187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17289197444916</t>
+    <t xml:space="preserve">1.17517709732056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16756081581116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17289221286774</t>
   </si>
   <si>
     <t xml:space="preserve">1.11577081680298</t>
@@ -353,25 +353,25 @@
     <t xml:space="preserve">1.11196267604828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17670035362244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16984570026398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20411860942841</t>
+    <t xml:space="preserve">1.17670023441315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16984581947327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20411849021912</t>
   </si>
   <si>
     <t xml:space="preserve">1.2353447675705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23001348972321</t>
+    <t xml:space="preserve">1.2300136089325</t>
   </si>
   <si>
     <t xml:space="preserve">1.25667023658752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22620558738708</t>
+    <t xml:space="preserve">1.2262054681778</t>
   </si>
   <si>
     <t xml:space="preserve">1.25286209583282</t>
@@ -380,52 +380,52 @@
     <t xml:space="preserve">1.23153686523438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25362384319305</t>
+    <t xml:space="preserve">1.25362360477448</t>
   </si>
   <si>
     <t xml:space="preserve">1.22239744663239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23382163047791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22315907478333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24143779277802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2490541934967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24753069877625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26428639888763</t>
+    <t xml:space="preserve">1.23382174968719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22315895557404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24143767356873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24905407428741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24753081798553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26428627967834</t>
   </si>
   <si>
     <t xml:space="preserve">1.25590860843658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2635246515274</t>
+    <t xml:space="preserve">1.26352477073669</t>
   </si>
   <si>
     <t xml:space="preserve">1.27190256118774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27951860427856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28332662582397</t>
+    <t xml:space="preserve">1.27951872348785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28332674503326</t>
   </si>
   <si>
     <t xml:space="preserve">1.27418732643127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30617547035217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33435523509979</t>
+    <t xml:space="preserve">1.30617558956146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33435535430908</t>
   </si>
   <si>
     <t xml:space="preserve">1.37091290950775</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">1.34806430339813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34425640106201</t>
+    <t xml:space="preserve">1.34425628185272</t>
   </si>
   <si>
     <t xml:space="preserve">1.33054721355438</t>
@@ -446,25 +446,25 @@
     <t xml:space="preserve">1.29475128650665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30998337268829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3252158164978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31074512004852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31302976608276</t>
+    <t xml:space="preserve">1.30998361110687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32521569728851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31074488162994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31303000450134</t>
   </si>
   <si>
     <t xml:space="preserve">1.31379163265228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32064592838287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28713512420654</t>
+    <t xml:space="preserve">1.32064604759216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28713488578796</t>
   </si>
   <si>
     <t xml:space="preserve">1.28104209899902</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">1.31531465053558</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29779767990112</t>
+    <t xml:space="preserve">1.29779756069183</t>
   </si>
   <si>
     <t xml:space="preserve">1.27266407012939</t>
@@ -482,13 +482,13 @@
     <t xml:space="preserve">1.26885604858398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24829244613647</t>
+    <t xml:space="preserve">1.24829256534576</t>
   </si>
   <si>
     <t xml:space="preserve">1.24524593353271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24219942092896</t>
+    <t xml:space="preserve">1.24219930171967</t>
   </si>
   <si>
     <t xml:space="preserve">1.22544372081757</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">1.24600756168365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25514698028564</t>
+    <t xml:space="preserve">1.25514709949493</t>
   </si>
   <si>
     <t xml:space="preserve">1.24067604541779</t>
@@ -506,16 +506,16 @@
     <t xml:space="preserve">1.22849035263062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21249651908875</t>
+    <t xml:space="preserve">1.21249639987946</t>
   </si>
   <si>
     <t xml:space="preserve">1.20335698127747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21630442142487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22468221187592</t>
+    <t xml:space="preserve">1.21630454063416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22468209266663</t>
   </si>
   <si>
     <t xml:space="preserve">1.24372255802155</t>
@@ -524,10 +524,10 @@
     <t xml:space="preserve">1.22772872447968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23305988311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22163569927216</t>
+    <t xml:space="preserve">1.23306000232697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22163581848145</t>
   </si>
   <si>
     <t xml:space="preserve">1.21858930587769</t>
@@ -536,40 +536,40 @@
     <t xml:space="preserve">1.21554279327393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19269442558289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18964779376984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15765976905823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18050837516785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16527605056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15842151641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15080523490906</t>
+    <t xml:space="preserve">1.19269406795502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18964791297913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15765964984894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18050825595856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16527593135834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15842139720917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15080511569977</t>
   </si>
   <si>
     <t xml:space="preserve">1.14471232891083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16832268238068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1553750038147</t>
+    <t xml:space="preserve">1.16832256317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15537488460541</t>
   </si>
   <si>
     <t xml:space="preserve">1.16146790981293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18583989143372</t>
+    <t xml:space="preserve">1.18583977222443</t>
   </si>
   <si>
     <t xml:space="preserve">1.17365384101868</t>
@@ -578,43 +578,43 @@
     <t xml:space="preserve">1.19040930271149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18812441825867</t>
+    <t xml:space="preserve">1.18812453746796</t>
   </si>
   <si>
     <t xml:space="preserve">1.1812698841095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18431639671326</t>
+    <t xml:space="preserve">1.18431651592255</t>
   </si>
   <si>
     <t xml:space="preserve">1.18888604640961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2429610490799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22925198078156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22011268138885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22696697711945</t>
+    <t xml:space="preserve">1.24296092987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22925186157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22011256217957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22696685791016</t>
   </si>
   <si>
     <t xml:space="preserve">1.18507814407349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1797468662262</t>
+    <t xml:space="preserve">1.17974674701691</t>
   </si>
   <si>
     <t xml:space="preserve">1.16908407211304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17136907577515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16451442241669</t>
+    <t xml:space="preserve">1.17136895656586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16451454162598</t>
   </si>
   <si>
     <t xml:space="preserve">1.17060732841492</t>
@@ -626,10 +626,10 @@
     <t xml:space="preserve">1.20640349388123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19954872131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21478116512299</t>
+    <t xml:space="preserve">1.19954884052277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21478128433228</t>
   </si>
   <si>
     <t xml:space="preserve">1.27342593669891</t>
@@ -638,19 +638,19 @@
     <t xml:space="preserve">1.27571058273315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30769860744476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29855918884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29094302654266</t>
+    <t xml:space="preserve">1.30769872665405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29855930805206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29094326496124</t>
   </si>
   <si>
     <t xml:space="preserve">1.31759965419769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31988453865051</t>
+    <t xml:space="preserve">1.3198846578598</t>
   </si>
   <si>
     <t xml:space="preserve">1.35034930706024</t>
@@ -659,22 +659,22 @@
     <t xml:space="preserve">1.36177349090576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34654104709625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37852907180786</t>
+    <t xml:space="preserve">1.34654128551483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37852919101715</t>
   </si>
   <si>
     <t xml:space="preserve">1.37776756286621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36329662799835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38233721256256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34273290634155</t>
+    <t xml:space="preserve">1.36329674720764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38233733177185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34273302555084</t>
   </si>
   <si>
     <t xml:space="preserve">1.35415732860565</t>
@@ -683,40 +683,40 @@
     <t xml:space="preserve">1.35568058490753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36862814426422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38005256652832</t>
+    <t xml:space="preserve">1.36862802505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38005232810974</t>
   </si>
   <si>
     <t xml:space="preserve">1.41661012172699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39376139640808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40137755870819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44326663017273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42422652244568</t>
+    <t xml:space="preserve">1.39376151561737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40137779712677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44326674938202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4242262840271</t>
   </si>
   <si>
     <t xml:space="preserve">1.44402825832367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41508674621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43031907081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46230709552765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44707465171814</t>
+    <t xml:space="preserve">1.41508686542511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43031930923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46230721473694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44707477092743</t>
   </si>
   <si>
     <t xml:space="preserve">1.45316767692566</t>
@@ -725,10 +725,10 @@
     <t xml:space="preserve">1.46840012073517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43793535232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42727279663086</t>
+    <t xml:space="preserve">1.43793547153473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42727267742157</t>
   </si>
   <si>
     <t xml:space="preserve">1.44478988647461</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">1.47686159610748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50893330574036</t>
+    <t xml:space="preserve">1.50893318653107</t>
   </si>
   <si>
     <t xml:space="preserve">1.5613431930542</t>
@@ -749,31 +749,31 @@
     <t xml:space="preserve">1.62705087661743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65051794052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67085599899292</t>
+    <t xml:space="preserve">1.65051782131195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67085611820221</t>
   </si>
   <si>
     <t xml:space="preserve">1.57855224609375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57229435443878</t>
+    <t xml:space="preserve">1.57229447364807</t>
   </si>
   <si>
     <t xml:space="preserve">1.5472629070282</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53865826129913</t>
+    <t xml:space="preserve">1.53865814208984</t>
   </si>
   <si>
     <t xml:space="preserve">1.55117392539978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52770686149597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52927136421204</t>
+    <t xml:space="preserve">1.52770698070526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52927148342133</t>
   </si>
   <si>
     <t xml:space="preserve">1.50189316272736</t>
@@ -785,10 +785,10 @@
     <t xml:space="preserve">1.49719965457916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49015963077545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49407088756561</t>
+    <t xml:space="preserve">1.49015951156616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49407064914703</t>
   </si>
   <si>
     <t xml:space="preserve">1.46278142929077</t>
@@ -806,25 +806,25 @@
     <t xml:space="preserve">1.5120621919632</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48624849319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47607934474945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48781299591064</t>
+    <t xml:space="preserve">1.48624837398529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47607922554016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48781287670135</t>
   </si>
   <si>
     <t xml:space="preserve">1.47842609882355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48390173912048</t>
+    <t xml:space="preserve">1.48390161991119</t>
   </si>
   <si>
     <t xml:space="preserve">1.47451484203339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48311936855316</t>
+    <t xml:space="preserve">1.48311948776245</t>
   </si>
   <si>
     <t xml:space="preserve">1.50267553329468</t>
@@ -833,19 +833,19 @@
     <t xml:space="preserve">1.53709375858307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55273854732513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5261424779892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52536046504974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55195617675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54882740974426</t>
+    <t xml:space="preserve">1.55273830890656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52614235877991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52536022663116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55195605754852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54882729053497</t>
   </si>
   <si>
     <t xml:space="preserve">1.58011674880981</t>
@@ -854,10 +854,10 @@
     <t xml:space="preserve">1.57072985172272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56447196006775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54178714752197</t>
+    <t xml:space="preserve">1.56447207927704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54178726673126</t>
   </si>
   <si>
     <t xml:space="preserve">1.55664968490601</t>
@@ -869,13 +869,13 @@
     <t xml:space="preserve">1.56603670120239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58324551582336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55430293083191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55977857112885</t>
+    <t xml:space="preserve">1.58324563503265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5543030500412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55977845191956</t>
   </si>
   <si>
     <t xml:space="preserve">1.58793914318085</t>
@@ -890,28 +890,28 @@
     <t xml:space="preserve">1.61140608787537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54256951808929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53005361557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53944051265717</t>
+    <t xml:space="preserve">1.54256963729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53005373477936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53944039344788</t>
   </si>
   <si>
     <t xml:space="preserve">1.5941971540451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59106802940369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57542335987091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61453521251678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62861549854279</t>
+    <t xml:space="preserve">1.5910679101944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57542324066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61453497409821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6286153793335</t>
   </si>
   <si>
     <t xml:space="preserve">1.6192284822464</t>
@@ -920,46 +920,46 @@
     <t xml:space="preserve">1.69745230674744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74438631534576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72404837608337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76003098487854</t>
+    <t xml:space="preserve">1.74438619613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72404825687408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76003110408783</t>
   </si>
   <si>
     <t xml:space="preserve">1.77567565441132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78975605964661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72091925144196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74751543998718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73499953746796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73656404018402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74595093727112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73812818527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73969292640686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75690197944641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75533771514893</t>
+    <t xml:space="preserve">1.7897561788559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72091948986053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74751508235931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73499965667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73656415939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74595069885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73812830448151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73969280719757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75690221786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75533759593964</t>
   </si>
   <si>
     <t xml:space="preserve">1.72717702388763</t>
@@ -971,118 +971,118 @@
     <t xml:space="preserve">1.71309697628021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81478750705719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87423753738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88675343990326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86485064029694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87267327308655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91647827625275</t>
+    <t xml:space="preserve">1.81478774547577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87423741817474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88675308227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86485052108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87267291545868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91647815704346</t>
   </si>
   <si>
     <t xml:space="preserve">1.93994534015656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91334939002991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83825445175171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78193366527557</t>
+    <t xml:space="preserve">1.91334915161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.838254570961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78193378448486</t>
   </si>
   <si>
     <t xml:space="preserve">1.72874164581299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83356153964996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8476414680481</t>
+    <t xml:space="preserve">1.83356106281281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84764158725739</t>
   </si>
   <si>
     <t xml:space="preserve">1.90865576267242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87893104553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89614021778107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7991429567337</t>
+    <t xml:space="preserve">1.87893092632294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89614033699036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79914259910583</t>
   </si>
   <si>
     <t xml:space="preserve">1.81165862083435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.796013712883</t>
+    <t xml:space="preserve">1.79601395130157</t>
   </si>
   <si>
     <t xml:space="preserve">1.82260990142822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79288518428802</t>
+    <t xml:space="preserve">1.79288506507874</t>
   </si>
   <si>
     <t xml:space="preserve">1.77098226547241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76315987110138</t>
+    <t xml:space="preserve">1.76316010951996</t>
   </si>
   <si>
     <t xml:space="preserve">1.7522087097168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70370995998383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73187053203583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79444921016693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78819155693054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82886779308319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80540084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81009411811829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80696499347687</t>
+    <t xml:space="preserve">1.70371007919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73187041282654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79444944858551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78819179534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82886791229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80540060997009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81009387969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80696511268616</t>
   </si>
   <si>
     <t xml:space="preserve">1.78349804878235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85389912128448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83043217658997</t>
+    <t xml:space="preserve">1.85389947891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83043205738068</t>
   </si>
   <si>
     <t xml:space="preserve">1.89301121234894</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90083360671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87736630439758</t>
+    <t xml:space="preserve">1.90083336830139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87736642360687</t>
   </si>
   <si>
     <t xml:space="preserve">1.95558989048004</t>
@@ -1091,13 +1091,13 @@
     <t xml:space="preserve">1.96341228485107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88518893718719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86954426765442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84607672691345</t>
+    <t xml:space="preserve">1.88518881797791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86954402923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84607708454132</t>
   </si>
   <si>
     <t xml:space="preserve">1.86172187328339</t>
@@ -1106,22 +1106,22 @@
     <t xml:space="preserve">1.93212294578552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92430055141449</t>
+    <t xml:space="preserve">1.92430078983307</t>
   </si>
   <si>
     <t xml:space="preserve">1.96357214450836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97155392169952</t>
+    <t xml:space="preserve">1.97155368328094</t>
   </si>
   <si>
     <t xml:space="preserve">1.92366218566895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93962609767914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89173364639282</t>
+    <t xml:space="preserve">1.93962597846985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89173400402069</t>
   </si>
   <si>
     <t xml:space="preserve">1.88375186920166</t>
@@ -1130,19 +1130,19 @@
     <t xml:space="preserve">1.97953617572784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90769815444946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87576985359192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82787799835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77200400829315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83586013317108</t>
+    <t xml:space="preserve">1.90769803524017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87576997280121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82787787914276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77200388908386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8358598947525</t>
   </si>
   <si>
     <t xml:space="preserve">1.74805808067322</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">1.81989598274231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72411203384399</t>
+    <t xml:space="preserve">1.72411227226257</t>
   </si>
   <si>
     <t xml:space="preserve">1.70814800262451</t>
@@ -1166,25 +1166,25 @@
     <t xml:space="preserve">1.64429187774658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73209404945374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69218385219574</t>
+    <t xml:space="preserve">1.73209416866302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69218397140503</t>
   </si>
   <si>
     <t xml:space="preserve">1.63631010055542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57644498348236</t>
+    <t xml:space="preserve">1.57644510269165</t>
   </si>
   <si>
     <t xml:space="preserve">1.59240889549255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54850816726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47267889976501</t>
+    <t xml:space="preserve">1.54850804805756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4726790189743</t>
   </si>
   <si>
     <t xml:space="preserve">1.46868801116943</t>
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">1.4048318862915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43675994873047</t>
+    <t xml:space="preserve">1.43676006793976</t>
   </si>
   <si>
     <t xml:space="preserve">1.44873309135437</t>
@@ -1205,16 +1205,16 @@
     <t xml:space="preserve">1.42478692531586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4567152261734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41281390190125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40882289409637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39685010910034</t>
+    <t xml:space="preserve">1.45671510696411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41281378269196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40882301330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39684998989105</t>
   </si>
   <si>
     <t xml:space="preserve">1.35694003105164</t>
@@ -1226,28 +1226,28 @@
     <t xml:space="preserve">1.3210209608078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30505681037903</t>
+    <t xml:space="preserve">1.30505704879761</t>
   </si>
   <si>
     <t xml:space="preserve">1.29707503318787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30904793739319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34895813465118</t>
+    <t xml:space="preserve">1.30904805660248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3489578962326</t>
   </si>
   <si>
     <t xml:space="preserve">1.34097599983215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35294902324677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34496688842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37290394306183</t>
+    <t xml:space="preserve">1.35294914245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34496700763702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37290406227112</t>
   </si>
   <si>
     <t xml:space="preserve">1.36093103885651</t>
@@ -1256,19 +1256,19 @@
     <t xml:space="preserve">1.38487696647644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39285910129547</t>
+    <t xml:space="preserve">1.39285898208618</t>
   </si>
   <si>
     <t xml:space="preserve">1.3888680934906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36891305446625</t>
+    <t xml:space="preserve">1.36891293525696</t>
   </si>
   <si>
     <t xml:space="preserve">1.45272409915924</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44075095653534</t>
+    <t xml:space="preserve">1.44075083732605</t>
   </si>
   <si>
     <t xml:space="preserve">1.46070599555969</t>
@@ -1277,10 +1277,10 @@
     <t xml:space="preserve">1.41680502891541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42079591751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49263405799866</t>
+    <t xml:space="preserve">1.4207957983017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49263393878937</t>
   </si>
   <si>
     <t xml:space="preserve">1.4327689409256</t>
@@ -1292,16 +1292,16 @@
     <t xml:space="preserve">1.40084099769592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38088607788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32501196861267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37689507007599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43293142318726</t>
+    <t xml:space="preserve">1.38088595867157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32501208782196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3768949508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43293130397797</t>
   </si>
   <si>
     <t xml:space="preserve">1.44539165496826</t>
@@ -1310,25 +1310,25 @@
     <t xml:space="preserve">1.41631770133972</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38309037685394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40801095962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3997038602829</t>
+    <t xml:space="preserve">1.38309025764465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40801107883453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39970397949219</t>
   </si>
   <si>
     <t xml:space="preserve">1.42047119140625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45369851589203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47031223773956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45785188674927</t>
+    <t xml:space="preserve">1.45369839668274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47031211853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45785200595856</t>
   </si>
   <si>
     <t xml:space="preserve">1.46615874767303</t>
@@ -1346,25 +1346,25 @@
     <t xml:space="preserve">1.56999444961548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57414782047272</t>
+    <t xml:space="preserve">1.57414793968201</t>
   </si>
   <si>
     <t xml:space="preserve">1.55338072776794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5243067741394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56168746948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50353956222534</t>
+    <t xml:space="preserve">1.52430689334869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56168758869171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50353944301605</t>
   </si>
   <si>
     <t xml:space="preserve">1.5118465423584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49523270130157</t>
+    <t xml:space="preserve">1.49523282051086</t>
   </si>
   <si>
     <t xml:space="preserve">1.48277246952057</t>
@@ -1376,16 +1376,13 @@
     <t xml:space="preserve">1.4620053768158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44954514503479</t>
+    <t xml:space="preserve">1.4495450258255</t>
   </si>
   <si>
     <t xml:space="preserve">1.44123828411102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4869259595871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42877793312073</t>
+    <t xml:space="preserve">1.48692584037781</t>
   </si>
   <si>
     <t xml:space="preserve">1.42462456226349</t>
@@ -1394,16 +1391,16 @@
     <t xml:space="preserve">1.41216433048248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40385758876801</t>
+    <t xml:space="preserve">1.40385746955872</t>
   </si>
   <si>
     <t xml:space="preserve">1.54507398605347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53676700592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52015340328217</t>
+    <t xml:space="preserve">1.53676688671112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52015328407288</t>
   </si>
   <si>
     <t xml:space="preserve">1.54922735691071</t>
@@ -1415,7 +1412,7 @@
     <t xml:space="preserve">1.57830131053925</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62398898601532</t>
+    <t xml:space="preserve">1.62398886680603</t>
   </si>
   <si>
     <t xml:space="preserve">1.66136980056763</t>
@@ -1427,19 +1424,19 @@
     <t xml:space="preserve">1.60322177410126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59491491317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59076142311096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65306293964386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61983561515808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61152875423431</t>
+    <t xml:space="preserve">1.5949147939682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59076154232025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65306282043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61983549594879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61152863502502</t>
   </si>
   <si>
     <t xml:space="preserve">1.59906828403473</t>
@@ -1448,7 +1445,7 @@
     <t xml:space="preserve">1.6073751449585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61568212509155</t>
+    <t xml:space="preserve">1.61568200588226</t>
   </si>
   <si>
     <t xml:space="preserve">1.58660805225372</t>
@@ -1457,7 +1454,7 @@
     <t xml:space="preserve">1.63644921779633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74443817138672</t>
+    <t xml:space="preserve">1.74443829059601</t>
   </si>
   <si>
     <t xml:space="preserve">1.94380247592926</t>
@@ -1466,7 +1463,7 @@
     <t xml:space="preserve">1.96041619777679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02687096595764</t>
+    <t xml:space="preserve">2.02687120437622</t>
   </si>
   <si>
     <t xml:space="preserve">2.24284911155701</t>
@@ -1475,34 +1472,34 @@
     <t xml:space="preserve">2.14316701889038</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25115609169006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29269003868103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30930399894714</t>
+    <t xml:space="preserve">2.25115585327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29269027709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30930376052856</t>
   </si>
   <si>
     <t xml:space="preserve">2.31761074066162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2677698135376</t>
+    <t xml:space="preserve">2.26776957511902</t>
   </si>
   <si>
     <t xml:space="preserve">2.32591772079468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20131516456604</t>
+    <t xml:space="preserve">2.20131492614746</t>
   </si>
   <si>
     <t xml:space="preserve">2.06840538978577</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89396142959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.902268409729</t>
+    <t xml:space="preserve">1.89396154880524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90226829051971</t>
   </si>
   <si>
     <t xml:space="preserve">1.99364376068115</t>
@@ -1517,25 +1514,25 @@
     <t xml:space="preserve">1.50769305229187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6572163105011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79427945613861</t>
+    <t xml:space="preserve">1.65721642971039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79427969455719</t>
   </si>
   <si>
     <t xml:space="preserve">1.69459700584412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71121072769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75274503231049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6696765422821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72782444953918</t>
+    <t xml:space="preserve">1.71121084690094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7527449131012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66967666149139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72782456874847</t>
   </si>
   <si>
     <t xml:space="preserve">1.71951758861542</t>
@@ -1544,28 +1541,28 @@
     <t xml:space="preserve">1.81919991970062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78597259521484</t>
+    <t xml:space="preserve">1.78597247600555</t>
   </si>
   <si>
     <t xml:space="preserve">1.68629038333893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73613131046295</t>
+    <t xml:space="preserve">1.73613142967224</t>
   </si>
   <si>
     <t xml:space="preserve">1.67798340320587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76105177402496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82750678062439</t>
+    <t xml:space="preserve">1.76105189323425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82750689983368</t>
   </si>
   <si>
     <t xml:space="preserve">1.83581364154816</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98533701896667</t>
+    <t xml:space="preserve">1.9853367805481</t>
   </si>
   <si>
     <t xml:space="preserve">2.0351779460907</t>
@@ -1574,253 +1571,256 @@
     <t xml:space="preserve">2.00195074081421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02659058570862</t>
+    <t xml:space="preserve">2.0265908241272</t>
   </si>
   <si>
     <t xml:space="preserve">1.99224162101746</t>
   </si>
   <si>
+    <t xml:space="preserve">1.98365414142609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93213093280792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91495645046234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88919484615326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86343312263489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82908415794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8720201253891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84625840187073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83767127990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81190919876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8548458814621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80332207679749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82049667835236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78614771366119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76897311210632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75179862976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74321150779724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73462402820587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72603690624237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77756035327911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76038599014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79473483562469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71744978427887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.700275182724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69168794155121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69598150253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67451345920563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97506713867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03517770767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12963771820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0437650680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01800322532654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94930517673492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95789265632629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96647989749908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94071817398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00082898139954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00941610336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09528875350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06952691078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05235242843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06093955039978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14681196212769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28420805931091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26703381538391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25844621658325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24985909461975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23268461227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28474450111389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26703357696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2758891582489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24046683311462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20504426956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16962218284607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17847752571106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15191054344177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11648845672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1076328754425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12534403800964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13419961929321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99250996112823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01022100448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03678774833679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0633544921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05449914932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1607666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19618892669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14305520057678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08106589317322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07221031188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08992147445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09877705574036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18733310699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21389985084534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23161101341248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24932241439819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22275543212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04564332962036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01907682418823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9747987985611</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.98365437984467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93213093280792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91495633125305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88919472694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8634330034256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82908403873444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87202024459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84625852108002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83767127990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81190931797028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85484576225281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80332207679749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82049655914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7861475944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76897311210632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75179862976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74321138858795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73462414741516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72603690624237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7775604724884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76038599014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79473483562469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71744978427887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.700275182724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6916880607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69598150253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67451345920563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97506713867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03517770767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12963771820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04376530647278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01800322532654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94930517673492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95789265632629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96647989749908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94071817398071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00082874298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00941610336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09528875350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06952714920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05235242843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06093955039978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14681220054626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28420829772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26703381538391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25844621658325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24985909461975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23268437385559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28474473953247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26703357696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27588891983032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24046683311462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20504426956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16962218284607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17847752571106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15191054344177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11648845672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1076328754425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12534403800964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13419938087463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99250996112823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01022100448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03678774833679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0633544921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05449914932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16076636314392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19618892669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14305520057678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08106589317322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07221031188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08992147445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09877705574036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18733310699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21389985084534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23161101341248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24932217597961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22275543212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04564332962036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01907682418823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9747987985611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9482319355011</t>
+    <t xml:space="preserve">1.94823217391968</t>
   </si>
   <si>
     <t xml:space="preserve">2.00136566162109</t>
@@ -2088,6 +2088,9 @@
   </si>
   <si>
     <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97500002384186</t>
   </si>
 </sst>
 </file>
@@ -27095,7 +27098,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G949" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27121,7 +27124,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G950" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27173,7 +27176,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G952" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27199,7 +27202,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G953" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27277,7 +27280,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G956" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27303,7 +27306,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G957" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -27355,7 +27358,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G959" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27381,7 +27384,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G960" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -27433,7 +27436,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G962" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27459,7 +27462,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G963" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -27485,7 +27488,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G964" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27511,7 +27514,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G965" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27537,7 +27540,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G966" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27563,7 +27566,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G967" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27589,7 +27592,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G968" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -27615,7 +27618,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G969" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -27641,7 +27644,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G970" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27667,7 +27670,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G971" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27693,7 +27696,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G972" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27745,7 +27748,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G974" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27797,7 +27800,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G976" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27823,7 +27826,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G977" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27849,7 +27852,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G978" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27901,7 +27904,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G980" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27927,7 +27930,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G981" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27953,7 +27956,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G982" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28057,7 +28060,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G986" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28083,7 +28086,7 @@
         <v>1.69000005722046</v>
       </c>
       <c r="G987" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28213,7 +28216,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G992" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -28239,7 +28242,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G993" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28291,7 +28294,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G995" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28317,7 +28320,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G996" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28369,7 +28372,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G998" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28395,7 +28398,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G999" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28421,7 +28424,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G1000" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -28447,7 +28450,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1001" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -28499,7 +28502,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1003" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -28577,7 +28580,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1006" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -28603,7 +28606,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1007" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28655,7 +28658,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G1009" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28681,7 +28684,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1010" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28707,7 +28710,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1011" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28733,7 +28736,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1012" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28785,7 +28788,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G1014" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28811,7 +28814,7 @@
         <v>2</v>
       </c>
       <c r="G1015" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28837,7 +28840,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1016" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28863,7 +28866,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1017" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28889,7 +28892,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1018" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28967,7 +28970,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1021" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28993,7 +28996,7 @@
         <v>1.91499996185303</v>
       </c>
       <c r="G1022" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29019,7 +29022,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1023" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29045,7 +29048,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1024" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29071,7 +29074,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1025" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29097,7 +29100,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1026" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29123,7 +29126,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1027" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29149,7 +29152,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1028" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29175,7 +29178,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1029" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29201,7 +29204,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1030" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29227,7 +29230,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1031" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29253,7 +29256,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1032" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -29279,7 +29282,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1033" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29305,7 +29308,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1034" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -29331,7 +29334,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G1035" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29357,7 +29360,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G1036" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -29383,7 +29386,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1037" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -29409,7 +29412,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G1038" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -29435,7 +29438,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1039" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29461,7 +29464,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1040" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -29487,7 +29490,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1041" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -29513,7 +29516,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1042" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -29539,7 +29542,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1043" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29565,7 +29568,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1044" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29591,7 +29594,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1045" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -29617,7 +29620,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1046" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29643,7 +29646,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1047" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29669,7 +29672,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1048" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29695,7 +29698,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G1049" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -29721,7 +29724,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1050" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29747,7 +29750,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1051" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29773,7 +29776,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1052" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29799,7 +29802,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1053" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29825,7 +29828,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1054" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29851,7 +29854,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1055" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29877,7 +29880,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1056" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29903,7 +29906,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1057" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29929,7 +29932,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1058" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29955,7 +29958,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1059" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29981,7 +29984,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1060" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30007,7 +30010,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1061" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30033,7 +30036,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1062" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30111,7 +30114,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1065" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30137,7 +30140,7 @@
         <v>2</v>
       </c>
       <c r="G1066" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30163,7 +30166,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1067" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30215,7 +30218,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G1069" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -30241,7 +30244,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1070" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -30267,7 +30270,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G1071" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30397,7 +30400,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G1076" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30423,7 +30426,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G1077" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30527,7 +30530,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G1081" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -30553,7 +30556,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1082" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -30579,7 +30582,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1083" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -30605,7 +30608,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1084" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30631,7 +30634,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1085" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30657,7 +30660,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1086" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30683,7 +30686,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1087" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30709,7 +30712,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1088" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30735,7 +30738,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1089" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30761,7 +30764,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1090" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30787,7 +30790,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1091" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30813,7 +30816,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1092" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30839,7 +30842,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1093" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30865,7 +30868,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1094" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30891,7 +30894,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1095" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30917,7 +30920,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1096" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30943,7 +30946,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1097" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30969,7 +30972,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1098" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30995,7 +30998,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1099" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31021,7 +31024,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1100" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31047,7 +31050,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1101" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31073,7 +31076,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1102" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31099,7 +31102,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1103" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31125,7 +31128,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1104" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31151,7 +31154,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1105" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -31177,7 +31180,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1106" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31203,7 +31206,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1107" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -31229,7 +31232,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1108" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31255,7 +31258,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1109" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -31281,7 +31284,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1110" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -31307,7 +31310,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1111" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31333,7 +31336,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1112" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31359,7 +31362,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1113" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31385,7 +31388,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1114" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -31411,7 +31414,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1115" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -31437,7 +31440,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1116" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -31463,7 +31466,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1117" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31489,7 +31492,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1118" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31515,7 +31518,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1119" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31541,7 +31544,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1120" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -31567,7 +31570,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1121" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31593,7 +31596,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1122" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31619,7 +31622,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1123" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31645,7 +31648,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1124" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31671,7 +31674,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1125" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31697,7 +31700,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1126" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31723,7 +31726,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1127" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31749,7 +31752,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1128" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31775,7 +31778,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31801,7 +31804,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1130" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31827,7 +31830,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1131" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31853,7 +31856,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1132" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31879,7 +31882,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1133" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31905,7 +31908,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1134" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31931,7 +31934,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1135" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31957,7 +31960,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1136" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31983,7 +31986,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1137" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32009,7 +32012,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1138" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32035,7 +32038,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1139" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32061,7 +32064,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1140" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32087,7 +32090,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1141" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32113,7 +32116,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1142" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32139,7 +32142,7 @@
         <v>2.25</v>
       </c>
       <c r="G1143" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32165,7 +32168,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1144" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32191,7 +32194,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1145" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32217,7 +32220,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1146" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32243,7 +32246,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1147" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32269,7 +32272,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1148" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32295,7 +32298,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1149" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32321,7 +32324,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1150" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -32347,7 +32350,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1151" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -32373,7 +32376,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1152" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -32399,7 +32402,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1153" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -32425,7 +32428,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1154" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -32451,7 +32454,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1155" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32477,7 +32480,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1156" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -32503,7 +32506,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1157" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32529,7 +32532,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1158" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32555,7 +32558,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1159" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32581,7 +32584,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1160" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -32607,7 +32610,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1161" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32633,7 +32636,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1162" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32659,7 +32662,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1163" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32685,7 +32688,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1164" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32711,7 +32714,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1165" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32737,7 +32740,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1166" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32763,7 +32766,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1167" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32789,7 +32792,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1168" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32815,7 +32818,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1169" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32841,7 +32844,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1170" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32867,7 +32870,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1171" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32893,7 +32896,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1172" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32919,7 +32922,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1173" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32945,7 +32948,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1174" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32971,7 +32974,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1175" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32997,7 +33000,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1176" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33023,7 +33026,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1177" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33049,7 +33052,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1178" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33075,7 +33078,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1179" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33101,7 +33104,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1180" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33127,7 +33130,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1181" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33153,7 +33156,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1182" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33179,7 +33182,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1183" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33205,7 +33208,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1184" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33231,7 +33234,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1185" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33257,7 +33260,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1186" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -33283,7 +33286,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1187" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33309,7 +33312,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1188" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -33335,7 +33338,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1189" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -33361,7 +33364,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1190" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -33387,7 +33390,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1191" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -33413,7 +33416,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1192" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -33439,7 +33442,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1193" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -33465,7 +33468,7 @@
         <v>2</v>
       </c>
       <c r="G1194" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33491,7 +33494,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1195" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33517,7 +33520,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1196" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33543,7 +33546,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1197" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33569,7 +33572,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1198" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33595,7 +33598,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -33621,7 +33624,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1200" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -33647,7 +33650,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1201" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33673,7 +33676,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1202" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33699,7 +33702,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1203" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33725,7 +33728,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1204" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33751,7 +33754,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1205" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33777,7 +33780,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1206" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33803,7 +33806,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1207" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33829,7 +33832,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1208" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33855,7 +33858,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1209" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33881,7 +33884,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33907,7 +33910,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1211" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33933,7 +33936,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1212" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33959,7 +33962,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1213" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33985,7 +33988,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1214" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34011,7 +34014,7 @@
         <v>2</v>
       </c>
       <c r="G1215" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34037,7 +34040,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1216" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34063,7 +34066,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1217" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34089,7 +34092,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1218" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34115,7 +34118,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1219" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34141,7 +34144,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1220" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34167,7 +34170,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1221" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34193,7 +34196,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1222" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34219,7 +34222,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1223" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34245,7 +34248,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1224" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34271,7 +34274,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G1225" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34297,7 +34300,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G1226" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -34323,7 +34326,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1227" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -34349,7 +34352,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1228" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -34375,7 +34378,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1229" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -34401,7 +34404,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1230" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -34427,7 +34430,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1231" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -34453,7 +34456,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1232" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34479,7 +34482,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34505,7 +34508,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1234" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34531,7 +34534,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1235" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -34557,7 +34560,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1236" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -34583,7 +34586,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1237" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34609,7 +34612,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1238" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -34635,7 +34638,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1239" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34661,7 +34664,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1240" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34687,7 +34690,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1241" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34713,7 +34716,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1242" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34739,7 +34742,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1243" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34765,7 +34768,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1244" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34791,7 +34794,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1245" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34817,7 +34820,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1246" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34843,7 +34846,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1247" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34869,7 +34872,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1248" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34895,7 +34898,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1249" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34921,7 +34924,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1250" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34947,7 +34950,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1251" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34973,7 +34976,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1252" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34999,7 +35002,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1253" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35025,7 +35028,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1254" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35051,7 +35054,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1255" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35077,7 +35080,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1256" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35103,7 +35106,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1257" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35129,7 +35132,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1258" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35155,7 +35158,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1259" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35181,7 +35184,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1260" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35207,7 +35210,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1261" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35233,7 +35236,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1262" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35259,7 +35262,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35285,7 +35288,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1264" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35311,7 +35314,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1265" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35337,7 +35340,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1266" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -35363,7 +35366,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1267" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -35389,7 +35392,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1268" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -35415,7 +35418,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1269" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -35441,7 +35444,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1270" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -35467,7 +35470,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1271" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35493,7 +35496,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1272" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35519,7 +35522,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1273" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35545,7 +35548,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1274" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35571,7 +35574,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1275" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35597,7 +35600,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1276" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35623,7 +35626,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1277" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35649,7 +35652,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1278" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35675,7 +35678,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1279" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35701,7 +35704,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1280" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35727,7 +35730,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1281" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35753,7 +35756,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1282" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35779,7 +35782,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1283" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35805,7 +35808,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1284" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35831,7 +35834,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1285" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35857,7 +35860,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1286" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35883,7 +35886,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1287" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35909,7 +35912,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1288" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35935,7 +35938,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1289" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35961,7 +35964,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1290" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35987,7 +35990,7 @@
         <v>2.25</v>
       </c>
       <c r="G1291" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36013,7 +36016,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1292" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36039,7 +36042,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1293" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36065,7 +36068,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1294" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36091,7 +36094,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1295" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36117,7 +36120,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1296" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36143,7 +36146,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1297" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36169,7 +36172,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1298" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -36195,7 +36198,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1299" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -36221,7 +36224,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1300" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -36247,7 +36250,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1301" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36273,7 +36276,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1302" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36299,7 +36302,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1303" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -36325,7 +36328,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1304" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36351,7 +36354,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1305" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36377,7 +36380,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1306" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36403,7 +36406,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1307" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36429,7 +36432,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1308" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36455,7 +36458,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1309" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36481,7 +36484,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1310" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36507,7 +36510,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1311" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36533,7 +36536,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1312" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36559,7 +36562,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1313" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36585,7 +36588,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1314" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36611,7 +36614,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1315" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -36637,7 +36640,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1316" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36663,7 +36666,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1317" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36689,7 +36692,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1318" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36715,7 +36718,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1319" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -36741,7 +36744,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1320" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36767,7 +36770,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1321" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36793,7 +36796,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1322" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36819,7 +36822,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1323" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36845,7 +36848,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1324" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36871,7 +36874,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1325" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36897,7 +36900,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1326" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36923,7 +36926,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1327" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36949,7 +36952,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1328" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36975,7 +36978,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1329" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37001,7 +37004,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1330" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37027,7 +37030,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1331" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37053,7 +37056,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1332" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37079,7 +37082,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1333" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37105,7 +37108,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1334" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37131,7 +37134,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1335" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37157,7 +37160,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1336" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -37183,7 +37186,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1337" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -37209,7 +37212,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1338" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -37235,7 +37238,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1339" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -37261,7 +37264,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1340" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -37287,7 +37290,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1341" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37313,7 +37316,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1342" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37339,7 +37342,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1343" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -37365,7 +37368,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1344" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37391,7 +37394,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1345" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37417,7 +37420,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1346" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37443,7 +37446,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1347" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37469,7 +37472,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1348" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -37495,7 +37498,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1349" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -37521,7 +37524,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1350" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -37547,7 +37550,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1351" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -37573,7 +37576,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1352" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37599,7 +37602,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1353" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37625,7 +37628,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1354" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -37651,7 +37654,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1355" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -37677,7 +37680,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1356" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37703,7 +37706,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1357" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37729,7 +37732,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1358" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -37755,7 +37758,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1359" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37781,7 +37784,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1360" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37807,7 +37810,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1361" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -37833,7 +37836,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1362" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37859,7 +37862,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1363" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37885,7 +37888,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1364" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -37911,7 +37914,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1365" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -37937,7 +37940,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1366" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -37963,7 +37966,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1367" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -37989,7 +37992,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1368" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38015,7 +38018,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1369" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38041,7 +38044,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1370" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38067,7 +38070,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1371" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -38093,7 +38096,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1372" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -38119,7 +38122,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1373" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -38145,7 +38148,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1374" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -38171,7 +38174,7 @@
         <v>2.5</v>
       </c>
       <c r="G1375" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -38197,7 +38200,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G1376" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -38223,7 +38226,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1377" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -38249,7 +38252,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1378" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -38275,7 +38278,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1379" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -38301,7 +38304,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1380" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38327,7 +38330,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1381" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38353,7 +38356,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1382" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38379,7 +38382,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1383" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38405,7 +38408,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1384" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38431,7 +38434,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1385" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38457,7 +38460,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1386" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38483,7 +38486,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1387" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38509,7 +38512,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1388" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38535,7 +38538,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1389" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38561,7 +38564,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1390" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38587,7 +38590,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1391" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38613,7 +38616,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1392" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38639,7 +38642,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1393" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38665,7 +38668,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1394" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38691,7 +38694,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1395" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38717,7 +38720,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1396" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38743,7 +38746,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1397" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38769,7 +38772,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1398" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38795,7 +38798,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1399" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38821,7 +38824,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1400" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38847,7 +38850,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1401" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38873,7 +38876,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1402" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38899,7 +38902,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1403" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38925,7 +38928,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1404" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38951,7 +38954,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1405" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38977,7 +38980,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1406" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39003,7 +39006,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1407" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39029,7 +39032,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1408" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39055,7 +39058,7 @@
         <v>2.25</v>
       </c>
       <c r="G1409" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39081,7 +39084,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1410" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39107,7 +39110,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1411" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39133,7 +39136,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1412" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39159,7 +39162,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1413" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39185,7 +39188,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1414" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39211,7 +39214,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1415" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39237,7 +39240,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1416" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39263,7 +39266,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1417" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39289,7 +39292,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1418" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39315,7 +39318,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1419" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39341,7 +39344,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1420" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39367,7 +39370,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1421" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39393,7 +39396,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1422" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39419,7 +39422,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1423" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39445,7 +39448,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1424" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39471,7 +39474,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1425" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39497,7 +39500,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1426" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39523,7 +39526,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1427" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39549,7 +39552,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1428" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39575,7 +39578,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1429" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39601,7 +39604,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1430" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39627,7 +39630,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1431" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39653,7 +39656,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1432" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39679,7 +39682,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1433" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39705,7 +39708,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1434" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -39731,7 +39734,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1435" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -39757,7 +39760,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1436" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39783,7 +39786,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1437" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39809,7 +39812,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1438" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39835,7 +39838,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1439" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39861,7 +39864,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1440" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39887,7 +39890,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1441" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39913,7 +39916,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1442" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39939,7 +39942,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1443" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39965,7 +39968,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1444" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39991,7 +39994,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1445" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40017,7 +40020,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1446" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40043,7 +40046,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1447" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40069,7 +40072,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1448" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40095,7 +40098,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1449" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40121,7 +40124,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1450" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40147,7 +40150,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1451" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40173,7 +40176,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1452" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40199,7 +40202,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1453" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40225,7 +40228,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1454" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -40251,7 +40254,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1455" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40277,7 +40280,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1456" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40303,7 +40306,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1457" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -40329,7 +40332,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1458" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40355,7 +40358,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1459" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40381,7 +40384,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1460" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40407,7 +40410,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1461" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40433,7 +40436,7 @@
         <v>2.5</v>
       </c>
       <c r="G1462" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40459,7 +40462,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1463" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40485,7 +40488,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1464" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40511,7 +40514,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1465" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40537,7 +40540,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1466" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40563,7 +40566,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1467" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40589,7 +40592,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1468" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40615,7 +40618,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1469" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40641,7 +40644,7 @@
         <v>2.5</v>
       </c>
       <c r="G1470" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40667,7 +40670,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1471" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -40693,7 +40696,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1472" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -40719,7 +40722,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1473" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -40745,7 +40748,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1474" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -40771,7 +40774,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1475" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40797,7 +40800,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1476" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40823,7 +40826,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1477" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40849,7 +40852,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1478" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40875,7 +40878,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1479" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40901,7 +40904,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1480" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40927,7 +40930,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1481" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40953,7 +40956,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1482" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40979,7 +40982,7 @@
         <v>2.5</v>
       </c>
       <c r="G1483" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41005,7 +41008,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1484" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41031,7 +41034,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1485" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41057,7 +41060,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1486" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41083,7 +41086,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1487" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41109,7 +41112,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1488" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41135,7 +41138,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1489" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -41161,7 +41164,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1490" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -41187,7 +41190,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1491" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41213,7 +41216,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1492" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41239,7 +41242,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1493" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41265,7 +41268,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1494" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41291,7 +41294,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1495" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41317,7 +41320,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1496" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41343,7 +41346,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1497" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41369,7 +41372,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1498" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41395,7 +41398,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1499" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41421,7 +41424,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1500" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41447,7 +41450,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1501" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41473,7 +41476,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1502" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41499,7 +41502,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1503" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41525,7 +41528,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1504" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41551,7 +41554,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1505" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -41577,7 +41580,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1506" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -41603,7 +41606,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1507" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41629,7 +41632,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1508" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -41655,7 +41658,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1509" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -41681,7 +41684,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1510" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -41707,7 +41710,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1511" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -41733,7 +41736,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1512" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -41759,7 +41762,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1513" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41785,7 +41788,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1514" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -41811,7 +41814,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1515" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41837,7 +41840,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1516" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41863,7 +41866,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1517" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41889,7 +41892,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1518" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41915,7 +41918,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1519" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41941,7 +41944,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1520" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41967,7 +41970,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1521" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41993,7 +41996,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1522" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42019,7 +42022,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1523" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42045,7 +42048,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1524" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42071,7 +42074,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1525" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42097,7 +42100,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1526" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42123,7 +42126,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1527" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42149,7 +42152,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1528" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42175,7 +42178,7 @@
         <v>2.5</v>
       </c>
       <c r="G1529" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42201,7 +42204,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1530" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42227,7 +42230,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1531" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42253,7 +42256,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1532" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42279,7 +42282,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1533" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42305,7 +42308,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1534" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42331,7 +42334,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1535" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42357,7 +42360,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1536" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42383,7 +42386,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1537" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42409,7 +42412,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1538" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42435,7 +42438,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1539" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42461,7 +42464,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1540" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42487,7 +42490,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1541" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42513,7 +42516,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1542" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42539,7 +42542,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1543" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42565,7 +42568,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1544" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42591,7 +42594,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1545" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42617,7 +42620,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1546" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -42643,7 +42646,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1547" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42669,7 +42672,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1548" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42695,7 +42698,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1549" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42721,7 +42724,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1550" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42747,7 +42750,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1551" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42773,7 +42776,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1552" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42799,7 +42802,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1553" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42825,7 +42828,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1554" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42851,7 +42854,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1555" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42877,7 +42880,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1556" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42903,7 +42906,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1557" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42929,7 +42932,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1558" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42955,7 +42958,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1559" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42981,7 +42984,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1560" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43007,7 +43010,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1561" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43033,7 +43036,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1562" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43059,7 +43062,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1563" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43085,7 +43088,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1564" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43111,7 +43114,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1565" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43137,7 +43140,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1566" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43163,7 +43166,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1567" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43189,7 +43192,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1568" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -43215,7 +43218,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1569" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43241,7 +43244,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1570" t="s">
-        <v>522</v>
+        <v>601</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43371,7 +43374,7 @@
         <v>2.25</v>
       </c>
       <c r="G1575" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43397,7 +43400,7 @@
         <v>2.25</v>
       </c>
       <c r="G1576" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43423,7 +43426,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1577" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43449,7 +43452,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1578" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43475,7 +43478,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1579" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43501,7 +43504,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1580" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43527,7 +43530,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1581" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43553,7 +43556,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1582" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43579,7 +43582,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1583" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43605,7 +43608,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1584" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43631,7 +43634,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1585" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43657,7 +43660,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1586" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43683,7 +43686,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1587" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43709,7 +43712,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1588" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -43735,7 +43738,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1589" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -43761,7 +43764,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1590" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43787,7 +43790,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1591" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43813,7 +43816,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1592" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43839,7 +43842,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1593" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43865,7 +43868,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1594" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43891,7 +43894,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1595" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43917,7 +43920,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1596" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43943,7 +43946,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1597" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43969,7 +43972,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1598" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43995,7 +43998,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1599" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44021,7 +44024,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1600" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44047,7 +44050,7 @@
         <v>2.25</v>
       </c>
       <c r="G1601" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44073,7 +44076,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1602" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44099,7 +44102,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1603" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44125,7 +44128,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1604" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44151,7 +44154,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1605" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44307,7 +44310,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1611" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44333,7 +44336,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1612" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44359,7 +44362,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1613" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44385,7 +44388,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1614" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44437,7 +44440,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1616" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44463,7 +44466,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1617" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44489,7 +44492,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1618" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44515,7 +44518,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1619" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44541,7 +44544,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1620" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44567,7 +44570,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1621" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44593,7 +44596,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1622" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44619,7 +44622,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1623" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44645,7 +44648,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1624" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44671,7 +44674,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1625" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44697,7 +44700,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1626" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -44723,7 +44726,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1627" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -44749,7 +44752,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1628" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44775,7 +44778,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1629" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44801,7 +44804,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1630" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44827,7 +44830,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1631" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44853,7 +44856,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1632" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44879,7 +44882,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1633" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44905,7 +44908,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1634" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44931,7 +44934,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1635" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44957,7 +44960,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1636" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44983,7 +44986,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1637" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45009,7 +45012,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1638" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45035,7 +45038,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1639" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45061,7 +45064,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1640" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45087,7 +45090,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1641" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45113,7 +45116,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1642" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45139,7 +45142,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1643" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45165,7 +45168,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1644" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -58875,16 +58878,16 @@
     </row>
     <row r="2172">
       <c r="A2172" s="1" t="n">
-        <v>45485.6496296296</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B2172" t="n">
         <v>11326</v>
       </c>
       <c r="C2172" t="n">
-        <v>1.98500001430511</v>
+        <v>2</v>
       </c>
       <c r="D2172" t="n">
-        <v>1.97500002384186</v>
+        <v>1.96000003814697</v>
       </c>
       <c r="E2172" t="n">
         <v>1.97500002384186</v>
@@ -58896,6 +58899,32 @@
         <v>691</v>
       </c>
       <c r="H2172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45488.5984490741</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>1807</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>1.97500002384186</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>1.9650000333786</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>1.9650000333786</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>1.97500002384186</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>692</v>
+      </c>
+      <c r="H2173" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AC5.MI.xlsx
+++ b/data/AC5.MI.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">1.17184603214264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1711049079895</t>
+    <t xml:space="preserve">1.17110502719879</t>
   </si>
   <si>
     <t xml:space="preserve">1.13997435569763</t>
@@ -65,22 +65,22 @@
     <t xml:space="preserve">1.14886868000031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13478577136993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12811505794525</t>
+    <t xml:space="preserve">1.13478589057922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12811481952667</t>
   </si>
   <si>
     <t xml:space="preserve">1.04065275192261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982097625732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.963567435741425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03398203849792</t>
+    <t xml:space="preserve">0.982097506523132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.963567316532135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03398180007935</t>
   </si>
   <si>
     <t xml:space="preserve">1.08141911029816</t>
@@ -92,22 +92,22 @@
     <t xml:space="preserve">1.05992412567139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09772562980652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07400691509247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07919549942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06733632087708</t>
+    <t xml:space="preserve">1.09772539138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07400703430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07919538021088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06733620166779</t>
   </si>
   <si>
     <t xml:space="preserve">1.0873486995697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06807744503021</t>
+    <t xml:space="preserve">1.0680775642395</t>
   </si>
   <si>
     <t xml:space="preserve">1.06214761734009</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">0.936884045600891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953190386295319</t>
+    <t xml:space="preserve">0.953190505504608</t>
   </si>
   <si>
     <t xml:space="preserve">0.959861218929291</t>
@@ -128,25 +128,25 @@
     <t xml:space="preserve">0.977650344371796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02582848072052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00952196121216</t>
+    <t xml:space="preserve">1.02582859992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00952208042145</t>
   </si>
   <si>
     <t xml:space="preserve">1.00062775611877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00136888027191</t>
+    <t xml:space="preserve">1.00136876106262</t>
   </si>
   <si>
     <t xml:space="preserve">1.04509997367859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03842926025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02953457832336</t>
+    <t xml:space="preserve">1.03842902183533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02953469753265</t>
   </si>
   <si>
     <t xml:space="preserve">1.03175818920135</t>
@@ -155,40 +155,40 @@
     <t xml:space="preserve">1.01915764808655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03101706504822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02805233001709</t>
+    <t xml:space="preserve">1.03101718425751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0280522108078</t>
   </si>
   <si>
     <t xml:space="preserve">1.03768801689148</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05844175815582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05621802806854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04139399528503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06362998485565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04658222198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04732358455658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05177068710327</t>
+    <t xml:space="preserve">1.05844163894653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05621814727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04139387607574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06363010406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04658234119415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04732370376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05177092552185</t>
   </si>
   <si>
     <t xml:space="preserve">1.04287624359131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02434611320496</t>
+    <t xml:space="preserve">1.02434623241425</t>
   </si>
   <si>
     <t xml:space="preserve">1.04880607128143</t>
@@ -197,25 +197,25 @@
     <t xml:space="preserve">1.0747481584549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06066536903381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08216023445129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14442145824432</t>
+    <t xml:space="preserve">1.06066524982452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08216035366058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14442157745361</t>
   </si>
   <si>
     <t xml:space="preserve">1.14516270160675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12885630130768</t>
+    <t xml:space="preserve">1.12885618209839</t>
   </si>
   <si>
     <t xml:space="preserve">1.1340446472168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22966027259827</t>
+    <t xml:space="preserve">1.22966039180756</t>
   </si>
   <si>
     <t xml:space="preserve">1.2155773639679</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">1.17777585983276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1859290599823</t>
+    <t xml:space="preserve">1.18592917919159</t>
   </si>
   <si>
     <t xml:space="preserve">1.20075333118439</t>
@@ -233,43 +233,43 @@
     <t xml:space="preserve">1.16221034526825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14219796657562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20816504955292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20668292045593</t>
+    <t xml:space="preserve">1.14219784736633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20816516876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20668280124664</t>
   </si>
   <si>
     <t xml:space="preserve">1.19408214092255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18296420574188</t>
+    <t xml:space="preserve">1.18296432495117</t>
   </si>
   <si>
     <t xml:space="preserve">1.18222308158875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17481100559235</t>
+    <t xml:space="preserve">1.17481088638306</t>
   </si>
   <si>
     <t xml:space="preserve">1.19111752510071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22076559066772</t>
+    <t xml:space="preserve">1.22076570987701</t>
   </si>
   <si>
     <t xml:space="preserve">1.21780097484589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22891914844513</t>
+    <t xml:space="preserve">1.22891891002655</t>
   </si>
   <si>
     <t xml:space="preserve">1.24596667289734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26004981994629</t>
+    <t xml:space="preserve">1.26004993915558</t>
   </si>
   <si>
     <t xml:space="preserve">1.26079094409943</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">1.2548611164093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27265012264252</t>
+    <t xml:space="preserve">1.27265000343323</t>
   </si>
   <si>
     <t xml:space="preserve">1.27042663097382</t>
@@ -290,34 +290,34 @@
     <t xml:space="preserve">1.28561162948608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27647233009338</t>
+    <t xml:space="preserve">1.27647221088409</t>
   </si>
   <si>
     <t xml:space="preserve">1.23762965202332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23610639572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21021163463593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21325790882111</t>
+    <t xml:space="preserve">1.23610663414001</t>
+  </si>
+  <si>
+    <t xml:space=